--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="289">
   <si>
     <t xml:space="preserve">Aller</t>
   </si>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Modèle : M680_L</t>
+    <t xml:space="preserve">Modèle : M660_LT</t>
   </si>
   <si>
     <t xml:space="preserve">Class</t>
@@ -665,6 +665,18 @@
     <t xml:space="preserve">Remarque : </t>
   </si>
   <si>
+    <t xml:space="preserve">Direction 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peseux Gir. de la Maison de Commune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auvernier Gir. de Brena</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data by day</t>
   </si>
   <si>
@@ -692,16 +704,10 @@
     <t xml:space="preserve">total</t>
   </si>
   <si>
-    <t xml:space="preserve">Direction 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">light</t>
   </si>
   <si>
     <t xml:space="preserve">heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction 2</t>
   </si>
   <si>
     <t xml:space="preserve">Data speed </t>
@@ -2201,7 +2207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2209,11 +2215,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10301,7 +10307,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="216" t="str">
@@ -10311,7 +10317,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="216" t="str">
@@ -10331,17 +10337,17 @@
     <row r="8" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D9" s="218" t="n">
         <f aca="false">Data1!J2</f>
         <v>0</v>
       </c>
       <c r="M9" s="219" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W9" s="220" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10350,7 +10356,7 @@
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="221" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D12" s="221"/>
       <c r="E12" s="221"/>
@@ -10362,7 +10368,7 @@
       <c r="K12" s="221"/>
       <c r="L12" s="222"/>
       <c r="M12" s="221" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N12" s="221"/>
       <c r="O12" s="221"/>
@@ -10374,7 +10380,7 @@
       <c r="U12" s="221"/>
       <c r="V12" s="222"/>
       <c r="W12" s="221" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X12" s="221"/>
       <c r="Y12" s="221"/>
@@ -10388,7 +10394,7 @@
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="224"/>
       <c r="B13" s="225" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C13" s="226" t="s">
         <v>31</v>
@@ -10412,10 +10418,10 @@
         <v>37</v>
       </c>
       <c r="J13" s="230" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K13" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L13" s="224"/>
       <c r="M13" s="226" t="str">
@@ -13344,7 +13350,7 @@
     </row>
     <row r="40" s="224" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="245" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C40" s="246" t="n">
         <f aca="false">SUM(C14:C37)</f>
@@ -13560,7 +13566,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="254" t="str">
         <f aca="false">Data1!A2</f>
@@ -13569,7 +13575,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -13610,7 +13616,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B8" s="258" t="str">
         <f aca="false">B3</f>
@@ -13640,7 +13646,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B11" s="263" t="str">
         <f aca="false">Data2!BI9</f>
@@ -13672,7 +13678,7 @@
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="266" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K11" s="261"/>
     </row>
@@ -14665,7 +14671,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" s="276" t="n">
         <f aca="false">SUM(B12:B35)/Data_category!$L$29</f>
@@ -14706,7 +14712,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B38" s="280" t="n">
         <f aca="false">SUM(B18:B33)/Data_category!$L$29</f>
@@ -14747,7 +14753,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" s="284" t="n">
         <f aca="false">B37-B38</f>
@@ -14797,7 +14803,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B41" s="216" t="str">
         <f aca="false">B4</f>
@@ -14827,7 +14833,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B44" s="290" t="str">
         <f aca="false">B11</f>
@@ -14859,7 +14865,7 @@
       </c>
       <c r="I44" s="80"/>
       <c r="J44" s="266" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K44" s="261"/>
     </row>
@@ -15852,7 +15858,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B70" s="276" t="n">
         <f aca="false">SUM(B45:B68)/Data_category!$L$57</f>
@@ -15893,7 +15899,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B71" s="280" t="n">
         <f aca="false">SUM(B51:B66)/Data_category!$L$57</f>
@@ -15934,7 +15940,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B72" s="284" t="n">
         <f aca="false">B70-B71</f>
@@ -16128,7 +16134,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="56" t="str">
         <f aca="false">Data1!A2</f>
@@ -16137,7 +16143,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -16181,7 +16187,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B8" s="216" t="str">
         <f aca="false">B3</f>
@@ -16219,7 +16225,7 @@
       <c r="H11" s="213"/>
       <c r="I11" s="308"/>
       <c r="J11" s="309" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K11" s="261"/>
     </row>
@@ -16688,7 +16694,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B38" s="276" t="n">
         <f aca="false">SWISS7_H!B37</f>
@@ -16727,7 +16733,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B39" s="280" t="n">
         <f aca="false">SWISS7_H!B38</f>
@@ -16766,7 +16772,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B40" s="284" t="n">
         <f aca="false">SWISS7_H!B39</f>
@@ -16805,7 +16811,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B43" s="216" t="str">
         <f aca="false">B4</f>
@@ -16840,7 +16846,7 @@
       <c r="H46" s="295"/>
       <c r="I46" s="295"/>
       <c r="J46" s="266" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K46" s="261"/>
     </row>
@@ -17309,7 +17315,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B73" s="276" t="n">
         <f aca="false">SWISS7_H!B70</f>
@@ -17348,7 +17354,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B74" s="280" t="n">
         <f aca="false">SWISS7_H!B71</f>
@@ -17387,7 +17393,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B75" s="284" t="n">
         <f aca="false">SWISS7_H!B72</f>
@@ -17500,7 +17506,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="254" t="str">
         <f aca="false">Data1!A2</f>
@@ -17509,7 +17515,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -17556,7 +17562,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B8" s="258" t="str">
         <f aca="false">B3</f>
@@ -17580,15 +17586,15 @@
       <c r="K10" s="289"/>
       <c r="L10" s="332"/>
       <c r="M10" s="260" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N10" s="261" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B11" s="290" t="str">
         <f aca="false">Data2!BI11</f>
@@ -17632,7 +17638,7 @@
       </c>
       <c r="L11" s="100"/>
       <c r="M11" s="266" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N11" s="261"/>
     </row>
@@ -18935,7 +18941,7 @@
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" s="276" t="n">
         <f aca="false">SUM(B12:B35)/Data_category!$L$29</f>
@@ -18989,7 +18995,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B38" s="280" t="n">
         <f aca="false">SUM(B18:B33)/Data_category!$L$29</f>
@@ -19043,7 +19049,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" s="284" t="n">
         <f aca="false">B37-B38</f>
@@ -19107,7 +19113,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B41" s="216" t="str">
         <f aca="false">B4</f>
@@ -19131,7 +19137,7 @@
       <c r="K43" s="289"/>
       <c r="L43" s="332"/>
       <c r="M43" s="260" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N43" s="261" t="str">
         <f aca="false">N10</f>
@@ -19140,7 +19146,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B44" s="290" t="str">
         <f aca="false">B11</f>
@@ -19184,7 +19190,7 @@
       </c>
       <c r="L44" s="100"/>
       <c r="M44" s="266" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N44" s="261"/>
     </row>
@@ -20487,7 +20493,7 @@
     <row r="69" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B70" s="276" t="n">
         <f aca="false">SUM(B45:B68)/Data_category!$L$57</f>
@@ -20541,7 +20547,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B71" s="280" t="n">
         <f aca="false">SUM(B51:B66)/Data_category!$L$57</f>
@@ -20595,7 +20601,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B72" s="284" t="n">
         <f aca="false">B70-B71</f>
@@ -20823,7 +20829,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="56" t="str">
         <f aca="false">Data1!A2</f>
@@ -20832,7 +20838,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -20882,7 +20888,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B8" s="216" t="str">
         <f aca="false">B3</f>
@@ -20908,7 +20914,7 @@
       <c r="L10" s="306"/>
       <c r="M10" s="307"/>
       <c r="N10" s="261" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20925,7 +20931,7 @@
       <c r="K11" s="213"/>
       <c r="L11" s="308"/>
       <c r="M11" s="309" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N11" s="261"/>
     </row>
@@ -21478,7 +21484,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B38" s="276" t="n">
         <f aca="false">SWISS10_H!B37</f>
@@ -21529,7 +21535,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B39" s="280" t="n">
         <f aca="false">SWISS10_H!B38</f>
@@ -21580,7 +21586,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B40" s="284" t="n">
         <f aca="false">SWISS10_H!B39</f>
@@ -21631,7 +21637,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B43" s="216" t="str">
         <f aca="false">B4</f>
@@ -21672,7 +21678,7 @@
       <c r="K46" s="295"/>
       <c r="L46" s="295"/>
       <c r="M46" s="266" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N46" s="261"/>
     </row>
@@ -22225,7 +22231,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B73" s="276" t="n">
         <f aca="false">SWISS10_H!B70</f>
@@ -22276,7 +22282,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B74" s="280" t="n">
         <f aca="false">SWISS10_H!B71</f>
@@ -22327,7 +22333,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B75" s="284" t="n">
         <f aca="false">SWISS10_H!B72</f>
@@ -22457,7 +22463,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="56" t="str">
         <f aca="false">Data1!A2</f>
@@ -22466,7 +22472,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -22518,7 +22524,7 @@
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B10" s="216" t="str">
         <f aca="false">B3</f>
@@ -22567,11 +22573,11 @@
       <c r="L12" s="289"/>
       <c r="M12" s="289"/>
       <c r="O12" s="260" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P12" s="332"/>
       <c r="R12" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
@@ -22580,7 +22586,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B13" s="290" t="str">
         <f aca="false">FIXED(Data!AO8,0)&amp;" km/h"</f>
@@ -22631,20 +22637,20 @@
         <v>&gt; 130 km/h</v>
       </c>
       <c r="O13" s="342" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P13" s="5"/>
       <c r="R13" s="343" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S13" s="344" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T13" s="345" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U13" s="346" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24438,7 +24444,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B40" s="358" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
@@ -24512,7 +24518,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B41" s="362" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -24586,7 +24592,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B42" s="366" t="n">
         <f aca="false">B40-B41</f>
@@ -24678,7 +24684,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B46" s="216" t="str">
         <f aca="false">B4</f>
@@ -24744,7 +24750,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B49" s="290" t="str">
         <f aca="false">B13</f>
@@ -26607,7 +26613,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B76" s="358" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
@@ -26681,7 +26687,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B77" s="362" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -26755,7 +26761,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B78" s="366" t="n">
         <f aca="false">B76-B77</f>
@@ -26918,7 +26924,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="56" t="str">
         <f aca="false">Data1!A2</f>
@@ -26927,7 +26933,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -26981,7 +26987,7 @@
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B10" s="216" t="str">
         <f aca="false">B3</f>
@@ -27032,11 +27038,11 @@
       <c r="M12" s="289"/>
       <c r="N12" s="374"/>
       <c r="P12" s="260" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="332"/>
       <c r="S12" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
@@ -27044,7 +27050,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B13" s="290" t="str">
         <f aca="false">FIXED(Data!AO8,0)&amp;" km/h"</f>
@@ -27096,20 +27102,20 @@
       </c>
       <c r="N13" s="293"/>
       <c r="P13" s="342" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="S13" s="343" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T13" s="344" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U13" s="345" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V13" s="346" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29000,7 +29006,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B40" s="358" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
@@ -29078,7 +29084,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B41" s="362" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -29156,7 +29162,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B42" s="366" t="n">
         <f aca="false">B40-B41</f>
@@ -29252,7 +29258,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B46" s="216" t="str">
         <f aca="false">B4</f>
@@ -29320,7 +29326,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B49" s="290" t="str">
         <f aca="false">B13</f>
@@ -31281,7 +31287,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B76" s="358" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
@@ -31359,7 +31365,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="279" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B77" s="362" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -31437,7 +31443,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="283" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B78" s="366" t="n">
         <f aca="false">B76-B77</f>
@@ -36955,15 +36961,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="119.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
@@ -37054,6 +37060,22 @@
       </c>
       <c r="B12" s="49" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -37085,7 +37107,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37095,28 +37117,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37841,7 +37863,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B5:B28)</f>
@@ -37879,33 +37901,33 @@
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38630,7 +38652,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="false">SUM(B33:B56)</f>
@@ -38668,7 +38690,7 @@
     <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B59" s="49" t="n">
         <v>7028</v>
@@ -38694,7 +38716,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B60" s="49" t="n">
         <v>85</v>
@@ -38721,33 +38743,33 @@
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="50" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39472,7 +39494,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B88" s="1" t="n">
         <f aca="false">SUM(B64:B87)</f>
@@ -39509,7 +39531,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B90" s="49" t="n">
         <v>7043</v>
@@ -39535,7 +39557,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B91" s="49" t="n">
         <v>115</v>
@@ -39588,12 +39610,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -40743,7 +40765,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B5:B28)</f>
@@ -40805,7 +40827,7 @@
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -41955,7 +41977,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="false">SUM(B33:B56)</f>
@@ -42043,12 +42065,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42925,7 +42947,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B5:B28)</f>
@@ -42975,7 +42997,7 @@
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43852,7 +43874,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="false">SUM(B33:B56)</f>
@@ -43917,7 +43939,7 @@
   </sheetPr>
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -43952,7 +43974,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="56" t="str">
         <f aca="false">Data1!A2</f>
@@ -43961,7 +43983,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -43987,7 +44009,7 @@
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -44000,20 +44022,20 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
       <c r="F9" s="60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I9" s="60"/>
       <c r="J9" s="61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K9" s="61"/>
     </row>
@@ -44025,25 +44047,25 @@
         <v>38</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J10" s="65" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44341,7 +44363,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B20" s="92"/>
       <c r="C20" s="93" t="n">
@@ -44383,7 +44405,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="95" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B21" s="96"/>
       <c r="C21" s="97" t="n">
@@ -44425,7 +44447,7 @@
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C22" s="25" t="n">
         <f aca="false">Data1!J2</f>
@@ -44458,7 +44480,7 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="103"/>
@@ -44468,11 +44490,11 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="104" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D27" s="104"/>
       <c r="E27" s="105" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F27" s="105"/>
       <c r="H27" s="51"/>
@@ -44480,7 +44502,7 @@
     </row>
     <row r="28" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="106" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="108" t="n">
@@ -44497,7 +44519,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B29" s="111"/>
       <c r="C29" s="112" t="n">
@@ -44514,7 +44536,7 @@
     </row>
     <row r="30" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B30" s="111"/>
       <c r="C30" s="112" t="n">
@@ -44531,7 +44553,7 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B31" s="111"/>
       <c r="C31" s="112" t="n">
@@ -44548,7 +44570,7 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B32" s="115"/>
       <c r="C32" s="116" t="n">
@@ -44575,7 +44597,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B34" s="120"/>
       <c r="C34" s="108" t="n">
@@ -44588,7 +44610,7 @@
       </c>
       <c r="F34" s="109"/>
       <c r="H34" s="121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I34" s="121"/>
       <c r="J34" s="121"/>
@@ -44596,7 +44618,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="114" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B35" s="122"/>
       <c r="C35" s="116" t="n">
@@ -44660,7 +44682,7 @@
     </row>
     <row r="41" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="103" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D41" s="103"/>
       <c r="E41" s="103"/>
@@ -44734,7 +44756,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="133" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B44" s="134"/>
       <c r="C44" s="71" t="n">
@@ -44776,7 +44798,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="137" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B45" s="138"/>
       <c r="C45" s="75" t="n">
@@ -44818,7 +44840,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="137" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B46" s="138"/>
       <c r="C46" s="75" t="n">
@@ -44860,7 +44882,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="137" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" s="138"/>
       <c r="C47" s="75" t="n">
@@ -44902,7 +44924,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="144" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B48" s="145"/>
       <c r="C48" s="78" t="n">
@@ -44957,7 +44979,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B50" s="120"/>
       <c r="C50" s="7" t="n">
@@ -44999,7 +45021,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="114" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B51" s="122"/>
       <c r="C51" s="90" t="n">
@@ -45053,7 +45075,7 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="154"/>
       <c r="B53" s="155" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C53" s="156" t="n">
         <f aca="false">AVERAGE(C44:C48)</f>
@@ -45095,7 +45117,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="162"/>
       <c r="B54" s="163" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C54" s="164" t="n">
         <f aca="false">AVERAGE(C44:C48,C50:C51)</f>
@@ -45216,7 +45238,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" s="56" t="str">
         <f aca="false">Data1!A2</f>
@@ -45225,7 +45247,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">Data1!G2</f>
@@ -45282,31 +45304,31 @@
         <v>38</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J9" s="63" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="171"/>
       <c r="B10" s="172" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C10" s="93" t="n">
         <f aca="false">CV_H!C20</f>
@@ -45348,7 +45370,7 @@
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="178"/>
       <c r="B11" s="179" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C11" s="180" t="n">
         <f aca="false">CV_H!C21</f>
@@ -45389,19 +45411,19 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="186" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B32" s="186"/>
       <c r="C32" s="186"/>
       <c r="D32" s="186"/>
       <c r="E32" s="80"/>
       <c r="F32" s="186" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G32" s="186"/>
       <c r="H32" s="186"/>
@@ -45409,19 +45431,19 @@
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="186" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="186" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C33" s="186" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="187" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F33" s="186" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G33" s="186"/>
       <c r="H33" s="186" t="str">
@@ -45429,7 +45451,7 @@
         <v>% de TJMO</v>
       </c>
       <c r="I33" s="187" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45470,7 +45492,7 @@
         <v>21.6</v>
       </c>
       <c r="F35" s="192" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G35" s="192"/>
       <c r="H35" s="193"/>
@@ -45493,7 +45515,7 @@
         <v>18.2</v>
       </c>
       <c r="F36" s="192" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G36" s="192"/>
       <c r="H36" s="193" t="n">
@@ -45543,7 +45565,7 @@
         <v>75.4</v>
       </c>
       <c r="F38" s="192" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G38" s="192"/>
       <c r="H38" s="193"/>
@@ -45566,7 +45588,7 @@
         <v>160.6</v>
       </c>
       <c r="F39" s="192" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G39" s="192"/>
       <c r="H39" s="193" t="n">
@@ -45616,7 +45638,7 @@
         <v>1138.6</v>
       </c>
       <c r="F41" s="192" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G41" s="192"/>
       <c r="H41" s="193"/>
@@ -45639,7 +45661,7 @@
         <v>887.4</v>
       </c>
       <c r="F42" s="192" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G42" s="192"/>
       <c r="H42" s="193" t="n">
@@ -45689,7 +45711,7 @@
         <v>737</v>
       </c>
       <c r="F44" s="192" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G44" s="192"/>
       <c r="H44" s="193"/>
@@ -45712,7 +45734,7 @@
         <v>924.2</v>
       </c>
       <c r="F45" s="192" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G45" s="192"/>
       <c r="H45" s="193" t="n">
@@ -45762,7 +45784,7 @@
         <v>987.6</v>
       </c>
       <c r="F47" s="192" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G47" s="192"/>
       <c r="H47" s="193"/>
@@ -45785,7 +45807,7 @@
         <v>826.8</v>
       </c>
       <c r="F48" s="192" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G48" s="192"/>
       <c r="H48" s="193" t="n">
@@ -45835,7 +45857,7 @@
         <v>1224.2</v>
       </c>
       <c r="F50" s="203" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G50" s="203"/>
       <c r="H50" s="203"/>
@@ -45893,10 +45915,10 @@
         <v>% de TJMO</v>
       </c>
       <c r="I52" s="186" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="186" t="s">
         <v>252</v>
-      </c>
-      <c r="J52" s="186" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45938,7 +45960,7 @@
         <v>485.4</v>
       </c>
       <c r="F54" s="192" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G54" s="192"/>
       <c r="H54" s="207" t="n">
@@ -45993,7 +46015,7 @@
         <v>389.4</v>
       </c>
       <c r="F56" s="192" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G56" s="192"/>
       <c r="H56" s="207" t="n">

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="307">
   <si>
     <t xml:space="preserve">Aller</t>
   </si>
@@ -899,10 +899,55 @@
     <t xml:space="preserve">Dir 2 : </t>
   </si>
   <si>
+    <t xml:space="preserve">Véhicules légers : MR (2) + PW (11) + LIE (12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Véhicules lourds : CAR (1) + LW (8) + LZ (9) + SZ (10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Part du TJM</t>
   </si>
   <si>
+    <t xml:space="preserve">Véhicules légers : MR (2) + PW (3) + PW+AH(4) + LIE (5) + LIE+AH(6) + LIE+AL(7)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vitesses caractéristiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 130 km/h</t>
   </si>
   <si>
     <t xml:space="preserve">Véh/h</t>
@@ -918,6 +963,15 @@
   </si>
   <si>
     <t xml:space="preserve">Vmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 120 km/h</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2059,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="373">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3050,15 +3104,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3079,10 +3133,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3154,10 +3204,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3214,7 +3260,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3334,15 +3380,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10277,7 +10319,7 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -10308,11 +10350,7 @@
         <f aca="false">Data_count!B4</f>
         <v>Periode de comptage du 8/5/2017 au 14/5/2017</v>
       </c>
-      <c r="G2" s="0"/>
       <c r="J2" s="52"/>
-      <c r="K2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="P2" s="0"/>
       <c r="R2" s="56" t="str">
         <f aca="false">Data_count!B5</f>
         <v>Comptage 2017</v>
@@ -10329,9 +10367,6 @@
       </c>
       <c r="G3" s="56"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="P3" s="0"/>
       <c r="AE3" s="57" t="str">
         <f aca="false">Data_count!B7</f>
         <v>Modèle : M660_LT</v>
@@ -10346,9 +10381,6 @@
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="P4" s="0"/>
       <c r="AE4" s="57" t="str">
         <f aca="false">Data_count!B8</f>
         <v>Classification : SWISS10</v>
@@ -10363,9 +10395,6 @@
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="P5" s="0"/>
       <c r="R5" s="60" t="str">
         <f aca="false">Data_count!B11</f>
         <v>Rte de la Gare</v>
@@ -10384,7 +10413,6 @@
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="55"/>
       <c r="C7" s="59"/>
-      <c r="F7" s="0"/>
       <c r="G7" s="61"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
@@ -13589,7 +13617,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13670,7 +13698,7 @@
       <c r="C6" s="59"/>
       <c r="J6" s="52"/>
     </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="55"/>
       <c r="C7" s="59"/>
       <c r="F7" s="60" t="str">
@@ -13681,7 +13709,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="55"/>
       <c r="C8" s="59"/>
       <c r="F8" s="60"/>
@@ -13723,33 +13751,26 @@
       <c r="A12" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="261" t="str">
-        <f aca="false">Data2!BI9</f>
-        <v>CAR (1)</v>
-      </c>
-      <c r="C12" s="189" t="str">
-        <f aca="false">Data2!BJ9</f>
-        <v>MR (2)</v>
-      </c>
-      <c r="D12" s="262" t="str">
-        <f aca="false">Data2!BK9</f>
-        <v>PW (11)</v>
-      </c>
-      <c r="E12" s="189" t="str">
-        <f aca="false">Data2!BM9</f>
-        <v>LIE (12)</v>
-      </c>
-      <c r="F12" s="262" t="str">
-        <f aca="false">Data2!BP9</f>
-        <v>LW (8)</v>
-      </c>
-      <c r="G12" s="189" t="str">
-        <f aca="false">Data2!BQ9</f>
-        <v>LZ (9)</v>
-      </c>
-      <c r="H12" s="263" t="str">
-        <f aca="false">Data2!BR9</f>
-        <v>SZ (10)</v>
+      <c r="B12" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="189" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="262" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="189" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="262" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="189" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="263" t="s">
+        <v>141</v>
       </c>
       <c r="I12" s="83"/>
       <c r="J12" s="264" t="s">
@@ -14004,7 +14025,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="269" t="s">
+      <c r="A19" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="266" t="n">
@@ -14076,7 +14097,7 @@
         <f aca="false">Data_category!H12</f>
         <v>2</v>
       </c>
-      <c r="J20" s="270" t="n">
+      <c r="J20" s="269" t="n">
         <f aca="false">CV_C!U21</f>
         <v>363</v>
       </c>
@@ -14414,7 +14435,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="269" t="s">
+      <c r="A29" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="266" t="n">
@@ -14486,7 +14507,7 @@
         <f aca="false">Data_category!H22</f>
         <v>0</v>
       </c>
-      <c r="J30" s="270" t="n">
+      <c r="J30" s="269" t="n">
         <f aca="false">CV_C!U31</f>
         <v>823.428571428572</v>
       </c>
@@ -14701,7 +14722,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="271" t="s">
+      <c r="A36" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="266" t="n">
@@ -14732,7 +14753,7 @@
         <f aca="false">Data_category!H28</f>
         <v>0</v>
       </c>
-      <c r="J36" s="272" t="n">
+      <c r="J36" s="271" t="n">
         <f aca="false">CV_C!U37</f>
         <v>111.142857142857</v>
       </c>
@@ -14742,127 +14763,127 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H37" s="273"/>
+      <c r="H37" s="272"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="274" t="n">
+      <c r="B38" s="273" t="n">
         <f aca="false">SUM(B13:B36)/Data_category!$L$29</f>
         <v>0.00489279032954382</v>
       </c>
-      <c r="C38" s="274" t="n">
+      <c r="C38" s="273" t="n">
         <f aca="false">SUM(C13:C36)/Data_category!$L$29</f>
         <v>0.0236210760027136</v>
       </c>
-      <c r="D38" s="274" t="n">
+      <c r="D38" s="273" t="n">
         <f aca="false">SUM(D13:D36)/Data_category!$L$29</f>
         <v>0.922948831280965</v>
       </c>
-      <c r="E38" s="274" t="n">
+      <c r="E38" s="273" t="n">
         <f aca="false">SUM(E13:E36)/Data_category!$L$29</f>
         <v>0.00222025779659972</v>
       </c>
-      <c r="F38" s="274" t="n">
+      <c r="F38" s="273" t="n">
         <f aca="false">SUM(F13:F36)/Data_category!$L$29</f>
         <v>0.0351129658943733</v>
       </c>
-      <c r="G38" s="274" t="n">
+      <c r="G38" s="273" t="n">
         <f aca="false">SUM(G13:G36)/Data_category!$L$29</f>
         <v>0.00238472133708858</v>
       </c>
-      <c r="H38" s="274" t="n">
+      <c r="H38" s="273" t="n">
         <f aca="false">SUM(H13:H36)/Data_category!$L$29</f>
         <v>0.000616738276833254</v>
       </c>
-      <c r="J38" s="275" t="n">
+      <c r="J38" s="274" t="n">
         <f aca="false">SUM(J13:J36)</f>
         <v>6949</v>
       </c>
-      <c r="K38" s="276" t="n">
+      <c r="K38" s="275" t="n">
         <f aca="false">SUM(B38:H38)</f>
         <v>0.991797380918118</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="277" t="s">
+      <c r="A39" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B39" s="278" t="n">
+      <c r="B39" s="277" t="n">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
         <v>0.00479000061673828</v>
       </c>
-      <c r="C39" s="278" t="n">
+      <c r="C39" s="277" t="n">
         <f aca="false">SUM(C19:C34)/Data_category!$L$29</f>
         <v>0.0223464835639249</v>
       </c>
-      <c r="D39" s="278" t="n">
+      <c r="D39" s="277" t="n">
         <f aca="false">SUM(D19:D34)/Data_category!$L$29</f>
         <v>0.85923976728409</v>
       </c>
-      <c r="E39" s="278" t="n">
+      <c r="E39" s="277" t="n">
         <f aca="false">SUM(E19:E34)/Data_category!$L$29</f>
         <v>0.0021791419114775</v>
       </c>
-      <c r="F39" s="278" t="n">
+      <c r="F39" s="277" t="n">
         <f aca="false">SUM(F19:F34)/Data_category!$L$29</f>
         <v>0.0332627510638735</v>
       </c>
-      <c r="G39" s="278" t="n">
+      <c r="G39" s="277" t="n">
         <f aca="false">SUM(G19:G34)/Data_category!$L$29</f>
         <v>0.00232304750940526</v>
       </c>
-      <c r="H39" s="278" t="n">
+      <c r="H39" s="277" t="n">
         <f aca="false">SUM(H19:H34)/Data_category!$L$29</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="J39" s="279" t="n">
+      <c r="J39" s="278" t="n">
         <f aca="false">SUM(J19:J34)</f>
         <v>6475</v>
       </c>
-      <c r="K39" s="280" t="n">
+      <c r="K39" s="279" t="n">
         <f aca="false">SUM(B39:H39)</f>
         <v>0.924655140513537</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="281" t="s">
+      <c r="A40" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="282" t="n">
+      <c r="B40" s="281" t="n">
         <f aca="false">B38-B39</f>
         <v>0.000102789712805543</v>
       </c>
-      <c r="C40" s="283" t="n">
+      <c r="C40" s="282" t="n">
         <f aca="false">C38-C39</f>
         <v>0.00127459243878873</v>
       </c>
-      <c r="D40" s="283" t="n">
+      <c r="D40" s="282" t="n">
         <f aca="false">D38-D39</f>
         <v>0.0637090639968752</v>
       </c>
-      <c r="E40" s="283" t="n">
+      <c r="E40" s="282" t="n">
         <f aca="false">E38-E39</f>
         <v>4.11158851222168E-005</v>
       </c>
-      <c r="F40" s="283" t="n">
+      <c r="F40" s="282" t="n">
         <f aca="false">F38-F39</f>
         <v>0.00185021483049977</v>
       </c>
-      <c r="G40" s="283" t="n">
+      <c r="G40" s="282" t="n">
         <f aca="false">G38-G39</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H40" s="284" t="n">
+      <c r="H40" s="283" t="n">
         <f aca="false">H38-H39</f>
         <v>0.000102789712805542</v>
       </c>
-      <c r="J40" s="285" t="n">
+      <c r="J40" s="284" t="n">
         <f aca="false">J38-J39</f>
         <v>474</v>
       </c>
-      <c r="K40" s="286" t="n">
+      <c r="K40" s="285" t="n">
         <f aca="false">K38-K39</f>
         <v>0.0671422404045803</v>
       </c>
@@ -14880,23 +14901,23 @@
       <c r="A42" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="B42" s="287" t="str">
+      <c r="B42" s="50" t="str">
         <f aca="false">B5</f>
         <v>Auvernier Gir. de Brena</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="288" t="str">
+      <c r="B44" s="286" t="str">
         <f aca="false">B11</f>
         <v>Distrubution des classes SWISS7 par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C44" s="288"/>
-      <c r="D44" s="288"/>
-      <c r="E44" s="288"/>
-      <c r="F44" s="288"/>
-      <c r="G44" s="288"/>
-      <c r="H44" s="288"/>
+      <c r="C44" s="286"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="286"/>
+      <c r="H44" s="286"/>
       <c r="J44" s="258" t="str">
         <f aca="false">J11</f>
         <v>THM</v>
@@ -14910,7 +14931,7 @@
       <c r="A45" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B45" s="289" t="str">
+      <c r="B45" s="287" t="str">
         <f aca="false">B12</f>
         <v>CAR (1)</v>
       </c>
@@ -14918,7 +14939,7 @@
         <f aca="false">C12</f>
         <v>MR (2)</v>
       </c>
-      <c r="D45" s="290" t="str">
+      <c r="D45" s="288" t="str">
         <f aca="false">D12</f>
         <v>PW (11)</v>
       </c>
@@ -14926,7 +14947,7 @@
         <f aca="false">E12</f>
         <v>LIE (12)</v>
       </c>
-      <c r="F45" s="291" t="str">
+      <c r="F45" s="289" t="str">
         <f aca="false">F12</f>
         <v>LW (8)</v>
       </c>
@@ -14934,7 +14955,7 @@
         <f aca="false">G12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="H45" s="292" t="str">
+      <c r="H45" s="290" t="str">
         <f aca="false">H12</f>
         <v>SZ (10)</v>
       </c>
@@ -14964,7 +14985,7 @@
         <f aca="false">Data2!BM12</f>
         <v>8</v>
       </c>
-      <c r="F46" s="293" t="n">
+      <c r="F46" s="291" t="n">
         <f aca="false">Data2!BP12</f>
         <v>2</v>
       </c>
@@ -14972,7 +14993,7 @@
         <f aca="false">Data2!BQ12</f>
         <v>0</v>
       </c>
-      <c r="H46" s="294" t="n">
+      <c r="H46" s="292" t="n">
         <f aca="false">Data2!BR12</f>
         <v>1</v>
       </c>
@@ -15005,7 +15026,7 @@
         <f aca="false">Data2!BM13</f>
         <v>7</v>
       </c>
-      <c r="F47" s="293" t="n">
+      <c r="F47" s="291" t="n">
         <f aca="false">Data2!BP13</f>
         <v>0</v>
       </c>
@@ -15013,7 +15034,7 @@
         <f aca="false">Data2!BQ13</f>
         <v>0</v>
       </c>
-      <c r="H47" s="294" t="n">
+      <c r="H47" s="292" t="n">
         <f aca="false">Data2!BR13</f>
         <v>1</v>
       </c>
@@ -15046,7 +15067,7 @@
         <f aca="false">Data2!BM14</f>
         <v>7</v>
       </c>
-      <c r="F48" s="293" t="n">
+      <c r="F48" s="291" t="n">
         <f aca="false">Data2!BP14</f>
         <v>0</v>
       </c>
@@ -15054,7 +15075,7 @@
         <f aca="false">Data2!BQ14</f>
         <v>0</v>
       </c>
-      <c r="H48" s="294" t="n">
+      <c r="H48" s="292" t="n">
         <f aca="false">Data2!BR14</f>
         <v>0</v>
       </c>
@@ -15087,7 +15108,7 @@
         <f aca="false">Data2!BM15</f>
         <v>4</v>
       </c>
-      <c r="F49" s="293" t="n">
+      <c r="F49" s="291" t="n">
         <f aca="false">Data2!BP15</f>
         <v>0</v>
       </c>
@@ -15095,7 +15116,7 @@
         <f aca="false">Data2!BQ15</f>
         <v>0</v>
       </c>
-      <c r="H49" s="294" t="n">
+      <c r="H49" s="292" t="n">
         <f aca="false">Data2!BR15</f>
         <v>0</v>
       </c>
@@ -15128,7 +15149,7 @@
         <f aca="false">Data2!BM16</f>
         <v>37</v>
       </c>
-      <c r="F50" s="293" t="n">
+      <c r="F50" s="291" t="n">
         <f aca="false">Data2!BP16</f>
         <v>5</v>
       </c>
@@ -15136,7 +15157,7 @@
         <f aca="false">Data2!BQ16</f>
         <v>0</v>
       </c>
-      <c r="H50" s="294" t="n">
+      <c r="H50" s="292" t="n">
         <f aca="false">Data2!BR16</f>
         <v>0</v>
       </c>
@@ -15169,7 +15190,7 @@
         <f aca="false">Data2!BM17</f>
         <v>45</v>
       </c>
-      <c r="F51" s="293" t="n">
+      <c r="F51" s="291" t="n">
         <f aca="false">Data2!BP17</f>
         <v>23</v>
       </c>
@@ -15177,7 +15198,7 @@
         <f aca="false">Data2!BQ17</f>
         <v>1</v>
       </c>
-      <c r="H51" s="294" t="n">
+      <c r="H51" s="292" t="n">
         <f aca="false">Data2!BR17</f>
         <v>2</v>
       </c>
@@ -15191,7 +15212,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="269" t="s">
+      <c r="A52" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="266" t="n">
@@ -15210,7 +15231,7 @@
         <f aca="false">Data2!BM18</f>
         <v>87</v>
       </c>
-      <c r="F52" s="293" t="n">
+      <c r="F52" s="291" t="n">
         <f aca="false">Data2!BP18</f>
         <v>35</v>
       </c>
@@ -15218,7 +15239,7 @@
         <f aca="false">Data2!BQ18</f>
         <v>2</v>
       </c>
-      <c r="H52" s="294" t="n">
+      <c r="H52" s="292" t="n">
         <f aca="false">Data2!BR18</f>
         <v>1</v>
       </c>
@@ -15235,7 +15256,7 @@
       <c r="A53" s="265" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="270" t="n">
+      <c r="B53" s="269" t="n">
         <f aca="false">Data2!BI19</f>
         <v>14</v>
       </c>
@@ -15243,7 +15264,7 @@
         <f aca="false">Data2!BJ19</f>
         <v>62</v>
       </c>
-      <c r="D53" s="295" t="n">
+      <c r="D53" s="293" t="n">
         <f aca="false">Data2!BK19</f>
         <v>3251</v>
       </c>
@@ -15251,7 +15272,7 @@
         <f aca="false">Data2!BM19</f>
         <v>199</v>
       </c>
-      <c r="F53" s="296" t="n">
+      <c r="F53" s="294" t="n">
         <f aca="false">Data2!BP19</f>
         <v>32</v>
       </c>
@@ -15259,11 +15280,11 @@
         <f aca="false">Data2!BQ19</f>
         <v>5</v>
       </c>
-      <c r="H53" s="297" t="n">
+      <c r="H53" s="295" t="n">
         <f aca="false">Data2!BR19</f>
         <v>8</v>
       </c>
-      <c r="J53" s="270" t="n">
+      <c r="J53" s="269" t="n">
         <f aca="false">CV_C!AE21</f>
         <v>512.428571428571</v>
       </c>
@@ -15292,7 +15313,7 @@
         <f aca="false">Data2!BM20</f>
         <v>156</v>
       </c>
-      <c r="F54" s="293" t="n">
+      <c r="F54" s="291" t="n">
         <f aca="false">Data2!BP20</f>
         <v>28</v>
       </c>
@@ -15300,7 +15321,7 @@
         <f aca="false">Data2!BQ20</f>
         <v>3</v>
       </c>
-      <c r="H54" s="294" t="n">
+      <c r="H54" s="292" t="n">
         <f aca="false">Data2!BR20</f>
         <v>7</v>
       </c>
@@ -15333,7 +15354,7 @@
         <f aca="false">Data2!BM21</f>
         <v>125</v>
       </c>
-      <c r="F55" s="293" t="n">
+      <c r="F55" s="291" t="n">
         <f aca="false">Data2!BP21</f>
         <v>30</v>
       </c>
@@ -15341,7 +15362,7 @@
         <f aca="false">Data2!BQ21</f>
         <v>2</v>
       </c>
-      <c r="H55" s="294" t="n">
+      <c r="H55" s="292" t="n">
         <f aca="false">Data2!BR21</f>
         <v>9</v>
       </c>
@@ -15374,7 +15395,7 @@
         <f aca="false">Data2!BM22</f>
         <v>153</v>
       </c>
-      <c r="F56" s="293" t="n">
+      <c r="F56" s="291" t="n">
         <f aca="false">Data2!BP22</f>
         <v>47</v>
       </c>
@@ -15382,7 +15403,7 @@
         <f aca="false">Data2!BQ22</f>
         <v>7</v>
       </c>
-      <c r="H56" s="294" t="n">
+      <c r="H56" s="292" t="n">
         <f aca="false">Data2!BR22</f>
         <v>6</v>
       </c>
@@ -15415,7 +15436,7 @@
         <f aca="false">Data2!BM23</f>
         <v>142</v>
       </c>
-      <c r="F57" s="293" t="n">
+      <c r="F57" s="291" t="n">
         <f aca="false">Data2!BP23</f>
         <v>37</v>
       </c>
@@ -15423,7 +15444,7 @@
         <f aca="false">Data2!BQ23</f>
         <v>1</v>
       </c>
-      <c r="H57" s="294" t="n">
+      <c r="H57" s="292" t="n">
         <f aca="false">Data2!BR23</f>
         <v>7</v>
       </c>
@@ -15456,7 +15477,7 @@
         <f aca="false">Data2!BM24</f>
         <v>89</v>
       </c>
-      <c r="F58" s="293" t="n">
+      <c r="F58" s="291" t="n">
         <f aca="false">Data2!BP24</f>
         <v>14</v>
       </c>
@@ -15464,7 +15485,7 @@
         <f aca="false">Data2!BQ24</f>
         <v>2</v>
       </c>
-      <c r="H58" s="294" t="n">
+      <c r="H58" s="292" t="n">
         <f aca="false">Data2!BR24</f>
         <v>3</v>
       </c>
@@ -15497,7 +15518,7 @@
         <f aca="false">Data2!BM25</f>
         <v>155</v>
       </c>
-      <c r="F59" s="293" t="n">
+      <c r="F59" s="291" t="n">
         <f aca="false">Data2!BP25</f>
         <v>23</v>
       </c>
@@ -15505,7 +15526,7 @@
         <f aca="false">Data2!BQ25</f>
         <v>1</v>
       </c>
-      <c r="H59" s="294" t="n">
+      <c r="H59" s="292" t="n">
         <f aca="false">Data2!BR25</f>
         <v>7</v>
       </c>
@@ -15538,7 +15559,7 @@
         <f aca="false">Data2!BM26</f>
         <v>134</v>
       </c>
-      <c r="F60" s="293" t="n">
+      <c r="F60" s="291" t="n">
         <f aca="false">Data2!BP26</f>
         <v>24</v>
       </c>
@@ -15546,7 +15567,7 @@
         <f aca="false">Data2!BQ26</f>
         <v>3</v>
       </c>
-      <c r="H60" s="294" t="n">
+      <c r="H60" s="292" t="n">
         <f aca="false">Data2!BR26</f>
         <v>9</v>
       </c>
@@ -15579,7 +15600,7 @@
         <f aca="false">Data2!BM27</f>
         <v>120</v>
       </c>
-      <c r="F61" s="293" t="n">
+      <c r="F61" s="291" t="n">
         <f aca="false">Data2!BP27</f>
         <v>24</v>
       </c>
@@ -15587,7 +15608,7 @@
         <f aca="false">Data2!BQ27</f>
         <v>2</v>
       </c>
-      <c r="H61" s="294" t="n">
+      <c r="H61" s="292" t="n">
         <f aca="false">Data2!BR27</f>
         <v>6</v>
       </c>
@@ -15601,7 +15622,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="269" t="s">
+      <c r="A62" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="266" t="n">
@@ -15620,7 +15641,7 @@
         <f aca="false">Data2!BM28</f>
         <v>104</v>
       </c>
-      <c r="F62" s="293" t="n">
+      <c r="F62" s="291" t="n">
         <f aca="false">Data2!BP28</f>
         <v>23</v>
       </c>
@@ -15628,7 +15649,7 @@
         <f aca="false">Data2!BQ28</f>
         <v>1</v>
       </c>
-      <c r="H62" s="294" t="n">
+      <c r="H62" s="292" t="n">
         <f aca="false">Data2!BR28</f>
         <v>7</v>
       </c>
@@ -15645,7 +15666,7 @@
       <c r="A63" s="265" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="270" t="n">
+      <c r="B63" s="269" t="n">
         <f aca="false">Data2!BI29</f>
         <v>18</v>
       </c>
@@ -15653,7 +15674,7 @@
         <f aca="false">Data2!BJ29</f>
         <v>84</v>
       </c>
-      <c r="D63" s="295" t="n">
+      <c r="D63" s="293" t="n">
         <f aca="false">Data2!BK29</f>
         <v>3649</v>
       </c>
@@ -15661,7 +15682,7 @@
         <f aca="false">Data2!BM29</f>
         <v>90</v>
       </c>
-      <c r="F63" s="296" t="n">
+      <c r="F63" s="294" t="n">
         <f aca="false">Data2!BP29</f>
         <v>10</v>
       </c>
@@ -15669,11 +15690,11 @@
         <f aca="false">Data2!BQ29</f>
         <v>2</v>
       </c>
-      <c r="H63" s="297" t="n">
+      <c r="H63" s="295" t="n">
         <f aca="false">Data2!BR29</f>
         <v>2</v>
       </c>
-      <c r="J63" s="270" t="n">
+      <c r="J63" s="269" t="n">
         <f aca="false">CV_C!AE31</f>
         <v>554.142857142857</v>
       </c>
@@ -15702,7 +15723,7 @@
         <f aca="false">Data2!BM30</f>
         <v>66</v>
       </c>
-      <c r="F64" s="293" t="n">
+      <c r="F64" s="291" t="n">
         <f aca="false">Data2!BP30</f>
         <v>1</v>
       </c>
@@ -15710,7 +15731,7 @@
         <f aca="false">Data2!BQ30</f>
         <v>0</v>
       </c>
-      <c r="H64" s="294" t="n">
+      <c r="H64" s="292" t="n">
         <f aca="false">Data2!BR30</f>
         <v>3</v>
       </c>
@@ -15743,7 +15764,7 @@
         <f aca="false">Data2!BM31</f>
         <v>45</v>
       </c>
-      <c r="F65" s="293" t="n">
+      <c r="F65" s="291" t="n">
         <f aca="false">Data2!BP31</f>
         <v>3</v>
       </c>
@@ -15751,7 +15772,7 @@
         <f aca="false">Data2!BQ31</f>
         <v>0</v>
       </c>
-      <c r="H65" s="294" t="n">
+      <c r="H65" s="292" t="n">
         <f aca="false">Data2!BR31</f>
         <v>1</v>
       </c>
@@ -15784,7 +15805,7 @@
         <f aca="false">Data2!BM32</f>
         <v>17</v>
       </c>
-      <c r="F66" s="293" t="n">
+      <c r="F66" s="291" t="n">
         <f aca="false">Data2!BP32</f>
         <v>0</v>
       </c>
@@ -15792,7 +15813,7 @@
         <f aca="false">Data2!BQ32</f>
         <v>1</v>
       </c>
-      <c r="H66" s="294" t="n">
+      <c r="H66" s="292" t="n">
         <f aca="false">Data2!BR32</f>
         <v>0</v>
       </c>
@@ -15825,7 +15846,7 @@
         <f aca="false">Data2!BM33</f>
         <v>13</v>
       </c>
-      <c r="F67" s="293" t="n">
+      <c r="F67" s="291" t="n">
         <f aca="false">Data2!BP33</f>
         <v>1</v>
       </c>
@@ -15833,7 +15854,7 @@
         <f aca="false">Data2!BQ33</f>
         <v>0</v>
       </c>
-      <c r="H67" s="294" t="n">
+      <c r="H67" s="292" t="n">
         <f aca="false">Data2!BR33</f>
         <v>0</v>
       </c>
@@ -15866,7 +15887,7 @@
         <f aca="false">Data2!BM34</f>
         <v>9</v>
       </c>
-      <c r="F68" s="293" t="n">
+      <c r="F68" s="291" t="n">
         <f aca="false">Data2!BP34</f>
         <v>0</v>
       </c>
@@ -15874,7 +15895,7 @@
         <f aca="false">Data2!BQ34</f>
         <v>0</v>
       </c>
-      <c r="H68" s="294" t="n">
+      <c r="H68" s="292" t="n">
         <f aca="false">Data2!BR34</f>
         <v>0</v>
       </c>
@@ -15888,38 +15909,38 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="271" t="s">
+      <c r="A69" s="270" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="272" t="n">
+      <c r="B69" s="271" t="n">
         <f aca="false">Data2!BI35</f>
         <v>0</v>
       </c>
-      <c r="C69" s="298" t="n">
+      <c r="C69" s="296" t="n">
         <f aca="false">Data2!BJ35</f>
         <v>7</v>
       </c>
-      <c r="D69" s="299" t="n">
+      <c r="D69" s="297" t="n">
         <f aca="false">Data2!BK35</f>
         <v>626</v>
       </c>
-      <c r="E69" s="298" t="n">
+      <c r="E69" s="296" t="n">
         <f aca="false">Data2!BM35</f>
         <v>7</v>
       </c>
-      <c r="F69" s="300" t="n">
+      <c r="F69" s="298" t="n">
         <f aca="false">Data2!BP35</f>
         <v>1</v>
       </c>
-      <c r="G69" s="298" t="n">
+      <c r="G69" s="296" t="n">
         <f aca="false">Data2!BQ35</f>
         <v>0</v>
       </c>
-      <c r="H69" s="301" t="n">
+      <c r="H69" s="299" t="n">
         <f aca="false">Data2!BR35</f>
         <v>1</v>
       </c>
-      <c r="J69" s="272" t="n">
+      <c r="J69" s="271" t="n">
         <f aca="false">CV_C!AE37</f>
         <v>91.7142857142857</v>
       </c>
@@ -15929,147 +15950,144 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H70" s="273"/>
+      <c r="H70" s="272"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B71" s="274" t="n">
+      <c r="B71" s="273" t="n">
         <f aca="false">SUM(B46:B69)/Data_category!$L$57</f>
         <v>0.00514905149051491</v>
       </c>
-      <c r="C71" s="274" t="n">
+      <c r="C71" s="273" t="n">
         <f aca="false">SUM(C46:C69)/Data_category!$L$57</f>
         <v>0.0210965186574943</v>
       </c>
-      <c r="D71" s="274" t="n">
+      <c r="D71" s="273" t="n">
         <f aca="false">SUM(D46:D69)/Data_category!$L$57</f>
         <v>0.919699812382739</v>
       </c>
-      <c r="E71" s="274" t="n">
+      <c r="E71" s="273" t="n">
         <f aca="false">SUM(E46:E69)/Data_category!$L$57</f>
         <v>0.0379195330414843</v>
       </c>
-      <c r="F71" s="274" t="n">
+      <c r="F71" s="273" t="n">
         <f aca="false">SUM(F46:F69)/Data_category!$L$57</f>
         <v>0.00756722951844903</v>
       </c>
-      <c r="G71" s="274" t="n">
+      <c r="G71" s="273" t="n">
         <f aca="false">SUM(G46:G69)/Data_category!$L$57</f>
         <v>0.000687929956222639</v>
       </c>
-      <c r="H71" s="274" t="n">
+      <c r="H71" s="273" t="n">
         <f aca="false">SUM(H46:H69)/Data_category!$L$57</f>
         <v>0.00168855534709193</v>
       </c>
-      <c r="J71" s="275" t="n">
+      <c r="J71" s="274" t="n">
         <f aca="false">SUM(J46:J69)</f>
         <v>6852.85714285714</v>
       </c>
-      <c r="K71" s="276" t="n">
+      <c r="K71" s="275" t="n">
         <f aca="false">SUM(B71:H71)</f>
         <v>0.993808630393996</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="277" t="s">
+      <c r="A72" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="278" t="n">
+      <c r="B72" s="277" t="n">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
         <v>0.00496143422972691</v>
       </c>
-      <c r="C72" s="278" t="n">
+      <c r="C72" s="277" t="n">
         <f aca="false">SUM(C52:C67)/Data_category!$L$57</f>
         <v>0.0197831978319783</v>
       </c>
-      <c r="D72" s="278" t="n">
+      <c r="D72" s="277" t="n">
         <f aca="false">SUM(D52:D67)/Data_category!$L$57</f>
         <v>0.856139253700229</v>
       </c>
-      <c r="E72" s="278" t="n">
+      <c r="E72" s="277" t="n">
         <f aca="false">SUM(E52:E67)/Data_category!$L$57</f>
         <v>0.0353345841150719</v>
       </c>
-      <c r="F72" s="278" t="n">
+      <c r="F72" s="277" t="n">
         <f aca="false">SUM(F52:F67)/Data_category!$L$57</f>
         <v>0.00692099228684595</v>
       </c>
-      <c r="G72" s="278" t="n">
+      <c r="G72" s="277" t="n">
         <f aca="false">SUM(G52:G67)/Data_category!$L$57</f>
         <v>0.000667083593912862</v>
       </c>
-      <c r="H72" s="278" t="n">
+      <c r="H72" s="277" t="n">
         <f aca="false">SUM(H52:H67)/Data_category!$L$57</f>
         <v>0.00158432353554305</v>
       </c>
-      <c r="J72" s="279" t="n">
+      <c r="J72" s="278" t="n">
         <f aca="false">SUM(J52:J67)</f>
         <v>6383.14285714286</v>
       </c>
-      <c r="K72" s="280" t="n">
+      <c r="K72" s="279" t="n">
         <f aca="false">SUM(B72:H72)</f>
         <v>0.925390869293308</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="281" t="s">
+      <c r="A73" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B73" s="282" t="n">
+      <c r="B73" s="281" t="n">
         <f aca="false">B71-B72</f>
         <v>0.000187617260787993</v>
       </c>
-      <c r="C73" s="283" t="n">
+      <c r="C73" s="282" t="n">
         <f aca="false">C71-C72</f>
         <v>0.00131332082551595</v>
       </c>
-      <c r="D73" s="283" t="n">
+      <c r="D73" s="282" t="n">
         <f aca="false">D71-D72</f>
         <v>0.0635605586825099</v>
       </c>
-      <c r="E73" s="283" t="n">
+      <c r="E73" s="282" t="n">
         <f aca="false">E71-E72</f>
         <v>0.00258494892641234</v>
       </c>
-      <c r="F73" s="283" t="n">
+      <c r="F73" s="282" t="n">
         <f aca="false">F71-F72</f>
         <v>0.000646237231603086</v>
       </c>
-      <c r="G73" s="283" t="n">
+      <c r="G73" s="282" t="n">
         <f aca="false">G71-G72</f>
         <v>2.08463623097769E-005</v>
       </c>
-      <c r="H73" s="284" t="n">
+      <c r="H73" s="283" t="n">
         <f aca="false">H71-H72</f>
         <v>0.000104231811548885</v>
       </c>
-      <c r="J73" s="285" t="n">
+      <c r="J73" s="284" t="n">
         <f aca="false">J71-J72</f>
         <v>469.714285714285</v>
       </c>
-      <c r="K73" s="286" t="n">
+      <c r="K73" s="285" t="n">
         <f aca="false">K71-K72</f>
         <v>0.0684177611006878</v>
       </c>
     </row>
     <row r="75" s="83" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="121" t="str">
-        <f aca="false">Data2!BI51</f>
-        <v>CAR (1) : Bus, car</v>
+      <c r="A75" s="121" t="s">
+        <v>167</v>
       </c>
       <c r="B75" s="121"/>
-      <c r="C75" s="121" t="str">
-        <f aca="false">Data2!BK51</f>
-        <v>PW (11) : Voiture de tourisme yc remorque</v>
+      <c r="C75" s="121" t="s">
+        <v>171</v>
       </c>
       <c r="D75" s="193"/>
       <c r="E75" s="121"/>
       <c r="F75" s="121"/>
-      <c r="G75" s="121" t="str">
-        <f aca="false">Data2!BP51</f>
-        <v>LW (8) : Camion</v>
+      <c r="G75" s="121" t="s">
+        <v>178</v>
       </c>
       <c r="H75" s="121"/>
       <c r="I75" s="1"/>
@@ -16077,20 +16095,17 @@
       <c r="K75" s="5"/>
     </row>
     <row r="76" s="83" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="121" t="str">
-        <f aca="false">Data2!BJ51</f>
-        <v>MR (2) : Motocycle</v>
+      <c r="A76" s="121" t="s">
+        <v>169</v>
       </c>
       <c r="B76" s="121"/>
-      <c r="C76" s="121" t="str">
-        <f aca="false">Data2!BM51</f>
-        <v>LIE (12) : Voiture de livraison yc remorque et semi</v>
+      <c r="C76" s="121" t="s">
+        <v>174</v>
       </c>
       <c r="E76" s="121"/>
       <c r="F76" s="121"/>
-      <c r="G76" s="121" t="str">
-        <f aca="false">Data2!BQ51</f>
-        <v>LZ (9) : Train routier</v>
+      <c r="G76" s="121" t="s">
+        <v>179</v>
       </c>
       <c r="H76" s="121"/>
       <c r="I76" s="1"/>
@@ -16104,30 +16119,27 @@
       <c r="D77" s="121"/>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
-      <c r="G77" s="121" t="str">
-        <f aca="false">Data2!BR51</f>
-        <v>SZ (10) :Véhicule lourd articulé</v>
+      <c r="G77" s="121" t="s">
+        <v>181</v>
       </c>
       <c r="H77" s="121"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="302" t="str">
-        <f aca="false">"Véhicules légers : "&amp;C45&amp;" + "&amp;D45&amp;" + "&amp;E45</f>
-        <v>Véhicules légers : MR (2) + PW (11) + LIE (12)</v>
-      </c>
-      <c r="B78" s="302"/>
-      <c r="C78" s="302"/>
-      <c r="D78" s="302"/>
-      <c r="E78" s="302"/>
-      <c r="F78" s="302" t="str">
-        <f aca="false">"Véhicules lourds : "&amp;B45&amp;" + "&amp;F45&amp;" + "&amp;G45&amp;" + "&amp;H45</f>
-        <v>Véhicules lourds : CAR (1) + LW (8) + LZ (9) + SZ (10)</v>
-      </c>
-      <c r="G78" s="302"/>
-      <c r="H78" s="302"/>
-      <c r="I78" s="302"/>
-      <c r="J78" s="302"/>
-      <c r="K78" s="302"/>
+      <c r="A78" s="300" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="300"/>
+      <c r="C78" s="300"/>
+      <c r="D78" s="300"/>
+      <c r="E78" s="300"/>
+      <c r="F78" s="300" t="s">
+        <v>283</v>
+      </c>
+      <c r="G78" s="300"/>
+      <c r="H78" s="300"/>
+      <c r="I78" s="300"/>
+      <c r="J78" s="300"/>
+      <c r="K78" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16176,7 +16188,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16280,26 +16292,26 @@
       <c r="A9" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="287" t="str">
+      <c r="B9" s="50" t="str">
         <f aca="false">B4</f>
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
     </row>
     <row r="10" s="224" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="303"/>
-      <c r="K10" s="303"/>
+      <c r="B10" s="301"/>
+      <c r="K10" s="301"/>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="304"/>
-      <c r="B11" s="305"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="305"/>
-      <c r="E11" s="305"/>
-      <c r="F11" s="305"/>
-      <c r="G11" s="305"/>
-      <c r="H11" s="305"/>
-      <c r="I11" s="306"/>
-      <c r="J11" s="307"/>
+      <c r="A11" s="302"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="304"/>
+      <c r="J11" s="305"/>
       <c r="K11" s="259" t="str">
         <f aca="false">SWISS10_G!N11</f>
         <v>Part du TJM</v>
@@ -16314,8 +16326,8 @@
       <c r="F12" s="215"/>
       <c r="G12" s="215"/>
       <c r="H12" s="215"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="309" t="s">
+      <c r="I12" s="306"/>
+      <c r="J12" s="307" t="s">
         <v>251</v>
       </c>
       <c r="K12" s="259"/>
@@ -16329,11 +16341,11 @@
       <c r="F13" s="215"/>
       <c r="G13" s="215"/>
       <c r="H13" s="215"/>
-      <c r="I13" s="308"/>
+      <c r="I13" s="306"/>
       <c r="J13" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="310" t="n">
+      <c r="K13" s="308" t="n">
         <f aca="false">SWISS7_H!K13</f>
         <v>0.00777090228809901</v>
       </c>
@@ -16347,11 +16359,11 @@
       <c r="F14" s="215"/>
       <c r="G14" s="215"/>
       <c r="H14" s="215"/>
-      <c r="I14" s="308"/>
+      <c r="I14" s="306"/>
       <c r="J14" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="310" t="n">
+      <c r="K14" s="308" t="n">
         <f aca="false">SWISS7_H!K14</f>
         <v>0.00320703903953292</v>
       </c>
@@ -16365,11 +16377,11 @@
       <c r="F15" s="215"/>
       <c r="G15" s="215"/>
       <c r="H15" s="215"/>
-      <c r="I15" s="308"/>
+      <c r="I15" s="306"/>
       <c r="J15" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="310" t="n">
+      <c r="K15" s="308" t="n">
         <f aca="false">SWISS7_H!K15</f>
         <v>0.00224081573916082</v>
       </c>
@@ -16383,11 +16395,11 @@
       <c r="F16" s="215"/>
       <c r="G16" s="215"/>
       <c r="H16" s="215"/>
-      <c r="I16" s="308"/>
+      <c r="I16" s="306"/>
       <c r="J16" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="310" t="n">
+      <c r="K16" s="308" t="n">
         <f aca="false">SWISS7_H!K16</f>
         <v>0.00199412042842752</v>
       </c>
@@ -16401,11 +16413,11 @@
       <c r="F17" s="215"/>
       <c r="G17" s="215"/>
       <c r="H17" s="215"/>
-      <c r="I17" s="308"/>
+      <c r="I17" s="306"/>
       <c r="J17" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="310" t="n">
+      <c r="K17" s="308" t="n">
         <f aca="false">SWISS7_H!K17</f>
         <v>0.00277532224574965</v>
       </c>
@@ -16419,11 +16431,11 @@
       <c r="F18" s="215"/>
       <c r="G18" s="215"/>
       <c r="H18" s="215"/>
-      <c r="I18" s="308"/>
+      <c r="I18" s="306"/>
       <c r="J18" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="310" t="n">
+      <c r="K18" s="308" t="n">
         <f aca="false">SWISS7_H!K18</f>
         <v>0.00624961453857698</v>
       </c>
@@ -16437,11 +16449,11 @@
       <c r="F19" s="215"/>
       <c r="G19" s="215"/>
       <c r="H19" s="215"/>
-      <c r="I19" s="308"/>
-      <c r="J19" s="309" t="s">
+      <c r="I19" s="306"/>
+      <c r="J19" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="310" t="n">
+      <c r="K19" s="308" t="n">
         <f aca="false">SWISS7_H!K19</f>
         <v>0.0248545525563802</v>
       </c>
@@ -16455,11 +16467,11 @@
       <c r="F20" s="215"/>
       <c r="G20" s="215"/>
       <c r="H20" s="215"/>
-      <c r="I20" s="308"/>
-      <c r="J20" s="311" t="s">
+      <c r="I20" s="306"/>
+      <c r="J20" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="312" t="n">
+      <c r="K20" s="310" t="n">
         <f aca="false">SWISS7_H!K20</f>
         <v>0.0522377320477767</v>
       </c>
@@ -16473,11 +16485,11 @@
       <c r="F21" s="215"/>
       <c r="G21" s="215"/>
       <c r="H21" s="215"/>
-      <c r="I21" s="308"/>
-      <c r="J21" s="311" t="s">
+      <c r="I21" s="306"/>
+      <c r="J21" s="309" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="310" t="n">
+      <c r="K21" s="308" t="n">
         <f aca="false">SWISS7_H!K21</f>
         <v>0.0480233538227494</v>
       </c>
@@ -16491,11 +16503,11 @@
       <c r="F22" s="215"/>
       <c r="G22" s="215"/>
       <c r="H22" s="215"/>
-      <c r="I22" s="308"/>
+      <c r="I22" s="306"/>
       <c r="J22" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="310" t="n">
+      <c r="K22" s="308" t="n">
         <f aca="false">SWISS7_H!K22</f>
         <v>0.0456591904282219</v>
       </c>
@@ -16509,11 +16521,11 @@
       <c r="F23" s="215"/>
       <c r="G23" s="215"/>
       <c r="H23" s="215"/>
-      <c r="I23" s="308"/>
+      <c r="I23" s="306"/>
       <c r="J23" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="310" t="n">
+      <c r="K23" s="308" t="n">
         <f aca="false">SWISS7_H!K23</f>
         <v>0.0490512509508048</v>
       </c>
@@ -16527,11 +16539,11 @@
       <c r="F24" s="215"/>
       <c r="G24" s="215"/>
       <c r="H24" s="215"/>
-      <c r="I24" s="308"/>
+      <c r="I24" s="306"/>
       <c r="J24" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="310" t="n">
+      <c r="K24" s="308" t="n">
         <f aca="false">SWISS7_H!K24</f>
         <v>0.0641613387332196</v>
       </c>
@@ -16545,11 +16557,11 @@
       <c r="F25" s="215"/>
       <c r="G25" s="215"/>
       <c r="H25" s="215"/>
-      <c r="I25" s="308"/>
+      <c r="I25" s="306"/>
       <c r="J25" s="266" t="s">
         <v>58</v>
       </c>
-      <c r="K25" s="310" t="n">
+      <c r="K25" s="308" t="n">
         <f aca="false">SWISS7_H!K25</f>
         <v>0.0594741278292868</v>
       </c>
@@ -16563,11 +16575,11 @@
       <c r="F26" s="215"/>
       <c r="G26" s="215"/>
       <c r="H26" s="215"/>
-      <c r="I26" s="308"/>
+      <c r="I26" s="306"/>
       <c r="J26" s="267" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="310" t="n">
+      <c r="K26" s="308" t="n">
         <f aca="false">SWISS7_H!K26</f>
         <v>0.0604814670147812</v>
       </c>
@@ -16581,11 +16593,11 @@
       <c r="F27" s="215"/>
       <c r="G27" s="215"/>
       <c r="H27" s="215"/>
-      <c r="I27" s="308"/>
+      <c r="I27" s="306"/>
       <c r="J27" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="310" t="n">
+      <c r="K27" s="308" t="n">
         <f aca="false">SWISS7_H!K27</f>
         <v>0.0549924963509652</v>
       </c>
@@ -16599,11 +16611,11 @@
       <c r="F28" s="215"/>
       <c r="G28" s="215"/>
       <c r="H28" s="215"/>
-      <c r="I28" s="308"/>
+      <c r="I28" s="306"/>
       <c r="J28" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="310" t="n">
+      <c r="K28" s="308" t="n">
         <f aca="false">SWISS7_H!K28</f>
         <v>0.0633184630882141</v>
       </c>
@@ -16617,11 +16629,11 @@
       <c r="F29" s="215"/>
       <c r="G29" s="215"/>
       <c r="H29" s="215"/>
-      <c r="I29" s="308"/>
-      <c r="J29" s="309" t="s">
+      <c r="I29" s="306"/>
+      <c r="J29" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="310" t="n">
+      <c r="K29" s="308" t="n">
         <f aca="false">SWISS7_H!K29</f>
         <v>0.0847398392368892</v>
       </c>
@@ -16635,11 +16647,11 @@
       <c r="F30" s="215"/>
       <c r="G30" s="215"/>
       <c r="H30" s="215"/>
-      <c r="I30" s="308"/>
-      <c r="J30" s="311" t="s">
+      <c r="I30" s="306"/>
+      <c r="J30" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="312" t="n">
+      <c r="K30" s="310" t="n">
         <f aca="false">SWISS7_H!K30</f>
         <v>0.118495980922229</v>
       </c>
@@ -16653,11 +16665,11 @@
       <c r="F31" s="215"/>
       <c r="G31" s="215"/>
       <c r="H31" s="215"/>
-      <c r="I31" s="308"/>
-      <c r="J31" s="311" t="s">
+      <c r="I31" s="306"/>
+      <c r="J31" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="310" t="n">
+      <c r="K31" s="308" t="n">
         <f aca="false">SWISS7_H!K31</f>
         <v>0.0892214707152108</v>
       </c>
@@ -16671,11 +16683,11 @@
       <c r="F32" s="215"/>
       <c r="G32" s="215"/>
       <c r="H32" s="215"/>
-      <c r="I32" s="308"/>
+      <c r="I32" s="306"/>
       <c r="J32" s="267" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="310" t="n">
+      <c r="K32" s="308" t="n">
         <f aca="false">SWISS7_H!K32</f>
         <v>0.0496268733425159</v>
       </c>
@@ -16689,11 +16701,11 @@
       <c r="F33" s="215"/>
       <c r="G33" s="215"/>
       <c r="H33" s="215"/>
-      <c r="I33" s="308"/>
+      <c r="I33" s="306"/>
       <c r="J33" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="K33" s="310" t="n">
+      <c r="K33" s="308" t="n">
         <f aca="false">SWISS7_H!K33</f>
         <v>0.0351746397220566</v>
       </c>
@@ -16707,11 +16719,11 @@
       <c r="F34" s="215"/>
       <c r="G34" s="215"/>
       <c r="H34" s="215"/>
-      <c r="I34" s="308"/>
+      <c r="I34" s="306"/>
       <c r="J34" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="310" t="n">
+      <c r="K34" s="308" t="n">
         <f aca="false">SWISS7_H!K34</f>
         <v>0.0322759698209403</v>
       </c>
@@ -16725,11 +16737,11 @@
       <c r="F35" s="215"/>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
-      <c r="I35" s="308"/>
+      <c r="I35" s="306"/>
       <c r="J35" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="310" t="n">
+      <c r="K35" s="308" t="n">
         <f aca="false">SWISS7_H!K35</f>
         <v>0.0279793598256686</v>
       </c>
@@ -16743,42 +16755,42 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="313"/>
-      <c r="J36" s="314" t="s">
+      <c r="I36" s="311"/>
+      <c r="J36" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="315" t="n">
+      <c r="K36" s="313" t="n">
         <f aca="false">SWISS7_H!K36</f>
         <v>0.0159940793125424</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="316" t="str">
+      <c r="B38" s="314" t="str">
         <f aca="false">SWISS7_H!B12</f>
         <v>CAR (1)</v>
       </c>
-      <c r="C38" s="317" t="str">
+      <c r="C38" s="315" t="str">
         <f aca="false">SWISS7_H!C12</f>
         <v>MR (2)</v>
       </c>
-      <c r="D38" s="317" t="str">
+      <c r="D38" s="315" t="str">
         <f aca="false">SWISS7_H!D12</f>
         <v>PW (11)</v>
       </c>
-      <c r="E38" s="317" t="str">
+      <c r="E38" s="315" t="str">
         <f aca="false">SWISS7_H!E12</f>
         <v>LIE (12)</v>
       </c>
-      <c r="F38" s="317" t="str">
+      <c r="F38" s="315" t="str">
         <f aca="false">SWISS7_H!F12</f>
         <v>LW (8)</v>
       </c>
-      <c r="G38" s="317" t="str">
+      <c r="G38" s="315" t="str">
         <f aca="false">SWISS7_H!G12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="H38" s="317" t="str">
+      <c r="H38" s="315" t="str">
         <f aca="false">SWISS7_H!H12</f>
         <v>SZ (10)</v>
       </c>
@@ -16787,115 +16799,115 @@
       <c r="A39" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="274" t="n">
+      <c r="B39" s="273" t="n">
         <f aca="false">SWISS7_H!B38</f>
         <v>0.00489279032954382</v>
       </c>
-      <c r="C39" s="318" t="n">
+      <c r="C39" s="316" t="n">
         <f aca="false">SWISS7_H!C38</f>
         <v>0.0236210760027136</v>
       </c>
-      <c r="D39" s="318" t="n">
+      <c r="D39" s="316" t="n">
         <f aca="false">SWISS7_H!D38</f>
         <v>0.922948831280965</v>
       </c>
-      <c r="E39" s="318" t="n">
+      <c r="E39" s="316" t="n">
         <f aca="false">SWISS7_H!E38</f>
         <v>0.00222025779659972</v>
       </c>
-      <c r="F39" s="318" t="n">
+      <c r="F39" s="316" t="n">
         <f aca="false">SWISS7_H!F38</f>
         <v>0.0351129658943733</v>
       </c>
-      <c r="G39" s="318" t="n">
+      <c r="G39" s="316" t="n">
         <f aca="false">SWISS7_H!G38</f>
         <v>0.00238472133708858</v>
       </c>
-      <c r="H39" s="318" t="n">
+      <c r="H39" s="316" t="n">
         <f aca="false">SWISS7_H!H38</f>
         <v>0.000616738276833254</v>
       </c>
-      <c r="I39" s="319"/>
+      <c r="I39" s="317"/>
       <c r="J39" s="83"/>
-      <c r="K39" s="320" t="n">
+      <c r="K39" s="318" t="n">
         <f aca="false">SWISS7_H!K38</f>
         <v>0.991797380918118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B40" s="278" t="n">
+      <c r="B40" s="277" t="n">
         <f aca="false">SWISS7_H!B39</f>
         <v>0.00479000061673828</v>
       </c>
-      <c r="C40" s="321" t="n">
+      <c r="C40" s="319" t="n">
         <f aca="false">SWISS7_H!C39</f>
         <v>0.0223464835639249</v>
       </c>
-      <c r="D40" s="321" t="n">
+      <c r="D40" s="319" t="n">
         <f aca="false">SWISS7_H!D39</f>
         <v>0.85923976728409</v>
       </c>
-      <c r="E40" s="321" t="n">
+      <c r="E40" s="319" t="n">
         <f aca="false">SWISS7_H!E39</f>
         <v>0.0021791419114775</v>
       </c>
-      <c r="F40" s="321" t="n">
+      <c r="F40" s="319" t="n">
         <f aca="false">SWISS7_H!F39</f>
         <v>0.0332627510638735</v>
       </c>
-      <c r="G40" s="321" t="n">
+      <c r="G40" s="319" t="n">
         <f aca="false">SWISS7_H!G39</f>
         <v>0.00232304750940526</v>
       </c>
-      <c r="H40" s="321" t="n">
+      <c r="H40" s="319" t="n">
         <f aca="false">SWISS7_H!H39</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="I40" s="319"/>
+      <c r="I40" s="317"/>
       <c r="J40" s="83"/>
-      <c r="K40" s="312" t="n">
+      <c r="K40" s="310" t="n">
         <f aca="false">SWISS7_H!K39</f>
         <v>0.924655140513537</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="281" t="s">
+      <c r="A41" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="282" t="n">
+      <c r="B41" s="281" t="n">
         <f aca="false">SWISS7_H!B40</f>
         <v>0.000102789712805543</v>
       </c>
-      <c r="C41" s="283" t="n">
+      <c r="C41" s="282" t="n">
         <f aca="false">SWISS7_H!C40</f>
         <v>0.00127459243878873</v>
       </c>
-      <c r="D41" s="283" t="n">
+      <c r="D41" s="282" t="n">
         <f aca="false">SWISS7_H!D40</f>
         <v>0.0637090639968752</v>
       </c>
-      <c r="E41" s="283" t="n">
+      <c r="E41" s="282" t="n">
         <f aca="false">SWISS7_H!E40</f>
         <v>4.11158851222168E-005</v>
       </c>
-      <c r="F41" s="283" t="n">
+      <c r="F41" s="282" t="n">
         <f aca="false">SWISS7_H!F40</f>
         <v>0.00185021483049977</v>
       </c>
-      <c r="G41" s="283" t="n">
+      <c r="G41" s="282" t="n">
         <f aca="false">SWISS7_H!G40</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H41" s="322" t="n">
+      <c r="H41" s="320" t="n">
         <f aca="false">SWISS7_H!H40</f>
         <v>0.000102789712805542</v>
       </c>
-      <c r="I41" s="319"/>
+      <c r="I41" s="317"/>
       <c r="J41" s="83"/>
-      <c r="K41" s="323" t="n">
+      <c r="K41" s="321" t="n">
         <f aca="false">SWISS7_H!K40</f>
         <v>0.0671422404045803</v>
       </c>
@@ -16904,23 +16916,23 @@
       <c r="A44" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="B44" s="287" t="str">
+      <c r="B44" s="50" t="str">
         <f aca="false">B5</f>
         <v>Auvernier Gir. de Brena</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="304"/>
-      <c r="B46" s="305"/>
-      <c r="C46" s="305"/>
-      <c r="D46" s="305"/>
-      <c r="E46" s="305"/>
-      <c r="F46" s="305"/>
-      <c r="G46" s="305"/>
-      <c r="H46" s="324"/>
-      <c r="I46" s="325"/>
-      <c r="J46" s="307"/>
+      <c r="A46" s="302"/>
+      <c r="B46" s="303"/>
+      <c r="C46" s="303"/>
+      <c r="D46" s="303"/>
+      <c r="E46" s="303"/>
+      <c r="F46" s="303"/>
+      <c r="G46" s="303"/>
+      <c r="H46" s="322"/>
+      <c r="I46" s="323"/>
+      <c r="J46" s="305"/>
       <c r="K46" s="259" t="str">
         <f aca="false">K11</f>
         <v>Part du TJM</v>
@@ -16934,8 +16946,8 @@
       <c r="E47" s="215"/>
       <c r="F47" s="215"/>
       <c r="G47" s="215"/>
-      <c r="H47" s="294"/>
-      <c r="I47" s="294"/>
+      <c r="H47" s="292"/>
+      <c r="I47" s="292"/>
       <c r="J47" s="264" t="s">
         <v>251</v>
       </c>
@@ -16949,12 +16961,12 @@
       <c r="E48" s="215"/>
       <c r="F48" s="215"/>
       <c r="G48" s="215"/>
-      <c r="H48" s="294"/>
-      <c r="I48" s="294"/>
+      <c r="H48" s="292"/>
+      <c r="I48" s="292"/>
       <c r="J48" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="310" t="n">
+      <c r="K48" s="308" t="n">
         <f aca="false">SWISS7_H!K46</f>
         <v>0.0058786741713571</v>
       </c>
@@ -16967,12 +16979,12 @@
       <c r="E49" s="215"/>
       <c r="F49" s="215"/>
       <c r="G49" s="215"/>
-      <c r="H49" s="294"/>
-      <c r="I49" s="294"/>
+      <c r="H49" s="292"/>
+      <c r="I49" s="292"/>
       <c r="J49" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="310" t="n">
+      <c r="K49" s="308" t="n">
         <f aca="false">SWISS7_H!K47</f>
         <v>0.002897644361059</v>
       </c>
@@ -16985,12 +16997,12 @@
       <c r="E50" s="215"/>
       <c r="F50" s="215"/>
       <c r="G50" s="215"/>
-      <c r="H50" s="294"/>
-      <c r="I50" s="294"/>
+      <c r="H50" s="292"/>
+      <c r="I50" s="292"/>
       <c r="J50" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="310" t="n">
+      <c r="K50" s="308" t="n">
         <f aca="false">SWISS7_H!K48</f>
         <v>0.00191786533249948</v>
       </c>
@@ -17003,12 +17015,12 @@
       <c r="E51" s="215"/>
       <c r="F51" s="215"/>
       <c r="G51" s="215"/>
-      <c r="H51" s="294"/>
-      <c r="I51" s="294"/>
+      <c r="H51" s="292"/>
+      <c r="I51" s="292"/>
       <c r="J51" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="K51" s="310" t="n">
+      <c r="K51" s="308" t="n">
         <f aca="false">SWISS7_H!K49</f>
         <v>0.0021680216802168</v>
       </c>
@@ -17021,12 +17033,12 @@
       <c r="E52" s="215"/>
       <c r="F52" s="215"/>
       <c r="G52" s="215"/>
-      <c r="H52" s="294"/>
-      <c r="I52" s="294"/>
+      <c r="H52" s="292"/>
+      <c r="I52" s="292"/>
       <c r="J52" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="K52" s="310" t="n">
+      <c r="K52" s="308" t="n">
         <f aca="false">SWISS7_H!K50</f>
         <v>0.00685845319991662</v>
       </c>
@@ -17039,12 +17051,12 @@
       <c r="E53" s="215"/>
       <c r="F53" s="215"/>
       <c r="G53" s="215"/>
-      <c r="H53" s="294"/>
-      <c r="I53" s="294"/>
+      <c r="H53" s="292"/>
+      <c r="I53" s="292"/>
       <c r="J53" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="310" t="n">
+      <c r="K53" s="308" t="n">
         <f aca="false">SWISS7_H!K51</f>
         <v>0.0124661246612466</v>
       </c>
@@ -17057,12 +17069,12 @@
       <c r="E54" s="215"/>
       <c r="F54" s="215"/>
       <c r="G54" s="215"/>
-      <c r="H54" s="294"/>
-      <c r="I54" s="294"/>
-      <c r="J54" s="309" t="s">
+      <c r="H54" s="292"/>
+      <c r="I54" s="292"/>
+      <c r="J54" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="310" t="n">
+      <c r="K54" s="308" t="n">
         <f aca="false">SWISS7_H!K52</f>
         <v>0.0446112153429227</v>
       </c>
@@ -17075,12 +17087,12 @@
       <c r="E55" s="215"/>
       <c r="F55" s="215"/>
       <c r="G55" s="215"/>
-      <c r="H55" s="294"/>
-      <c r="I55" s="294"/>
-      <c r="J55" s="311" t="s">
+      <c r="H55" s="292"/>
+      <c r="I55" s="292"/>
+      <c r="J55" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="312" t="n">
+      <c r="K55" s="310" t="n">
         <f aca="false">SWISS7_H!K53</f>
         <v>0.0747759016051699</v>
       </c>
@@ -17093,12 +17105,12 @@
       <c r="E56" s="215"/>
       <c r="F56" s="215"/>
       <c r="G56" s="215"/>
-      <c r="H56" s="294"/>
-      <c r="I56" s="294"/>
-      <c r="J56" s="311" t="s">
+      <c r="H56" s="292"/>
+      <c r="I56" s="292"/>
+      <c r="J56" s="309" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="310" t="n">
+      <c r="K56" s="308" t="n">
         <f aca="false">SWISS7_H!K54</f>
         <v>0.0587450489889514</v>
       </c>
@@ -17111,12 +17123,12 @@
       <c r="E57" s="215"/>
       <c r="F57" s="215"/>
       <c r="G57" s="215"/>
-      <c r="H57" s="294"/>
-      <c r="I57" s="294"/>
+      <c r="H57" s="292"/>
+      <c r="I57" s="292"/>
       <c r="J57" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="310" t="n">
+      <c r="K57" s="308" t="n">
         <f aca="false">SWISS7_H!K55</f>
         <v>0.0515947467166979</v>
       </c>
@@ -17129,12 +17141,12 @@
       <c r="E58" s="215"/>
       <c r="F58" s="215"/>
       <c r="G58" s="215"/>
-      <c r="H58" s="294"/>
-      <c r="I58" s="294"/>
+      <c r="H58" s="292"/>
+      <c r="I58" s="292"/>
       <c r="J58" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="K58" s="310" t="n">
+      <c r="K58" s="308" t="n">
         <f aca="false">SWISS7_H!K56</f>
         <v>0.0565770273087346</v>
       </c>
@@ -17147,12 +17159,12 @@
       <c r="E59" s="215"/>
       <c r="F59" s="215"/>
       <c r="G59" s="215"/>
-      <c r="H59" s="294"/>
-      <c r="I59" s="294"/>
+      <c r="H59" s="292"/>
+      <c r="I59" s="292"/>
       <c r="J59" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="310" t="n">
+      <c r="K59" s="308" t="n">
         <f aca="false">SWISS7_H!K57</f>
         <v>0.0706066291432145</v>
       </c>
@@ -17165,12 +17177,12 @@
       <c r="E60" s="215"/>
       <c r="F60" s="215"/>
       <c r="G60" s="215"/>
-      <c r="H60" s="294"/>
-      <c r="I60" s="294"/>
+      <c r="H60" s="292"/>
+      <c r="I60" s="292"/>
       <c r="J60" s="266" t="s">
         <v>58</v>
       </c>
-      <c r="K60" s="310" t="n">
+      <c r="K60" s="308" t="n">
         <f aca="false">SWISS7_H!K58</f>
         <v>0.0594955180321034</v>
       </c>
@@ -17183,12 +17195,12 @@
       <c r="E61" s="215"/>
       <c r="F61" s="215"/>
       <c r="G61" s="215"/>
-      <c r="H61" s="294"/>
-      <c r="I61" s="294"/>
+      <c r="H61" s="292"/>
+      <c r="I61" s="292"/>
       <c r="J61" s="267" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="310" t="n">
+      <c r="K61" s="308" t="n">
         <f aca="false">SWISS7_H!K59</f>
         <v>0.0662914321450907</v>
       </c>
@@ -17201,12 +17213,12 @@
       <c r="E62" s="215"/>
       <c r="F62" s="215"/>
       <c r="G62" s="215"/>
-      <c r="H62" s="294"/>
-      <c r="I62" s="294"/>
+      <c r="H62" s="292"/>
+      <c r="I62" s="292"/>
       <c r="J62" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="K62" s="310" t="n">
+      <c r="K62" s="308" t="n">
         <f aca="false">SWISS7_H!K60</f>
         <v>0.058411507191995</v>
       </c>
@@ -17219,12 +17231,12 @@
       <c r="E63" s="215"/>
       <c r="F63" s="215"/>
       <c r="G63" s="215"/>
-      <c r="H63" s="294"/>
-      <c r="I63" s="294"/>
+      <c r="H63" s="292"/>
+      <c r="I63" s="292"/>
       <c r="J63" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="K63" s="310" t="n">
+      <c r="K63" s="308" t="n">
         <f aca="false">SWISS7_H!K61</f>
         <v>0.0617260787992495</v>
       </c>
@@ -17237,12 +17249,12 @@
       <c r="E64" s="215"/>
       <c r="F64" s="215"/>
       <c r="G64" s="215"/>
-      <c r="H64" s="294"/>
-      <c r="I64" s="294"/>
-      <c r="J64" s="309" t="s">
+      <c r="H64" s="292"/>
+      <c r="I64" s="292"/>
+      <c r="J64" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="K64" s="310" t="n">
+      <c r="K64" s="308" t="n">
         <f aca="false">SWISS7_H!K62</f>
         <v>0.0747342088805503</v>
       </c>
@@ -17255,12 +17267,12 @@
       <c r="E65" s="215"/>
       <c r="F65" s="215"/>
       <c r="G65" s="215"/>
-      <c r="H65" s="294"/>
-      <c r="I65" s="294"/>
-      <c r="J65" s="311" t="s">
+      <c r="H65" s="292"/>
+      <c r="I65" s="292"/>
+      <c r="J65" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="K65" s="312" t="n">
+      <c r="K65" s="310" t="n">
         <f aca="false">SWISS7_H!K63</f>
         <v>0.0808630393996248</v>
       </c>
@@ -17273,12 +17285,12 @@
       <c r="E66" s="215"/>
       <c r="F66" s="215"/>
       <c r="G66" s="215"/>
-      <c r="H66" s="294"/>
-      <c r="I66" s="294"/>
-      <c r="J66" s="311" t="s">
+      <c r="H66" s="292"/>
+      <c r="I66" s="292"/>
+      <c r="J66" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="K66" s="310" t="n">
+      <c r="K66" s="308" t="n">
         <f aca="false">SWISS7_H!K64</f>
         <v>0.0680425265791119</v>
       </c>
@@ -17291,12 +17303,12 @@
       <c r="E67" s="215"/>
       <c r="F67" s="215"/>
       <c r="G67" s="215"/>
-      <c r="H67" s="294"/>
-      <c r="I67" s="294"/>
+      <c r="H67" s="292"/>
+      <c r="I67" s="292"/>
       <c r="J67" s="267" t="s">
         <v>65</v>
       </c>
-      <c r="K67" s="310" t="n">
+      <c r="K67" s="308" t="n">
         <f aca="false">SWISS7_H!K65</f>
         <v>0.0480508651240358</v>
       </c>
@@ -17309,12 +17321,12 @@
       <c r="E68" s="215"/>
       <c r="F68" s="215"/>
       <c r="G68" s="215"/>
-      <c r="H68" s="294"/>
-      <c r="I68" s="294"/>
+      <c r="H68" s="292"/>
+      <c r="I68" s="292"/>
       <c r="J68" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="K68" s="310" t="n">
+      <c r="K68" s="308" t="n">
         <f aca="false">SWISS7_H!K66</f>
         <v>0.0314363143631436</v>
       </c>
@@ -17327,12 +17339,12 @@
       <c r="E69" s="215"/>
       <c r="F69" s="215"/>
       <c r="G69" s="215"/>
-      <c r="H69" s="294"/>
-      <c r="I69" s="294"/>
+      <c r="H69" s="292"/>
+      <c r="I69" s="292"/>
       <c r="J69" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="K69" s="310" t="n">
+      <c r="K69" s="308" t="n">
         <f aca="false">SWISS7_H!K67</f>
         <v>0.0254951011048572</v>
       </c>
@@ -17345,12 +17357,12 @@
       <c r="E70" s="215"/>
       <c r="F70" s="215"/>
       <c r="G70" s="215"/>
-      <c r="H70" s="294"/>
-      <c r="I70" s="294"/>
+      <c r="H70" s="292"/>
+      <c r="I70" s="292"/>
       <c r="J70" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="K70" s="310" t="n">
+      <c r="K70" s="308" t="n">
         <f aca="false">SWISS7_H!K68</f>
         <v>0.0229726912653742</v>
       </c>
@@ -17363,43 +17375,43 @@
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="326"/>
-      <c r="I71" s="327"/>
-      <c r="J71" s="328" t="s">
+      <c r="H71" s="324"/>
+      <c r="I71" s="325"/>
+      <c r="J71" s="326" t="s">
         <v>69</v>
       </c>
-      <c r="K71" s="315" t="n">
+      <c r="K71" s="313" t="n">
         <f aca="false">SWISS7_H!K69</f>
         <v>0.0133833646028768</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="316" t="str">
+      <c r="B73" s="314" t="str">
         <f aca="false">B38</f>
         <v>CAR (1)</v>
       </c>
-      <c r="C73" s="317" t="str">
+      <c r="C73" s="315" t="str">
         <f aca="false">C38</f>
         <v>MR (2)</v>
       </c>
-      <c r="D73" s="317" t="str">
+      <c r="D73" s="315" t="str">
         <f aca="false">D38</f>
         <v>PW (11)</v>
       </c>
-      <c r="E73" s="317" t="str">
+      <c r="E73" s="315" t="str">
         <f aca="false">E38</f>
         <v>LIE (12)</v>
       </c>
-      <c r="F73" s="317" t="str">
+      <c r="F73" s="315" t="str">
         <f aca="false">F38</f>
         <v>LW (8)</v>
       </c>
-      <c r="G73" s="317" t="str">
+      <c r="G73" s="315" t="str">
         <f aca="false">G38</f>
         <v>LZ (9)</v>
       </c>
-      <c r="H73" s="329" t="str">
+      <c r="H73" s="327" t="str">
         <f aca="false">H38</f>
         <v>SZ (10)</v>
       </c>
@@ -17408,115 +17420,115 @@
       <c r="A74" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B74" s="274" t="n">
+      <c r="B74" s="273" t="n">
         <f aca="false">SWISS7_H!B71</f>
         <v>0.00514905149051491</v>
       </c>
-      <c r="C74" s="318" t="n">
+      <c r="C74" s="316" t="n">
         <f aca="false">SWISS7_H!C71</f>
         <v>0.0210965186574943</v>
       </c>
-      <c r="D74" s="318" t="n">
+      <c r="D74" s="316" t="n">
         <f aca="false">SWISS7_H!D71</f>
         <v>0.919699812382739</v>
       </c>
-      <c r="E74" s="318" t="n">
+      <c r="E74" s="316" t="n">
         <f aca="false">SWISS7_H!E71</f>
         <v>0.0379195330414843</v>
       </c>
-      <c r="F74" s="318" t="n">
+      <c r="F74" s="316" t="n">
         <f aca="false">SWISS7_H!F71</f>
         <v>0.00756722951844903</v>
       </c>
-      <c r="G74" s="318" t="n">
+      <c r="G74" s="316" t="n">
         <f aca="false">SWISS7_H!G71</f>
         <v>0.000687929956222639</v>
       </c>
-      <c r="H74" s="330" t="n">
+      <c r="H74" s="328" t="n">
         <f aca="false">SWISS7_H!H71</f>
         <v>0.00168855534709193</v>
       </c>
-      <c r="I74" s="319"/>
+      <c r="I74" s="317"/>
       <c r="J74" s="83"/>
-      <c r="K74" s="320" t="n">
+      <c r="K74" s="318" t="n">
         <f aca="false">SWISS7_H!K71</f>
         <v>0.993808630393996</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="277" t="s">
+      <c r="A75" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B75" s="278" t="n">
+      <c r="B75" s="277" t="n">
         <f aca="false">SWISS7_H!B72</f>
         <v>0.00496143422972691</v>
       </c>
-      <c r="C75" s="321" t="n">
+      <c r="C75" s="319" t="n">
         <f aca="false">SWISS7_H!C72</f>
         <v>0.0197831978319783</v>
       </c>
-      <c r="D75" s="321" t="n">
+      <c r="D75" s="319" t="n">
         <f aca="false">SWISS7_H!D72</f>
         <v>0.856139253700229</v>
       </c>
-      <c r="E75" s="321" t="n">
+      <c r="E75" s="319" t="n">
         <f aca="false">SWISS7_H!E72</f>
         <v>0.0353345841150719</v>
       </c>
-      <c r="F75" s="321" t="n">
+      <c r="F75" s="319" t="n">
         <f aca="false">SWISS7_H!F72</f>
         <v>0.00692099228684595</v>
       </c>
-      <c r="G75" s="321" t="n">
+      <c r="G75" s="319" t="n">
         <f aca="false">SWISS7_H!G72</f>
         <v>0.000667083593912862</v>
       </c>
-      <c r="H75" s="331" t="n">
+      <c r="H75" s="329" t="n">
         <f aca="false">SWISS7_H!H72</f>
         <v>0.00158432353554305</v>
       </c>
-      <c r="I75" s="319"/>
+      <c r="I75" s="317"/>
       <c r="J75" s="83"/>
-      <c r="K75" s="312" t="n">
+      <c r="K75" s="310" t="n">
         <f aca="false">SWISS7_H!K72</f>
         <v>0.925390869293308</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="281" t="s">
+      <c r="A76" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="282" t="n">
+      <c r="B76" s="281" t="n">
         <f aca="false">SWISS7_H!B73</f>
         <v>0.000187617260787993</v>
       </c>
-      <c r="C76" s="283" t="n">
+      <c r="C76" s="282" t="n">
         <f aca="false">SWISS7_H!C73</f>
         <v>0.00131332082551595</v>
       </c>
-      <c r="D76" s="283" t="n">
+      <c r="D76" s="282" t="n">
         <f aca="false">SWISS7_H!D73</f>
         <v>0.0635605586825099</v>
       </c>
-      <c r="E76" s="283" t="n">
+      <c r="E76" s="282" t="n">
         <f aca="false">SWISS7_H!E73</f>
         <v>0.00258494892641234</v>
       </c>
-      <c r="F76" s="283" t="n">
+      <c r="F76" s="282" t="n">
         <f aca="false">SWISS7_H!F73</f>
         <v>0.000646237231603086</v>
       </c>
-      <c r="G76" s="283" t="n">
+      <c r="G76" s="282" t="n">
         <f aca="false">SWISS7_H!G73</f>
         <v>2.08463623097769E-005</v>
       </c>
-      <c r="H76" s="284" t="n">
+      <c r="H76" s="283" t="n">
         <f aca="false">SWISS7_H!H73</f>
         <v>0.000104231811548885</v>
       </c>
-      <c r="I76" s="319"/>
+      <c r="I76" s="317"/>
       <c r="J76" s="83"/>
-      <c r="K76" s="323" t="n">
+      <c r="K76" s="321" t="n">
         <f aca="false">SWISS7_H!K73</f>
         <v>0.0684177611006878</v>
       </c>
@@ -17564,7 +17576,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="R83" activeCellId="0" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17595,7 +17607,6 @@
         <v>Comptage 2017</v>
       </c>
       <c r="J2" s="52"/>
-      <c r="K2" s="0"/>
       <c r="N2" s="54" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
@@ -17608,7 +17619,6 @@
       </c>
       <c r="G3" s="56"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="0"/>
       <c r="N3" s="57" t="str">
         <f aca="false">Data_count!B7</f>
         <v>Modèle : M660_LT</v>
@@ -17623,7 +17633,6 @@
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="0"/>
       <c r="N4" s="57" t="str">
         <f aca="false">Data_count!B8</f>
         <v>Classification : SWISS10</v>
@@ -17638,7 +17647,6 @@
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="0"/>
       <c r="N5" s="57" t="str">
         <f aca="false">Data_count!B9</f>
         <v>Comptage véhicule par véhicule</v>
@@ -17648,9 +17656,8 @@
       <c r="A6" s="55"/>
       <c r="C6" s="59"/>
       <c r="J6" s="52"/>
-      <c r="N6" s="332"/>
-    </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="55"/>
       <c r="C7" s="59"/>
       <c r="F7" s="60" t="str">
@@ -17661,7 +17668,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="55"/>
       <c r="C8" s="59"/>
       <c r="F8" s="60"/>
@@ -17680,70 +17687,60 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" s="224" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="288" t="str">
+      <c r="B11" s="286" t="str">
         <f aca="false">"Distrubution des classes SWISS10 par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)"</f>
         <v>Distrubution des classes SWISS10 par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C11" s="288"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="333"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="286"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="330"/>
       <c r="M11" s="258" t="s">
         <v>275</v>
       </c>
       <c r="N11" s="259" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="289" t="str">
-        <f aca="false">Data2!BI11</f>
-        <v>CAR (1)</v>
-      </c>
-      <c r="C12" s="188" t="str">
-        <f aca="false">Data2!BJ11</f>
-        <v>MR (2)</v>
-      </c>
-      <c r="D12" s="290" t="str">
-        <f aca="false">Data2!BK11</f>
-        <v>PW (3)</v>
-      </c>
-      <c r="E12" s="188" t="str">
-        <f aca="false">Data2!BL11</f>
-        <v>PW+AH(4)</v>
-      </c>
-      <c r="F12" s="290" t="str">
-        <f aca="false">Data2!BM11</f>
-        <v>LIE (5)</v>
-      </c>
-      <c r="G12" s="188" t="str">
-        <f aca="false">Data2!BN11</f>
-        <v>LIE+AH(6)</v>
-      </c>
-      <c r="H12" s="290" t="str">
-        <f aca="false">Data2!BO11</f>
-        <v>LIE+AL(7)</v>
-      </c>
-      <c r="I12" s="188" t="str">
-        <f aca="false">Data2!BP11</f>
-        <v>LW (8)</v>
-      </c>
-      <c r="J12" s="290" t="str">
-        <f aca="false">Data2!BQ11</f>
-        <v>LZ (9)</v>
-      </c>
-      <c r="K12" s="334" t="str">
-        <f aca="false">Data2!BR11</f>
-        <v>SZ (10)</v>
+      <c r="B12" s="287" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="188" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="288" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="288" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="288" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="188" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="288" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="331" t="s">
+        <v>141</v>
       </c>
       <c r="L12" s="103"/>
       <c r="M12" s="264" t="s">
@@ -18076,7 +18073,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="269" t="s">
+      <c r="A19" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="266" t="n">
@@ -18174,7 +18171,7 @@
         <v>3</v>
       </c>
       <c r="L20" s="215"/>
-      <c r="M20" s="270" t="n">
+      <c r="M20" s="269" t="n">
         <f aca="false">CV_C!U21</f>
         <v>363</v>
       </c>
@@ -18616,7 +18613,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="269" t="s">
+      <c r="A29" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="266" t="n">
@@ -18714,7 +18711,7 @@
         <v>4</v>
       </c>
       <c r="L30" s="215"/>
-      <c r="M30" s="270" t="n">
+      <c r="M30" s="269" t="n">
         <f aca="false">CV_C!U31</f>
         <v>823.428571428572</v>
       </c>
@@ -18994,7 +18991,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="271" t="s">
+      <c r="A36" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="266" t="n">
@@ -19038,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="215"/>
-      <c r="M36" s="272" t="n">
+      <c r="M36" s="271" t="n">
         <f aca="false">CV_C!U37</f>
         <v>111.142857142857</v>
       </c>
@@ -19052,160 +19049,160 @@
       <c r="A38" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="274" t="n">
+      <c r="B38" s="273" t="n">
         <f aca="false">SUM(B13:B36)/Data_category!$L$29</f>
         <v>0.00489279032954382</v>
       </c>
-      <c r="C38" s="274" t="n">
+      <c r="C38" s="273" t="n">
         <f aca="false">SUM(C13:C36)/Data_category!$L$29</f>
         <v>0.0236210760027136</v>
       </c>
-      <c r="D38" s="274" t="n">
+      <c r="D38" s="273" t="n">
         <f aca="false">SUM(D13:D36)/Data_category!$L$29</f>
         <v>0.922948831280965</v>
       </c>
-      <c r="E38" s="274" t="n">
+      <c r="E38" s="273" t="n">
         <f aca="false">SUM(E13:E36)/Data_category!$L$29</f>
         <v>0.00222025779659972</v>
       </c>
-      <c r="F38" s="274" t="n">
+      <c r="F38" s="273" t="n">
         <f aca="false">SUM(F13:F36)/Data_category!$L$29</f>
         <v>0.0351129658943733</v>
       </c>
-      <c r="G38" s="274" t="n">
+      <c r="G38" s="273" t="n">
         <f aca="false">SUM(G13:G36)/Data_category!$L$29</f>
         <v>0.00238472133708858</v>
       </c>
-      <c r="H38" s="274" t="n">
+      <c r="H38" s="273" t="n">
         <f aca="false">SUM(H13:H36)/Data_category!$L$29</f>
         <v>0.000616738276833254</v>
       </c>
-      <c r="I38" s="274" t="n">
+      <c r="I38" s="273" t="n">
         <f aca="false">SUM(I13:I36)/Data_category!$L$29</f>
         <v>0.0067841210451658</v>
       </c>
-      <c r="J38" s="274" t="n">
+      <c r="J38" s="273" t="n">
         <f aca="false">SUM(J13:J36)/Data_category!$L$29</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="K38" s="274" t="n">
+      <c r="K38" s="273" t="n">
         <f aca="false">SUM(K13:K36)/Data_category!$L$29</f>
         <v>0.000904549472688773</v>
       </c>
-      <c r="L38" s="335"/>
-      <c r="M38" s="275" t="n">
+      <c r="L38" s="332"/>
+      <c r="M38" s="274" t="n">
         <f aca="false">SUM(M13:M36)</f>
         <v>6949</v>
       </c>
-      <c r="N38" s="276" t="n">
+      <c r="N38" s="275" t="n">
         <f aca="false">SUM(B38:K38)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="277" t="s">
+      <c r="A39" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B39" s="278" t="n">
+      <c r="B39" s="277" t="n">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
         <v>0.00479000061673828</v>
       </c>
-      <c r="C39" s="278" t="n">
+      <c r="C39" s="277" t="n">
         <f aca="false">SUM(C19:C34)/Data_category!$L$29</f>
         <v>0.0223464835639249</v>
       </c>
-      <c r="D39" s="278" t="n">
+      <c r="D39" s="277" t="n">
         <f aca="false">SUM(D19:D34)/Data_category!$L$29</f>
         <v>0.85923976728409</v>
       </c>
-      <c r="E39" s="278" t="n">
+      <c r="E39" s="277" t="n">
         <f aca="false">SUM(E19:E34)/Data_category!$L$29</f>
         <v>0.0021791419114775</v>
       </c>
-      <c r="F39" s="278" t="n">
+      <c r="F39" s="277" t="n">
         <f aca="false">SUM(F19:F34)/Data_category!$L$29</f>
         <v>0.0332627510638735</v>
       </c>
-      <c r="G39" s="278" t="n">
+      <c r="G39" s="277" t="n">
         <f aca="false">SUM(G19:G34)/Data_category!$L$29</f>
         <v>0.00232304750940526</v>
       </c>
-      <c r="H39" s="278" t="n">
+      <c r="H39" s="277" t="n">
         <f aca="false">SUM(H19:H34)/Data_category!$L$29</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="I39" s="278" t="n">
+      <c r="I39" s="277" t="n">
         <f aca="false">SUM(I19:I34)/Data_category!$L$29</f>
         <v>0.00600291922784368</v>
       </c>
-      <c r="J39" s="278" t="n">
+      <c r="J39" s="277" t="n">
         <f aca="false">SUM(J19:J34)/Data_category!$L$29</f>
         <v>0.000431716793783278</v>
       </c>
-      <c r="K39" s="278" t="n">
+      <c r="K39" s="277" t="n">
         <f aca="false">SUM(K19:K34)/Data_category!$L$29</f>
         <v>0.000698970047077688</v>
       </c>
-      <c r="L39" s="335"/>
-      <c r="M39" s="279" t="n">
+      <c r="L39" s="332"/>
+      <c r="M39" s="278" t="n">
         <f aca="false">SUM(M19:M34)</f>
         <v>6475</v>
       </c>
-      <c r="N39" s="280" t="n">
+      <c r="N39" s="279" t="n">
         <f aca="false">SUM(B39:K39)</f>
         <v>0.931788746582242</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="281" t="s">
+      <c r="A40" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="282" t="n">
+      <c r="B40" s="281" t="n">
         <f aca="false">B38-B39</f>
         <v>0.000102789712805543</v>
       </c>
-      <c r="C40" s="283" t="n">
+      <c r="C40" s="282" t="n">
         <f aca="false">C38-C39</f>
         <v>0.00127459243878873</v>
       </c>
-      <c r="D40" s="283" t="n">
+      <c r="D40" s="282" t="n">
         <f aca="false">D38-D39</f>
         <v>0.0637090639968752</v>
       </c>
-      <c r="E40" s="283" t="n">
+      <c r="E40" s="282" t="n">
         <f aca="false">E38-E39</f>
         <v>4.11158851222168E-005</v>
       </c>
-      <c r="F40" s="283" t="n">
+      <c r="F40" s="282" t="n">
         <f aca="false">F38-F39</f>
         <v>0.00185021483049977</v>
       </c>
-      <c r="G40" s="283" t="n">
+      <c r="G40" s="282" t="n">
         <f aca="false">G38-G39</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H40" s="322" t="n">
+      <c r="H40" s="320" t="n">
         <f aca="false">H38-H39</f>
         <v>0.000102789712805542</v>
       </c>
-      <c r="I40" s="283" t="n">
+      <c r="I40" s="282" t="n">
         <f aca="false">I38-I39</f>
         <v>0.000781201817322122</v>
       </c>
-      <c r="J40" s="283" t="n">
+      <c r="J40" s="282" t="n">
         <f aca="false">J38-J39</f>
         <v>8.22317702444339E-005</v>
       </c>
-      <c r="K40" s="336" t="n">
+      <c r="K40" s="333" t="n">
         <f aca="false">K38-K39</f>
         <v>0.000205579425611085</v>
       </c>
-      <c r="L40" s="335"/>
-      <c r="M40" s="285" t="n">
+      <c r="L40" s="332"/>
+      <c r="M40" s="284" t="n">
         <f aca="false">M38-M39</f>
         <v>474</v>
       </c>
-      <c r="N40" s="286" t="n">
+      <c r="N40" s="285" t="n">
         <f aca="false">N38-N39</f>
         <v>0.0682112534177581</v>
       </c>
@@ -19224,27 +19221,27 @@
       <c r="A42" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="B42" s="287" t="str">
+      <c r="B42" s="50" t="str">
         <f aca="false">B5</f>
         <v>Auvernier Gir. de Brena</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="288" t="str">
+      <c r="B44" s="286" t="str">
         <f aca="false">B11</f>
         <v>Distrubution des classes SWISS10 par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C44" s="288"/>
-      <c r="D44" s="288"/>
-      <c r="E44" s="288"/>
-      <c r="F44" s="288"/>
-      <c r="G44" s="288"/>
-      <c r="H44" s="288"/>
-      <c r="I44" s="288"/>
-      <c r="J44" s="288"/>
-      <c r="K44" s="288"/>
-      <c r="L44" s="333"/>
+      <c r="C44" s="286"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="286"/>
+      <c r="H44" s="286"/>
+      <c r="I44" s="286"/>
+      <c r="J44" s="286"/>
+      <c r="K44" s="286"/>
+      <c r="L44" s="330"/>
       <c r="M44" s="258" t="s">
         <v>275</v>
       </c>
@@ -19257,7 +19254,7 @@
       <c r="A45" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B45" s="289" t="str">
+      <c r="B45" s="287" t="str">
         <f aca="false">B12</f>
         <v>CAR (1)</v>
       </c>
@@ -19265,7 +19262,7 @@
         <f aca="false">C12</f>
         <v>MR (2)</v>
       </c>
-      <c r="D45" s="290" t="str">
+      <c r="D45" s="288" t="str">
         <f aca="false">D12</f>
         <v>PW (3)</v>
       </c>
@@ -19273,7 +19270,7 @@
         <f aca="false">E12</f>
         <v>PW+AH(4)</v>
       </c>
-      <c r="F45" s="291" t="str">
+      <c r="F45" s="289" t="str">
         <f aca="false">F12</f>
         <v>LIE (5)</v>
       </c>
@@ -19281,7 +19278,7 @@
         <f aca="false">G12</f>
         <v>LIE+AH(6)</v>
       </c>
-      <c r="H45" s="290" t="str">
+      <c r="H45" s="288" t="str">
         <f aca="false">H12</f>
         <v>LIE+AL(7)</v>
       </c>
@@ -19289,11 +19286,11 @@
         <f aca="false">I12</f>
         <v>LW (8)</v>
       </c>
-      <c r="J45" s="290" t="str">
+      <c r="J45" s="288" t="str">
         <f aca="false">J12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="K45" s="334" t="str">
+      <c r="K45" s="331" t="str">
         <f aca="false">K12</f>
         <v>SZ (10)</v>
       </c>
@@ -19628,7 +19625,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="269" t="s">
+      <c r="A52" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="266" t="n">
@@ -19726,7 +19723,7 @@
         <v>8</v>
       </c>
       <c r="L53" s="215"/>
-      <c r="M53" s="270" t="n">
+      <c r="M53" s="269" t="n">
         <f aca="false">CV_C!AE21</f>
         <v>512.428571428571</v>
       </c>
@@ -20168,7 +20165,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="269" t="s">
+      <c r="A62" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="266" t="n">
@@ -20266,7 +20263,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="215"/>
-      <c r="M63" s="270" t="n">
+      <c r="M63" s="269" t="n">
         <f aca="false">CV_C!AE31</f>
         <v>554.142857142857</v>
       </c>
@@ -20546,7 +20543,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="271" t="s">
+      <c r="A69" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="266" t="n">
@@ -20590,7 +20587,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="215"/>
-      <c r="M69" s="272" t="n">
+      <c r="M69" s="271" t="n">
         <f aca="false">CV_C!AE37</f>
         <v>91.7142857142857</v>
       </c>
@@ -20604,259 +20601,247 @@
       <c r="A71" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B71" s="274" t="n">
+      <c r="B71" s="273" t="n">
         <f aca="false">SUM(B46:B69)/Data_category!$L$57</f>
         <v>0.00514905149051491</v>
       </c>
-      <c r="C71" s="274" t="n">
+      <c r="C71" s="273" t="n">
         <f aca="false">SUM(C46:C69)/Data_category!$L$57</f>
         <v>0.0210965186574943</v>
       </c>
-      <c r="D71" s="274" t="n">
+      <c r="D71" s="273" t="n">
         <f aca="false">SUM(D46:D69)/Data_category!$L$57</f>
         <v>0.919699812382739</v>
       </c>
-      <c r="E71" s="274" t="n">
+      <c r="E71" s="273" t="n">
         <f aca="false">SUM(E46:E69)/Data_category!$L$57</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F71" s="274" t="n">
+      <c r="F71" s="273" t="n">
         <f aca="false">SUM(F46:F69)/Data_category!$L$57</f>
         <v>0.0379195330414843</v>
       </c>
-      <c r="G71" s="274" t="n">
+      <c r="G71" s="273" t="n">
         <f aca="false">SUM(G46:G69)/Data_category!$L$57</f>
         <v>0.00308526162184699</v>
       </c>
-      <c r="H71" s="274" t="n">
+      <c r="H71" s="273" t="n">
         <f aca="false">SUM(H46:H69)/Data_category!$L$57</f>
         <v>0.000771315405461747</v>
       </c>
-      <c r="I71" s="274" t="n">
+      <c r="I71" s="273" t="n">
         <f aca="false">SUM(I46:I69)/Data_category!$L$57</f>
         <v>0.00756722951844903</v>
       </c>
-      <c r="J71" s="274" t="n">
+      <c r="J71" s="273" t="n">
         <f aca="false">SUM(J46:J69)/Data_category!$L$57</f>
         <v>0.000687929956222639</v>
       </c>
-      <c r="K71" s="274" t="n">
+      <c r="K71" s="273" t="n">
         <f aca="false">SUM(K46:K69)/Data_category!$L$57</f>
         <v>0.00168855534709193</v>
       </c>
-      <c r="L71" s="335"/>
-      <c r="M71" s="275" t="n">
+      <c r="L71" s="332"/>
+      <c r="M71" s="274" t="n">
         <f aca="false">SUM(M46:M69)</f>
         <v>6852.85714285714</v>
       </c>
-      <c r="N71" s="276" t="n">
+      <c r="N71" s="275" t="n">
         <f aca="false">SUM(B71:K71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="277" t="s">
+      <c r="A72" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="278" t="n">
+      <c r="B72" s="277" t="n">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
         <v>0.00496143422972691</v>
       </c>
-      <c r="C72" s="278" t="n">
+      <c r="C72" s="277" t="n">
         <f aca="false">SUM(C52:C67)/Data_category!$L$57</f>
         <v>0.0197831978319783</v>
       </c>
-      <c r="D72" s="278" t="n">
+      <c r="D72" s="277" t="n">
         <f aca="false">SUM(D52:D67)/Data_category!$L$57</f>
         <v>0.856139253700229</v>
       </c>
-      <c r="E72" s="278" t="n">
+      <c r="E72" s="277" t="n">
         <f aca="false">SUM(E52:E67)/Data_category!$L$57</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F72" s="278" t="n">
+      <c r="F72" s="277" t="n">
         <f aca="false">SUM(F52:F67)/Data_category!$L$57</f>
         <v>0.0353345841150719</v>
       </c>
-      <c r="G72" s="278" t="n">
+      <c r="G72" s="277" t="n">
         <f aca="false">SUM(G52:G67)/Data_category!$L$57</f>
         <v>0.00302272253491766</v>
       </c>
-      <c r="H72" s="278" t="n">
+      <c r="H72" s="277" t="n">
         <f aca="false">SUM(H52:H67)/Data_category!$L$57</f>
         <v>0.000708776318532416</v>
       </c>
-      <c r="I72" s="278" t="n">
+      <c r="I72" s="277" t="n">
         <f aca="false">SUM(I52:I67)/Data_category!$L$57</f>
         <v>0.00692099228684595</v>
       </c>
-      <c r="J72" s="278" t="n">
+      <c r="J72" s="277" t="n">
         <f aca="false">SUM(J52:J67)/Data_category!$L$57</f>
         <v>0.000667083593912862</v>
       </c>
-      <c r="K72" s="278" t="n">
+      <c r="K72" s="277" t="n">
         <f aca="false">SUM(K52:K67)/Data_category!$L$57</f>
         <v>0.00158432353554305</v>
       </c>
-      <c r="L72" s="335"/>
-      <c r="M72" s="279" t="n">
+      <c r="L72" s="332"/>
+      <c r="M72" s="278" t="n">
         <f aca="false">SUM(M52:M67)</f>
         <v>6383.14285714286</v>
       </c>
-      <c r="N72" s="280" t="n">
+      <c r="N72" s="279" t="n">
         <f aca="false">SUM(B72:K72)</f>
         <v>0.931457160725454</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="281" t="s">
+      <c r="A73" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B73" s="282" t="n">
+      <c r="B73" s="281" t="n">
         <f aca="false">B71-B72</f>
         <v>0.000187617260787993</v>
       </c>
-      <c r="C73" s="283" t="n">
+      <c r="C73" s="282" t="n">
         <f aca="false">C71-C72</f>
         <v>0.00131332082551595</v>
       </c>
-      <c r="D73" s="283" t="n">
+      <c r="D73" s="282" t="n">
         <f aca="false">D71-D72</f>
         <v>0.0635605586825099</v>
       </c>
-      <c r="E73" s="283" t="n">
+      <c r="E73" s="282" t="n">
         <f aca="false">E71-E72</f>
         <v>0</v>
       </c>
-      <c r="F73" s="283" t="n">
+      <c r="F73" s="282" t="n">
         <f aca="false">F71-F72</f>
         <v>0.00258494892641234</v>
       </c>
-      <c r="G73" s="283" t="n">
+      <c r="G73" s="282" t="n">
         <f aca="false">G71-G72</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="H73" s="322" t="n">
+      <c r="H73" s="320" t="n">
         <f aca="false">H71-H72</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="I73" s="283" t="n">
+      <c r="I73" s="282" t="n">
         <f aca="false">I71-I72</f>
         <v>0.000646237231603086</v>
       </c>
-      <c r="J73" s="283" t="n">
+      <c r="J73" s="282" t="n">
         <f aca="false">J71-J72</f>
         <v>2.08463623097769E-005</v>
       </c>
-      <c r="K73" s="336" t="n">
+      <c r="K73" s="333" t="n">
         <f aca="false">K71-K72</f>
         <v>0.000104231811548885</v>
       </c>
-      <c r="L73" s="335"/>
-      <c r="M73" s="285" t="n">
+      <c r="L73" s="332"/>
+      <c r="M73" s="284" t="n">
         <f aca="false">M71-M72</f>
         <v>469.714285714285</v>
       </c>
-      <c r="N73" s="286" t="n">
+      <c r="N73" s="285" t="n">
         <f aca="false">N71-N72</f>
         <v>0.0685428392745464</v>
       </c>
     </row>
     <row r="75" s="83" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="121" t="str">
-        <f aca="false">Data2!BI38</f>
-        <v>CAR (1) : Bus, car</v>
+      <c r="A75" s="121" t="s">
+        <v>167</v>
       </c>
       <c r="B75" s="121"/>
-      <c r="C75" s="121" t="str">
-        <f aca="false">Data2!BL38</f>
-        <v>PW+AH(4) : Voiture de tourisme avec remorque</v>
+      <c r="C75" s="121" t="s">
+        <v>172</v>
       </c>
       <c r="D75" s="193"/>
       <c r="E75" s="121"/>
       <c r="F75" s="121"/>
-      <c r="G75" s="121" t="str">
-        <f aca="false">Data2!BO38</f>
-        <v>LIE+AL(7) : Voiture de livraison semi-remorque</v>
+      <c r="G75" s="121" t="s">
+        <v>177</v>
       </c>
       <c r="H75" s="121"/>
       <c r="I75" s="121"/>
-      <c r="J75" s="337"/>
-      <c r="K75" s="121" t="str">
-        <f aca="false">Data2!BR38</f>
-        <v>SZ (10) :Véhicule lourd articulé</v>
+      <c r="J75" s="334"/>
+      <c r="K75" s="121" t="s">
+        <v>181</v>
       </c>
       <c r="L75" s="121"/>
       <c r="M75" s="1"/>
       <c r="N75" s="5"/>
     </row>
     <row r="76" s="83" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="121" t="str">
-        <f aca="false">Data2!BJ38</f>
-        <v>MR (2) : Motocycle</v>
+      <c r="A76" s="121" t="s">
+        <v>169</v>
       </c>
       <c r="B76" s="121"/>
-      <c r="C76" s="121" t="str">
-        <f aca="false">Data2!BM38</f>
-        <v>LIE (5) : Voiture de livraison</v>
+      <c r="C76" s="121" t="s">
+        <v>173</v>
       </c>
       <c r="E76" s="121"/>
       <c r="F76" s="121"/>
-      <c r="G76" s="121" t="str">
-        <f aca="false">Data2!BP38</f>
-        <v>LW (8) : Camion</v>
+      <c r="G76" s="121" t="s">
+        <v>178</v>
       </c>
       <c r="H76" s="121"/>
       <c r="I76" s="121"/>
-      <c r="J76" s="338"/>
+      <c r="J76" s="335"/>
       <c r="K76" s="121"/>
       <c r="L76" s="121"/>
       <c r="M76" s="1"/>
       <c r="N76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="121" t="str">
-        <f aca="false">Data2!BK38</f>
-        <v>PW (3) : Voiture de tourisme</v>
+      <c r="A77" s="121" t="s">
+        <v>170</v>
       </c>
       <c r="B77" s="121"/>
-      <c r="C77" s="121" t="str">
-        <f aca="false">Data2!BN38</f>
-        <v>LIE+AH(6) : Voiture de livraison avec remorque</v>
+      <c r="C77" s="121" t="s">
+        <v>176</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
-      <c r="G77" s="121" t="str">
-        <f aca="false">Data2!BQ38</f>
-        <v>LZ (9) : Train routier</v>
+      <c r="G77" s="121" t="s">
+        <v>179</v>
       </c>
       <c r="H77" s="121"/>
       <c r="I77" s="121"/>
-      <c r="J77" s="339"/>
+      <c r="J77" s="336"/>
       <c r="K77" s="121"/>
       <c r="L77" s="121"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="302" t="str">
-        <f aca="false">"Véhicules légers : "&amp;C45&amp;" + "&amp;D45&amp;" + "&amp;E45&amp;" + "&amp;F45&amp;" + "&amp;G45&amp;" + "&amp;H45</f>
-        <v>Véhicules légers : MR (2) + PW (3) + PW+AH(4) + LIE (5) + LIE+AH(6) + LIE+AL(7)</v>
-      </c>
-      <c r="B78" s="302"/>
-      <c r="C78" s="302"/>
-      <c r="D78" s="302"/>
-      <c r="E78" s="302"/>
-      <c r="F78" s="302"/>
-      <c r="G78" s="302"/>
-      <c r="H78" s="302" t="str">
-        <f aca="false">"Véhicules lourds : "&amp;B45&amp;" + "&amp;I45&amp;" + "&amp;J45&amp;" + "&amp;K45</f>
-        <v>Véhicules lourds : CAR (1) + LW (8) + LZ (9) + SZ (10)</v>
-      </c>
-      <c r="I78" s="302"/>
-      <c r="J78" s="302"/>
-      <c r="K78" s="302"/>
-      <c r="L78" s="302"/>
-      <c r="M78" s="302"/>
-      <c r="N78" s="302"/>
+      <c r="A78" s="300" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="300"/>
+      <c r="C78" s="300"/>
+      <c r="D78" s="300"/>
+      <c r="E78" s="300"/>
+      <c r="F78" s="300"/>
+      <c r="G78" s="300"/>
+      <c r="H78" s="300" t="s">
+        <v>283</v>
+      </c>
+      <c r="I78" s="300"/>
+      <c r="J78" s="300"/>
+      <c r="K78" s="300"/>
+      <c r="L78" s="300"/>
+      <c r="M78" s="300"/>
+      <c r="N78" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -20905,7 +20890,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20937,7 +20922,6 @@
         <v>Comptage 2017</v>
       </c>
       <c r="J2" s="52"/>
-      <c r="K2" s="0"/>
       <c r="N2" s="54" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
@@ -20950,7 +20934,6 @@
       </c>
       <c r="G3" s="56"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="0"/>
       <c r="N3" s="57" t="str">
         <f aca="false">Data_count!B7</f>
         <v>Modèle : M660_LT</v>
@@ -20965,7 +20948,6 @@
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="0"/>
       <c r="N4" s="57" t="str">
         <f aca="false">Data_count!B8</f>
         <v>Classification : SWISS10</v>
@@ -20980,7 +20962,6 @@
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="0"/>
       <c r="N5" s="57" t="str">
         <f aca="false">Data_count!B9</f>
         <v>Comptage véhicule par véhicule</v>
@@ -21017,31 +20998,31 @@
       <c r="A9" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="287" t="str">
+      <c r="B9" s="50" t="str">
         <f aca="false">B4</f>
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
     </row>
     <row r="10" s="224" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="303"/>
-      <c r="N10" s="303"/>
+      <c r="B10" s="301"/>
+      <c r="N10" s="301"/>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="304"/>
-      <c r="B11" s="305"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="305"/>
-      <c r="E11" s="305"/>
-      <c r="F11" s="305"/>
-      <c r="G11" s="305"/>
-      <c r="H11" s="305"/>
-      <c r="I11" s="340"/>
-      <c r="J11" s="305"/>
-      <c r="K11" s="305"/>
-      <c r="L11" s="306"/>
-      <c r="M11" s="307"/>
+      <c r="A11" s="302"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="337"/>
+      <c r="J11" s="303"/>
+      <c r="K11" s="303"/>
+      <c r="L11" s="304"/>
+      <c r="M11" s="305"/>
       <c r="N11" s="259" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21056,8 +21037,8 @@
       <c r="I12" s="215"/>
       <c r="J12" s="215"/>
       <c r="K12" s="215"/>
-      <c r="L12" s="308"/>
-      <c r="M12" s="309" t="s">
+      <c r="L12" s="306"/>
+      <c r="M12" s="307" t="s">
         <v>251</v>
       </c>
       <c r="N12" s="259"/>
@@ -21074,11 +21055,11 @@
       <c r="I13" s="215"/>
       <c r="J13" s="215"/>
       <c r="K13" s="215"/>
-      <c r="L13" s="308"/>
+      <c r="L13" s="306"/>
       <c r="M13" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="310" t="n">
+      <c r="N13" s="308" t="n">
         <f aca="false">SWISS10_H!N13</f>
         <v>0.00777090228809901</v>
       </c>
@@ -21095,11 +21076,11 @@
       <c r="I14" s="215"/>
       <c r="J14" s="215"/>
       <c r="K14" s="215"/>
-      <c r="L14" s="308"/>
+      <c r="L14" s="306"/>
       <c r="M14" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="310" t="n">
+      <c r="N14" s="308" t="n">
         <f aca="false">SWISS10_H!N14</f>
         <v>0.00320703903953292</v>
       </c>
@@ -21116,11 +21097,11 @@
       <c r="I15" s="215"/>
       <c r="J15" s="215"/>
       <c r="K15" s="215"/>
-      <c r="L15" s="308"/>
+      <c r="L15" s="306"/>
       <c r="M15" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="310" t="n">
+      <c r="N15" s="308" t="n">
         <f aca="false">SWISS10_H!N15</f>
         <v>0.00224081573916082</v>
       </c>
@@ -21137,11 +21118,11 @@
       <c r="I16" s="215"/>
       <c r="J16" s="215"/>
       <c r="K16" s="215"/>
-      <c r="L16" s="308"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="310" t="n">
+      <c r="N16" s="308" t="n">
         <f aca="false">SWISS10_H!N16</f>
         <v>0.00199412042842752</v>
       </c>
@@ -21158,11 +21139,11 @@
       <c r="I17" s="215"/>
       <c r="J17" s="215"/>
       <c r="K17" s="215"/>
-      <c r="L17" s="308"/>
+      <c r="L17" s="306"/>
       <c r="M17" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="310" t="n">
+      <c r="N17" s="308" t="n">
         <f aca="false">SWISS10_H!N17</f>
         <v>0.00277532224574965</v>
       </c>
@@ -21179,11 +21160,11 @@
       <c r="I18" s="215"/>
       <c r="J18" s="215"/>
       <c r="K18" s="215"/>
-      <c r="L18" s="308"/>
+      <c r="L18" s="306"/>
       <c r="M18" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="310" t="n">
+      <c r="N18" s="308" t="n">
         <f aca="false">SWISS10_H!N18</f>
         <v>0.00624961453857698</v>
       </c>
@@ -21200,11 +21181,11 @@
       <c r="I19" s="215"/>
       <c r="J19" s="215"/>
       <c r="K19" s="215"/>
-      <c r="L19" s="308"/>
-      <c r="M19" s="309" t="s">
+      <c r="L19" s="306"/>
+      <c r="M19" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="310" t="n">
+      <c r="N19" s="308" t="n">
         <f aca="false">SWISS10_H!N19</f>
         <v>0.0248545525563802</v>
       </c>
@@ -21221,11 +21202,11 @@
       <c r="I20" s="215"/>
       <c r="J20" s="215"/>
       <c r="K20" s="215"/>
-      <c r="L20" s="308"/>
-      <c r="M20" s="311" t="s">
+      <c r="L20" s="306"/>
+      <c r="M20" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="312" t="n">
+      <c r="N20" s="310" t="n">
         <f aca="false">SWISS10_H!N20</f>
         <v>0.0522377320477767</v>
       </c>
@@ -21242,11 +21223,11 @@
       <c r="I21" s="215"/>
       <c r="J21" s="215"/>
       <c r="K21" s="215"/>
-      <c r="L21" s="308"/>
-      <c r="M21" s="311" t="s">
+      <c r="L21" s="306"/>
+      <c r="M21" s="309" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="310" t="n">
+      <c r="N21" s="308" t="n">
         <f aca="false">SWISS10_H!N21</f>
         <v>0.0480233538227494</v>
       </c>
@@ -21263,11 +21244,11 @@
       <c r="I22" s="215"/>
       <c r="J22" s="215"/>
       <c r="K22" s="215"/>
-      <c r="L22" s="308"/>
+      <c r="L22" s="306"/>
       <c r="M22" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="310" t="n">
+      <c r="N22" s="308" t="n">
         <f aca="false">SWISS10_H!N22</f>
         <v>0.0456591904282219</v>
       </c>
@@ -21284,11 +21265,11 @@
       <c r="I23" s="215"/>
       <c r="J23" s="215"/>
       <c r="K23" s="215"/>
-      <c r="L23" s="308"/>
+      <c r="L23" s="306"/>
       <c r="M23" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="310" t="n">
+      <c r="N23" s="308" t="n">
         <f aca="false">SWISS10_H!N23</f>
         <v>0.0490512509508048</v>
       </c>
@@ -21305,11 +21286,11 @@
       <c r="I24" s="215"/>
       <c r="J24" s="215"/>
       <c r="K24" s="215"/>
-      <c r="L24" s="308"/>
+      <c r="L24" s="306"/>
       <c r="M24" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="310" t="n">
+      <c r="N24" s="308" t="n">
         <f aca="false">SWISS10_H!N24</f>
         <v>0.0641613387332196</v>
       </c>
@@ -21326,11 +21307,11 @@
       <c r="I25" s="215"/>
       <c r="J25" s="215"/>
       <c r="K25" s="215"/>
-      <c r="L25" s="308"/>
+      <c r="L25" s="306"/>
       <c r="M25" s="268" t="s">
         <v>58</v>
       </c>
-      <c r="N25" s="310" t="n">
+      <c r="N25" s="308" t="n">
         <f aca="false">SWISS10_H!N25</f>
         <v>0.0594741278292868</v>
       </c>
@@ -21347,11 +21328,11 @@
       <c r="I26" s="215"/>
       <c r="J26" s="215"/>
       <c r="K26" s="215"/>
-      <c r="L26" s="308"/>
+      <c r="L26" s="306"/>
       <c r="M26" s="267" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="310" t="n">
+      <c r="N26" s="308" t="n">
         <f aca="false">SWISS10_H!N26</f>
         <v>0.0604814670147812</v>
       </c>
@@ -21368,11 +21349,11 @@
       <c r="I27" s="215"/>
       <c r="J27" s="215"/>
       <c r="K27" s="215"/>
-      <c r="L27" s="308"/>
+      <c r="L27" s="306"/>
       <c r="M27" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="310" t="n">
+      <c r="N27" s="308" t="n">
         <f aca="false">SWISS10_H!N27</f>
         <v>0.0549924963509652</v>
       </c>
@@ -21389,11 +21370,11 @@
       <c r="I28" s="215"/>
       <c r="J28" s="215"/>
       <c r="K28" s="215"/>
-      <c r="L28" s="308"/>
+      <c r="L28" s="306"/>
       <c r="M28" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="310" t="n">
+      <c r="N28" s="308" t="n">
         <f aca="false">SWISS10_H!N28</f>
         <v>0.0633184630882141</v>
       </c>
@@ -21410,11 +21391,11 @@
       <c r="I29" s="215"/>
       <c r="J29" s="215"/>
       <c r="K29" s="215"/>
-      <c r="L29" s="308"/>
-      <c r="M29" s="309" t="s">
+      <c r="L29" s="306"/>
+      <c r="M29" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="310" t="n">
+      <c r="N29" s="308" t="n">
         <f aca="false">SWISS10_H!N29</f>
         <v>0.0847398392368892</v>
       </c>
@@ -21431,11 +21412,11 @@
       <c r="I30" s="215"/>
       <c r="J30" s="215"/>
       <c r="K30" s="215"/>
-      <c r="L30" s="308"/>
-      <c r="M30" s="311" t="s">
+      <c r="L30" s="306"/>
+      <c r="M30" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="312" t="n">
+      <c r="N30" s="310" t="n">
         <f aca="false">SWISS10_H!N30</f>
         <v>0.118495980922229</v>
       </c>
@@ -21452,11 +21433,11 @@
       <c r="I31" s="215"/>
       <c r="J31" s="215"/>
       <c r="K31" s="215"/>
-      <c r="L31" s="308"/>
-      <c r="M31" s="311" t="s">
+      <c r="L31" s="306"/>
+      <c r="M31" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="310" t="n">
+      <c r="N31" s="308" t="n">
         <f aca="false">SWISS10_H!N31</f>
         <v>0.0892214707152108</v>
       </c>
@@ -21473,11 +21454,11 @@
       <c r="I32" s="215"/>
       <c r="J32" s="215"/>
       <c r="K32" s="215"/>
-      <c r="L32" s="308"/>
+      <c r="L32" s="306"/>
       <c r="M32" s="267" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="310" t="n">
+      <c r="N32" s="308" t="n">
         <f aca="false">SWISS10_H!N32</f>
         <v>0.0496268733425159</v>
       </c>
@@ -21494,11 +21475,11 @@
       <c r="I33" s="215"/>
       <c r="J33" s="215"/>
       <c r="K33" s="215"/>
-      <c r="L33" s="308"/>
+      <c r="L33" s="306"/>
       <c r="M33" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="310" t="n">
+      <c r="N33" s="308" t="n">
         <f aca="false">SWISS10_H!N33</f>
         <v>0.0351746397220566</v>
       </c>
@@ -21515,11 +21496,11 @@
       <c r="I34" s="215"/>
       <c r="J34" s="215"/>
       <c r="K34" s="215"/>
-      <c r="L34" s="308"/>
+      <c r="L34" s="306"/>
       <c r="M34" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="N34" s="310" t="n">
+      <c r="N34" s="308" t="n">
         <f aca="false">SWISS10_H!N34</f>
         <v>0.0322759698209403</v>
       </c>
@@ -21536,11 +21517,11 @@
       <c r="I35" s="215"/>
       <c r="J35" s="215"/>
       <c r="K35" s="215"/>
-      <c r="L35" s="308"/>
+      <c r="L35" s="306"/>
       <c r="M35" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="310" t="n">
+      <c r="N35" s="308" t="n">
         <f aca="false">SWISS10_H!N35</f>
         <v>0.0279793598256686</v>
       </c>
@@ -21557,54 +21538,54 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="313"/>
-      <c r="M36" s="314" t="s">
+      <c r="L36" s="311"/>
+      <c r="M36" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="N36" s="315" t="n">
+      <c r="N36" s="313" t="n">
         <f aca="false">SWISS10_H!N36</f>
         <v>0.0159940793125424</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="316" t="str">
+      <c r="B38" s="314" t="str">
         <f aca="false">SWISS10_H!B12</f>
         <v>CAR (1)</v>
       </c>
-      <c r="C38" s="317" t="str">
+      <c r="C38" s="315" t="str">
         <f aca="false">SWISS10_H!C12</f>
         <v>MR (2)</v>
       </c>
-      <c r="D38" s="317" t="str">
+      <c r="D38" s="315" t="str">
         <f aca="false">SWISS10_H!D12</f>
         <v>PW (3)</v>
       </c>
-      <c r="E38" s="317" t="str">
+      <c r="E38" s="315" t="str">
         <f aca="false">SWISS10_H!E12</f>
         <v>PW+AH(4)</v>
       </c>
-      <c r="F38" s="317" t="str">
+      <c r="F38" s="315" t="str">
         <f aca="false">SWISS10_H!F12</f>
         <v>LIE (5)</v>
       </c>
-      <c r="G38" s="317" t="str">
+      <c r="G38" s="315" t="str">
         <f aca="false">SWISS10_H!G12</f>
         <v>LIE+AH(6)</v>
       </c>
-      <c r="H38" s="317" t="str">
+      <c r="H38" s="315" t="str">
         <f aca="false">SWISS10_H!H12</f>
         <v>LIE+AL(7)</v>
       </c>
-      <c r="I38" s="317" t="str">
+      <c r="I38" s="315" t="str">
         <f aca="false">SWISS10_H!I12</f>
         <v>LW (8)</v>
       </c>
-      <c r="J38" s="317" t="str">
+      <c r="J38" s="315" t="str">
         <f aca="false">SWISS10_H!J12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="K38" s="329" t="str">
+      <c r="K38" s="327" t="str">
         <f aca="false">SWISS10_H!K12</f>
         <v>SZ (10)</v>
       </c>
@@ -21613,151 +21594,151 @@
       <c r="A39" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="274" t="n">
+      <c r="B39" s="273" t="n">
         <f aca="false">SWISS10_H!B38</f>
         <v>0.00489279032954382</v>
       </c>
-      <c r="C39" s="318" t="n">
+      <c r="C39" s="316" t="n">
         <f aca="false">SWISS10_H!C38</f>
         <v>0.0236210760027136</v>
       </c>
-      <c r="D39" s="318" t="n">
+      <c r="D39" s="316" t="n">
         <f aca="false">SWISS10_H!D38</f>
         <v>0.922948831280965</v>
       </c>
-      <c r="E39" s="318" t="n">
+      <c r="E39" s="316" t="n">
         <f aca="false">SWISS10_H!E38</f>
         <v>0.00222025779659972</v>
       </c>
-      <c r="F39" s="318" t="n">
+      <c r="F39" s="316" t="n">
         <f aca="false">SWISS10_H!F38</f>
         <v>0.0351129658943733</v>
       </c>
-      <c r="G39" s="318" t="n">
+      <c r="G39" s="316" t="n">
         <f aca="false">SWISS10_H!G38</f>
         <v>0.00238472133708858</v>
       </c>
-      <c r="H39" s="318" t="n">
+      <c r="H39" s="316" t="n">
         <f aca="false">SWISS10_H!H38</f>
         <v>0.000616738276833254</v>
       </c>
-      <c r="I39" s="318" t="n">
+      <c r="I39" s="316" t="n">
         <f aca="false">SWISS10_H!I38</f>
         <v>0.0067841210451658</v>
       </c>
-      <c r="J39" s="318" t="n">
+      <c r="J39" s="316" t="n">
         <f aca="false">SWISS10_H!J38</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="K39" s="330" t="n">
+      <c r="K39" s="328" t="n">
         <f aca="false">SWISS10_H!K38</f>
         <v>0.000904549472688773</v>
       </c>
-      <c r="L39" s="319"/>
+      <c r="L39" s="317"/>
       <c r="M39" s="83"/>
-      <c r="N39" s="320" t="n">
+      <c r="N39" s="318" t="n">
         <f aca="false">SWISS10_H!N38</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B40" s="278" t="n">
+      <c r="B40" s="277" t="n">
         <f aca="false">SWISS10_H!B39</f>
         <v>0.00479000061673828</v>
       </c>
-      <c r="C40" s="321" t="n">
+      <c r="C40" s="319" t="n">
         <f aca="false">SWISS10_H!C39</f>
         <v>0.0223464835639249</v>
       </c>
-      <c r="D40" s="321" t="n">
+      <c r="D40" s="319" t="n">
         <f aca="false">SWISS10_H!D39</f>
         <v>0.85923976728409</v>
       </c>
-      <c r="E40" s="321" t="n">
+      <c r="E40" s="319" t="n">
         <f aca="false">SWISS10_H!E39</f>
         <v>0.0021791419114775</v>
       </c>
-      <c r="F40" s="321" t="n">
+      <c r="F40" s="319" t="n">
         <f aca="false">SWISS10_H!F39</f>
         <v>0.0332627510638735</v>
       </c>
-      <c r="G40" s="321" t="n">
+      <c r="G40" s="319" t="n">
         <f aca="false">SWISS10_H!G39</f>
         <v>0.00232304750940526</v>
       </c>
-      <c r="H40" s="321" t="n">
+      <c r="H40" s="319" t="n">
         <f aca="false">SWISS10_H!H39</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="I40" s="321" t="n">
+      <c r="I40" s="319" t="n">
         <f aca="false">SWISS10_H!I39</f>
         <v>0.00600291922784368</v>
       </c>
-      <c r="J40" s="321" t="n">
+      <c r="J40" s="319" t="n">
         <f aca="false">SWISS10_H!J39</f>
         <v>0.000431716793783278</v>
       </c>
-      <c r="K40" s="331" t="n">
+      <c r="K40" s="329" t="n">
         <f aca="false">SWISS10_H!K39</f>
         <v>0.000698970047077688</v>
       </c>
-      <c r="L40" s="319"/>
+      <c r="L40" s="317"/>
       <c r="M40" s="83"/>
-      <c r="N40" s="312" t="n">
+      <c r="N40" s="310" t="n">
         <f aca="false">SWISS10_H!N39</f>
         <v>0.931788746582242</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="281" t="s">
+      <c r="A41" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="282" t="n">
+      <c r="B41" s="281" t="n">
         <f aca="false">SWISS10_H!B40</f>
         <v>0.000102789712805543</v>
       </c>
-      <c r="C41" s="283" t="n">
+      <c r="C41" s="282" t="n">
         <f aca="false">SWISS10_H!C40</f>
         <v>0.00127459243878873</v>
       </c>
-      <c r="D41" s="283" t="n">
+      <c r="D41" s="282" t="n">
         <f aca="false">SWISS10_H!D40</f>
         <v>0.0637090639968752</v>
       </c>
-      <c r="E41" s="283" t="n">
+      <c r="E41" s="282" t="n">
         <f aca="false">SWISS10_H!E40</f>
         <v>4.11158851222168E-005</v>
       </c>
-      <c r="F41" s="283" t="n">
+      <c r="F41" s="282" t="n">
         <f aca="false">SWISS10_H!F40</f>
         <v>0.00185021483049977</v>
       </c>
-      <c r="G41" s="283" t="n">
+      <c r="G41" s="282" t="n">
         <f aca="false">SWISS10_H!G40</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H41" s="322" t="n">
+      <c r="H41" s="320" t="n">
         <f aca="false">SWISS10_H!H40</f>
         <v>0.000102789712805542</v>
       </c>
-      <c r="I41" s="283" t="n">
+      <c r="I41" s="282" t="n">
         <f aca="false">SWISS10_H!I40</f>
         <v>0.000781201817322122</v>
       </c>
-      <c r="J41" s="283" t="n">
+      <c r="J41" s="282" t="n">
         <f aca="false">SWISS10_H!J40</f>
         <v>8.22317702444339E-005</v>
       </c>
-      <c r="K41" s="336" t="n">
+      <c r="K41" s="333" t="n">
         <f aca="false">SWISS10_H!K40</f>
         <v>0.000205579425611085</v>
       </c>
-      <c r="L41" s="319"/>
+      <c r="L41" s="317"/>
       <c r="M41" s="83"/>
-      <c r="N41" s="323" t="n">
+      <c r="N41" s="321" t="n">
         <f aca="false">SWISS10_H!N40</f>
         <v>0.0682112534177581</v>
       </c>
@@ -21766,26 +21747,26 @@
       <c r="A44" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="B44" s="287" t="str">
+      <c r="B44" s="50" t="str">
         <f aca="false">B5</f>
         <v>Auvernier Gir. de Brena</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="304"/>
-      <c r="B46" s="305"/>
-      <c r="C46" s="305"/>
-      <c r="D46" s="305"/>
-      <c r="E46" s="305"/>
-      <c r="F46" s="305"/>
-      <c r="G46" s="305"/>
-      <c r="H46" s="305"/>
-      <c r="I46" s="340"/>
-      <c r="J46" s="305"/>
-      <c r="K46" s="324"/>
-      <c r="L46" s="325"/>
-      <c r="M46" s="307"/>
+      <c r="A46" s="302"/>
+      <c r="B46" s="303"/>
+      <c r="C46" s="303"/>
+      <c r="D46" s="303"/>
+      <c r="E46" s="303"/>
+      <c r="F46" s="303"/>
+      <c r="G46" s="303"/>
+      <c r="H46" s="303"/>
+      <c r="I46" s="337"/>
+      <c r="J46" s="303"/>
+      <c r="K46" s="322"/>
+      <c r="L46" s="323"/>
+      <c r="M46" s="305"/>
       <c r="N46" s="259" t="str">
         <f aca="false">N11</f>
         <v>Part du TJM</v>
@@ -21802,8 +21783,8 @@
       <c r="H47" s="215"/>
       <c r="I47" s="215"/>
       <c r="J47" s="215"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="294"/>
+      <c r="K47" s="292"/>
+      <c r="L47" s="292"/>
       <c r="M47" s="264" t="s">
         <v>251</v>
       </c>
@@ -21820,12 +21801,12 @@
       <c r="H48" s="215"/>
       <c r="I48" s="215"/>
       <c r="J48" s="215"/>
-      <c r="K48" s="294"/>
-      <c r="L48" s="294"/>
+      <c r="K48" s="292"/>
+      <c r="L48" s="292"/>
       <c r="M48" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="N48" s="310" t="n">
+      <c r="N48" s="308" t="n">
         <f aca="false">SWISS10_H!N46</f>
         <v>0.0058786741713571</v>
       </c>
@@ -21841,12 +21822,12 @@
       <c r="H49" s="215"/>
       <c r="I49" s="215"/>
       <c r="J49" s="215"/>
-      <c r="K49" s="294"/>
-      <c r="L49" s="294"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
       <c r="M49" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="N49" s="310" t="n">
+      <c r="N49" s="308" t="n">
         <f aca="false">SWISS10_H!N47</f>
         <v>0.002897644361059</v>
       </c>
@@ -21862,12 +21843,12 @@
       <c r="H50" s="215"/>
       <c r="I50" s="215"/>
       <c r="J50" s="215"/>
-      <c r="K50" s="294"/>
-      <c r="L50" s="294"/>
+      <c r="K50" s="292"/>
+      <c r="L50" s="292"/>
       <c r="M50" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="N50" s="310" t="n">
+      <c r="N50" s="308" t="n">
         <f aca="false">SWISS10_H!N48</f>
         <v>0.00191786533249948</v>
       </c>
@@ -21883,12 +21864,12 @@
       <c r="H51" s="215"/>
       <c r="I51" s="215"/>
       <c r="J51" s="215"/>
-      <c r="K51" s="294"/>
-      <c r="L51" s="294"/>
+      <c r="K51" s="292"/>
+      <c r="L51" s="292"/>
       <c r="M51" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="N51" s="310" t="n">
+      <c r="N51" s="308" t="n">
         <f aca="false">SWISS10_H!N49</f>
         <v>0.0021680216802168</v>
       </c>
@@ -21904,12 +21885,12 @@
       <c r="H52" s="215"/>
       <c r="I52" s="215"/>
       <c r="J52" s="215"/>
-      <c r="K52" s="294"/>
-      <c r="L52" s="294"/>
+      <c r="K52" s="292"/>
+      <c r="L52" s="292"/>
       <c r="M52" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="N52" s="310" t="n">
+      <c r="N52" s="308" t="n">
         <f aca="false">SWISS10_H!N50</f>
         <v>0.00685845319991662</v>
       </c>
@@ -21925,12 +21906,12 @@
       <c r="H53" s="215"/>
       <c r="I53" s="215"/>
       <c r="J53" s="215"/>
-      <c r="K53" s="294"/>
-      <c r="L53" s="294"/>
+      <c r="K53" s="292"/>
+      <c r="L53" s="292"/>
       <c r="M53" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="N53" s="310" t="n">
+      <c r="N53" s="308" t="n">
         <f aca="false">SWISS10_H!N51</f>
         <v>0.0124661246612466</v>
       </c>
@@ -21946,12 +21927,12 @@
       <c r="H54" s="215"/>
       <c r="I54" s="215"/>
       <c r="J54" s="215"/>
-      <c r="K54" s="294"/>
-      <c r="L54" s="294"/>
-      <c r="M54" s="309" t="s">
+      <c r="K54" s="292"/>
+      <c r="L54" s="292"/>
+      <c r="M54" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="N54" s="310" t="n">
+      <c r="N54" s="308" t="n">
         <f aca="false">SWISS10_H!N52</f>
         <v>0.0446112153429227</v>
       </c>
@@ -21967,12 +21948,12 @@
       <c r="H55" s="215"/>
       <c r="I55" s="215"/>
       <c r="J55" s="215"/>
-      <c r="K55" s="294"/>
-      <c r="L55" s="294"/>
-      <c r="M55" s="311" t="s">
+      <c r="K55" s="292"/>
+      <c r="L55" s="292"/>
+      <c r="M55" s="309" t="s">
         <v>53</v>
       </c>
-      <c r="N55" s="312" t="n">
+      <c r="N55" s="310" t="n">
         <f aca="false">SWISS10_H!N53</f>
         <v>0.0747759016051699</v>
       </c>
@@ -21988,12 +21969,12 @@
       <c r="H56" s="215"/>
       <c r="I56" s="215"/>
       <c r="J56" s="215"/>
-      <c r="K56" s="294"/>
-      <c r="L56" s="294"/>
-      <c r="M56" s="311" t="s">
+      <c r="K56" s="292"/>
+      <c r="L56" s="292"/>
+      <c r="M56" s="309" t="s">
         <v>54</v>
       </c>
-      <c r="N56" s="310" t="n">
+      <c r="N56" s="308" t="n">
         <f aca="false">SWISS10_H!N54</f>
         <v>0.0587450489889514</v>
       </c>
@@ -22009,12 +21990,12 @@
       <c r="H57" s="215"/>
       <c r="I57" s="215"/>
       <c r="J57" s="215"/>
-      <c r="K57" s="294"/>
-      <c r="L57" s="294"/>
+      <c r="K57" s="292"/>
+      <c r="L57" s="292"/>
       <c r="M57" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="N57" s="310" t="n">
+      <c r="N57" s="308" t="n">
         <f aca="false">SWISS10_H!N55</f>
         <v>0.0515947467166979</v>
       </c>
@@ -22030,12 +22011,12 @@
       <c r="H58" s="215"/>
       <c r="I58" s="215"/>
       <c r="J58" s="215"/>
-      <c r="K58" s="294"/>
-      <c r="L58" s="294"/>
+      <c r="K58" s="292"/>
+      <c r="L58" s="292"/>
       <c r="M58" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="N58" s="310" t="n">
+      <c r="N58" s="308" t="n">
         <f aca="false">SWISS10_H!N56</f>
         <v>0.0565770273087346</v>
       </c>
@@ -22051,12 +22032,12 @@
       <c r="H59" s="215"/>
       <c r="I59" s="215"/>
       <c r="J59" s="215"/>
-      <c r="K59" s="294"/>
-      <c r="L59" s="294"/>
+      <c r="K59" s="292"/>
+      <c r="L59" s="292"/>
       <c r="M59" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="N59" s="310" t="n">
+      <c r="N59" s="308" t="n">
         <f aca="false">SWISS10_H!N57</f>
         <v>0.0706066291432145</v>
       </c>
@@ -22072,12 +22053,12 @@
       <c r="H60" s="215"/>
       <c r="I60" s="215"/>
       <c r="J60" s="215"/>
-      <c r="K60" s="294"/>
-      <c r="L60" s="294"/>
+      <c r="K60" s="292"/>
+      <c r="L60" s="292"/>
       <c r="M60" s="268" t="s">
         <v>58</v>
       </c>
-      <c r="N60" s="310" t="n">
+      <c r="N60" s="308" t="n">
         <f aca="false">SWISS10_H!N58</f>
         <v>0.0594955180321034</v>
       </c>
@@ -22093,12 +22074,12 @@
       <c r="H61" s="215"/>
       <c r="I61" s="215"/>
       <c r="J61" s="215"/>
-      <c r="K61" s="294"/>
-      <c r="L61" s="294"/>
+      <c r="K61" s="292"/>
+      <c r="L61" s="292"/>
       <c r="M61" s="267" t="s">
         <v>59</v>
       </c>
-      <c r="N61" s="310" t="n">
+      <c r="N61" s="308" t="n">
         <f aca="false">SWISS10_H!N59</f>
         <v>0.0662914321450907</v>
       </c>
@@ -22114,12 +22095,12 @@
       <c r="H62" s="215"/>
       <c r="I62" s="215"/>
       <c r="J62" s="215"/>
-      <c r="K62" s="294"/>
-      <c r="L62" s="294"/>
+      <c r="K62" s="292"/>
+      <c r="L62" s="292"/>
       <c r="M62" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="N62" s="310" t="n">
+      <c r="N62" s="308" t="n">
         <f aca="false">SWISS10_H!N60</f>
         <v>0.058411507191995</v>
       </c>
@@ -22135,12 +22116,12 @@
       <c r="H63" s="215"/>
       <c r="I63" s="215"/>
       <c r="J63" s="215"/>
-      <c r="K63" s="294"/>
-      <c r="L63" s="294"/>
+      <c r="K63" s="292"/>
+      <c r="L63" s="292"/>
       <c r="M63" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="N63" s="310" t="n">
+      <c r="N63" s="308" t="n">
         <f aca="false">SWISS10_H!N61</f>
         <v>0.0617260787992495</v>
       </c>
@@ -22156,12 +22137,12 @@
       <c r="H64" s="215"/>
       <c r="I64" s="215"/>
       <c r="J64" s="215"/>
-      <c r="K64" s="294"/>
-      <c r="L64" s="294"/>
-      <c r="M64" s="309" t="s">
+      <c r="K64" s="292"/>
+      <c r="L64" s="292"/>
+      <c r="M64" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="310" t="n">
+      <c r="N64" s="308" t="n">
         <f aca="false">SWISS10_H!N62</f>
         <v>0.0747342088805503</v>
       </c>
@@ -22177,12 +22158,12 @@
       <c r="H65" s="215"/>
       <c r="I65" s="215"/>
       <c r="J65" s="215"/>
-      <c r="K65" s="294"/>
-      <c r="L65" s="294"/>
-      <c r="M65" s="311" t="s">
+      <c r="K65" s="292"/>
+      <c r="L65" s="292"/>
+      <c r="M65" s="309" t="s">
         <v>63</v>
       </c>
-      <c r="N65" s="312" t="n">
+      <c r="N65" s="310" t="n">
         <f aca="false">SWISS10_H!N63</f>
         <v>0.0808630393996248</v>
       </c>
@@ -22198,12 +22179,12 @@
       <c r="H66" s="215"/>
       <c r="I66" s="215"/>
       <c r="J66" s="215"/>
-      <c r="K66" s="294"/>
-      <c r="L66" s="294"/>
-      <c r="M66" s="311" t="s">
+      <c r="K66" s="292"/>
+      <c r="L66" s="292"/>
+      <c r="M66" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="N66" s="310" t="n">
+      <c r="N66" s="308" t="n">
         <f aca="false">SWISS10_H!N64</f>
         <v>0.0680425265791119</v>
       </c>
@@ -22219,12 +22200,12 @@
       <c r="H67" s="215"/>
       <c r="I67" s="215"/>
       <c r="J67" s="215"/>
-      <c r="K67" s="294"/>
-      <c r="L67" s="294"/>
+      <c r="K67" s="292"/>
+      <c r="L67" s="292"/>
       <c r="M67" s="267" t="s">
         <v>65</v>
       </c>
-      <c r="N67" s="310" t="n">
+      <c r="N67" s="308" t="n">
         <f aca="false">SWISS10_H!N65</f>
         <v>0.0480508651240358</v>
       </c>
@@ -22240,12 +22221,12 @@
       <c r="H68" s="215"/>
       <c r="I68" s="215"/>
       <c r="J68" s="215"/>
-      <c r="K68" s="294"/>
-      <c r="L68" s="294"/>
+      <c r="K68" s="292"/>
+      <c r="L68" s="292"/>
       <c r="M68" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="N68" s="310" t="n">
+      <c r="N68" s="308" t="n">
         <f aca="false">SWISS10_H!N66</f>
         <v>0.0314363143631436</v>
       </c>
@@ -22261,12 +22242,12 @@
       <c r="H69" s="215"/>
       <c r="I69" s="215"/>
       <c r="J69" s="215"/>
-      <c r="K69" s="294"/>
-      <c r="L69" s="294"/>
+      <c r="K69" s="292"/>
+      <c r="L69" s="292"/>
       <c r="M69" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="N69" s="310" t="n">
+      <c r="N69" s="308" t="n">
         <f aca="false">SWISS10_H!N67</f>
         <v>0.0254951011048572</v>
       </c>
@@ -22282,12 +22263,12 @@
       <c r="H70" s="215"/>
       <c r="I70" s="215"/>
       <c r="J70" s="215"/>
-      <c r="K70" s="294"/>
-      <c r="L70" s="294"/>
+      <c r="K70" s="292"/>
+      <c r="L70" s="292"/>
       <c r="M70" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="N70" s="310" t="n">
+      <c r="N70" s="308" t="n">
         <f aca="false">SWISS10_H!N68</f>
         <v>0.0229726912653742</v>
       </c>
@@ -22303,55 +22284,55 @@
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="326"/>
-      <c r="L71" s="327"/>
-      <c r="M71" s="328" t="s">
+      <c r="K71" s="324"/>
+      <c r="L71" s="325"/>
+      <c r="M71" s="326" t="s">
         <v>69</v>
       </c>
-      <c r="N71" s="315" t="n">
+      <c r="N71" s="313" t="n">
         <f aca="false">SWISS10_H!N69</f>
         <v>0.0133833646028768</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="316" t="str">
+      <c r="B73" s="314" t="str">
         <f aca="false">B38</f>
         <v>CAR (1)</v>
       </c>
-      <c r="C73" s="317" t="str">
+      <c r="C73" s="315" t="str">
         <f aca="false">C38</f>
         <v>MR (2)</v>
       </c>
-      <c r="D73" s="317" t="str">
+      <c r="D73" s="315" t="str">
         <f aca="false">D38</f>
         <v>PW (3)</v>
       </c>
-      <c r="E73" s="317" t="str">
+      <c r="E73" s="315" t="str">
         <f aca="false">E38</f>
         <v>PW+AH(4)</v>
       </c>
-      <c r="F73" s="317" t="str">
+      <c r="F73" s="315" t="str">
         <f aca="false">F38</f>
         <v>LIE (5)</v>
       </c>
-      <c r="G73" s="317" t="str">
+      <c r="G73" s="315" t="str">
         <f aca="false">G38</f>
         <v>LIE+AH(6)</v>
       </c>
-      <c r="H73" s="317" t="str">
+      <c r="H73" s="315" t="str">
         <f aca="false">H38</f>
         <v>LIE+AL(7)</v>
       </c>
-      <c r="I73" s="317" t="str">
+      <c r="I73" s="315" t="str">
         <f aca="false">I38</f>
         <v>LW (8)</v>
       </c>
-      <c r="J73" s="317" t="str">
+      <c r="J73" s="315" t="str">
         <f aca="false">J38</f>
         <v>LZ (9)</v>
       </c>
-      <c r="K73" s="329" t="str">
+      <c r="K73" s="327" t="str">
         <f aca="false">K38</f>
         <v>SZ (10)</v>
       </c>
@@ -22360,151 +22341,151 @@
       <c r="A74" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B74" s="274" t="n">
+      <c r="B74" s="273" t="n">
         <f aca="false">SWISS10_H!B71</f>
         <v>0.00514905149051491</v>
       </c>
-      <c r="C74" s="318" t="n">
+      <c r="C74" s="316" t="n">
         <f aca="false">SWISS10_H!C71</f>
         <v>0.0210965186574943</v>
       </c>
-      <c r="D74" s="318" t="n">
+      <c r="D74" s="316" t="n">
         <f aca="false">SWISS10_H!D71</f>
         <v>0.919699812382739</v>
       </c>
-      <c r="E74" s="318" t="n">
+      <c r="E74" s="316" t="n">
         <f aca="false">SWISS10_H!E71</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F74" s="318" t="n">
+      <c r="F74" s="316" t="n">
         <f aca="false">SWISS10_H!F71</f>
         <v>0.0379195330414843</v>
       </c>
-      <c r="G74" s="318" t="n">
+      <c r="G74" s="316" t="n">
         <f aca="false">SWISS10_H!G71</f>
         <v>0.00308526162184699</v>
       </c>
-      <c r="H74" s="318" t="n">
+      <c r="H74" s="316" t="n">
         <f aca="false">SWISS10_H!H71</f>
         <v>0.000771315405461747</v>
       </c>
-      <c r="I74" s="318" t="n">
+      <c r="I74" s="316" t="n">
         <f aca="false">SWISS10_H!I71</f>
         <v>0.00756722951844903</v>
       </c>
-      <c r="J74" s="318" t="n">
+      <c r="J74" s="316" t="n">
         <f aca="false">SWISS10_H!J71</f>
         <v>0.000687929956222639</v>
       </c>
-      <c r="K74" s="330" t="n">
+      <c r="K74" s="328" t="n">
         <f aca="false">SWISS10_H!K71</f>
         <v>0.00168855534709193</v>
       </c>
-      <c r="L74" s="319"/>
+      <c r="L74" s="317"/>
       <c r="M74" s="83"/>
-      <c r="N74" s="320" t="n">
+      <c r="N74" s="318" t="n">
         <f aca="false">SWISS10_H!N71</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="277" t="s">
+      <c r="A75" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B75" s="278" t="n">
+      <c r="B75" s="277" t="n">
         <f aca="false">SWISS10_H!B72</f>
         <v>0.00496143422972691</v>
       </c>
-      <c r="C75" s="321" t="n">
+      <c r="C75" s="319" t="n">
         <f aca="false">SWISS10_H!C72</f>
         <v>0.0197831978319783</v>
       </c>
-      <c r="D75" s="321" t="n">
+      <c r="D75" s="319" t="n">
         <f aca="false">SWISS10_H!D72</f>
         <v>0.856139253700229</v>
       </c>
-      <c r="E75" s="321" t="n">
+      <c r="E75" s="319" t="n">
         <f aca="false">SWISS10_H!E72</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F75" s="321" t="n">
+      <c r="F75" s="319" t="n">
         <f aca="false">SWISS10_H!F72</f>
         <v>0.0353345841150719</v>
       </c>
-      <c r="G75" s="321" t="n">
+      <c r="G75" s="319" t="n">
         <f aca="false">SWISS10_H!G72</f>
         <v>0.00302272253491766</v>
       </c>
-      <c r="H75" s="321" t="n">
+      <c r="H75" s="319" t="n">
         <f aca="false">SWISS10_H!H72</f>
         <v>0.000708776318532416</v>
       </c>
-      <c r="I75" s="321" t="n">
+      <c r="I75" s="319" t="n">
         <f aca="false">SWISS10_H!I72</f>
         <v>0.00692099228684595</v>
       </c>
-      <c r="J75" s="321" t="n">
+      <c r="J75" s="319" t="n">
         <f aca="false">SWISS10_H!J72</f>
         <v>0.000667083593912862</v>
       </c>
-      <c r="K75" s="331" t="n">
+      <c r="K75" s="329" t="n">
         <f aca="false">SWISS10_H!K72</f>
         <v>0.00158432353554305</v>
       </c>
-      <c r="L75" s="319"/>
+      <c r="L75" s="317"/>
       <c r="M75" s="83"/>
-      <c r="N75" s="312" t="n">
+      <c r="N75" s="310" t="n">
         <f aca="false">SWISS10_H!N72</f>
         <v>0.931457160725454</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="281" t="s">
+      <c r="A76" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="282" t="n">
+      <c r="B76" s="281" t="n">
         <f aca="false">SWISS10_H!B73</f>
         <v>0.000187617260787993</v>
       </c>
-      <c r="C76" s="283" t="n">
+      <c r="C76" s="282" t="n">
         <f aca="false">SWISS10_H!C73</f>
         <v>0.00131332082551595</v>
       </c>
-      <c r="D76" s="283" t="n">
+      <c r="D76" s="282" t="n">
         <f aca="false">SWISS10_H!D73</f>
         <v>0.0635605586825099</v>
       </c>
-      <c r="E76" s="283" t="n">
+      <c r="E76" s="282" t="n">
         <f aca="false">SWISS10_H!E73</f>
         <v>0</v>
       </c>
-      <c r="F76" s="283" t="n">
+      <c r="F76" s="282" t="n">
         <f aca="false">SWISS10_H!F73</f>
         <v>0.00258494892641234</v>
       </c>
-      <c r="G76" s="283" t="n">
+      <c r="G76" s="282" t="n">
         <f aca="false">SWISS10_H!G73</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="H76" s="322" t="n">
+      <c r="H76" s="320" t="n">
         <f aca="false">SWISS10_H!H73</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="I76" s="283" t="n">
+      <c r="I76" s="282" t="n">
         <f aca="false">SWISS10_H!I73</f>
         <v>0.000646237231603086</v>
       </c>
-      <c r="J76" s="283" t="n">
+      <c r="J76" s="282" t="n">
         <f aca="false">SWISS10_H!J73</f>
         <v>2.08463623097769E-005</v>
       </c>
-      <c r="K76" s="336" t="n">
+      <c r="K76" s="333" t="n">
         <f aca="false">SWISS10_H!K73</f>
         <v>0.000104231811548885</v>
       </c>
-      <c r="L76" s="319"/>
+      <c r="L76" s="317"/>
       <c r="M76" s="83"/>
-      <c r="N76" s="323" t="n">
+      <c r="N76" s="321" t="n">
         <f aca="false">SWISS10_H!N73</f>
         <v>0.0685428392745464</v>
       </c>
@@ -22552,7 +22533,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22588,8 +22569,6 @@
         <v>Comptage 2017</v>
       </c>
       <c r="J2" s="52"/>
-      <c r="K2" s="0"/>
-      <c r="N2" s="0"/>
       <c r="P2" s="54" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
@@ -22602,8 +22581,6 @@
       </c>
       <c r="G3" s="56"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="0"/>
-      <c r="N3" s="0"/>
       <c r="P3" s="57" t="str">
         <f aca="false">Data_count!B7</f>
         <v>Modèle : M660_LT</v>
@@ -22618,8 +22595,6 @@
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="0"/>
-      <c r="N4" s="0"/>
       <c r="P4" s="57" t="str">
         <f aca="false">Data_count!B8</f>
         <v>Classification : SWISS10</v>
@@ -22634,8 +22609,6 @@
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="0"/>
-      <c r="N5" s="0"/>
       <c r="P5" s="57" t="str">
         <f aca="false">Data_count!B9</f>
         <v>Comptage véhicule par véhicule</v>
@@ -22647,7 +22620,7 @@
       <c r="J6" s="52"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="55"/>
       <c r="C7" s="59"/>
       <c r="F7" s="60" t="str">
@@ -22664,58 +22637,58 @@
       <c r="A10" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="287" t="str">
+      <c r="B10" s="50" t="str">
         <f aca="false">B4</f>
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="341" t="str">
+      <c r="A11" s="338" t="str">
         <f aca="false">Data!AW42&amp;" =&gt; avec un usage de "&amp;TEXT(Data!H2,0)&amp;" voie(s) : "&amp;Data!AW43&amp;"  "&amp;Data!AW44</f>
         <v>Vitesse moyenne spatiale = 48 km/h =&gt; avec un usage de 1 voie(s) : Densité critique Kc = 31 Veh/km  Débit max Q = 1467 Veh/h</v>
       </c>
-      <c r="B11" s="341"/>
-      <c r="C11" s="341"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="341"/>
-      <c r="G11" s="341"/>
-      <c r="H11" s="341"/>
-      <c r="I11" s="341"/>
-      <c r="J11" s="341"/>
-      <c r="K11" s="341"/>
-      <c r="L11" s="341"/>
-      <c r="M11" s="341"/>
-      <c r="N11" s="341"/>
-      <c r="O11" s="341"/>
-      <c r="P11" s="341"/>
-      <c r="Q11" s="342"/>
-      <c r="R11" s="342"/>
-      <c r="S11" s="342"/>
-      <c r="T11" s="342"/>
+      <c r="B11" s="338"/>
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="338"/>
+      <c r="M11" s="338"/>
+      <c r="N11" s="338"/>
+      <c r="O11" s="338"/>
+      <c r="P11" s="338"/>
+      <c r="Q11" s="339"/>
+      <c r="R11" s="339"/>
+      <c r="S11" s="339"/>
+      <c r="T11" s="339"/>
     </row>
     <row r="12" s="224" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="288" t="str">
+      <c r="B12" s="286" t="str">
         <f aca="false">"Distribution de la Vitesse par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)"</f>
         <v>Distribution de la Vitesse par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
+      <c r="C12" s="286"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="286"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="286"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="286"/>
+      <c r="L12" s="286"/>
+      <c r="M12" s="286"/>
       <c r="O12" s="258" t="s">
         <v>275</v>
       </c>
-      <c r="P12" s="333"/>
+      <c r="P12" s="330"/>
       <c r="R12" s="27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
@@ -22726,69 +22699,57 @@
       <c r="A13" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="289" t="str">
-        <f aca="false">FIXED(Data!AO8,0)&amp;" km/h"</f>
-        <v>30 km/h</v>
-      </c>
-      <c r="C13" s="188" t="str">
-        <f aca="false">FIXED(Data!AP8,0)&amp;" km/h"</f>
-        <v>40 km/h</v>
-      </c>
-      <c r="D13" s="188" t="str">
-        <f aca="false">FIXED(Data!AQ8,0)&amp;" km/h"</f>
-        <v>50 km/h</v>
-      </c>
-      <c r="E13" s="188" t="str">
-        <f aca="false">FIXED(Data!AR8,0)&amp;" km/h"</f>
-        <v>60 km/h</v>
-      </c>
-      <c r="F13" s="188" t="str">
-        <f aca="false">FIXED(Data!AS8,0)&amp;" km/h"</f>
-        <v>70 km/h</v>
-      </c>
-      <c r="G13" s="188" t="str">
-        <f aca="false">FIXED(Data!AT8,0)&amp;" km/h"</f>
-        <v>80 km/h</v>
-      </c>
-      <c r="H13" s="188" t="str">
-        <f aca="false">FIXED(Data!AU8,0)&amp;" km/h"</f>
-        <v>90 km/h</v>
-      </c>
-      <c r="I13" s="188" t="str">
-        <f aca="false">FIXED(Data!AV8,0)&amp;" km/h"</f>
-        <v>100 km/h</v>
-      </c>
-      <c r="J13" s="188" t="str">
-        <f aca="false">FIXED(Data!AW8,0)&amp;" km/h"</f>
-        <v>110 km/h</v>
-      </c>
-      <c r="K13" s="188" t="str">
-        <f aca="false">FIXED(Data!AX8,0)&amp;" km/h"</f>
-        <v>120 km/h</v>
-      </c>
-      <c r="L13" s="188" t="str">
-        <f aca="false">FIXED(Data!AY8,0)&amp;" km/h"</f>
-        <v>130 km/h</v>
-      </c>
-      <c r="M13" s="292" t="str">
-        <f aca="false">"&gt; "&amp;L13</f>
-        <v>&gt; 130 km/h</v>
-      </c>
-      <c r="O13" s="343" t="s">
-        <v>284</v>
+      <c r="B13" s="287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="188" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="188" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="188" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="188" t="s">
+        <v>291</v>
+      </c>
+      <c r="G13" s="188" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="188" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="188" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="188" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="188" t="s">
+        <v>296</v>
+      </c>
+      <c r="L13" s="188" t="s">
+        <v>297</v>
+      </c>
+      <c r="M13" s="290" t="s">
+        <v>298</v>
+      </c>
+      <c r="O13" s="340" t="s">
+        <v>299</v>
       </c>
       <c r="P13" s="5"/>
-      <c r="R13" s="344" t="s">
-        <v>285</v>
-      </c>
-      <c r="S13" s="345" t="s">
-        <v>286</v>
-      </c>
-      <c r="T13" s="346" t="s">
-        <v>287</v>
-      </c>
-      <c r="U13" s="347" t="s">
-        <v>288</v>
+      <c r="R13" s="341" t="s">
+        <v>300</v>
+      </c>
+      <c r="S13" s="342" t="s">
+        <v>301</v>
+      </c>
+      <c r="T13" s="343" t="s">
+        <v>302</v>
+      </c>
+      <c r="U13" s="344" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22848,7 +22809,7 @@
         <v>54</v>
       </c>
       <c r="P14" s="215"/>
-      <c r="R14" s="348" t="n">
+      <c r="R14" s="345" t="n">
         <f aca="false">IF(Data!BB12=65535,0,Data!BB12)</f>
         <v>45</v>
       </c>
@@ -22860,7 +22821,7 @@
         <f aca="false">IF(Data!BD12=65535,0,Data!BD12)</f>
         <v>55</v>
       </c>
-      <c r="U14" s="349" t="n">
+      <c r="U14" s="346" t="n">
         <f aca="false">IF(Data!BE12=65535,0,Data!BE12)</f>
         <v>51.6534391534392</v>
       </c>
@@ -22917,12 +22878,12 @@
         <f aca="false">Data_speed!M6</f>
         <v>0</v>
       </c>
-      <c r="O15" s="308" t="n">
+      <c r="O15" s="306" t="n">
         <f aca="false">CV_C!U15</f>
         <v>22.2857142857143</v>
       </c>
       <c r="P15" s="215"/>
-      <c r="R15" s="348" t="n">
+      <c r="R15" s="345" t="n">
         <f aca="false">IF(Data!BB13=65535,0,Data!BB13)</f>
         <v>45</v>
       </c>
@@ -22934,7 +22895,7 @@
         <f aca="false">IF(Data!BD13=65535,0,Data!BD13)</f>
         <v>55</v>
       </c>
-      <c r="U15" s="350" t="n">
+      <c r="U15" s="347" t="n">
         <f aca="false">IF(Data!BE13=65535,0,Data!BE13)</f>
         <v>51.9551282051282</v>
       </c>
@@ -22991,12 +22952,12 @@
         <f aca="false">Data_speed!M7</f>
         <v>0</v>
       </c>
-      <c r="O16" s="308" t="n">
+      <c r="O16" s="306" t="n">
         <f aca="false">CV_C!U16</f>
         <v>15.5714285714286</v>
       </c>
       <c r="P16" s="215"/>
-      <c r="R16" s="348" t="n">
+      <c r="R16" s="345" t="n">
         <f aca="false">IF(Data!BB14=65535,0,Data!BB14)</f>
         <v>45</v>
       </c>
@@ -23008,7 +22969,7 @@
         <f aca="false">IF(Data!BD14=65535,0,Data!BD14)</f>
         <v>55</v>
       </c>
-      <c r="U16" s="350" t="n">
+      <c r="U16" s="347" t="n">
         <f aca="false">IF(Data!BE14=65535,0,Data!BE14)</f>
         <v>52.2247706422018</v>
       </c>
@@ -23065,12 +23026,12 @@
         <f aca="false">Data_speed!M8</f>
         <v>0</v>
       </c>
-      <c r="O17" s="308" t="n">
+      <c r="O17" s="306" t="n">
         <f aca="false">CV_C!U17</f>
         <v>13.8571428571429</v>
       </c>
       <c r="P17" s="215"/>
-      <c r="R17" s="348" t="n">
+      <c r="R17" s="345" t="n">
         <f aca="false">IF(Data!BB15=65535,0,Data!BB15)</f>
         <v>45</v>
       </c>
@@ -23082,7 +23043,7 @@
         <f aca="false">IF(Data!BD15=65535,0,Data!BD15)</f>
         <v>65</v>
       </c>
-      <c r="U17" s="350" t="n">
+      <c r="U17" s="347" t="n">
         <f aca="false">IF(Data!BE15=65535,0,Data!BE15)</f>
         <v>53.659793814433</v>
       </c>
@@ -23139,12 +23100,12 @@
         <f aca="false">Data_speed!M9</f>
         <v>0</v>
       </c>
-      <c r="O18" s="308" t="n">
+      <c r="O18" s="306" t="n">
         <f aca="false">CV_C!U18</f>
         <v>19.2857142857143</v>
       </c>
       <c r="P18" s="215"/>
-      <c r="R18" s="348" t="n">
+      <c r="R18" s="345" t="n">
         <f aca="false">IF(Data!BB16=65535,0,Data!BB16)</f>
         <v>45</v>
       </c>
@@ -23156,7 +23117,7 @@
         <f aca="false">IF(Data!BD16=65535,0,Data!BD16)</f>
         <v>65</v>
       </c>
-      <c r="U18" s="350" t="n">
+      <c r="U18" s="347" t="n">
         <f aca="false">IF(Data!BE16=65535,0,Data!BE16)</f>
         <v>54.7592592592593</v>
       </c>
@@ -23213,12 +23174,12 @@
         <f aca="false">Data_speed!M10</f>
         <v>0</v>
       </c>
-      <c r="O19" s="308" t="n">
+      <c r="O19" s="306" t="n">
         <f aca="false">CV_C!U19</f>
         <v>43.4285714285714</v>
       </c>
       <c r="P19" s="215"/>
-      <c r="R19" s="348" t="n">
+      <c r="R19" s="345" t="n">
         <f aca="false">IF(Data!BB17=65535,0,Data!BB17)</f>
         <v>45</v>
       </c>
@@ -23230,13 +23191,13 @@
         <f aca="false">IF(Data!BD17=65535,0,Data!BD17)</f>
         <v>55</v>
       </c>
-      <c r="U19" s="350" t="n">
+      <c r="U19" s="347" t="n">
         <f aca="false">IF(Data!BE17=65535,0,Data!BE17)</f>
         <v>51.3815789473684</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="269" t="s">
+      <c r="A20" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="266" t="n">
@@ -23287,12 +23248,12 @@
         <f aca="false">Data_speed!M11</f>
         <v>1</v>
       </c>
-      <c r="O20" s="308" t="n">
+      <c r="O20" s="306" t="n">
         <f aca="false">CV_C!U20</f>
         <v>172.714285714286</v>
       </c>
       <c r="P20" s="215"/>
-      <c r="R20" s="348" t="n">
+      <c r="R20" s="345" t="n">
         <f aca="false">IF(Data!BB18=65535,0,Data!BB18)</f>
         <v>45</v>
       </c>
@@ -23304,7 +23265,7 @@
         <f aca="false">IF(Data!BD18=65535,0,Data!BD18)</f>
         <v>55</v>
       </c>
-      <c r="U20" s="350" t="n">
+      <c r="U20" s="347" t="n">
         <f aca="false">IF(Data!BE18=65535,0,Data!BE18)</f>
         <v>49.762200165426</v>
       </c>
@@ -23361,24 +23322,24 @@
         <f aca="false">Data_speed!M12</f>
         <v>0</v>
       </c>
-      <c r="O21" s="279" t="n">
+      <c r="O21" s="278" t="n">
         <f aca="false">CV_C!U21</f>
         <v>363</v>
       </c>
       <c r="P21" s="215"/>
-      <c r="R21" s="351" t="n">
+      <c r="R21" s="348" t="n">
         <f aca="false">IF(Data!BB19=65535,0,Data!BB19)</f>
         <v>45</v>
       </c>
-      <c r="S21" s="352" t="n">
+      <c r="S21" s="349" t="n">
         <f aca="false">IF(Data!BC19=65535,0,Data!BC19)</f>
         <v>45</v>
       </c>
-      <c r="T21" s="353" t="n">
+      <c r="T21" s="350" t="n">
         <f aca="false">IF(Data!BD19=65535,0,Data!BD19)</f>
         <v>55</v>
       </c>
-      <c r="U21" s="354" t="n">
+      <c r="U21" s="351" t="n">
         <f aca="false">IF(Data!BE19=65535,0,Data!BE19)</f>
         <v>48.0509641873278</v>
       </c>
@@ -23435,12 +23396,12 @@
         <f aca="false">Data_speed!M13</f>
         <v>0</v>
       </c>
-      <c r="O22" s="308" t="n">
+      <c r="O22" s="306" t="n">
         <f aca="false">CV_C!U22</f>
         <v>333.714285714286</v>
       </c>
       <c r="P22" s="215"/>
-      <c r="R22" s="348" t="n">
+      <c r="R22" s="345" t="n">
         <f aca="false">IF(Data!BB20=65535,0,Data!BB20)</f>
         <v>45</v>
       </c>
@@ -23452,7 +23413,7 @@
         <f aca="false">IF(Data!BD20=65535,0,Data!BD20)</f>
         <v>55</v>
       </c>
-      <c r="U22" s="350" t="n">
+      <c r="U22" s="347" t="n">
         <f aca="false">IF(Data!BE20=65535,0,Data!BE20)</f>
         <v>49.237270004279</v>
       </c>
@@ -23509,12 +23470,12 @@
         <f aca="false">Data_speed!M14</f>
         <v>0</v>
       </c>
-      <c r="O23" s="308" t="n">
+      <c r="O23" s="306" t="n">
         <f aca="false">CV_C!U23</f>
         <v>317.285714285714</v>
       </c>
       <c r="P23" s="215"/>
-      <c r="R23" s="348" t="n">
+      <c r="R23" s="345" t="n">
         <f aca="false">IF(Data!BB21=65535,0,Data!BB21)</f>
         <v>45</v>
       </c>
@@ -23526,7 +23487,7 @@
         <f aca="false">IF(Data!BD21=65535,0,Data!BD21)</f>
         <v>55</v>
       </c>
-      <c r="U23" s="350" t="n">
+      <c r="U23" s="347" t="n">
         <f aca="false">IF(Data!BE21=65535,0,Data!BE21)</f>
         <v>49.0263394867177</v>
       </c>
@@ -23583,12 +23544,12 @@
         <f aca="false">Data_speed!M15</f>
         <v>0</v>
       </c>
-      <c r="O24" s="308" t="n">
+      <c r="O24" s="306" t="n">
         <f aca="false">CV_C!U24</f>
         <v>340.857142857143</v>
       </c>
       <c r="P24" s="215"/>
-      <c r="R24" s="348" t="n">
+      <c r="R24" s="345" t="n">
         <f aca="false">IF(Data!BB22=65535,0,Data!BB22)</f>
         <v>45</v>
       </c>
@@ -23600,7 +23561,7 @@
         <f aca="false">IF(Data!BD22=65535,0,Data!BD22)</f>
         <v>55</v>
       </c>
-      <c r="U24" s="350" t="n">
+      <c r="U24" s="347" t="n">
         <f aca="false">IF(Data!BE22=65535,0,Data!BE22)</f>
         <v>48.3329840737636</v>
       </c>
@@ -23657,12 +23618,12 @@
         <f aca="false">Data_speed!M16</f>
         <v>0</v>
       </c>
-      <c r="O25" s="308" t="n">
+      <c r="O25" s="306" t="n">
         <f aca="false">CV_C!U25</f>
         <v>445.857142857143</v>
       </c>
       <c r="P25" s="215"/>
-      <c r="R25" s="348" t="n">
+      <c r="R25" s="345" t="n">
         <f aca="false">IF(Data!BB23=65535,0,Data!BB23)</f>
         <v>45</v>
       </c>
@@ -23674,13 +23635,13 @@
         <f aca="false">IF(Data!BD23=65535,0,Data!BD23)</f>
         <v>55</v>
       </c>
-      <c r="U25" s="350" t="n">
+      <c r="U25" s="347" t="n">
         <f aca="false">IF(Data!BE23=65535,0,Data!BE23)</f>
         <v>48.5232371794872</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="306" t="s">
+      <c r="A26" s="304" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="266" t="n">
@@ -23731,12 +23692,12 @@
         <f aca="false">Data_speed!M17</f>
         <v>0</v>
       </c>
-      <c r="O26" s="308" t="n">
+      <c r="O26" s="306" t="n">
         <f aca="false">CV_C!U26</f>
         <v>413.285714285714</v>
       </c>
       <c r="P26" s="215"/>
-      <c r="R26" s="348" t="n">
+      <c r="R26" s="345" t="n">
         <f aca="false">IF(Data!BB24=65535,0,Data!BB24)</f>
         <v>45</v>
       </c>
@@ -23748,7 +23709,7 @@
         <f aca="false">IF(Data!BD24=65535,0,Data!BD24)</f>
         <v>55</v>
       </c>
-      <c r="U26" s="350" t="n">
+      <c r="U26" s="347" t="n">
         <f aca="false">IF(Data!BE24=65535,0,Data!BE24)</f>
         <v>49.0658486000691</v>
       </c>
@@ -23805,12 +23766,12 @@
         <f aca="false">Data_speed!M18</f>
         <v>0</v>
       </c>
-      <c r="O27" s="308" t="n">
+      <c r="O27" s="306" t="n">
         <f aca="false">CV_C!U27</f>
         <v>420.285714285714</v>
       </c>
       <c r="P27" s="215"/>
-      <c r="R27" s="348" t="n">
+      <c r="R27" s="345" t="n">
         <f aca="false">IF(Data!BB25=65535,0,Data!BB25)</f>
         <v>45</v>
       </c>
@@ -23822,7 +23783,7 @@
         <f aca="false">IF(Data!BD25=65535,0,Data!BD25)</f>
         <v>55</v>
       </c>
-      <c r="U27" s="350" t="n">
+      <c r="U27" s="347" t="n">
         <f aca="false">IF(Data!BE25=65535,0,Data!BE25)</f>
         <v>48.7245071380014</v>
       </c>
@@ -23879,12 +23840,12 @@
         <f aca="false">Data_speed!M19</f>
         <v>0</v>
       </c>
-      <c r="O28" s="308" t="n">
+      <c r="O28" s="306" t="n">
         <f aca="false">CV_C!U28</f>
         <v>382.142857142857</v>
       </c>
       <c r="P28" s="215"/>
-      <c r="R28" s="348" t="n">
+      <c r="R28" s="345" t="n">
         <f aca="false">IF(Data!BB26=65535,0,Data!BB26)</f>
         <v>45</v>
       </c>
@@ -23896,7 +23857,7 @@
         <f aca="false">IF(Data!BD26=65535,0,Data!BD26)</f>
         <v>55</v>
       </c>
-      <c r="U28" s="350" t="n">
+      <c r="U28" s="347" t="n">
         <f aca="false">IF(Data!BE26=65535,0,Data!BE26)</f>
         <v>49.1588785046729</v>
       </c>
@@ -23953,12 +23914,12 @@
         <f aca="false">Data_speed!M20</f>
         <v>0</v>
       </c>
-      <c r="O29" s="308" t="n">
+      <c r="O29" s="306" t="n">
         <f aca="false">CV_C!U29</f>
         <v>440</v>
       </c>
       <c r="P29" s="215"/>
-      <c r="R29" s="348" t="n">
+      <c r="R29" s="345" t="n">
         <f aca="false">IF(Data!BB27=65535,0,Data!BB27)</f>
         <v>45</v>
       </c>
@@ -23970,13 +23931,13 @@
         <f aca="false">IF(Data!BD27=65535,0,Data!BD27)</f>
         <v>55</v>
       </c>
-      <c r="U29" s="350" t="n">
+      <c r="U29" s="347" t="n">
         <f aca="false">IF(Data!BE27=65535,0,Data!BE27)</f>
         <v>48.9261363636364</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="269" t="s">
+      <c r="A30" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="266" t="n">
@@ -24027,12 +23988,12 @@
         <f aca="false">Data_speed!M21</f>
         <v>1</v>
       </c>
-      <c r="O30" s="308" t="n">
+      <c r="O30" s="306" t="n">
         <f aca="false">CV_C!U30</f>
         <v>588.857142857143</v>
       </c>
       <c r="P30" s="215"/>
-      <c r="R30" s="348" t="n">
+      <c r="R30" s="345" t="n">
         <f aca="false">IF(Data!BB28=65535,0,Data!BB28)</f>
         <v>45</v>
       </c>
@@ -24044,7 +24005,7 @@
         <f aca="false">IF(Data!BD28=65535,0,Data!BD28)</f>
         <v>55</v>
       </c>
-      <c r="U30" s="350" t="n">
+      <c r="U30" s="347" t="n">
         <f aca="false">IF(Data!BE28=65535,0,Data!BE28)</f>
         <v>48.2502426006793</v>
       </c>
@@ -24101,24 +24062,24 @@
         <f aca="false">Data_speed!M22</f>
         <v>1</v>
       </c>
-      <c r="O31" s="279" t="n">
+      <c r="O31" s="278" t="n">
         <f aca="false">CV_C!U31</f>
         <v>823.428571428572</v>
       </c>
       <c r="P31" s="215"/>
-      <c r="R31" s="351" t="n">
+      <c r="R31" s="348" t="n">
         <f aca="false">IF(Data!BB29=65535,0,Data!BB29)</f>
         <v>45</v>
       </c>
-      <c r="S31" s="352" t="n">
+      <c r="S31" s="349" t="n">
         <f aca="false">IF(Data!BC29=65535,0,Data!BC29)</f>
         <v>45</v>
       </c>
-      <c r="T31" s="353" t="n">
+      <c r="T31" s="350" t="n">
         <f aca="false">IF(Data!BD29=65535,0,Data!BD29)</f>
         <v>55</v>
       </c>
-      <c r="U31" s="354" t="n">
+      <c r="U31" s="351" t="n">
         <f aca="false">IF(Data!BE29=65535,0,Data!BE29)</f>
         <v>46.7205933379598</v>
       </c>
@@ -24175,12 +24136,12 @@
         <f aca="false">Data_speed!M23</f>
         <v>3</v>
       </c>
-      <c r="O32" s="308" t="n">
+      <c r="O32" s="306" t="n">
         <f aca="false">CV_C!U32</f>
         <v>620</v>
       </c>
       <c r="P32" s="215"/>
-      <c r="R32" s="348" t="n">
+      <c r="R32" s="345" t="n">
         <f aca="false">IF(Data!BB30=65535,0,Data!BB30)</f>
         <v>45</v>
       </c>
@@ -24192,7 +24153,7 @@
         <f aca="false">IF(Data!BD30=65535,0,Data!BD30)</f>
         <v>55</v>
       </c>
-      <c r="U32" s="350" t="n">
+      <c r="U32" s="347" t="n">
         <f aca="false">IF(Data!BE30=65535,0,Data!BE30)</f>
         <v>48.2020271826768</v>
       </c>
@@ -24249,12 +24210,12 @@
         <f aca="false">Data_speed!M24</f>
         <v>1</v>
       </c>
-      <c r="O33" s="308" t="n">
+      <c r="O33" s="306" t="n">
         <f aca="false">CV_C!U33</f>
         <v>344.857142857143</v>
       </c>
       <c r="P33" s="215"/>
-      <c r="R33" s="348" t="n">
+      <c r="R33" s="345" t="n">
         <f aca="false">IF(Data!BB31=65535,0,Data!BB31)</f>
         <v>45</v>
       </c>
@@ -24266,7 +24227,7 @@
         <f aca="false">IF(Data!BD31=65535,0,Data!BD31)</f>
         <v>55</v>
       </c>
-      <c r="U33" s="350" t="n">
+      <c r="U33" s="347" t="n">
         <f aca="false">IF(Data!BE31=65535,0,Data!BE31)</f>
         <v>50.2796188898094</v>
       </c>
@@ -24323,12 +24284,12 @@
         <f aca="false">Data_speed!M25</f>
         <v>0</v>
       </c>
-      <c r="O34" s="308" t="n">
+      <c r="O34" s="306" t="n">
         <f aca="false">CV_C!U34</f>
         <v>244.428571428571</v>
       </c>
       <c r="P34" s="215"/>
-      <c r="R34" s="348" t="n">
+      <c r="R34" s="345" t="n">
         <f aca="false">IF(Data!BB32=65535,0,Data!BB32)</f>
         <v>45</v>
       </c>
@@ -24340,7 +24301,7 @@
         <f aca="false">IF(Data!BD32=65535,0,Data!BD32)</f>
         <v>55</v>
       </c>
-      <c r="U34" s="350" t="n">
+      <c r="U34" s="347" t="n">
         <f aca="false">IF(Data!BE32=65535,0,Data!BE32)</f>
         <v>50.0306838106371</v>
       </c>
@@ -24397,12 +24358,12 @@
         <f aca="false">Data_speed!M26</f>
         <v>1</v>
       </c>
-      <c r="O35" s="308" t="n">
+      <c r="O35" s="306" t="n">
         <f aca="false">CV_C!U35</f>
         <v>224.285714285714</v>
       </c>
       <c r="P35" s="215"/>
-      <c r="R35" s="348" t="n">
+      <c r="R35" s="345" t="n">
         <f aca="false">IF(Data!BB33=65535,0,Data!BB33)</f>
         <v>45</v>
       </c>
@@ -24414,7 +24375,7 @@
         <f aca="false">IF(Data!BD33=65535,0,Data!BD33)</f>
         <v>55</v>
       </c>
-      <c r="U35" s="350" t="n">
+      <c r="U35" s="347" t="n">
         <f aca="false">IF(Data!BE33=65535,0,Data!BE33)</f>
         <v>48.9028662420382</v>
       </c>
@@ -24471,12 +24432,12 @@
         <f aca="false">Data_speed!M27</f>
         <v>0</v>
       </c>
-      <c r="O36" s="308" t="n">
+      <c r="O36" s="306" t="n">
         <f aca="false">CV_C!U36</f>
         <v>194.428571428571</v>
       </c>
       <c r="P36" s="215"/>
-      <c r="R36" s="348" t="n">
+      <c r="R36" s="345" t="n">
         <f aca="false">IF(Data!BB34=65535,0,Data!BB34)</f>
         <v>45</v>
       </c>
@@ -24488,13 +24449,13 @@
         <f aca="false">IF(Data!BD34=65535,0,Data!BD34)</f>
         <v>55</v>
       </c>
-      <c r="U36" s="350" t="n">
+      <c r="U36" s="347" t="n">
         <f aca="false">IF(Data!BE34=65535,0,Data!BE34)</f>
         <v>49.0889052167524</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="271" t="s">
+      <c r="A37" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="266" t="n">
@@ -24545,24 +24506,24 @@
         <f aca="false">Data_speed!M28</f>
         <v>0</v>
       </c>
-      <c r="O37" s="285" t="n">
+      <c r="O37" s="284" t="n">
         <f aca="false">CV_C!U37</f>
         <v>111.142857142857</v>
       </c>
       <c r="P37" s="215"/>
-      <c r="R37" s="355" t="n">
+      <c r="R37" s="352" t="n">
         <f aca="false">IF(Data!BB35=65535,0,Data!BB35)</f>
         <v>45</v>
       </c>
-      <c r="S37" s="356" t="n">
+      <c r="S37" s="353" t="n">
         <f aca="false">IF(Data!BC35=65535,0,Data!BC35)</f>
         <v>55</v>
       </c>
-      <c r="T37" s="357" t="n">
+      <c r="T37" s="354" t="n">
         <f aca="false">IF(Data!BD35=65535,0,Data!BD35)</f>
         <v>55</v>
       </c>
-      <c r="U37" s="358" t="n">
+      <c r="U37" s="355" t="n">
         <f aca="false">IF(Data!BE35=65535,0,Data!BE35)</f>
         <v>50.3952442159383</v>
       </c>
@@ -24584,221 +24545,221 @@
       <c r="A40" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="359" t="n">
+      <c r="B40" s="356" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
         <v>0.00125400871638845</v>
       </c>
-      <c r="C40" s="359" t="n">
+      <c r="C40" s="356" t="n">
         <f aca="false">SUM(C14:C37)/Data_speed!$O$29</f>
         <v>0.00696899925992928</v>
       </c>
-      <c r="D40" s="359" t="n">
+      <c r="D40" s="356" t="n">
         <f aca="false">SUM(D14:D37)/Data_speed!$O$29</f>
         <v>0.0324603239865143</v>
       </c>
-      <c r="E40" s="359" t="n">
+      <c r="E40" s="356" t="n">
         <f aca="false">SUM(E14:E37)/Data_speed!$O$29</f>
         <v>0.559637365348244</v>
       </c>
-      <c r="F40" s="359" t="n">
+      <c r="F40" s="356" t="n">
         <f aca="false">SUM(F14:F37)/Data_speed!$O$29</f>
         <v>0.379245127867774</v>
       </c>
-      <c r="G40" s="359" t="n">
+      <c r="G40" s="356" t="n">
         <f aca="false">SUM(G14:G37)/Data_speed!$O$29</f>
         <v>0.0191801661047611</v>
       </c>
-      <c r="H40" s="359" t="n">
+      <c r="H40" s="356" t="n">
         <f aca="false">SUM(H14:H37)/Data_speed!$O$29</f>
         <v>0.000801743277690979</v>
       </c>
-      <c r="I40" s="359" t="n">
+      <c r="I40" s="356" t="n">
         <f aca="false">SUM(I14:I37)/Data_speed!$O$29</f>
         <v>0.000205575199407943</v>
       </c>
-      <c r="J40" s="359" t="n">
+      <c r="J40" s="356" t="n">
         <f aca="false">SUM(J14:J37)/Data_speed!$O$29</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K40" s="359" t="n">
+      <c r="K40" s="356" t="n">
         <f aca="false">SUM(K14:K37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L40" s="359" t="n">
+      <c r="L40" s="356" t="n">
         <f aca="false">SUM(L14:L37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M40" s="359" t="n">
+      <c r="M40" s="356" t="n">
         <f aca="false">SUM(M14:M37)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="O40" s="320" t="n">
+      <c r="O40" s="318" t="n">
         <f aca="false">SUM(B40:M40)</f>
         <v>1</v>
       </c>
-      <c r="P40" s="335"/>
-      <c r="R40" s="360" t="n">
+      <c r="P40" s="332"/>
+      <c r="R40" s="357" t="n">
         <f aca="false">Data!BB38</f>
         <v>45</v>
       </c>
-      <c r="S40" s="361" t="n">
+      <c r="S40" s="358" t="n">
         <f aca="false">Data!BC38</f>
         <v>45</v>
       </c>
-      <c r="T40" s="361" t="n">
+      <c r="T40" s="358" t="n">
         <f aca="false">Data!BD38</f>
         <v>55</v>
       </c>
-      <c r="U40" s="362" t="n">
+      <c r="U40" s="359" t="n">
         <f aca="false">Data!BE38</f>
         <v>48.7040539429323</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="277" t="s">
+      <c r="A41" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B41" s="363" t="n">
+      <c r="B41" s="360" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
         <v>0.00123345119644766</v>
       </c>
-      <c r="C41" s="363" t="n">
+      <c r="C41" s="360" t="n">
         <f aca="false">SUM(C20:C35)/Data_speed!$O$29</f>
         <v>0.00680453910040293</v>
       </c>
-      <c r="D41" s="363" t="n">
+      <c r="D41" s="360" t="n">
         <f aca="false">SUM(D20:D35)/Data_speed!$O$29</f>
         <v>0.0308773949510731</v>
       </c>
-      <c r="E41" s="363" t="n">
+      <c r="E41" s="360" t="n">
         <f aca="false">SUM(E20:E35)/Data_speed!$O$29</f>
         <v>0.527793766959954</v>
       </c>
-      <c r="F41" s="363" t="n">
+      <c r="F41" s="360" t="n">
         <f aca="false">SUM(F20:F35)/Data_speed!$O$29</f>
         <v>0.348778883315517</v>
       </c>
-      <c r="G41" s="363" t="n">
+      <c r="G41" s="360" t="n">
         <f aca="false">SUM(G20:G35)/Data_speed!$O$29</f>
         <v>0.0156237151550037</v>
       </c>
-      <c r="H41" s="363" t="n">
+      <c r="H41" s="360" t="n">
         <f aca="false">SUM(H20:H35)/Data_speed!$O$29</f>
         <v>0.000411150398815887</v>
       </c>
-      <c r="I41" s="363" t="n">
+      <c r="I41" s="360" t="n">
         <f aca="false">SUM(I20:I35)/Data_speed!$O$29</f>
         <v>6.1672559822383E-005</v>
       </c>
-      <c r="J41" s="363" t="n">
+      <c r="J41" s="360" t="n">
         <f aca="false">SUM(J20:J35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="K41" s="363" t="n">
+      <c r="K41" s="360" t="n">
         <f aca="false">SUM(K20:K35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L41" s="363" t="n">
+      <c r="L41" s="360" t="n">
         <f aca="false">SUM(L20:L35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M41" s="363" t="n">
+      <c r="M41" s="360" t="n">
         <f aca="false">SUM(M20:M35)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="O41" s="312" t="n">
+      <c r="O41" s="310" t="n">
         <f aca="false">SUM(B41:M41)</f>
         <v>0.931790148836444</v>
       </c>
-      <c r="P41" s="335"/>
-      <c r="R41" s="364" t="n">
+      <c r="P41" s="332"/>
+      <c r="R41" s="361" t="n">
         <f aca="false">Data!BB39</f>
         <v>45</v>
       </c>
-      <c r="S41" s="365" t="n">
+      <c r="S41" s="362" t="n">
         <f aca="false">Data!BC39</f>
         <v>45</v>
       </c>
-      <c r="T41" s="365" t="n">
+      <c r="T41" s="362" t="n">
         <f aca="false">Data!BD39</f>
         <v>55</v>
       </c>
-      <c r="U41" s="366" t="n">
+      <c r="U41" s="363" t="n">
         <f aca="false">Data!BE39</f>
         <v>48.5726183647355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="281" t="s">
+      <c r="A42" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B42" s="367" t="n">
+      <c r="B42" s="364" t="n">
         <f aca="false">B40-B41</f>
         <v>2.05575199407942E-005</v>
       </c>
-      <c r="C42" s="283" t="n">
+      <c r="C42" s="282" t="n">
         <f aca="false">C40-C41</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="D42" s="283" t="n">
+      <c r="D42" s="282" t="n">
         <f aca="false">D40-D41</f>
         <v>0.00158292903544116</v>
       </c>
-      <c r="E42" s="283" t="n">
+      <c r="E42" s="282" t="n">
         <f aca="false">E40-E41</f>
         <v>0.0318435983882904</v>
       </c>
-      <c r="F42" s="283" t="n">
+      <c r="F42" s="282" t="n">
         <f aca="false">F40-F41</f>
         <v>0.0304662445522572</v>
       </c>
-      <c r="G42" s="283" t="n">
+      <c r="G42" s="282" t="n">
         <f aca="false">G40-G41</f>
         <v>0.00355645094975742</v>
       </c>
-      <c r="H42" s="283" t="n">
+      <c r="H42" s="282" t="n">
         <f aca="false">H40-H41</f>
         <v>0.000390592878875092</v>
       </c>
-      <c r="I42" s="283" t="n">
+      <c r="I42" s="282" t="n">
         <f aca="false">I40-I41</f>
         <v>0.00014390263958556</v>
       </c>
-      <c r="J42" s="283" t="n">
+      <c r="J42" s="282" t="n">
         <f aca="false">J40-J41</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K42" s="283" t="n">
+      <c r="K42" s="282" t="n">
         <f aca="false">K40-K41</f>
         <v>0</v>
       </c>
-      <c r="L42" s="283" t="n">
+      <c r="L42" s="282" t="n">
         <f aca="false">L40-L41</f>
         <v>0</v>
       </c>
-      <c r="M42" s="336" t="n">
+      <c r="M42" s="333" t="n">
         <f aca="false">M40-M41</f>
         <v>0</v>
       </c>
-      <c r="N42" s="368"/>
-      <c r="O42" s="323" t="n">
+      <c r="N42" s="365"/>
+      <c r="O42" s="321" t="n">
         <f aca="false">O40-O41</f>
         <v>0.0682098511635557</v>
       </c>
-      <c r="P42" s="335"/>
-      <c r="R42" s="369" t="n">
+      <c r="P42" s="332"/>
+      <c r="R42" s="366" t="n">
         <f aca="false">Data!BB40</f>
         <v>45</v>
       </c>
-      <c r="S42" s="370" t="n">
+      <c r="S42" s="367" t="n">
         <f aca="false">Data!BC40</f>
         <v>55</v>
       </c>
-      <c r="T42" s="370" t="n">
+      <c r="T42" s="367" t="n">
         <f aca="false">Data!BD40</f>
         <v>55</v>
       </c>
-      <c r="U42" s="371" t="n">
+      <c r="U42" s="368" t="n">
         <f aca="false">Data!BE40</f>
         <v>50.499547920434</v>
       </c>
@@ -24824,59 +24785,59 @@
       <c r="A46" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="287" t="str">
+      <c r="B46" s="50" t="str">
         <f aca="false">B5</f>
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="U46" s="254"/>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="338" t="str">
         <f aca="false">Data!BQ42&amp;" =&gt; avec un usage de "&amp;TEXT(Data!H4,0)&amp;" voie(s) : "&amp;Data!BQ43&amp;"  "&amp;Data!BQ44</f>
         <v>Vitesse moyenne spatiale = 49 km/h =&gt; avec un usage de 1 voie(s) : Densité critique Kc = 30 Veh/km  Débit max Q = 1474 Veh/h</v>
       </c>
-      <c r="B47" s="341"/>
-      <c r="C47" s="341"/>
-      <c r="D47" s="341"/>
-      <c r="E47" s="341"/>
-      <c r="F47" s="341"/>
-      <c r="G47" s="341"/>
-      <c r="H47" s="341"/>
-      <c r="I47" s="341"/>
-      <c r="J47" s="341"/>
-      <c r="K47" s="341"/>
-      <c r="L47" s="341"/>
-      <c r="M47" s="341"/>
-      <c r="N47" s="341"/>
-      <c r="O47" s="341"/>
-      <c r="P47" s="341"/>
-      <c r="Q47" s="342"/>
-      <c r="R47" s="342"/>
-      <c r="S47" s="342"/>
-      <c r="T47" s="342"/>
-      <c r="U47" s="342"/>
+      <c r="B47" s="338"/>
+      <c r="C47" s="338"/>
+      <c r="D47" s="338"/>
+      <c r="E47" s="338"/>
+      <c r="F47" s="338"/>
+      <c r="G47" s="338"/>
+      <c r="H47" s="338"/>
+      <c r="I47" s="338"/>
+      <c r="J47" s="338"/>
+      <c r="K47" s="338"/>
+      <c r="L47" s="338"/>
+      <c r="M47" s="338"/>
+      <c r="N47" s="338"/>
+      <c r="O47" s="338"/>
+      <c r="P47" s="338"/>
+      <c r="Q47" s="339"/>
+      <c r="R47" s="339"/>
+      <c r="S47" s="339"/>
+      <c r="T47" s="339"/>
+      <c r="U47" s="339"/>
     </row>
     <row r="48" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="288" t="str">
+      <c r="B48" s="286" t="str">
         <f aca="false">B12</f>
         <v>Distribution de la Vitesse par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C48" s="288"/>
-      <c r="D48" s="288"/>
-      <c r="E48" s="288"/>
-      <c r="F48" s="288"/>
-      <c r="G48" s="288"/>
-      <c r="H48" s="288"/>
-      <c r="I48" s="288"/>
-      <c r="J48" s="288"/>
-      <c r="K48" s="288"/>
-      <c r="L48" s="288"/>
-      <c r="M48" s="288"/>
+      <c r="C48" s="286"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="286"/>
+      <c r="F48" s="286"/>
+      <c r="G48" s="286"/>
+      <c r="H48" s="286"/>
+      <c r="I48" s="286"/>
+      <c r="J48" s="286"/>
+      <c r="K48" s="286"/>
+      <c r="L48" s="286"/>
+      <c r="M48" s="286"/>
       <c r="O48" s="258" t="str">
         <f aca="false">O12</f>
         <v>THM</v>
       </c>
-      <c r="P48" s="333"/>
+      <c r="P48" s="330"/>
       <c r="Q48" s="224"/>
       <c r="R48" s="27" t="e">
         <f aca="false">#REF!</f>
@@ -24890,7 +24851,7 @@
       <c r="A49" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="289" t="str">
+      <c r="B49" s="287" t="str">
         <f aca="false">B13</f>
         <v>30 km/h</v>
       </c>
@@ -24898,7 +24859,7 @@
         <f aca="false">C13</f>
         <v>40 km/h</v>
       </c>
-      <c r="D49" s="290" t="str">
+      <c r="D49" s="288" t="str">
         <f aca="false">D13</f>
         <v>50 km/h</v>
       </c>
@@ -24906,7 +24867,7 @@
         <f aca="false">E13</f>
         <v>60 km/h</v>
       </c>
-      <c r="F49" s="291" t="str">
+      <c r="F49" s="289" t="str">
         <f aca="false">F13</f>
         <v>70 km/h</v>
       </c>
@@ -24914,15 +24875,15 @@
         <f aca="false">G13</f>
         <v>80 km/h</v>
       </c>
-      <c r="H49" s="290" t="str">
+      <c r="H49" s="288" t="str">
         <f aca="false">H13</f>
         <v>90 km/h</v>
       </c>
-      <c r="I49" s="372" t="str">
+      <c r="I49" s="369" t="str">
         <f aca="false">I13</f>
         <v>100 km/h</v>
       </c>
-      <c r="J49" s="290" t="str">
+      <c r="J49" s="288" t="str">
         <f aca="false">J13</f>
         <v>110 km/h</v>
       </c>
@@ -24930,32 +24891,32 @@
         <f aca="false">K13</f>
         <v>120 km/h</v>
       </c>
-      <c r="L49" s="373" t="str">
+      <c r="L49" s="370" t="str">
         <f aca="false">L13</f>
         <v>130 km/h</v>
       </c>
-      <c r="M49" s="292" t="str">
+      <c r="M49" s="290" t="str">
         <f aca="false">M13</f>
         <v>&gt; 130 km/h</v>
       </c>
-      <c r="O49" s="343" t="str">
+      <c r="O49" s="340" t="str">
         <f aca="false">O13</f>
         <v>Véh/h</v>
       </c>
       <c r="P49" s="5"/>
-      <c r="R49" s="344" t="e">
+      <c r="R49" s="341" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="S49" s="345" t="e">
+      <c r="S49" s="342" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="T49" s="346" t="e">
+      <c r="T49" s="343" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U49" s="374" t="e">
+      <c r="U49" s="371" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
@@ -25017,7 +24978,7 @@
         <v>40.2857142857143</v>
       </c>
       <c r="P50" s="215"/>
-      <c r="R50" s="348" t="n">
+      <c r="R50" s="345" t="n">
         <f aca="false">IF(Data!BV12=65535,0,Data!BV12)</f>
         <v>45</v>
       </c>
@@ -25029,7 +24990,7 @@
         <f aca="false">IF(Data!BX12=65535,0,Data!BX12)</f>
         <v>55</v>
       </c>
-      <c r="U50" s="349" t="n">
+      <c r="U50" s="346" t="n">
         <f aca="false">IF(Data!BY12=65535,0,Data!BY12)</f>
         <v>50.4166666666667</v>
       </c>
@@ -25086,12 +25047,12 @@
         <f aca="false">Data_speed!M34</f>
         <v>0</v>
       </c>
-      <c r="O51" s="308" t="n">
+      <c r="O51" s="306" t="n">
         <f aca="false">CV_C!AE15</f>
         <v>19.8571428571429</v>
       </c>
       <c r="P51" s="215"/>
-      <c r="R51" s="348" t="n">
+      <c r="R51" s="345" t="n">
         <f aca="false">IF(Data!BV13=65535,0,Data!BV13)</f>
         <v>45</v>
       </c>
@@ -25103,7 +25064,7 @@
         <f aca="false">IF(Data!BX13=65535,0,Data!BX13)</f>
         <v>55</v>
       </c>
-      <c r="U51" s="350" t="n">
+      <c r="U51" s="347" t="n">
         <f aca="false">IF(Data!BY13=65535,0,Data!BY13)</f>
         <v>51.8345323741007</v>
       </c>
@@ -25160,12 +25121,12 @@
         <f aca="false">Data_speed!M35</f>
         <v>0</v>
       </c>
-      <c r="O52" s="308" t="n">
+      <c r="O52" s="306" t="n">
         <f aca="false">CV_C!AE16</f>
         <v>13.1428571428571</v>
       </c>
       <c r="P52" s="215"/>
-      <c r="R52" s="348" t="n">
+      <c r="R52" s="345" t="n">
         <f aca="false">IF(Data!BV14=65535,0,Data!BV14)</f>
         <v>45</v>
       </c>
@@ -25177,7 +25138,7 @@
         <f aca="false">IF(Data!BX14=65535,0,Data!BX14)</f>
         <v>65</v>
       </c>
-      <c r="U52" s="350" t="n">
+      <c r="U52" s="347" t="n">
         <f aca="false">IF(Data!BY14=65535,0,Data!BY14)</f>
         <v>52.3913043478261</v>
       </c>
@@ -25234,12 +25195,12 @@
         <f aca="false">Data_speed!M36</f>
         <v>0</v>
       </c>
-      <c r="O53" s="308" t="n">
+      <c r="O53" s="306" t="n">
         <f aca="false">CV_C!AE17</f>
         <v>14.8571428571429</v>
       </c>
       <c r="P53" s="215"/>
-      <c r="R53" s="348" t="n">
+      <c r="R53" s="345" t="n">
         <f aca="false">IF(Data!BV15=65535,0,Data!BV15)</f>
         <v>45</v>
       </c>
@@ -25251,7 +25212,7 @@
         <f aca="false">IF(Data!BX15=65535,0,Data!BX15)</f>
         <v>55</v>
       </c>
-      <c r="U53" s="350" t="n">
+      <c r="U53" s="347" t="n">
         <f aca="false">IF(Data!BY15=65535,0,Data!BY15)</f>
         <v>52.9807692307692</v>
       </c>
@@ -25308,12 +25269,12 @@
         <f aca="false">Data_speed!M37</f>
         <v>0</v>
       </c>
-      <c r="O54" s="308" t="n">
+      <c r="O54" s="306" t="n">
         <f aca="false">CV_C!AE18</f>
         <v>47</v>
       </c>
       <c r="P54" s="215"/>
-      <c r="R54" s="348" t="n">
+      <c r="R54" s="345" t="n">
         <f aca="false">IF(Data!BV16=65535,0,Data!BV16)</f>
         <v>45</v>
       </c>
@@ -25325,7 +25286,7 @@
         <f aca="false">IF(Data!BX16=65535,0,Data!BX16)</f>
         <v>65</v>
       </c>
-      <c r="U54" s="350" t="n">
+      <c r="U54" s="347" t="n">
         <f aca="false">IF(Data!BY16=65535,0,Data!BY16)</f>
         <v>53.2066869300912</v>
       </c>
@@ -25382,12 +25343,12 @@
         <f aca="false">Data_speed!M38</f>
         <v>0</v>
       </c>
-      <c r="O55" s="308" t="n">
+      <c r="O55" s="306" t="n">
         <f aca="false">CV_C!AE19</f>
         <v>85.4285714285714</v>
       </c>
       <c r="P55" s="215"/>
-      <c r="R55" s="348" t="n">
+      <c r="R55" s="345" t="n">
         <f aca="false">IF(Data!BV17=65535,0,Data!BV17)</f>
         <v>45</v>
       </c>
@@ -25399,13 +25360,13 @@
         <f aca="false">IF(Data!BX17=65535,0,Data!BX17)</f>
         <v>55</v>
       </c>
-      <c r="U55" s="350" t="n">
+      <c r="U55" s="347" t="n">
         <f aca="false">IF(Data!BY17=65535,0,Data!BY17)</f>
         <v>51.4882943143813</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="269" t="s">
+      <c r="A56" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="266" t="n">
@@ -25456,12 +25417,12 @@
         <f aca="false">Data_speed!M39</f>
         <v>0</v>
       </c>
-      <c r="O56" s="308" t="n">
+      <c r="O56" s="306" t="n">
         <f aca="false">CV_C!AE20</f>
         <v>305.714285714286</v>
       </c>
       <c r="P56" s="215"/>
-      <c r="R56" s="348" t="n">
+      <c r="R56" s="345" t="n">
         <f aca="false">IF(Data!BV18=65535,0,Data!BV18)</f>
         <v>45</v>
       </c>
@@ -25473,7 +25434,7 @@
         <f aca="false">IF(Data!BX18=65535,0,Data!BX18)</f>
         <v>55</v>
       </c>
-      <c r="U56" s="350" t="n">
+      <c r="U56" s="347" t="n">
         <f aca="false">IF(Data!BY18=65535,0,Data!BY18)</f>
         <v>50.2616822429907</v>
       </c>
@@ -25530,24 +25491,24 @@
         <f aca="false">Data_speed!M40</f>
         <v>0</v>
       </c>
-      <c r="O57" s="279" t="n">
+      <c r="O57" s="278" t="n">
         <f aca="false">CV_C!AE21</f>
         <v>512.428571428571</v>
       </c>
       <c r="P57" s="215"/>
-      <c r="R57" s="351" t="n">
+      <c r="R57" s="348" t="n">
         <f aca="false">IF(Data!BV19=65535,0,Data!BV19)</f>
         <v>45</v>
       </c>
-      <c r="S57" s="352" t="n">
+      <c r="S57" s="349" t="n">
         <f aca="false">IF(Data!BW19=65535,0,Data!BW19)</f>
         <v>45</v>
       </c>
-      <c r="T57" s="353" t="n">
+      <c r="T57" s="350" t="n">
         <f aca="false">IF(Data!BX19=65535,0,Data!BX19)</f>
         <v>55</v>
       </c>
-      <c r="U57" s="354" t="n">
+      <c r="U57" s="351" t="n">
         <f aca="false">IF(Data!BY19=65535,0,Data!BY19)</f>
         <v>49.1583054626533</v>
       </c>
@@ -25604,12 +25565,12 @@
         <f aca="false">Data_speed!M41</f>
         <v>0</v>
       </c>
-      <c r="O58" s="308" t="n">
+      <c r="O58" s="306" t="n">
         <f aca="false">CV_C!AE22</f>
         <v>402.571428571429</v>
       </c>
       <c r="P58" s="215"/>
-      <c r="R58" s="348" t="n">
+      <c r="R58" s="345" t="n">
         <f aca="false">IF(Data!BV20=65535,0,Data!BV20)</f>
         <v>45</v>
       </c>
@@ -25621,7 +25582,7 @@
         <f aca="false">IF(Data!BX20=65535,0,Data!BX20)</f>
         <v>55</v>
       </c>
-      <c r="U58" s="350" t="n">
+      <c r="U58" s="347" t="n">
         <f aca="false">IF(Data!BY20=65535,0,Data!BY20)</f>
         <v>49.4268985095813</v>
       </c>
@@ -25678,12 +25639,12 @@
         <f aca="false">Data_speed!M42</f>
         <v>0</v>
       </c>
-      <c r="O59" s="308" t="n">
+      <c r="O59" s="306" t="n">
         <f aca="false">CV_C!AE23</f>
         <v>353.571428571429</v>
       </c>
       <c r="P59" s="215"/>
-      <c r="R59" s="348" t="n">
+      <c r="R59" s="345" t="n">
         <f aca="false">IF(Data!BV21=65535,0,Data!BV21)</f>
         <v>45</v>
       </c>
@@ -25695,7 +25656,7 @@
         <f aca="false">IF(Data!BX21=65535,0,Data!BX21)</f>
         <v>55</v>
       </c>
-      <c r="U59" s="350" t="n">
+      <c r="U59" s="347" t="n">
         <f aca="false">IF(Data!BY21=65535,0,Data!BY21)</f>
         <v>49.7010101010101</v>
       </c>
@@ -25752,12 +25713,12 @@
         <f aca="false">Data_speed!M43</f>
         <v>0</v>
       </c>
-      <c r="O60" s="308" t="n">
+      <c r="O60" s="306" t="n">
         <f aca="false">CV_C!AE24</f>
         <v>387.714285714286</v>
       </c>
       <c r="P60" s="215"/>
-      <c r="R60" s="348" t="n">
+      <c r="R60" s="345" t="n">
         <f aca="false">IF(Data!BV22=65535,0,Data!BV22)</f>
         <v>45</v>
       </c>
@@ -25769,7 +25730,7 @@
         <f aca="false">IF(Data!BX22=65535,0,Data!BX22)</f>
         <v>55</v>
       </c>
-      <c r="U60" s="350" t="n">
+      <c r="U60" s="347" t="n">
         <f aca="false">IF(Data!BY22=65535,0,Data!BY22)</f>
         <v>48.994104642594</v>
       </c>
@@ -25826,12 +25787,12 @@
         <f aca="false">Data_speed!M44</f>
         <v>0</v>
       </c>
-      <c r="O61" s="308" t="n">
+      <c r="O61" s="306" t="n">
         <f aca="false">CV_C!AE25</f>
         <v>483.857142857143</v>
       </c>
       <c r="P61" s="215"/>
-      <c r="R61" s="348" t="n">
+      <c r="R61" s="345" t="n">
         <f aca="false">IF(Data!BV23=65535,0,Data!BV23)</f>
         <v>45</v>
       </c>
@@ -25843,13 +25804,13 @@
         <f aca="false">IF(Data!BX23=65535,0,Data!BX23)</f>
         <v>55</v>
       </c>
-      <c r="U61" s="350" t="n">
+      <c r="U61" s="347" t="n">
         <f aca="false">IF(Data!BY23=65535,0,Data!BY23)</f>
         <v>49.3275760259817</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="306" t="s">
+      <c r="A62" s="304" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="266" t="n">
@@ -25900,12 +25861,12 @@
         <f aca="false">Data_speed!M45</f>
         <v>1</v>
       </c>
-      <c r="O62" s="308" t="n">
+      <c r="O62" s="306" t="n">
         <f aca="false">CV_C!AE26</f>
         <v>407.714285714286</v>
       </c>
       <c r="P62" s="215"/>
-      <c r="R62" s="348" t="n">
+      <c r="R62" s="345" t="n">
         <f aca="false">IF(Data!BV24=65535,0,Data!BV24)</f>
         <v>45</v>
       </c>
@@ -25917,7 +25878,7 @@
         <f aca="false">IF(Data!BX24=65535,0,Data!BX24)</f>
         <v>55</v>
       </c>
-      <c r="U62" s="350" t="n">
+      <c r="U62" s="347" t="n">
         <f aca="false">IF(Data!BY24=65535,0,Data!BY24)</f>
         <v>50.0499299229152</v>
       </c>
@@ -25974,12 +25935,12 @@
         <f aca="false">Data_speed!M46</f>
         <v>0</v>
       </c>
-      <c r="O63" s="308" t="n">
+      <c r="O63" s="306" t="n">
         <f aca="false">CV_C!AE27</f>
         <v>454.285714285714</v>
       </c>
       <c r="P63" s="215"/>
-      <c r="R63" s="348" t="n">
+      <c r="R63" s="345" t="n">
         <f aca="false">IF(Data!BV25=65535,0,Data!BV25)</f>
         <v>45</v>
       </c>
@@ -25991,7 +25952,7 @@
         <f aca="false">IF(Data!BX25=65535,0,Data!BX25)</f>
         <v>55</v>
       </c>
-      <c r="U63" s="350" t="n">
+      <c r="U63" s="347" t="n">
         <f aca="false">IF(Data!BY25=65535,0,Data!BY25)</f>
         <v>49.8891509433962</v>
       </c>
@@ -26048,12 +26009,12 @@
         <f aca="false">Data_speed!M47</f>
         <v>0</v>
       </c>
-      <c r="O64" s="308" t="n">
+      <c r="O64" s="306" t="n">
         <f aca="false">CV_C!AE28</f>
         <v>400.285714285714</v>
       </c>
       <c r="P64" s="215"/>
-      <c r="R64" s="348" t="n">
+      <c r="R64" s="345" t="n">
         <f aca="false">IF(Data!BV26=65535,0,Data!BV26)</f>
         <v>45</v>
       </c>
@@ -26065,7 +26026,7 @@
         <f aca="false">IF(Data!BX26=65535,0,Data!BX26)</f>
         <v>55</v>
       </c>
-      <c r="U64" s="350" t="n">
+      <c r="U64" s="347" t="n">
         <f aca="false">IF(Data!BY26=65535,0,Data!BY26)</f>
         <v>49.2416131334761</v>
       </c>
@@ -26122,12 +26083,12 @@
         <f aca="false">Data_speed!M48</f>
         <v>0</v>
       </c>
-      <c r="O65" s="308" t="n">
+      <c r="O65" s="306" t="n">
         <f aca="false">CV_C!AE29</f>
         <v>423</v>
       </c>
       <c r="P65" s="215"/>
-      <c r="R65" s="348" t="n">
+      <c r="R65" s="345" t="n">
         <f aca="false">IF(Data!BV27=65535,0,Data!BV27)</f>
         <v>45</v>
       </c>
@@ -26139,13 +26100,13 @@
         <f aca="false">IF(Data!BX27=65535,0,Data!BX27)</f>
         <v>55</v>
       </c>
-      <c r="U65" s="350" t="n">
+      <c r="U65" s="347" t="n">
         <f aca="false">IF(Data!BY27=65535,0,Data!BY27)</f>
         <v>49.6411685241472</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="269" t="s">
+      <c r="A66" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="266" t="n">
@@ -26196,12 +26157,12 @@
         <f aca="false">Data_speed!M49</f>
         <v>3</v>
       </c>
-      <c r="O66" s="308" t="n">
+      <c r="O66" s="306" t="n">
         <f aca="false">CV_C!AE30</f>
         <v>512.142857142857</v>
       </c>
       <c r="P66" s="215"/>
-      <c r="R66" s="348" t="n">
+      <c r="R66" s="345" t="n">
         <f aca="false">IF(Data!BV28=65535,0,Data!BV28)</f>
         <v>45</v>
       </c>
@@ -26213,7 +26174,7 @@
         <f aca="false">IF(Data!BX28=65535,0,Data!BX28)</f>
         <v>55</v>
       </c>
-      <c r="U66" s="350" t="n">
+      <c r="U66" s="347" t="n">
         <f aca="false">IF(Data!BY28=65535,0,Data!BY28)</f>
         <v>49.3133017289459</v>
       </c>
@@ -26270,24 +26231,24 @@
         <f aca="false">Data_speed!M50</f>
         <v>0</v>
       </c>
-      <c r="O67" s="279" t="n">
+      <c r="O67" s="278" t="n">
         <f aca="false">CV_C!AE31</f>
         <v>554.142857142857</v>
       </c>
       <c r="P67" s="215"/>
-      <c r="R67" s="351" t="n">
+      <c r="R67" s="348" t="n">
         <f aca="false">IF(Data!BV29=65535,0,Data!BV29)</f>
         <v>45</v>
       </c>
-      <c r="S67" s="352" t="n">
+      <c r="S67" s="349" t="n">
         <f aca="false">IF(Data!BW29=65535,0,Data!BW29)</f>
         <v>45</v>
       </c>
-      <c r="T67" s="353" t="n">
+      <c r="T67" s="350" t="n">
         <f aca="false">IF(Data!BX29=65535,0,Data!BX29)</f>
         <v>55</v>
       </c>
-      <c r="U67" s="354" t="n">
+      <c r="U67" s="351" t="n">
         <f aca="false">IF(Data!BY29=65535,0,Data!BY29)</f>
         <v>49.4052835051546</v>
       </c>
@@ -26344,12 +26305,12 @@
         <f aca="false">Data_speed!M51</f>
         <v>0</v>
       </c>
-      <c r="O68" s="308" t="n">
+      <c r="O68" s="306" t="n">
         <f aca="false">CV_C!AE32</f>
         <v>466.285714285714</v>
       </c>
       <c r="P68" s="215"/>
-      <c r="R68" s="348" t="n">
+      <c r="R68" s="345" t="n">
         <f aca="false">IF(Data!BV30=65535,0,Data!BV30)</f>
         <v>45</v>
       </c>
@@ -26361,7 +26322,7 @@
         <f aca="false">IF(Data!BX30=65535,0,Data!BX30)</f>
         <v>55</v>
       </c>
-      <c r="U68" s="350" t="n">
+      <c r="U68" s="347" t="n">
         <f aca="false">IF(Data!BY30=65535,0,Data!BY30)</f>
         <v>50.1945465686275</v>
       </c>
@@ -26418,12 +26379,12 @@
         <f aca="false">Data_speed!M52</f>
         <v>1</v>
       </c>
-      <c r="O69" s="308" t="n">
+      <c r="O69" s="306" t="n">
         <f aca="false">CV_C!AE33</f>
         <v>329.285714285714</v>
       </c>
       <c r="P69" s="215"/>
-      <c r="R69" s="348" t="n">
+      <c r="R69" s="345" t="n">
         <f aca="false">IF(Data!BV31=65535,0,Data!BV31)</f>
         <v>45</v>
       </c>
@@ -26435,7 +26396,7 @@
         <f aca="false">IF(Data!BX31=65535,0,Data!BX31)</f>
         <v>55</v>
       </c>
-      <c r="U69" s="350" t="n">
+      <c r="U69" s="347" t="n">
         <f aca="false">IF(Data!BY31=65535,0,Data!BY31)</f>
         <v>50.536643538595</v>
       </c>
@@ -26492,12 +26453,12 @@
         <f aca="false">Data_speed!M53</f>
         <v>0</v>
       </c>
-      <c r="O70" s="308" t="n">
+      <c r="O70" s="306" t="n">
         <f aca="false">CV_C!AE34</f>
         <v>215.428571428571</v>
       </c>
       <c r="P70" s="215"/>
-      <c r="R70" s="348" t="n">
+      <c r="R70" s="345" t="n">
         <f aca="false">IF(Data!BV32=65535,0,Data!BV32)</f>
         <v>45</v>
       </c>
@@ -26509,7 +26470,7 @@
         <f aca="false">IF(Data!BX32=65535,0,Data!BX32)</f>
         <v>55</v>
       </c>
-      <c r="U70" s="350" t="n">
+      <c r="U70" s="347" t="n">
         <f aca="false">IF(Data!BY32=65535,0,Data!BY32)</f>
         <v>50.5222148541114</v>
       </c>
@@ -26566,12 +26527,12 @@
         <f aca="false">Data_speed!M54</f>
         <v>0</v>
       </c>
-      <c r="O71" s="308" t="n">
+      <c r="O71" s="306" t="n">
         <f aca="false">CV_C!AE35</f>
         <v>174.714285714286</v>
       </c>
       <c r="P71" s="215"/>
-      <c r="R71" s="348" t="n">
+      <c r="R71" s="345" t="n">
         <f aca="false">IF(Data!BV33=65535,0,Data!BV33)</f>
         <v>45</v>
       </c>
@@ -26583,7 +26544,7 @@
         <f aca="false">IF(Data!BX33=65535,0,Data!BX33)</f>
         <v>55</v>
       </c>
-      <c r="U71" s="350" t="n">
+      <c r="U71" s="347" t="n">
         <f aca="false">IF(Data!BY33=65535,0,Data!BY33)</f>
         <v>49.5748160261652</v>
       </c>
@@ -26640,12 +26601,12 @@
         <f aca="false">Data_speed!M55</f>
         <v>0</v>
       </c>
-      <c r="O72" s="308" t="n">
+      <c r="O72" s="306" t="n">
         <f aca="false">CV_C!AE36</f>
         <v>157.428571428571</v>
       </c>
       <c r="P72" s="215"/>
-      <c r="R72" s="348" t="n">
+      <c r="R72" s="345" t="n">
         <f aca="false">IF(Data!BV34=65535,0,Data!BV34)</f>
         <v>45</v>
       </c>
@@ -26657,13 +26618,13 @@
         <f aca="false">IF(Data!BX34=65535,0,Data!BX34)</f>
         <v>55</v>
       </c>
-      <c r="U72" s="350" t="n">
+      <c r="U72" s="347" t="n">
         <f aca="false">IF(Data!BY34=65535,0,Data!BY34)</f>
         <v>50.4174228675136</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="271" t="s">
+      <c r="A73" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="266" t="n">
@@ -26714,24 +26675,24 @@
         <f aca="false">Data_speed!M56</f>
         <v>0</v>
       </c>
-      <c r="O73" s="285" t="n">
+      <c r="O73" s="284" t="n">
         <f aca="false">CV_C!AE37</f>
         <v>91.7142857142857</v>
       </c>
       <c r="P73" s="215"/>
-      <c r="R73" s="355" t="n">
+      <c r="R73" s="352" t="n">
         <f aca="false">IF(Data!BV35=65535,0,Data!BV35)</f>
         <v>45</v>
       </c>
-      <c r="S73" s="356" t="n">
+      <c r="S73" s="353" t="n">
         <f aca="false">IF(Data!BW35=65535,0,Data!BW35)</f>
         <v>55</v>
       </c>
-      <c r="T73" s="357" t="n">
+      <c r="T73" s="354" t="n">
         <f aca="false">IF(Data!BX35=65535,0,Data!BX35)</f>
         <v>55</v>
       </c>
-      <c r="U73" s="358" t="n">
+      <c r="U73" s="355" t="n">
         <f aca="false">IF(Data!BY35=65535,0,Data!BY35)</f>
         <v>50.8528037383178</v>
       </c>
@@ -26753,221 +26714,221 @@
       <c r="A76" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B76" s="359" t="n">
+      <c r="B76" s="356" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C76" s="359" t="n">
+      <c r="C76" s="356" t="n">
         <f aca="false">SUM(C50:C73)/Data_speed!$O$57</f>
         <v>0.00323091674657106</v>
       </c>
-      <c r="D76" s="359" t="n">
+      <c r="D76" s="356" t="n">
         <f aca="false">SUM(D50:D73)/Data_speed!$O$57</f>
         <v>0.0208029349230833</v>
       </c>
-      <c r="E76" s="359" t="n">
+      <c r="E76" s="356" t="n">
         <f aca="false">SUM(E50:E73)/Data_speed!$O$57</f>
         <v>0.506044941009714</v>
       </c>
-      <c r="F76" s="359" t="n">
+      <c r="F76" s="356" t="n">
         <f aca="false">SUM(F50:F73)/Data_speed!$O$57</f>
         <v>0.435881936048693</v>
       </c>
-      <c r="G76" s="359" t="n">
+      <c r="G76" s="356" t="n">
         <f aca="false">SUM(G50:G73)/Data_speed!$O$57</f>
         <v>0.0318088964855964</v>
       </c>
-      <c r="H76" s="359" t="n">
+      <c r="H76" s="356" t="n">
         <f aca="false">SUM(H50:H73)/Data_speed!$O$57</f>
         <v>0.00122983282611415</v>
       </c>
-      <c r="I76" s="359" t="n">
+      <c r="I76" s="356" t="n">
         <f aca="false">SUM(I50:I73)/Data_speed!$O$57</f>
         <v>0.000187601617542836</v>
       </c>
-      <c r="J76" s="359" t="n">
+      <c r="J76" s="356" t="n">
         <f aca="false">SUM(J50:J73)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K76" s="359" t="n">
+      <c r="K76" s="356" t="n">
         <f aca="false">SUM(K50:K73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L76" s="359" t="n">
+      <c r="L76" s="356" t="n">
         <f aca="false">SUM(L50:L73)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M76" s="359" t="n">
+      <c r="M76" s="356" t="n">
         <f aca="false">SUM(M50:M73)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="O76" s="320" t="n">
+      <c r="O76" s="318" t="n">
         <f aca="false">SUM(B76:M76)</f>
         <v>1</v>
       </c>
-      <c r="P76" s="335"/>
-      <c r="R76" s="360" t="n">
+      <c r="P76" s="332"/>
+      <c r="R76" s="357" t="n">
         <f aca="false">IF(Data!BV38&gt;=999,0,Data!BV38)</f>
         <v>45</v>
       </c>
-      <c r="S76" s="361" t="n">
+      <c r="S76" s="358" t="n">
         <f aca="false">IF(Data!BW38&gt;=999,0,Data!BW38)</f>
         <v>45</v>
       </c>
-      <c r="T76" s="361" t="n">
+      <c r="T76" s="358" t="n">
         <f aca="false">IF(Data!BX38&gt;=999,0,Data!BX38)</f>
         <v>55</v>
       </c>
-      <c r="U76" s="362" t="n">
+      <c r="U76" s="359" t="n">
         <f aca="false">IF(Data!BY38&gt;=999,0,Data!BY38)</f>
         <v>49.7499687330638</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="277" t="s">
+      <c r="A77" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B77" s="363" t="n">
+      <c r="B77" s="360" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C77" s="363" t="n">
+      <c r="C77" s="360" t="n">
         <f aca="false">SUM(C56:C71)/Data_speed!$O$57</f>
         <v>0.00318922749822821</v>
       </c>
-      <c r="D77" s="363" t="n">
+      <c r="D77" s="360" t="n">
         <f aca="false">SUM(D56:D71)/Data_speed!$O$57</f>
         <v>0.019760703714512</v>
       </c>
-      <c r="E77" s="363" t="n">
+      <c r="E77" s="360" t="n">
         <f aca="false">SUM(E56:E71)/Data_speed!$O$57</f>
         <v>0.475986992954517</v>
       </c>
-      <c r="F77" s="363" t="n">
+      <c r="F77" s="360" t="n">
         <f aca="false">SUM(F56:F71)/Data_speed!$O$57</f>
         <v>0.404073039563097</v>
       </c>
-      <c r="G77" s="363" t="n">
+      <c r="G77" s="360" t="n">
         <f aca="false">SUM(G56:G71)/Data_speed!$O$57</f>
         <v>0.0266394296910827</v>
       </c>
-      <c r="H77" s="363" t="n">
+      <c r="H77" s="360" t="n">
         <f aca="false">SUM(H56:H71)/Data_speed!$O$57</f>
         <v>0.000854629591028474</v>
       </c>
-      <c r="I77" s="363" t="n">
+      <c r="I77" s="360" t="n">
         <f aca="false">SUM(I56:I71)/Data_speed!$O$57</f>
         <v>0.000145912369199983</v>
       </c>
-      <c r="J77" s="363" t="n">
+      <c r="J77" s="360" t="n">
         <f aca="false">SUM(J56:J71)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K77" s="363" t="n">
+      <c r="K77" s="360" t="n">
         <f aca="false">SUM(K56:K71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L77" s="363" t="n">
+      <c r="L77" s="360" t="n">
         <f aca="false">SUM(L56:L71)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M77" s="363" t="n">
+      <c r="M77" s="360" t="n">
         <f aca="false">SUM(M56:M71)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="O77" s="312" t="n">
+      <c r="O77" s="310" t="n">
         <f aca="false">SUM(B77:M77)</f>
         <v>0.931462875724351</v>
       </c>
-      <c r="P77" s="335"/>
-      <c r="R77" s="364" t="n">
+      <c r="P77" s="332"/>
+      <c r="R77" s="361" t="n">
         <f aca="false">IF(Data!BV39&gt;=999,0,Data!BV39)</f>
         <v>45</v>
       </c>
-      <c r="S77" s="365" t="n">
+      <c r="S77" s="362" t="n">
         <f aca="false">IF(Data!BW39&gt;=999,0,Data!BW39)</f>
         <v>45</v>
       </c>
-      <c r="T77" s="365" t="n">
+      <c r="T77" s="362" t="n">
         <f aca="false">IF(Data!BX39&gt;=999,0,Data!BX39)</f>
         <v>55</v>
       </c>
-      <c r="U77" s="366" t="n">
+      <c r="U77" s="363" t="n">
         <f aca="false">IF(Data!BY39&gt;=999,0,Data!BY39)</f>
         <v>49.645302779394</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="281" t="s">
+      <c r="A78" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="367" t="n">
+      <c r="B78" s="364" t="n">
         <f aca="false">B76-B77</f>
         <v>0</v>
       </c>
-      <c r="C78" s="283" t="n">
+      <c r="C78" s="282" t="n">
         <f aca="false">C76-C77</f>
         <v>4.16892483428525E-005</v>
       </c>
-      <c r="D78" s="283" t="n">
+      <c r="D78" s="282" t="n">
         <f aca="false">D76-D77</f>
         <v>0.00104223120857131</v>
       </c>
-      <c r="E78" s="283" t="n">
+      <c r="E78" s="282" t="n">
         <f aca="false">E76-E77</f>
         <v>0.0300579480551966</v>
       </c>
-      <c r="F78" s="283" t="n">
+      <c r="F78" s="282" t="n">
         <f aca="false">F76-F77</f>
         <v>0.0318088964855963</v>
       </c>
-      <c r="G78" s="283" t="n">
+      <c r="G78" s="282" t="n">
         <f aca="false">G76-G77</f>
         <v>0.0051694667945137</v>
       </c>
-      <c r="H78" s="283" t="n">
+      <c r="H78" s="282" t="n">
         <f aca="false">H76-H77</f>
         <v>0.000375203235085671</v>
       </c>
-      <c r="I78" s="283" t="n">
+      <c r="I78" s="282" t="n">
         <f aca="false">I76-I77</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="J78" s="283" t="n">
+      <c r="J78" s="282" t="n">
         <f aca="false">J76-J77</f>
         <v>0</v>
       </c>
-      <c r="K78" s="283" t="n">
+      <c r="K78" s="282" t="n">
         <f aca="false">K76-K77</f>
         <v>0</v>
       </c>
-      <c r="L78" s="283" t="n">
+      <c r="L78" s="282" t="n">
         <f aca="false">L76-L77</f>
         <v>0</v>
       </c>
-      <c r="M78" s="336" t="n">
+      <c r="M78" s="333" t="n">
         <f aca="false">M76-M77</f>
         <v>0</v>
       </c>
-      <c r="N78" s="368"/>
-      <c r="O78" s="323" t="n">
+      <c r="N78" s="365"/>
+      <c r="O78" s="321" t="n">
         <f aca="false">O76-O77</f>
         <v>0.0685371242756494</v>
       </c>
-      <c r="P78" s="335"/>
-      <c r="R78" s="369" t="n">
+      <c r="P78" s="332"/>
+      <c r="R78" s="366" t="n">
         <f aca="false">IF(Data!BV40&gt;=999,0,Data!BV40)</f>
         <v>45</v>
       </c>
-      <c r="S78" s="370" t="n">
+      <c r="S78" s="367" t="n">
         <f aca="false">IF(Data!BW40&gt;=999,0,Data!BW40)</f>
         <v>55</v>
       </c>
-      <c r="T78" s="370" t="n">
+      <c r="T78" s="367" t="n">
         <f aca="false">IF(Data!BX40&gt;=999,0,Data!BX40)</f>
         <v>55</v>
       </c>
-      <c r="U78" s="371" t="n">
+      <c r="U78" s="368" t="n">
         <f aca="false">IF(Data!BY40&gt;=999,0,Data!BY40)</f>
         <v>51.1724452554745</v>
       </c>
@@ -27023,8 +26984,8 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J45" activeCellId="0" sqref="J45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y63" activeCellId="0" sqref="Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27060,8 +27021,6 @@
         <v>Comptage 2017</v>
       </c>
       <c r="J2" s="52"/>
-      <c r="K2" s="0"/>
-      <c r="N2" s="0"/>
       <c r="P2" s="54" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
@@ -27075,8 +27034,6 @@
       </c>
       <c r="G3" s="56"/>
       <c r="J3" s="52"/>
-      <c r="K3" s="0"/>
-      <c r="N3" s="0"/>
       <c r="P3" s="57" t="str">
         <f aca="false">Data_count!B7</f>
         <v>Modèle : M660_LT</v>
@@ -27091,8 +27048,6 @@
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
       <c r="J4" s="52"/>
-      <c r="K4" s="0"/>
-      <c r="N4" s="0"/>
       <c r="P4" s="57" t="str">
         <f aca="false">Data_count!B8</f>
         <v>Classification : SWISS10</v>
@@ -27107,8 +27062,6 @@
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="0"/>
-      <c r="N5" s="0"/>
       <c r="P5" s="57" t="str">
         <f aca="false">Data_count!B9</f>
         <v>Comptage véhicule par véhicule</v>
@@ -27120,7 +27073,7 @@
       <c r="J6" s="52"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="55"/>
       <c r="C7" s="59"/>
       <c r="F7" s="60" t="str">
@@ -27137,60 +27090,60 @@
       <c r="A10" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="287" t="str">
+      <c r="B10" s="50" t="str">
         <f aca="false">B4</f>
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="341" t="str">
+      <c r="A11" s="338" t="str">
         <f aca="false">Data!AW42&amp;" =&gt; avec un usage de "&amp;TEXT(Data!H2,0)&amp;" voie(s) : "&amp;Data!AW43&amp;"  "&amp;Data!AW44</f>
         <v>Vitesse moyenne spatiale = 48 km/h =&gt; avec un usage de 1 voie(s) : Densité critique Kc = 31 Veh/km  Débit max Q = 1467 Veh/h</v>
       </c>
-      <c r="B11" s="341"/>
-      <c r="C11" s="341"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="341"/>
-      <c r="G11" s="341"/>
-      <c r="H11" s="341"/>
-      <c r="I11" s="341"/>
-      <c r="J11" s="341"/>
-      <c r="K11" s="341"/>
-      <c r="L11" s="341"/>
-      <c r="M11" s="341"/>
-      <c r="N11" s="341"/>
-      <c r="O11" s="341"/>
-      <c r="P11" s="341"/>
-      <c r="Q11" s="341"/>
-      <c r="R11" s="342"/>
-      <c r="S11" s="342"/>
-      <c r="T11" s="342"/>
-      <c r="U11" s="342"/>
+      <c r="B11" s="338"/>
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="338"/>
+      <c r="M11" s="338"/>
+      <c r="N11" s="338"/>
+      <c r="O11" s="338"/>
+      <c r="P11" s="338"/>
+      <c r="Q11" s="338"/>
+      <c r="R11" s="339"/>
+      <c r="S11" s="339"/>
+      <c r="T11" s="339"/>
+      <c r="U11" s="339"/>
     </row>
     <row r="12" s="224" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="288" t="str">
+      <c r="B12" s="286" t="str">
         <f aca="false">"Distribution de la Vitesse par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)"</f>
         <v>Distribution de la Vitesse par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="375"/>
+      <c r="C12" s="286"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="286"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="286"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="286"/>
+      <c r="L12" s="286"/>
+      <c r="M12" s="286"/>
+      <c r="N12" s="372"/>
       <c r="P12" s="258" t="s">
         <v>275</v>
       </c>
-      <c r="Q12" s="333"/>
+      <c r="Q12" s="330"/>
       <c r="S12" s="27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
@@ -27200,70 +27153,60 @@
       <c r="A13" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="289" t="str">
-        <f aca="false">FIXED(Data!AO8,0)&amp;" km/h"</f>
-        <v>30 km/h</v>
-      </c>
-      <c r="C13" s="188" t="str">
-        <f aca="false">FIXED(Data!AP8,0)&amp;" km/h"</f>
-        <v>40 km/h</v>
-      </c>
-      <c r="D13" s="188" t="str">
-        <f aca="false">FIXED(Data!AQ8,0)&amp;" km/h"</f>
-        <v>50 km/h</v>
-      </c>
-      <c r="E13" s="188" t="str">
-        <f aca="false">FIXED(Data!AR8,0)&amp;" km/h"</f>
-        <v>60 km/h</v>
-      </c>
-      <c r="F13" s="188" t="str">
-        <f aca="false">FIXED(Data!AS8,0)&amp;" km/h"</f>
-        <v>70 km/h</v>
-      </c>
-      <c r="G13" s="188" t="str">
-        <f aca="false">FIXED(Data!AT8,0)&amp;" km/h"</f>
-        <v>80 km/h</v>
-      </c>
-      <c r="H13" s="188" t="str">
-        <f aca="false">FIXED(Data!AU8,0)&amp;" km/h"</f>
-        <v>90 km/h</v>
-      </c>
-      <c r="I13" s="188" t="str">
-        <f aca="false">FIXED(Data!AV8,0)&amp;" km/h"</f>
-        <v>100 km/h</v>
-      </c>
-      <c r="J13" s="188" t="str">
-        <f aca="false">FIXED(Data!AW8,0)&amp;" km/h"</f>
-        <v>110 km/h</v>
-      </c>
-      <c r="K13" s="188" t="str">
-        <f aca="false">FIXED(Data!AX8,0)&amp;" km/h"</f>
-        <v>120 km/h</v>
-      </c>
-      <c r="L13" s="188" t="str">
-        <f aca="false">FIXED(Data!AY8,0)&amp;" km/h"</f>
-        <v>130 km/h</v>
-      </c>
-      <c r="M13" s="292" t="str">
-        <f aca="false">"&gt; "&amp;L13</f>
-        <v>&gt; 130 km/h</v>
-      </c>
-      <c r="N13" s="292"/>
-      <c r="P13" s="343" t="s">
-        <v>284</v>
+      <c r="B13" s="287" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="287" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="188" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="188" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="188" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="188" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="188" t="s">
+        <v>291</v>
+      </c>
+      <c r="I13" s="188" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="188" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" s="188" t="s">
+        <v>294</v>
+      </c>
+      <c r="L13" s="188" t="s">
+        <v>295</v>
+      </c>
+      <c r="M13" s="188" t="s">
+        <v>296</v>
+      </c>
+      <c r="N13" s="290" t="s">
+        <v>306</v>
+      </c>
+      <c r="P13" s="340" t="s">
+        <v>299</v>
       </c>
       <c r="Q13" s="5"/>
-      <c r="S13" s="344" t="s">
-        <v>285</v>
-      </c>
-      <c r="T13" s="345" t="s">
-        <v>286</v>
-      </c>
-      <c r="U13" s="346" t="s">
-        <v>287</v>
-      </c>
-      <c r="V13" s="347" t="s">
-        <v>288</v>
+      <c r="S13" s="341" t="s">
+        <v>300</v>
+      </c>
+      <c r="T13" s="342" t="s">
+        <v>301</v>
+      </c>
+      <c r="U13" s="343" t="s">
+        <v>302</v>
+      </c>
+      <c r="V13" s="344" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27327,7 +27270,7 @@
         <v>54</v>
       </c>
       <c r="Q14" s="215"/>
-      <c r="S14" s="348" t="n">
+      <c r="S14" s="345" t="n">
         <f aca="false">IF(Data!BB12=65535,0,Data!BB12)</f>
         <v>45</v>
       </c>
@@ -27339,7 +27282,7 @@
         <f aca="false">IF(Data!BD12=65535,0,Data!BD12)</f>
         <v>55</v>
       </c>
-      <c r="V14" s="349" t="n">
+      <c r="V14" s="346" t="n">
         <f aca="false">IF(Data!BE12=65535,0,Data!BE12)</f>
         <v>51.6534391534392</v>
       </c>
@@ -27400,12 +27343,12 @@
         <f aca="false">Data_speed!N6</f>
         <v>0</v>
       </c>
-      <c r="P15" s="308" t="n">
+      <c r="P15" s="306" t="n">
         <f aca="false">CV_C!U15</f>
         <v>22.2857142857143</v>
       </c>
       <c r="Q15" s="215"/>
-      <c r="S15" s="348" t="n">
+      <c r="S15" s="345" t="n">
         <f aca="false">IF(Data!BB13=65535,0,Data!BB13)</f>
         <v>45</v>
       </c>
@@ -27417,7 +27360,7 @@
         <f aca="false">IF(Data!BD13=65535,0,Data!BD13)</f>
         <v>55</v>
       </c>
-      <c r="V15" s="350" t="n">
+      <c r="V15" s="347" t="n">
         <f aca="false">IF(Data!BE13=65535,0,Data!BE13)</f>
         <v>51.9551282051282</v>
       </c>
@@ -27478,12 +27421,12 @@
         <f aca="false">Data_speed!N7</f>
         <v>0</v>
       </c>
-      <c r="P16" s="308" t="n">
+      <c r="P16" s="306" t="n">
         <f aca="false">CV_C!U16</f>
         <v>15.5714285714286</v>
       </c>
       <c r="Q16" s="215"/>
-      <c r="S16" s="348" t="n">
+      <c r="S16" s="345" t="n">
         <f aca="false">IF(Data!BB14=65535,0,Data!BB14)</f>
         <v>45</v>
       </c>
@@ -27495,7 +27438,7 @@
         <f aca="false">IF(Data!BD14=65535,0,Data!BD14)</f>
         <v>55</v>
       </c>
-      <c r="V16" s="350" t="n">
+      <c r="V16" s="347" t="n">
         <f aca="false">IF(Data!BE14=65535,0,Data!BE14)</f>
         <v>52.2247706422018</v>
       </c>
@@ -27556,12 +27499,12 @@
         <f aca="false">Data_speed!N8</f>
         <v>0</v>
       </c>
-      <c r="P17" s="308" t="n">
+      <c r="P17" s="306" t="n">
         <f aca="false">CV_C!U17</f>
         <v>13.8571428571429</v>
       </c>
       <c r="Q17" s="215"/>
-      <c r="S17" s="348" t="n">
+      <c r="S17" s="345" t="n">
         <f aca="false">IF(Data!BB15=65535,0,Data!BB15)</f>
         <v>45</v>
       </c>
@@ -27573,7 +27516,7 @@
         <f aca="false">IF(Data!BD15=65535,0,Data!BD15)</f>
         <v>65</v>
       </c>
-      <c r="V17" s="350" t="n">
+      <c r="V17" s="347" t="n">
         <f aca="false">IF(Data!BE15=65535,0,Data!BE15)</f>
         <v>53.659793814433</v>
       </c>
@@ -27634,12 +27577,12 @@
         <f aca="false">Data_speed!N9</f>
         <v>0</v>
       </c>
-      <c r="P18" s="308" t="n">
+      <c r="P18" s="306" t="n">
         <f aca="false">CV_C!U18</f>
         <v>19.2857142857143</v>
       </c>
       <c r="Q18" s="215"/>
-      <c r="S18" s="348" t="n">
+      <c r="S18" s="345" t="n">
         <f aca="false">IF(Data!BB16=65535,0,Data!BB16)</f>
         <v>45</v>
       </c>
@@ -27651,7 +27594,7 @@
         <f aca="false">IF(Data!BD16=65535,0,Data!BD16)</f>
         <v>65</v>
       </c>
-      <c r="V18" s="350" t="n">
+      <c r="V18" s="347" t="n">
         <f aca="false">IF(Data!BE16=65535,0,Data!BE16)</f>
         <v>54.7592592592593</v>
       </c>
@@ -27712,12 +27655,12 @@
         <f aca="false">Data_speed!N10</f>
         <v>0</v>
       </c>
-      <c r="P19" s="308" t="n">
+      <c r="P19" s="306" t="n">
         <f aca="false">CV_C!U19</f>
         <v>43.4285714285714</v>
       </c>
       <c r="Q19" s="215"/>
-      <c r="S19" s="348" t="n">
+      <c r="S19" s="345" t="n">
         <f aca="false">IF(Data!BB17=65535,0,Data!BB17)</f>
         <v>45</v>
       </c>
@@ -27729,13 +27672,13 @@
         <f aca="false">IF(Data!BD17=65535,0,Data!BD17)</f>
         <v>55</v>
       </c>
-      <c r="V19" s="350" t="n">
+      <c r="V19" s="347" t="n">
         <f aca="false">IF(Data!BE17=65535,0,Data!BE17)</f>
         <v>51.3815789473684</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="269" t="s">
+      <c r="A20" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="266" t="n">
@@ -27790,12 +27733,12 @@
         <f aca="false">Data_speed!N11</f>
         <v>0</v>
       </c>
-      <c r="P20" s="308" t="n">
+      <c r="P20" s="306" t="n">
         <f aca="false">CV_C!U20</f>
         <v>172.714285714286</v>
       </c>
       <c r="Q20" s="215"/>
-      <c r="S20" s="348" t="n">
+      <c r="S20" s="345" t="n">
         <f aca="false">IF(Data!BB18=65535,0,Data!BB18)</f>
         <v>45</v>
       </c>
@@ -27807,7 +27750,7 @@
         <f aca="false">IF(Data!BD18=65535,0,Data!BD18)</f>
         <v>55</v>
       </c>
-      <c r="V20" s="350" t="n">
+      <c r="V20" s="347" t="n">
         <f aca="false">IF(Data!BE18=65535,0,Data!BE18)</f>
         <v>49.762200165426</v>
       </c>
@@ -27868,24 +27811,24 @@
         <f aca="false">Data_speed!N12</f>
         <v>0</v>
       </c>
-      <c r="P21" s="279" t="n">
+      <c r="P21" s="278" t="n">
         <f aca="false">CV_C!U21</f>
         <v>363</v>
       </c>
       <c r="Q21" s="215"/>
-      <c r="S21" s="351" t="n">
+      <c r="S21" s="348" t="n">
         <f aca="false">IF(Data!BB19=65535,0,Data!BB19)</f>
         <v>45</v>
       </c>
-      <c r="T21" s="352" t="n">
+      <c r="T21" s="349" t="n">
         <f aca="false">IF(Data!BC19=65535,0,Data!BC19)</f>
         <v>45</v>
       </c>
-      <c r="U21" s="353" t="n">
+      <c r="U21" s="350" t="n">
         <f aca="false">IF(Data!BD19=65535,0,Data!BD19)</f>
         <v>55</v>
       </c>
-      <c r="V21" s="354" t="n">
+      <c r="V21" s="351" t="n">
         <f aca="false">IF(Data!BE19=65535,0,Data!BE19)</f>
         <v>48.0509641873278</v>
       </c>
@@ -27946,12 +27889,12 @@
         <f aca="false">Data_speed!N13</f>
         <v>0</v>
       </c>
-      <c r="P22" s="308" t="n">
+      <c r="P22" s="306" t="n">
         <f aca="false">CV_C!U22</f>
         <v>333.714285714286</v>
       </c>
       <c r="Q22" s="215"/>
-      <c r="S22" s="348" t="n">
+      <c r="S22" s="345" t="n">
         <f aca="false">IF(Data!BB20=65535,0,Data!BB20)</f>
         <v>45</v>
       </c>
@@ -27963,7 +27906,7 @@
         <f aca="false">IF(Data!BD20=65535,0,Data!BD20)</f>
         <v>55</v>
       </c>
-      <c r="V22" s="350" t="n">
+      <c r="V22" s="347" t="n">
         <f aca="false">IF(Data!BE20=65535,0,Data!BE20)</f>
         <v>49.237270004279</v>
       </c>
@@ -28024,12 +27967,12 @@
         <f aca="false">Data_speed!N14</f>
         <v>0</v>
       </c>
-      <c r="P23" s="308" t="n">
+      <c r="P23" s="306" t="n">
         <f aca="false">CV_C!U23</f>
         <v>317.285714285714</v>
       </c>
       <c r="Q23" s="215"/>
-      <c r="S23" s="348" t="n">
+      <c r="S23" s="345" t="n">
         <f aca="false">IF(Data!BB21=65535,0,Data!BB21)</f>
         <v>45</v>
       </c>
@@ -28041,7 +27984,7 @@
         <f aca="false">IF(Data!BD21=65535,0,Data!BD21)</f>
         <v>55</v>
       </c>
-      <c r="V23" s="350" t="n">
+      <c r="V23" s="347" t="n">
         <f aca="false">IF(Data!BE21=65535,0,Data!BE21)</f>
         <v>49.0263394867177</v>
       </c>
@@ -28102,12 +28045,12 @@
         <f aca="false">Data_speed!N15</f>
         <v>0</v>
       </c>
-      <c r="P24" s="308" t="n">
+      <c r="P24" s="306" t="n">
         <f aca="false">CV_C!U24</f>
         <v>340.857142857143</v>
       </c>
       <c r="Q24" s="215"/>
-      <c r="S24" s="348" t="n">
+      <c r="S24" s="345" t="n">
         <f aca="false">IF(Data!BB22=65535,0,Data!BB22)</f>
         <v>45</v>
       </c>
@@ -28119,7 +28062,7 @@
         <f aca="false">IF(Data!BD22=65535,0,Data!BD22)</f>
         <v>55</v>
       </c>
-      <c r="V24" s="350" t="n">
+      <c r="V24" s="347" t="n">
         <f aca="false">IF(Data!BE22=65535,0,Data!BE22)</f>
         <v>48.3329840737636</v>
       </c>
@@ -28180,12 +28123,12 @@
         <f aca="false">Data_speed!N16</f>
         <v>0</v>
       </c>
-      <c r="P25" s="308" t="n">
+      <c r="P25" s="306" t="n">
         <f aca="false">CV_C!U25</f>
         <v>445.857142857143</v>
       </c>
       <c r="Q25" s="215"/>
-      <c r="S25" s="348" t="n">
+      <c r="S25" s="345" t="n">
         <f aca="false">IF(Data!BB23=65535,0,Data!BB23)</f>
         <v>45</v>
       </c>
@@ -28197,13 +28140,13 @@
         <f aca="false">IF(Data!BD23=65535,0,Data!BD23)</f>
         <v>55</v>
       </c>
-      <c r="V25" s="350" t="n">
+      <c r="V25" s="347" t="n">
         <f aca="false">IF(Data!BE23=65535,0,Data!BE23)</f>
         <v>48.5232371794872</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="306" t="s">
+      <c r="A26" s="304" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="266" t="n">
@@ -28258,12 +28201,12 @@
         <f aca="false">Data_speed!N17</f>
         <v>0</v>
       </c>
-      <c r="P26" s="308" t="n">
+      <c r="P26" s="306" t="n">
         <f aca="false">CV_C!U26</f>
         <v>413.285714285714</v>
       </c>
       <c r="Q26" s="215"/>
-      <c r="S26" s="348" t="n">
+      <c r="S26" s="345" t="n">
         <f aca="false">IF(Data!BB24=65535,0,Data!BB24)</f>
         <v>45</v>
       </c>
@@ -28275,7 +28218,7 @@
         <f aca="false">IF(Data!BD24=65535,0,Data!BD24)</f>
         <v>55</v>
       </c>
-      <c r="V26" s="350" t="n">
+      <c r="V26" s="347" t="n">
         <f aca="false">IF(Data!BE24=65535,0,Data!BE24)</f>
         <v>49.0658486000691</v>
       </c>
@@ -28336,12 +28279,12 @@
         <f aca="false">Data_speed!N18</f>
         <v>0</v>
       </c>
-      <c r="P27" s="308" t="n">
+      <c r="P27" s="306" t="n">
         <f aca="false">CV_C!U27</f>
         <v>420.285714285714</v>
       </c>
       <c r="Q27" s="215"/>
-      <c r="S27" s="348" t="n">
+      <c r="S27" s="345" t="n">
         <f aca="false">IF(Data!BB25=65535,0,Data!BB25)</f>
         <v>45</v>
       </c>
@@ -28353,7 +28296,7 @@
         <f aca="false">IF(Data!BD25=65535,0,Data!BD25)</f>
         <v>55</v>
       </c>
-      <c r="V27" s="350" t="n">
+      <c r="V27" s="347" t="n">
         <f aca="false">IF(Data!BE25=65535,0,Data!BE25)</f>
         <v>48.7245071380014</v>
       </c>
@@ -28414,12 +28357,12 @@
         <f aca="false">Data_speed!N19</f>
         <v>0</v>
       </c>
-      <c r="P28" s="308" t="n">
+      <c r="P28" s="306" t="n">
         <f aca="false">CV_C!U28</f>
         <v>382.142857142857</v>
       </c>
       <c r="Q28" s="215"/>
-      <c r="S28" s="348" t="n">
+      <c r="S28" s="345" t="n">
         <f aca="false">IF(Data!BB26=65535,0,Data!BB26)</f>
         <v>45</v>
       </c>
@@ -28431,7 +28374,7 @@
         <f aca="false">IF(Data!BD26=65535,0,Data!BD26)</f>
         <v>55</v>
       </c>
-      <c r="V28" s="350" t="n">
+      <c r="V28" s="347" t="n">
         <f aca="false">IF(Data!BE26=65535,0,Data!BE26)</f>
         <v>49.1588785046729</v>
       </c>
@@ -28492,12 +28435,12 @@
         <f aca="false">Data_speed!N20</f>
         <v>0</v>
       </c>
-      <c r="P29" s="308" t="n">
+      <c r="P29" s="306" t="n">
         <f aca="false">CV_C!U29</f>
         <v>440</v>
       </c>
       <c r="Q29" s="215"/>
-      <c r="S29" s="348" t="n">
+      <c r="S29" s="345" t="n">
         <f aca="false">IF(Data!BB27=65535,0,Data!BB27)</f>
         <v>45</v>
       </c>
@@ -28509,13 +28452,13 @@
         <f aca="false">IF(Data!BD27=65535,0,Data!BD27)</f>
         <v>55</v>
       </c>
-      <c r="V29" s="350" t="n">
+      <c r="V29" s="347" t="n">
         <f aca="false">IF(Data!BE27=65535,0,Data!BE27)</f>
         <v>48.9261363636364</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="269" t="s">
+      <c r="A30" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="266" t="n">
@@ -28570,12 +28513,12 @@
         <f aca="false">Data_speed!N21</f>
         <v>0</v>
       </c>
-      <c r="P30" s="308" t="n">
+      <c r="P30" s="306" t="n">
         <f aca="false">CV_C!U30</f>
         <v>588.857142857143</v>
       </c>
       <c r="Q30" s="215"/>
-      <c r="S30" s="348" t="n">
+      <c r="S30" s="345" t="n">
         <f aca="false">IF(Data!BB28=65535,0,Data!BB28)</f>
         <v>45</v>
       </c>
@@ -28587,7 +28530,7 @@
         <f aca="false">IF(Data!BD28=65535,0,Data!BD28)</f>
         <v>55</v>
       </c>
-      <c r="V30" s="350" t="n">
+      <c r="V30" s="347" t="n">
         <f aca="false">IF(Data!BE28=65535,0,Data!BE28)</f>
         <v>48.2502426006793</v>
       </c>
@@ -28648,24 +28591,24 @@
         <f aca="false">Data_speed!N22</f>
         <v>0</v>
       </c>
-      <c r="P31" s="279" t="n">
+      <c r="P31" s="278" t="n">
         <f aca="false">CV_C!U31</f>
         <v>823.428571428572</v>
       </c>
       <c r="Q31" s="215"/>
-      <c r="S31" s="351" t="n">
+      <c r="S31" s="348" t="n">
         <f aca="false">IF(Data!BB29=65535,0,Data!BB29)</f>
         <v>45</v>
       </c>
-      <c r="T31" s="352" t="n">
+      <c r="T31" s="349" t="n">
         <f aca="false">IF(Data!BC29=65535,0,Data!BC29)</f>
         <v>45</v>
       </c>
-      <c r="U31" s="353" t="n">
+      <c r="U31" s="350" t="n">
         <f aca="false">IF(Data!BD29=65535,0,Data!BD29)</f>
         <v>55</v>
       </c>
-      <c r="V31" s="354" t="n">
+      <c r="V31" s="351" t="n">
         <f aca="false">IF(Data!BE29=65535,0,Data!BE29)</f>
         <v>46.7205933379598</v>
       </c>
@@ -28726,12 +28669,12 @@
         <f aca="false">Data_speed!N23</f>
         <v>0</v>
       </c>
-      <c r="P32" s="308" t="n">
+      <c r="P32" s="306" t="n">
         <f aca="false">CV_C!U32</f>
         <v>620</v>
       </c>
       <c r="Q32" s="215"/>
-      <c r="S32" s="348" t="n">
+      <c r="S32" s="345" t="n">
         <f aca="false">IF(Data!BB30=65535,0,Data!BB30)</f>
         <v>45</v>
       </c>
@@ -28743,7 +28686,7 @@
         <f aca="false">IF(Data!BD30=65535,0,Data!BD30)</f>
         <v>55</v>
       </c>
-      <c r="V32" s="350" t="n">
+      <c r="V32" s="347" t="n">
         <f aca="false">IF(Data!BE30=65535,0,Data!BE30)</f>
         <v>48.2020271826768</v>
       </c>
@@ -28804,12 +28747,12 @@
         <f aca="false">Data_speed!N24</f>
         <v>0</v>
       </c>
-      <c r="P33" s="308" t="n">
+      <c r="P33" s="306" t="n">
         <f aca="false">CV_C!U33</f>
         <v>344.857142857143</v>
       </c>
       <c r="Q33" s="215"/>
-      <c r="S33" s="348" t="n">
+      <c r="S33" s="345" t="n">
         <f aca="false">IF(Data!BB31=65535,0,Data!BB31)</f>
         <v>45</v>
       </c>
@@ -28821,7 +28764,7 @@
         <f aca="false">IF(Data!BD31=65535,0,Data!BD31)</f>
         <v>55</v>
       </c>
-      <c r="V33" s="350" t="n">
+      <c r="V33" s="347" t="n">
         <f aca="false">IF(Data!BE31=65535,0,Data!BE31)</f>
         <v>50.2796188898094</v>
       </c>
@@ -28882,12 +28825,12 @@
         <f aca="false">Data_speed!N25</f>
         <v>0</v>
       </c>
-      <c r="P34" s="308" t="n">
+      <c r="P34" s="306" t="n">
         <f aca="false">CV_C!U34</f>
         <v>244.428571428571</v>
       </c>
       <c r="Q34" s="215"/>
-      <c r="S34" s="348" t="n">
+      <c r="S34" s="345" t="n">
         <f aca="false">IF(Data!BB32=65535,0,Data!BB32)</f>
         <v>45</v>
       </c>
@@ -28899,7 +28842,7 @@
         <f aca="false">IF(Data!BD32=65535,0,Data!BD32)</f>
         <v>55</v>
       </c>
-      <c r="V34" s="350" t="n">
+      <c r="V34" s="347" t="n">
         <f aca="false">IF(Data!BE32=65535,0,Data!BE32)</f>
         <v>50.0306838106371</v>
       </c>
@@ -28960,12 +28903,12 @@
         <f aca="false">Data_speed!N26</f>
         <v>0</v>
       </c>
-      <c r="P35" s="308" t="n">
+      <c r="P35" s="306" t="n">
         <f aca="false">CV_C!U35</f>
         <v>224.285714285714</v>
       </c>
       <c r="Q35" s="215"/>
-      <c r="S35" s="348" t="n">
+      <c r="S35" s="345" t="n">
         <f aca="false">IF(Data!BB33=65535,0,Data!BB33)</f>
         <v>45</v>
       </c>
@@ -28977,7 +28920,7 @@
         <f aca="false">IF(Data!BD33=65535,0,Data!BD33)</f>
         <v>55</v>
       </c>
-      <c r="V35" s="350" t="n">
+      <c r="V35" s="347" t="n">
         <f aca="false">IF(Data!BE33=65535,0,Data!BE33)</f>
         <v>48.9028662420382</v>
       </c>
@@ -29038,12 +28981,12 @@
         <f aca="false">Data_speed!N27</f>
         <v>0</v>
       </c>
-      <c r="P36" s="308" t="n">
+      <c r="P36" s="306" t="n">
         <f aca="false">CV_C!U36</f>
         <v>194.428571428571</v>
       </c>
       <c r="Q36" s="215"/>
-      <c r="S36" s="348" t="n">
+      <c r="S36" s="345" t="n">
         <f aca="false">IF(Data!BB34=65535,0,Data!BB34)</f>
         <v>45</v>
       </c>
@@ -29055,13 +28998,13 @@
         <f aca="false">IF(Data!BD34=65535,0,Data!BD34)</f>
         <v>55</v>
       </c>
-      <c r="V36" s="350" t="n">
+      <c r="V36" s="347" t="n">
         <f aca="false">IF(Data!BE34=65535,0,Data!BE34)</f>
         <v>49.0889052167524</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="271" t="s">
+      <c r="A37" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="266" t="n">
@@ -29116,24 +29059,24 @@
         <f aca="false">Data_speed!N28</f>
         <v>0</v>
       </c>
-      <c r="P37" s="285" t="n">
+      <c r="P37" s="284" t="n">
         <f aca="false">CV_C!U37</f>
         <v>111.142857142857</v>
       </c>
       <c r="Q37" s="215"/>
-      <c r="S37" s="355" t="n">
+      <c r="S37" s="352" t="n">
         <f aca="false">IF(Data!BB35=65535,0,Data!BB35)</f>
         <v>45</v>
       </c>
-      <c r="T37" s="356" t="n">
+      <c r="T37" s="353" t="n">
         <f aca="false">IF(Data!BC35=65535,0,Data!BC35)</f>
         <v>55</v>
       </c>
-      <c r="U37" s="357" t="n">
+      <c r="U37" s="354" t="n">
         <f aca="false">IF(Data!BD35=65535,0,Data!BD35)</f>
         <v>55</v>
       </c>
-      <c r="V37" s="358" t="n">
+      <c r="V37" s="355" t="n">
         <f aca="false">IF(Data!BE35=65535,0,Data!BE35)</f>
         <v>50.3952442159383</v>
       </c>
@@ -29156,233 +29099,233 @@
       <c r="A40" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="359" t="n">
+      <c r="B40" s="356" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
         <v>0.00125400871638845</v>
       </c>
-      <c r="C40" s="359" t="n">
+      <c r="C40" s="356" t="n">
         <f aca="false">SUM(C14:C37)/Data_speed!$O$29</f>
         <v>0.00696899925992928</v>
       </c>
-      <c r="D40" s="359" t="n">
+      <c r="D40" s="356" t="n">
         <f aca="false">SUM(D14:D37)/Data_speed!$O$29</f>
         <v>0.0324603239865143</v>
       </c>
-      <c r="E40" s="359" t="n">
+      <c r="E40" s="356" t="n">
         <f aca="false">SUM(E14:E37)/Data_speed!$O$29</f>
         <v>0.559637365348244</v>
       </c>
-      <c r="F40" s="359" t="n">
+      <c r="F40" s="356" t="n">
         <f aca="false">SUM(F14:F37)/Data_speed!$O$29</f>
         <v>0.379245127867774</v>
       </c>
-      <c r="G40" s="359" t="n">
+      <c r="G40" s="356" t="n">
         <f aca="false">SUM(G14:G37)/Data_speed!$O$29</f>
         <v>0.0191801661047611</v>
       </c>
-      <c r="H40" s="359" t="n">
+      <c r="H40" s="356" t="n">
         <f aca="false">SUM(H14:H37)/Data_speed!$O$29</f>
         <v>0.000801743277690979</v>
       </c>
-      <c r="I40" s="359" t="n">
+      <c r="I40" s="356" t="n">
         <f aca="false">SUM(I14:I37)/Data_speed!$O$29</f>
         <v>0.000205575199407943</v>
       </c>
-      <c r="J40" s="359" t="n">
+      <c r="J40" s="356" t="n">
         <f aca="false">SUM(J14:J37)/Data_speed!$O$29</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K40" s="359" t="n">
+      <c r="K40" s="356" t="n">
         <f aca="false">SUM(K14:K37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L40" s="359" t="n">
+      <c r="L40" s="356" t="n">
         <f aca="false">SUM(L14:L37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M40" s="359" t="n">
+      <c r="M40" s="356" t="n">
         <f aca="false">SUM(M14:M37)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="N40" s="359" t="n">
+      <c r="N40" s="356" t="n">
         <f aca="false">SUM(N14:N37)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="P40" s="320" t="n">
+      <c r="P40" s="318" t="n">
         <f aca="false">SUM(B40:M40)</f>
         <v>1</v>
       </c>
-      <c r="Q40" s="335"/>
-      <c r="S40" s="360" t="n">
+      <c r="Q40" s="332"/>
+      <c r="S40" s="357" t="n">
         <f aca="false">Data!BB38</f>
         <v>45</v>
       </c>
-      <c r="T40" s="361" t="n">
+      <c r="T40" s="358" t="n">
         <f aca="false">Data!BC38</f>
         <v>45</v>
       </c>
-      <c r="U40" s="361" t="n">
+      <c r="U40" s="358" t="n">
         <f aca="false">Data!BD38</f>
         <v>55</v>
       </c>
-      <c r="V40" s="362" t="n">
+      <c r="V40" s="359" t="n">
         <f aca="false">Data!BE38</f>
         <v>48.7040539429323</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="277" t="s">
+      <c r="A41" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B41" s="363" t="n">
+      <c r="B41" s="360" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
         <v>0.00123345119644766</v>
       </c>
-      <c r="C41" s="363" t="n">
+      <c r="C41" s="360" t="n">
         <f aca="false">SUM(C20:C35)/Data_speed!$O$29</f>
         <v>0.00680453910040293</v>
       </c>
-      <c r="D41" s="363" t="n">
+      <c r="D41" s="360" t="n">
         <f aca="false">SUM(D20:D35)/Data_speed!$O$29</f>
         <v>0.0308773949510731</v>
       </c>
-      <c r="E41" s="363" t="n">
+      <c r="E41" s="360" t="n">
         <f aca="false">SUM(E20:E35)/Data_speed!$O$29</f>
         <v>0.527793766959954</v>
       </c>
-      <c r="F41" s="363" t="n">
+      <c r="F41" s="360" t="n">
         <f aca="false">SUM(F20:F35)/Data_speed!$O$29</f>
         <v>0.348778883315517</v>
       </c>
-      <c r="G41" s="363" t="n">
+      <c r="G41" s="360" t="n">
         <f aca="false">SUM(G20:G35)/Data_speed!$O$29</f>
         <v>0.0156237151550037</v>
       </c>
-      <c r="H41" s="363" t="n">
+      <c r="H41" s="360" t="n">
         <f aca="false">SUM(H20:H35)/Data_speed!$O$29</f>
         <v>0.000411150398815887</v>
       </c>
-      <c r="I41" s="363" t="n">
+      <c r="I41" s="360" t="n">
         <f aca="false">SUM(I20:I35)/Data_speed!$O$29</f>
         <v>6.1672559822383E-005</v>
       </c>
-      <c r="J41" s="363" t="n">
+      <c r="J41" s="360" t="n">
         <f aca="false">SUM(J20:J35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="K41" s="363" t="n">
+      <c r="K41" s="360" t="n">
         <f aca="false">SUM(K20:K35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L41" s="363" t="n">
+      <c r="L41" s="360" t="n">
         <f aca="false">SUM(L20:L35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M41" s="363" t="n">
+      <c r="M41" s="360" t="n">
         <f aca="false">SUM(M20:M35)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="N41" s="363" t="n">
+      <c r="N41" s="360" t="n">
         <f aca="false">SUM(N20:N35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="P41" s="312" t="n">
+      <c r="P41" s="310" t="n">
         <f aca="false">SUM(B41:M41)</f>
         <v>0.931790148836444</v>
       </c>
-      <c r="Q41" s="335"/>
-      <c r="S41" s="364" t="n">
+      <c r="Q41" s="332"/>
+      <c r="S41" s="361" t="n">
         <f aca="false">Data!BB39</f>
         <v>45</v>
       </c>
-      <c r="T41" s="365" t="n">
+      <c r="T41" s="362" t="n">
         <f aca="false">Data!BC39</f>
         <v>45</v>
       </c>
-      <c r="U41" s="365" t="n">
+      <c r="U41" s="362" t="n">
         <f aca="false">Data!BD39</f>
         <v>55</v>
       </c>
-      <c r="V41" s="366" t="n">
+      <c r="V41" s="363" t="n">
         <f aca="false">Data!BE39</f>
         <v>48.5726183647355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="281" t="s">
+      <c r="A42" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B42" s="367" t="n">
+      <c r="B42" s="364" t="n">
         <f aca="false">B40-B41</f>
         <v>2.05575199407942E-005</v>
       </c>
-      <c r="C42" s="283" t="n">
+      <c r="C42" s="282" t="n">
         <f aca="false">C40-C41</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="D42" s="283" t="n">
+      <c r="D42" s="282" t="n">
         <f aca="false">D40-D41</f>
         <v>0.00158292903544116</v>
       </c>
-      <c r="E42" s="283" t="n">
+      <c r="E42" s="282" t="n">
         <f aca="false">E40-E41</f>
         <v>0.0318435983882904</v>
       </c>
-      <c r="F42" s="283" t="n">
+      <c r="F42" s="282" t="n">
         <f aca="false">F40-F41</f>
         <v>0.0304662445522572</v>
       </c>
-      <c r="G42" s="283" t="n">
+      <c r="G42" s="282" t="n">
         <f aca="false">G40-G41</f>
         <v>0.00355645094975742</v>
       </c>
-      <c r="H42" s="283" t="n">
+      <c r="H42" s="282" t="n">
         <f aca="false">H40-H41</f>
         <v>0.000390592878875092</v>
       </c>
-      <c r="I42" s="283" t="n">
+      <c r="I42" s="282" t="n">
         <f aca="false">I40-I41</f>
         <v>0.00014390263958556</v>
       </c>
-      <c r="J42" s="283" t="n">
+      <c r="J42" s="282" t="n">
         <f aca="false">J40-J41</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K42" s="283" t="n">
+      <c r="K42" s="282" t="n">
         <f aca="false">K40-K41</f>
         <v>0</v>
       </c>
-      <c r="L42" s="283" t="n">
+      <c r="L42" s="282" t="n">
         <f aca="false">L40-L41</f>
         <v>0</v>
       </c>
-      <c r="M42" s="336" t="n">
+      <c r="M42" s="333" t="n">
         <f aca="false">M40-M41</f>
         <v>0</v>
       </c>
-      <c r="N42" s="336" t="n">
+      <c r="N42" s="333" t="n">
         <f aca="false">N40-N41</f>
         <v>0</v>
       </c>
-      <c r="O42" s="368"/>
-      <c r="P42" s="323" t="n">
+      <c r="O42" s="365"/>
+      <c r="P42" s="321" t="n">
         <f aca="false">P40-P41</f>
         <v>0.0682098511635557</v>
       </c>
-      <c r="Q42" s="335"/>
-      <c r="S42" s="369" t="n">
+      <c r="Q42" s="332"/>
+      <c r="S42" s="366" t="n">
         <f aca="false">Data!BB40</f>
         <v>45</v>
       </c>
-      <c r="T42" s="370" t="n">
+      <c r="T42" s="367" t="n">
         <f aca="false">Data!BC40</f>
         <v>55</v>
       </c>
-      <c r="U42" s="370" t="n">
+      <c r="U42" s="367" t="n">
         <f aca="false">Data!BD40</f>
         <v>55</v>
       </c>
-      <c r="V42" s="371" t="n">
+      <c r="V42" s="368" t="n">
         <f aca="false">Data!BE40</f>
         <v>50.499547920434</v>
       </c>
@@ -29408,61 +29351,61 @@
       <c r="A46" s="255" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="287" t="str">
+      <c r="B46" s="50" t="str">
         <f aca="false">B5</f>
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="V46" s="254"/>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="338" t="str">
         <f aca="false">Data!BQ42&amp;" =&gt; avec un usage de "&amp;TEXT(Data!H4,0)&amp;" voie(s) : "&amp;Data!BQ43&amp;"  "&amp;Data!BQ44</f>
         <v>Vitesse moyenne spatiale = 49 km/h =&gt; avec un usage de 1 voie(s) : Densité critique Kc = 30 Veh/km  Débit max Q = 1474 Veh/h</v>
       </c>
-      <c r="B47" s="341"/>
-      <c r="C47" s="341"/>
-      <c r="D47" s="341"/>
-      <c r="E47" s="341"/>
-      <c r="F47" s="341"/>
-      <c r="G47" s="341"/>
-      <c r="H47" s="341"/>
-      <c r="I47" s="341"/>
-      <c r="J47" s="341"/>
-      <c r="K47" s="341"/>
-      <c r="L47" s="341"/>
-      <c r="M47" s="341"/>
-      <c r="N47" s="341"/>
-      <c r="O47" s="341"/>
-      <c r="P47" s="341"/>
-      <c r="Q47" s="341"/>
-      <c r="R47" s="342"/>
-      <c r="S47" s="342"/>
-      <c r="T47" s="342"/>
-      <c r="U47" s="342"/>
-      <c r="V47" s="342"/>
+      <c r="B47" s="338"/>
+      <c r="C47" s="338"/>
+      <c r="D47" s="338"/>
+      <c r="E47" s="338"/>
+      <c r="F47" s="338"/>
+      <c r="G47" s="338"/>
+      <c r="H47" s="338"/>
+      <c r="I47" s="338"/>
+      <c r="J47" s="338"/>
+      <c r="K47" s="338"/>
+      <c r="L47" s="338"/>
+      <c r="M47" s="338"/>
+      <c r="N47" s="338"/>
+      <c r="O47" s="338"/>
+      <c r="P47" s="338"/>
+      <c r="Q47" s="338"/>
+      <c r="R47" s="339"/>
+      <c r="S47" s="339"/>
+      <c r="T47" s="339"/>
+      <c r="U47" s="339"/>
+      <c r="V47" s="339"/>
     </row>
     <row r="48" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="288" t="str">
+      <c r="B48" s="286" t="str">
         <f aca="false">B12</f>
         <v>Distribution de la Vitesse par tranche horaire  -  Cumuls sur 7 jours (Lu - Di)</v>
       </c>
-      <c r="C48" s="288"/>
-      <c r="D48" s="288"/>
-      <c r="E48" s="288"/>
-      <c r="F48" s="288"/>
-      <c r="G48" s="288"/>
-      <c r="H48" s="288"/>
-      <c r="I48" s="288"/>
-      <c r="J48" s="288"/>
-      <c r="K48" s="288"/>
-      <c r="L48" s="288"/>
-      <c r="M48" s="288"/>
-      <c r="N48" s="375"/>
+      <c r="C48" s="286"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="286"/>
+      <c r="F48" s="286"/>
+      <c r="G48" s="286"/>
+      <c r="H48" s="286"/>
+      <c r="I48" s="286"/>
+      <c r="J48" s="286"/>
+      <c r="K48" s="286"/>
+      <c r="L48" s="286"/>
+      <c r="M48" s="286"/>
+      <c r="N48" s="372"/>
       <c r="P48" s="258" t="str">
         <f aca="false">P12</f>
         <v>THM</v>
       </c>
-      <c r="Q48" s="333"/>
+      <c r="Q48" s="330"/>
       <c r="R48" s="224"/>
       <c r="S48" s="27" t="str">
         <f aca="false">S12</f>
@@ -29476,73 +29419,76 @@
       <c r="A49" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B49" s="289" t="str">
+      <c r="B49" s="287" t="str">
         <f aca="false">B13</f>
+        <v>10 km/h</v>
+      </c>
+      <c r="C49" s="287" t="str">
+        <f aca="false">C13</f>
+        <v>20 km/h</v>
+      </c>
+      <c r="D49" s="287" t="str">
+        <f aca="false">D13</f>
         <v>30 km/h</v>
       </c>
-      <c r="C49" s="188" t="str">
-        <f aca="false">C13</f>
+      <c r="E49" s="287" t="str">
+        <f aca="false">E13</f>
         <v>40 km/h</v>
       </c>
-      <c r="D49" s="290" t="str">
-        <f aca="false">D13</f>
+      <c r="F49" s="287" t="str">
+        <f aca="false">F13</f>
         <v>50 km/h</v>
       </c>
-      <c r="E49" s="188" t="str">
-        <f aca="false">E13</f>
+      <c r="G49" s="287" t="str">
+        <f aca="false">G13</f>
         <v>60 km/h</v>
       </c>
-      <c r="F49" s="291" t="str">
-        <f aca="false">F13</f>
+      <c r="H49" s="287" t="str">
+        <f aca="false">H13</f>
         <v>70 km/h</v>
       </c>
-      <c r="G49" s="188" t="str">
-        <f aca="false">G13</f>
+      <c r="I49" s="287" t="str">
+        <f aca="false">I13</f>
         <v>80 km/h</v>
       </c>
-      <c r="H49" s="290" t="str">
-        <f aca="false">H13</f>
+      <c r="J49" s="287" t="str">
+        <f aca="false">J13</f>
         <v>90 km/h</v>
       </c>
-      <c r="I49" s="372" t="str">
-        <f aca="false">I13</f>
+      <c r="K49" s="287" t="str">
+        <f aca="false">K13</f>
         <v>100 km/h</v>
       </c>
-      <c r="J49" s="290" t="str">
-        <f aca="false">J13</f>
+      <c r="L49" s="287" t="str">
+        <f aca="false">L13</f>
         <v>110 km/h</v>
       </c>
-      <c r="K49" s="188" t="str">
-        <f aca="false">K13</f>
+      <c r="M49" s="287" t="str">
+        <f aca="false">M13</f>
         <v>120 km/h</v>
       </c>
-      <c r="L49" s="373" t="str">
-        <f aca="false">L13</f>
-        <v>130 km/h</v>
-      </c>
-      <c r="M49" s="292" t="str">
-        <f aca="false">M13</f>
-        <v>&gt; 130 km/h</v>
-      </c>
-      <c r="N49" s="292"/>
-      <c r="P49" s="343" t="str">
+      <c r="N49" s="287" t="str">
+        <f aca="false">N13</f>
+        <v>&gt; 120 km/h</v>
+      </c>
+      <c r="P49" s="340" t="str">
         <f aca="false">P13</f>
         <v>Véh/h</v>
       </c>
       <c r="Q49" s="5"/>
-      <c r="S49" s="344" t="str">
+      <c r="S49" s="341" t="str">
         <f aca="false">S13</f>
         <v>V15</v>
       </c>
-      <c r="T49" s="345" t="str">
+      <c r="T49" s="342" t="str">
         <f aca="false">T13</f>
         <v>V50</v>
       </c>
-      <c r="U49" s="346" t="str">
+      <c r="U49" s="343" t="str">
         <f aca="false">U13</f>
         <v>V85</v>
       </c>
-      <c r="V49" s="374" t="str">
+      <c r="V49" s="371" t="str">
         <f aca="false">V13</f>
         <v>Vmt</v>
       </c>
@@ -29608,7 +29554,7 @@
         <v>40.2857142857143</v>
       </c>
       <c r="Q50" s="215"/>
-      <c r="S50" s="348" t="n">
+      <c r="S50" s="345" t="n">
         <f aca="false">IF(Data!BV12=65535,0,Data!BV12)</f>
         <v>45</v>
       </c>
@@ -29620,7 +29566,7 @@
         <f aca="false">IF(Data!BX12=65535,0,Data!BX12)</f>
         <v>55</v>
       </c>
-      <c r="V50" s="349" t="n">
+      <c r="V50" s="346" t="n">
         <f aca="false">IF(Data!BY12=65535,0,Data!BY12)</f>
         <v>50.4166666666667</v>
       </c>
@@ -29681,12 +29627,12 @@
         <f aca="false">Data_speed!N34</f>
         <v>0</v>
       </c>
-      <c r="P51" s="308" t="n">
+      <c r="P51" s="306" t="n">
         <f aca="false">CV_C!AE15</f>
         <v>19.8571428571429</v>
       </c>
       <c r="Q51" s="215"/>
-      <c r="S51" s="348" t="n">
+      <c r="S51" s="345" t="n">
         <f aca="false">IF(Data!BV13=65535,0,Data!BV13)</f>
         <v>45</v>
       </c>
@@ -29698,7 +29644,7 @@
         <f aca="false">IF(Data!BX13=65535,0,Data!BX13)</f>
         <v>55</v>
       </c>
-      <c r="V51" s="350" t="n">
+      <c r="V51" s="347" t="n">
         <f aca="false">IF(Data!BY13=65535,0,Data!BY13)</f>
         <v>51.8345323741007</v>
       </c>
@@ -29759,12 +29705,12 @@
         <f aca="false">Data_speed!N35</f>
         <v>0</v>
       </c>
-      <c r="P52" s="308" t="n">
+      <c r="P52" s="306" t="n">
         <f aca="false">CV_C!AE16</f>
         <v>13.1428571428571</v>
       </c>
       <c r="Q52" s="215"/>
-      <c r="S52" s="348" t="n">
+      <c r="S52" s="345" t="n">
         <f aca="false">IF(Data!BV14=65535,0,Data!BV14)</f>
         <v>45</v>
       </c>
@@ -29776,7 +29722,7 @@
         <f aca="false">IF(Data!BX14=65535,0,Data!BX14)</f>
         <v>65</v>
       </c>
-      <c r="V52" s="350" t="n">
+      <c r="V52" s="347" t="n">
         <f aca="false">IF(Data!BY14=65535,0,Data!BY14)</f>
         <v>52.3913043478261</v>
       </c>
@@ -29837,12 +29783,12 @@
         <f aca="false">Data_speed!N36</f>
         <v>0</v>
       </c>
-      <c r="P53" s="308" t="n">
+      <c r="P53" s="306" t="n">
         <f aca="false">CV_C!AE17</f>
         <v>14.8571428571429</v>
       </c>
       <c r="Q53" s="215"/>
-      <c r="S53" s="348" t="n">
+      <c r="S53" s="345" t="n">
         <f aca="false">IF(Data!BV15=65535,0,Data!BV15)</f>
         <v>45</v>
       </c>
@@ -29854,7 +29800,7 @@
         <f aca="false">IF(Data!BX15=65535,0,Data!BX15)</f>
         <v>55</v>
       </c>
-      <c r="V53" s="350" t="n">
+      <c r="V53" s="347" t="n">
         <f aca="false">IF(Data!BY15=65535,0,Data!BY15)</f>
         <v>52.9807692307692</v>
       </c>
@@ -29915,12 +29861,12 @@
         <f aca="false">Data_speed!N37</f>
         <v>0</v>
       </c>
-      <c r="P54" s="308" t="n">
+      <c r="P54" s="306" t="n">
         <f aca="false">CV_C!AE18</f>
         <v>47</v>
       </c>
       <c r="Q54" s="215"/>
-      <c r="S54" s="348" t="n">
+      <c r="S54" s="345" t="n">
         <f aca="false">IF(Data!BV16=65535,0,Data!BV16)</f>
         <v>45</v>
       </c>
@@ -29932,7 +29878,7 @@
         <f aca="false">IF(Data!BX16=65535,0,Data!BX16)</f>
         <v>65</v>
       </c>
-      <c r="V54" s="350" t="n">
+      <c r="V54" s="347" t="n">
         <f aca="false">IF(Data!BY16=65535,0,Data!BY16)</f>
         <v>53.2066869300912</v>
       </c>
@@ -29993,12 +29939,12 @@
         <f aca="false">Data_speed!N38</f>
         <v>0</v>
       </c>
-      <c r="P55" s="308" t="n">
+      <c r="P55" s="306" t="n">
         <f aca="false">CV_C!AE19</f>
         <v>85.4285714285714</v>
       </c>
       <c r="Q55" s="215"/>
-      <c r="S55" s="348" t="n">
+      <c r="S55" s="345" t="n">
         <f aca="false">IF(Data!BV17=65535,0,Data!BV17)</f>
         <v>45</v>
       </c>
@@ -30010,13 +29956,13 @@
         <f aca="false">IF(Data!BX17=65535,0,Data!BX17)</f>
         <v>55</v>
       </c>
-      <c r="V55" s="350" t="n">
+      <c r="V55" s="347" t="n">
         <f aca="false">IF(Data!BY17=65535,0,Data!BY17)</f>
         <v>51.4882943143813</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="269" t="s">
+      <c r="A56" s="261" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="266" t="n">
@@ -30071,12 +30017,12 @@
         <f aca="false">Data_speed!N39</f>
         <v>0</v>
       </c>
-      <c r="P56" s="308" t="n">
+      <c r="P56" s="306" t="n">
         <f aca="false">CV_C!AE20</f>
         <v>305.714285714286</v>
       </c>
       <c r="Q56" s="215"/>
-      <c r="S56" s="348" t="n">
+      <c r="S56" s="345" t="n">
         <f aca="false">IF(Data!BV18=65535,0,Data!BV18)</f>
         <v>45</v>
       </c>
@@ -30088,7 +30034,7 @@
         <f aca="false">IF(Data!BX18=65535,0,Data!BX18)</f>
         <v>55</v>
       </c>
-      <c r="V56" s="350" t="n">
+      <c r="V56" s="347" t="n">
         <f aca="false">IF(Data!BY18=65535,0,Data!BY18)</f>
         <v>50.2616822429907</v>
       </c>
@@ -30149,24 +30095,24 @@
         <f aca="false">Data_speed!N40</f>
         <v>0</v>
       </c>
-      <c r="P57" s="279" t="n">
+      <c r="P57" s="278" t="n">
         <f aca="false">CV_C!AE21</f>
         <v>512.428571428571</v>
       </c>
       <c r="Q57" s="215"/>
-      <c r="S57" s="351" t="n">
+      <c r="S57" s="348" t="n">
         <f aca="false">IF(Data!BV19=65535,0,Data!BV19)</f>
         <v>45</v>
       </c>
-      <c r="T57" s="352" t="n">
+      <c r="T57" s="349" t="n">
         <f aca="false">IF(Data!BW19=65535,0,Data!BW19)</f>
         <v>45</v>
       </c>
-      <c r="U57" s="353" t="n">
+      <c r="U57" s="350" t="n">
         <f aca="false">IF(Data!BX19=65535,0,Data!BX19)</f>
         <v>55</v>
       </c>
-      <c r="V57" s="354" t="n">
+      <c r="V57" s="351" t="n">
         <f aca="false">IF(Data!BY19=65535,0,Data!BY19)</f>
         <v>49.1583054626533</v>
       </c>
@@ -30227,12 +30173,12 @@
         <f aca="false">Data_speed!N41</f>
         <v>0</v>
       </c>
-      <c r="P58" s="308" t="n">
+      <c r="P58" s="306" t="n">
         <f aca="false">CV_C!AE22</f>
         <v>402.571428571429</v>
       </c>
       <c r="Q58" s="215"/>
-      <c r="S58" s="348" t="n">
+      <c r="S58" s="345" t="n">
         <f aca="false">IF(Data!BV20=65535,0,Data!BV20)</f>
         <v>45</v>
       </c>
@@ -30244,7 +30190,7 @@
         <f aca="false">IF(Data!BX20=65535,0,Data!BX20)</f>
         <v>55</v>
       </c>
-      <c r="V58" s="350" t="n">
+      <c r="V58" s="347" t="n">
         <f aca="false">IF(Data!BY20=65535,0,Data!BY20)</f>
         <v>49.4268985095813</v>
       </c>
@@ -30305,12 +30251,12 @@
         <f aca="false">Data_speed!N42</f>
         <v>0</v>
       </c>
-      <c r="P59" s="308" t="n">
+      <c r="P59" s="306" t="n">
         <f aca="false">CV_C!AE23</f>
         <v>353.571428571429</v>
       </c>
       <c r="Q59" s="215"/>
-      <c r="S59" s="348" t="n">
+      <c r="S59" s="345" t="n">
         <f aca="false">IF(Data!BV21=65535,0,Data!BV21)</f>
         <v>45</v>
       </c>
@@ -30322,7 +30268,7 @@
         <f aca="false">IF(Data!BX21=65535,0,Data!BX21)</f>
         <v>55</v>
       </c>
-      <c r="V59" s="350" t="n">
+      <c r="V59" s="347" t="n">
         <f aca="false">IF(Data!BY21=65535,0,Data!BY21)</f>
         <v>49.7010101010101</v>
       </c>
@@ -30383,12 +30329,12 @@
         <f aca="false">Data_speed!N43</f>
         <v>0</v>
       </c>
-      <c r="P60" s="308" t="n">
+      <c r="P60" s="306" t="n">
         <f aca="false">CV_C!AE24</f>
         <v>387.714285714286</v>
       </c>
       <c r="Q60" s="215"/>
-      <c r="S60" s="348" t="n">
+      <c r="S60" s="345" t="n">
         <f aca="false">IF(Data!BV22=65535,0,Data!BV22)</f>
         <v>45</v>
       </c>
@@ -30400,7 +30346,7 @@
         <f aca="false">IF(Data!BX22=65535,0,Data!BX22)</f>
         <v>55</v>
       </c>
-      <c r="V60" s="350" t="n">
+      <c r="V60" s="347" t="n">
         <f aca="false">IF(Data!BY22=65535,0,Data!BY22)</f>
         <v>48.994104642594</v>
       </c>
@@ -30461,12 +30407,12 @@
         <f aca="false">Data_speed!N44</f>
         <v>0</v>
       </c>
-      <c r="P61" s="308" t="n">
+      <c r="P61" s="306" t="n">
         <f aca="false">CV_C!AE25</f>
         <v>483.857142857143</v>
       </c>
       <c r="Q61" s="215"/>
-      <c r="S61" s="348" t="n">
+      <c r="S61" s="345" t="n">
         <f aca="false">IF(Data!BV23=65535,0,Data!BV23)</f>
         <v>45</v>
       </c>
@@ -30478,13 +30424,13 @@
         <f aca="false">IF(Data!BX23=65535,0,Data!BX23)</f>
         <v>55</v>
       </c>
-      <c r="V61" s="350" t="n">
+      <c r="V61" s="347" t="n">
         <f aca="false">IF(Data!BY23=65535,0,Data!BY23)</f>
         <v>49.3275760259817</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="306" t="s">
+      <c r="A62" s="304" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="266" t="n">
@@ -30539,12 +30485,12 @@
         <f aca="false">Data_speed!N45</f>
         <v>0</v>
       </c>
-      <c r="P62" s="308" t="n">
+      <c r="P62" s="306" t="n">
         <f aca="false">CV_C!AE26</f>
         <v>407.714285714286</v>
       </c>
       <c r="Q62" s="215"/>
-      <c r="S62" s="348" t="n">
+      <c r="S62" s="345" t="n">
         <f aca="false">IF(Data!BV24=65535,0,Data!BV24)</f>
         <v>45</v>
       </c>
@@ -30556,7 +30502,7 @@
         <f aca="false">IF(Data!BX24=65535,0,Data!BX24)</f>
         <v>55</v>
       </c>
-      <c r="V62" s="350" t="n">
+      <c r="V62" s="347" t="n">
         <f aca="false">IF(Data!BY24=65535,0,Data!BY24)</f>
         <v>50.0499299229152</v>
       </c>
@@ -30617,12 +30563,12 @@
         <f aca="false">Data_speed!N46</f>
         <v>0</v>
       </c>
-      <c r="P63" s="308" t="n">
+      <c r="P63" s="306" t="n">
         <f aca="false">CV_C!AE27</f>
         <v>454.285714285714</v>
       </c>
       <c r="Q63" s="215"/>
-      <c r="S63" s="348" t="n">
+      <c r="S63" s="345" t="n">
         <f aca="false">IF(Data!BV25=65535,0,Data!BV25)</f>
         <v>45</v>
       </c>
@@ -30634,7 +30580,7 @@
         <f aca="false">IF(Data!BX25=65535,0,Data!BX25)</f>
         <v>55</v>
       </c>
-      <c r="V63" s="350" t="n">
+      <c r="V63" s="347" t="n">
         <f aca="false">IF(Data!BY25=65535,0,Data!BY25)</f>
         <v>49.8891509433962</v>
       </c>
@@ -30695,12 +30641,12 @@
         <f aca="false">Data_speed!N47</f>
         <v>0</v>
       </c>
-      <c r="P64" s="308" t="n">
+      <c r="P64" s="306" t="n">
         <f aca="false">CV_C!AE28</f>
         <v>400.285714285714</v>
       </c>
       <c r="Q64" s="215"/>
-      <c r="S64" s="348" t="n">
+      <c r="S64" s="345" t="n">
         <f aca="false">IF(Data!BV26=65535,0,Data!BV26)</f>
         <v>45</v>
       </c>
@@ -30712,7 +30658,7 @@
         <f aca="false">IF(Data!BX26=65535,0,Data!BX26)</f>
         <v>55</v>
       </c>
-      <c r="V64" s="350" t="n">
+      <c r="V64" s="347" t="n">
         <f aca="false">IF(Data!BY26=65535,0,Data!BY26)</f>
         <v>49.2416131334761</v>
       </c>
@@ -30773,12 +30719,12 @@
         <f aca="false">Data_speed!N48</f>
         <v>0</v>
       </c>
-      <c r="P65" s="308" t="n">
+      <c r="P65" s="306" t="n">
         <f aca="false">CV_C!AE29</f>
         <v>423</v>
       </c>
       <c r="Q65" s="215"/>
-      <c r="S65" s="348" t="n">
+      <c r="S65" s="345" t="n">
         <f aca="false">IF(Data!BV27=65535,0,Data!BV27)</f>
         <v>45</v>
       </c>
@@ -30790,13 +30736,13 @@
         <f aca="false">IF(Data!BX27=65535,0,Data!BX27)</f>
         <v>55</v>
       </c>
-      <c r="V65" s="350" t="n">
+      <c r="V65" s="347" t="n">
         <f aca="false">IF(Data!BY27=65535,0,Data!BY27)</f>
         <v>49.6411685241472</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="269" t="s">
+      <c r="A66" s="261" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="266" t="n">
@@ -30851,12 +30797,12 @@
         <f aca="false">Data_speed!N49</f>
         <v>0</v>
       </c>
-      <c r="P66" s="308" t="n">
+      <c r="P66" s="306" t="n">
         <f aca="false">CV_C!AE30</f>
         <v>512.142857142857</v>
       </c>
       <c r="Q66" s="215"/>
-      <c r="S66" s="348" t="n">
+      <c r="S66" s="345" t="n">
         <f aca="false">IF(Data!BV28=65535,0,Data!BV28)</f>
         <v>45</v>
       </c>
@@ -30868,7 +30814,7 @@
         <f aca="false">IF(Data!BX28=65535,0,Data!BX28)</f>
         <v>55</v>
       </c>
-      <c r="V66" s="350" t="n">
+      <c r="V66" s="347" t="n">
         <f aca="false">IF(Data!BY28=65535,0,Data!BY28)</f>
         <v>49.3133017289459</v>
       </c>
@@ -30929,24 +30875,24 @@
         <f aca="false">Data_speed!N50</f>
         <v>0</v>
       </c>
-      <c r="P67" s="279" t="n">
+      <c r="P67" s="278" t="n">
         <f aca="false">CV_C!AE31</f>
         <v>554.142857142857</v>
       </c>
       <c r="Q67" s="215"/>
-      <c r="S67" s="351" t="n">
+      <c r="S67" s="348" t="n">
         <f aca="false">IF(Data!BV29=65535,0,Data!BV29)</f>
         <v>45</v>
       </c>
-      <c r="T67" s="352" t="n">
+      <c r="T67" s="349" t="n">
         <f aca="false">IF(Data!BW29=65535,0,Data!BW29)</f>
         <v>45</v>
       </c>
-      <c r="U67" s="353" t="n">
+      <c r="U67" s="350" t="n">
         <f aca="false">IF(Data!BX29=65535,0,Data!BX29)</f>
         <v>55</v>
       </c>
-      <c r="V67" s="354" t="n">
+      <c r="V67" s="351" t="n">
         <f aca="false">IF(Data!BY29=65535,0,Data!BY29)</f>
         <v>49.4052835051546</v>
       </c>
@@ -31007,12 +30953,12 @@
         <f aca="false">Data_speed!N51</f>
         <v>0</v>
       </c>
-      <c r="P68" s="308" t="n">
+      <c r="P68" s="306" t="n">
         <f aca="false">CV_C!AE32</f>
         <v>466.285714285714</v>
       </c>
       <c r="Q68" s="215"/>
-      <c r="S68" s="348" t="n">
+      <c r="S68" s="345" t="n">
         <f aca="false">IF(Data!BV30=65535,0,Data!BV30)</f>
         <v>45</v>
       </c>
@@ -31024,7 +30970,7 @@
         <f aca="false">IF(Data!BX30=65535,0,Data!BX30)</f>
         <v>55</v>
       </c>
-      <c r="V68" s="350" t="n">
+      <c r="V68" s="347" t="n">
         <f aca="false">IF(Data!BY30=65535,0,Data!BY30)</f>
         <v>50.1945465686275</v>
       </c>
@@ -31085,12 +31031,12 @@
         <f aca="false">Data_speed!N52</f>
         <v>0</v>
       </c>
-      <c r="P69" s="308" t="n">
+      <c r="P69" s="306" t="n">
         <f aca="false">CV_C!AE33</f>
         <v>329.285714285714</v>
       </c>
       <c r="Q69" s="215"/>
-      <c r="S69" s="348" t="n">
+      <c r="S69" s="345" t="n">
         <f aca="false">IF(Data!BV31=65535,0,Data!BV31)</f>
         <v>45</v>
       </c>
@@ -31102,7 +31048,7 @@
         <f aca="false">IF(Data!BX31=65535,0,Data!BX31)</f>
         <v>55</v>
       </c>
-      <c r="V69" s="350" t="n">
+      <c r="V69" s="347" t="n">
         <f aca="false">IF(Data!BY31=65535,0,Data!BY31)</f>
         <v>50.536643538595</v>
       </c>
@@ -31163,12 +31109,12 @@
         <f aca="false">Data_speed!N53</f>
         <v>0</v>
       </c>
-      <c r="P70" s="308" t="n">
+      <c r="P70" s="306" t="n">
         <f aca="false">CV_C!AE34</f>
         <v>215.428571428571</v>
       </c>
       <c r="Q70" s="215"/>
-      <c r="S70" s="348" t="n">
+      <c r="S70" s="345" t="n">
         <f aca="false">IF(Data!BV32=65535,0,Data!BV32)</f>
         <v>45</v>
       </c>
@@ -31180,7 +31126,7 @@
         <f aca="false">IF(Data!BX32=65535,0,Data!BX32)</f>
         <v>55</v>
       </c>
-      <c r="V70" s="350" t="n">
+      <c r="V70" s="347" t="n">
         <f aca="false">IF(Data!BY32=65535,0,Data!BY32)</f>
         <v>50.5222148541114</v>
       </c>
@@ -31241,12 +31187,12 @@
         <f aca="false">Data_speed!N54</f>
         <v>0</v>
       </c>
-      <c r="P71" s="308" t="n">
+      <c r="P71" s="306" t="n">
         <f aca="false">CV_C!AE35</f>
         <v>174.714285714286</v>
       </c>
       <c r="Q71" s="215"/>
-      <c r="S71" s="348" t="n">
+      <c r="S71" s="345" t="n">
         <f aca="false">IF(Data!BV33=65535,0,Data!BV33)</f>
         <v>45</v>
       </c>
@@ -31258,7 +31204,7 @@
         <f aca="false">IF(Data!BX33=65535,0,Data!BX33)</f>
         <v>55</v>
       </c>
-      <c r="V71" s="350" t="n">
+      <c r="V71" s="347" t="n">
         <f aca="false">IF(Data!BY33=65535,0,Data!BY33)</f>
         <v>49.5748160261652</v>
       </c>
@@ -31319,12 +31265,12 @@
         <f aca="false">Data_speed!N55</f>
         <v>0</v>
       </c>
-      <c r="P72" s="308" t="n">
+      <c r="P72" s="306" t="n">
         <f aca="false">CV_C!AE36</f>
         <v>157.428571428571</v>
       </c>
       <c r="Q72" s="215"/>
-      <c r="S72" s="348" t="n">
+      <c r="S72" s="345" t="n">
         <f aca="false">IF(Data!BV34=65535,0,Data!BV34)</f>
         <v>45</v>
       </c>
@@ -31336,13 +31282,13 @@
         <f aca="false">IF(Data!BX34=65535,0,Data!BX34)</f>
         <v>55</v>
       </c>
-      <c r="V72" s="350" t="n">
+      <c r="V72" s="347" t="n">
         <f aca="false">IF(Data!BY34=65535,0,Data!BY34)</f>
         <v>50.4174228675136</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="271" t="s">
+      <c r="A73" s="270" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="266" t="n">
@@ -31397,24 +31343,24 @@
         <f aca="false">Data_speed!N56</f>
         <v>0</v>
       </c>
-      <c r="P73" s="285" t="n">
+      <c r="P73" s="284" t="n">
         <f aca="false">CV_C!AE37</f>
         <v>91.7142857142857</v>
       </c>
       <c r="Q73" s="215"/>
-      <c r="S73" s="355" t="n">
+      <c r="S73" s="352" t="n">
         <f aca="false">IF(Data!BV35=65535,0,Data!BV35)</f>
         <v>45</v>
       </c>
-      <c r="T73" s="356" t="n">
+      <c r="T73" s="353" t="n">
         <f aca="false">IF(Data!BW35=65535,0,Data!BW35)</f>
         <v>55</v>
       </c>
-      <c r="U73" s="357" t="n">
+      <c r="U73" s="354" t="n">
         <f aca="false">IF(Data!BX35=65535,0,Data!BX35)</f>
         <v>55</v>
       </c>
-      <c r="V73" s="358" t="n">
+      <c r="V73" s="355" t="n">
         <f aca="false">IF(Data!BY35=65535,0,Data!BY35)</f>
         <v>50.8528037383178</v>
       </c>
@@ -31437,233 +31383,233 @@
       <c r="A76" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B76" s="359" t="n">
+      <c r="B76" s="356" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C76" s="359" t="n">
+      <c r="C76" s="356" t="n">
         <f aca="false">SUM(C50:C73)/Data_speed!$O$57</f>
         <v>0.00323091674657106</v>
       </c>
-      <c r="D76" s="359" t="n">
+      <c r="D76" s="356" t="n">
         <f aca="false">SUM(D50:D73)/Data_speed!$O$57</f>
         <v>0.0208029349230833</v>
       </c>
-      <c r="E76" s="359" t="n">
+      <c r="E76" s="356" t="n">
         <f aca="false">SUM(E50:E73)/Data_speed!$O$57</f>
         <v>0.506044941009714</v>
       </c>
-      <c r="F76" s="359" t="n">
+      <c r="F76" s="356" t="n">
         <f aca="false">SUM(F50:F73)/Data_speed!$O$57</f>
         <v>0.435881936048693</v>
       </c>
-      <c r="G76" s="359" t="n">
+      <c r="G76" s="356" t="n">
         <f aca="false">SUM(G50:G73)/Data_speed!$O$57</f>
         <v>0.0318088964855964</v>
       </c>
-      <c r="H76" s="359" t="n">
+      <c r="H76" s="356" t="n">
         <f aca="false">SUM(H50:H73)/Data_speed!$O$57</f>
         <v>0.00122983282611415</v>
       </c>
-      <c r="I76" s="359" t="n">
+      <c r="I76" s="356" t="n">
         <f aca="false">SUM(I50:I73)/Data_speed!$O$57</f>
         <v>0.000187601617542836</v>
       </c>
-      <c r="J76" s="359" t="n">
+      <c r="J76" s="356" t="n">
         <f aca="false">SUM(J50:J73)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K76" s="359" t="n">
+      <c r="K76" s="356" t="n">
         <f aca="false">SUM(K50:K73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L76" s="359" t="n">
+      <c r="L76" s="356" t="n">
         <f aca="false">SUM(L50:L73)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M76" s="359" t="n">
+      <c r="M76" s="356" t="n">
         <f aca="false">SUM(M50:M73)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="N76" s="359" t="n">
+      <c r="N76" s="356" t="n">
         <f aca="false">SUM(N50:N73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="P76" s="320" t="n">
+      <c r="P76" s="318" t="n">
         <f aca="false">SUM(B76:M76)</f>
         <v>1</v>
       </c>
-      <c r="Q76" s="335"/>
-      <c r="S76" s="360" t="n">
+      <c r="Q76" s="332"/>
+      <c r="S76" s="357" t="n">
         <f aca="false">IF(Data!BV38&gt;=999,0,Data!BV38)</f>
         <v>45</v>
       </c>
-      <c r="T76" s="361" t="n">
+      <c r="T76" s="358" t="n">
         <f aca="false">IF(Data!BW38&gt;=999,0,Data!BW38)</f>
         <v>45</v>
       </c>
-      <c r="U76" s="361" t="n">
+      <c r="U76" s="358" t="n">
         <f aca="false">IF(Data!BX38&gt;=999,0,Data!BX38)</f>
         <v>55</v>
       </c>
-      <c r="V76" s="362" t="n">
+      <c r="V76" s="359" t="n">
         <f aca="false">IF(Data!BY38&gt;=999,0,Data!BY38)</f>
         <v>49.7499687330638</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="277" t="s">
+      <c r="A77" s="276" t="s">
         <v>279</v>
       </c>
-      <c r="B77" s="363" t="n">
+      <c r="B77" s="360" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C77" s="363" t="n">
+      <c r="C77" s="360" t="n">
         <f aca="false">SUM(C56:C71)/Data_speed!$O$57</f>
         <v>0.00318922749822821</v>
       </c>
-      <c r="D77" s="363" t="n">
+      <c r="D77" s="360" t="n">
         <f aca="false">SUM(D56:D71)/Data_speed!$O$57</f>
         <v>0.019760703714512</v>
       </c>
-      <c r="E77" s="363" t="n">
+      <c r="E77" s="360" t="n">
         <f aca="false">SUM(E56:E71)/Data_speed!$O$57</f>
         <v>0.475986992954517</v>
       </c>
-      <c r="F77" s="363" t="n">
+      <c r="F77" s="360" t="n">
         <f aca="false">SUM(F56:F71)/Data_speed!$O$57</f>
         <v>0.404073039563097</v>
       </c>
-      <c r="G77" s="363" t="n">
+      <c r="G77" s="360" t="n">
         <f aca="false">SUM(G56:G71)/Data_speed!$O$57</f>
         <v>0.0266394296910827</v>
       </c>
-      <c r="H77" s="363" t="n">
+      <c r="H77" s="360" t="n">
         <f aca="false">SUM(H56:H71)/Data_speed!$O$57</f>
         <v>0.000854629591028474</v>
       </c>
-      <c r="I77" s="363" t="n">
+      <c r="I77" s="360" t="n">
         <f aca="false">SUM(I56:I71)/Data_speed!$O$57</f>
         <v>0.000145912369199983</v>
       </c>
-      <c r="J77" s="363" t="n">
+      <c r="J77" s="360" t="n">
         <f aca="false">SUM(J56:J71)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K77" s="363" t="n">
+      <c r="K77" s="360" t="n">
         <f aca="false">SUM(K56:K71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L77" s="363" t="n">
+      <c r="L77" s="360" t="n">
         <f aca="false">SUM(L56:L71)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M77" s="363" t="n">
+      <c r="M77" s="360" t="n">
         <f aca="false">SUM(M56:M71)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="N77" s="363" t="n">
+      <c r="N77" s="360" t="n">
         <f aca="false">SUM(N56:N71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="P77" s="312" t="n">
+      <c r="P77" s="310" t="n">
         <f aca="false">SUM(B77:M77)</f>
         <v>0.931462875724351</v>
       </c>
-      <c r="Q77" s="335"/>
-      <c r="S77" s="364" t="n">
+      <c r="Q77" s="332"/>
+      <c r="S77" s="361" t="n">
         <f aca="false">IF(Data!BV39&gt;=999,0,Data!BV39)</f>
         <v>45</v>
       </c>
-      <c r="T77" s="365" t="n">
+      <c r="T77" s="362" t="n">
         <f aca="false">IF(Data!BW39&gt;=999,0,Data!BW39)</f>
         <v>45</v>
       </c>
-      <c r="U77" s="365" t="n">
+      <c r="U77" s="362" t="n">
         <f aca="false">IF(Data!BX39&gt;=999,0,Data!BX39)</f>
         <v>55</v>
       </c>
-      <c r="V77" s="366" t="n">
+      <c r="V77" s="363" t="n">
         <f aca="false">IF(Data!BY39&gt;=999,0,Data!BY39)</f>
         <v>49.645302779394</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="281" t="s">
+      <c r="A78" s="280" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="367" t="n">
+      <c r="B78" s="364" t="n">
         <f aca="false">B76-B77</f>
         <v>0</v>
       </c>
-      <c r="C78" s="283" t="n">
+      <c r="C78" s="282" t="n">
         <f aca="false">C76-C77</f>
         <v>4.16892483428525E-005</v>
       </c>
-      <c r="D78" s="283" t="n">
+      <c r="D78" s="282" t="n">
         <f aca="false">D76-D77</f>
         <v>0.00104223120857131</v>
       </c>
-      <c r="E78" s="283" t="n">
+      <c r="E78" s="282" t="n">
         <f aca="false">E76-E77</f>
         <v>0.0300579480551966</v>
       </c>
-      <c r="F78" s="283" t="n">
+      <c r="F78" s="282" t="n">
         <f aca="false">F76-F77</f>
         <v>0.0318088964855963</v>
       </c>
-      <c r="G78" s="283" t="n">
+      <c r="G78" s="282" t="n">
         <f aca="false">G76-G77</f>
         <v>0.0051694667945137</v>
       </c>
-      <c r="H78" s="283" t="n">
+      <c r="H78" s="282" t="n">
         <f aca="false">H76-H77</f>
         <v>0.000375203235085671</v>
       </c>
-      <c r="I78" s="283" t="n">
+      <c r="I78" s="282" t="n">
         <f aca="false">I76-I77</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="J78" s="283" t="n">
+      <c r="J78" s="282" t="n">
         <f aca="false">J76-J77</f>
         <v>0</v>
       </c>
-      <c r="K78" s="283" t="n">
+      <c r="K78" s="282" t="n">
         <f aca="false">K76-K77</f>
         <v>0</v>
       </c>
-      <c r="L78" s="283" t="n">
+      <c r="L78" s="282" t="n">
         <f aca="false">L76-L77</f>
         <v>0</v>
       </c>
-      <c r="M78" s="336" t="n">
+      <c r="M78" s="333" t="n">
         <f aca="false">M76-M77</f>
         <v>0</v>
       </c>
-      <c r="N78" s="336" t="n">
+      <c r="N78" s="333" t="n">
         <f aca="false">N76-N77</f>
         <v>0</v>
       </c>
-      <c r="O78" s="368"/>
-      <c r="P78" s="323" t="n">
+      <c r="O78" s="365"/>
+      <c r="P78" s="321" t="n">
         <f aca="false">P76-P77</f>
         <v>0.0685371242756494</v>
       </c>
-      <c r="Q78" s="335"/>
-      <c r="S78" s="369" t="n">
+      <c r="Q78" s="332"/>
+      <c r="S78" s="366" t="n">
         <f aca="false">IF(Data!BV40&gt;=999,0,Data!BV40)</f>
         <v>45</v>
       </c>
-      <c r="T78" s="370" t="n">
+      <c r="T78" s="367" t="n">
         <f aca="false">IF(Data!BW40&gt;=999,0,Data!BW40)</f>
         <v>55</v>
       </c>
-      <c r="U78" s="370" t="n">
+      <c r="U78" s="367" t="n">
         <f aca="false">IF(Data!BX40&gt;=999,0,Data!BX40)</f>
         <v>55</v>
       </c>
-      <c r="V78" s="371" t="n">
+      <c r="V78" s="368" t="n">
         <f aca="false">IF(Data!BY40&gt;=999,0,Data!BY40)</f>
         <v>51.1724452554745</v>
       </c>
@@ -37242,7 +37188,7 @@
   </sheetPr>
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -39773,7 +39719,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -3022,7 +3022,7 @@
         <family val="0"/>
         <b val="1"/>
         <strike val="0"/>
-        <color rgb="FFFF00FF"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -3032,7 +3032,7 @@
         <family val="0"/>
         <b val="1"/>
         <strike val="0"/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FFFF00FF"/>
       </font>
     </dxf>
     <dxf>
@@ -3255,7 +3255,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R83" activeCellId="0" sqref="R83"/>
+      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6531,23 +6531,23 @@
     <mergeCell ref="A78:G78"/>
     <mergeCell ref="H78:N78"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:A24 C14:M24 B14:B36 A13:N13 C25:K36 N14:N36">
+  <conditionalFormatting sqref="A13:N24">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$M13&gt;=MAX($M$13:$M$24)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:M36 A25:A36">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="A25:N36">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$M25&gt;=MAX($M$25:$M$36)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:A57 C47:M57 B47:B69 A46:N46 C58:K69 N47:N69">
+  <conditionalFormatting sqref="A46:N57">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$M46&gt;=MAX($M$46:$M$57)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L58:M69 A58:A69">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="A58:N69">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$M58&gt;=MAX($M$58:$M$69)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6555,7 +6555,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6569,7 +6569,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8180,7 +8180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:N36">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$N25&gt;=MAX($N$25:$N$36)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8190,7 +8190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60:N71">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$N60&gt;=MAX($N$60:$N$71)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8198,7 +8198,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -8211,7 +8211,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -11688,22 +11688,22 @@
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="B48:M48"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:A25 B14:B37 C14:Q25 C26:M37">
+  <conditionalFormatting sqref="A14:V25">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$O14&gt;=MAX($O$14:$O$25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:Q37 A26:A37">
+  <conditionalFormatting sqref="A26:V37">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$O26&gt;=MAX($O$26:$O$37)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A61 C51:Q61 B51:B73 A50:Q50 C62:M73">
+  <conditionalFormatting sqref="A50:V61">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$O50&gt;=MAX($O$50:$O$61)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62:Q73 A62:A73">
+  <conditionalFormatting sqref="A62:V73">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$O62&gt;=MAX($O$62:$O$73)</formula>
     </cfRule>
@@ -11712,7 +11712,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -11725,7 +11725,7 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S50" activeCellId="0" sqref="S50"/>
     </sheetView>
   </sheetViews>
@@ -15719,22 +15719,22 @@
     <mergeCell ref="B48:M48"/>
     <mergeCell ref="S48:V48"/>
   </mergeCells>
-  <conditionalFormatting sqref="A15:A25 C15:V25 B15:B37 A14:V14 C26:N37">
+  <conditionalFormatting sqref="A14:V25">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$P14&gt;=MAX($P$14:$P$25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:V37 A26:A37">
+  <conditionalFormatting sqref="A26:V37">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$P26&gt;=MAX($P$26:$P$37)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A61 C51:V61 B51:B73 A50:V50 C62:N73">
+  <conditionalFormatting sqref="A50:V61">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$P50&gt;=MAX($P$50:$P$61)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O62:V73 A62:A73">
+  <conditionalFormatting sqref="A62:V73">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$P62&gt;=MAX($P$62:$P$73)</formula>
     </cfRule>
@@ -15743,7 +15743,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -21585,7 +21585,7 @@
   </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N66" activeCellId="0" sqref="N66"/>
     </sheetView>
   </sheetViews>
@@ -25144,7 +25144,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -25158,7 +25158,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26405,21 +26405,21 @@
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F57:G57"/>
   </mergeCells>
-  <conditionalFormatting sqref="D35 A35:C35 D36:D46 A36:B46 C36:C58">
+  <conditionalFormatting sqref="A47:D58">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$D35&gt;=MAX($D$35:$D$46)</formula>
+      <formula>$D47&gt;=MAX($D$47:$D$58)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D89 A47:B58 D47:D58">
+  <conditionalFormatting sqref="A35:D46">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$D47&gt;=MAX($D$47:$D$58)</formula>
+      <formula>$D35&gt;=MAX($D$35:$D$46)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -26432,8 +26432,8 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29687,6 +29687,7 @@
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29702,21 +29703,21 @@
     <mergeCell ref="M12:U12"/>
     <mergeCell ref="W12:AE12"/>
   </mergeCells>
-  <conditionalFormatting sqref="AC15:AE25 I14:J25 C14:H37 I26:I37 K15:L25 M15:R37 S26:S37 S15:V25 W15:AB37 K14:AE14 AC26:AC37">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="C14:AE25">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>MAX(C$14:C$25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD26:AE37 J26:L37 T26:V37">
+  <conditionalFormatting sqref="C26:AE37">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>MAX(J$26:J$37)</formula>
+      <formula>MAX(C$26:C$37)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.7875" bottom="0.39375" header="0.39375" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -29730,7 +29731,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N69" activeCellId="0" sqref="N69"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32263,23 +32264,23 @@
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="F78:K78"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:A24 C14:J24 B14:B36 A13:K13 C25:H36 K14:K36">
+  <conditionalFormatting sqref="A13:K24">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$J13&gt;=MAX($J$13:$J$24)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J36 A25:A36">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="A25:K36">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$J25&gt;=MAX($J$25:$J$36)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:J57 K47:K69 A47:A57 A46:K46 B47:H69">
+  <conditionalFormatting sqref="A46:K57">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$J46&gt;=MAX($J$46:$J$57)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J69 A58:A69">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="A58:K69">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$J58&gt;=MAX($J$58:$J$69)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32287,7 +32288,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -32301,7 +32302,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33657,7 +33658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:K71">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$K60&gt;=MAX($K$58:$K$69)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33667,7 +33668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K36">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$K25&gt;=MAX($K$25:$K$36)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33675,7 +33676,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="191">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -555,9 +555,6 @@
     <t xml:space="preserve">Véhicules légers : MR (2) + PW (3) + PW+AH(4) + LIE (5) + LIE+AH(6) + LIE+AL(7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitesses caractéristiques</t>
-  </si>
-  <si>
     <t xml:space="preserve">30 km/h</t>
   </si>
   <si>
@@ -597,6 +594,18 @@
     <t xml:space="preserve">Véh/h</t>
   </si>
   <si>
+    <t xml:space="preserve">Vitesses caractéristiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 120 km/h</t>
+  </si>
+  <si>
     <t xml:space="preserve">V15</t>
   </si>
   <si>
@@ -607,15 +616,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 km/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 km/h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 120 km/h</t>
   </si>
 </sst>
 </file>
@@ -2873,12 +2873,40 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2905,24 +2933,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="175" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2933,10 +2949,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2945,20 +2957,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3085,7 +3085,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="J7 K5"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="H7 K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3215,7 +3215,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P55" activeCellId="1" sqref="J7 P55"/>
+      <selection pane="topLeft" activeCell="P55" activeCellId="1" sqref="H7 P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6515,7 +6515,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6529,7 +6529,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="J7 K9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="H7 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8158,7 +8158,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -8172,7 +8172,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8207,15 +8207,17 @@
         <v>Periode de comptage du 8/5/2017 au 15/5/2017</v>
       </c>
       <c r="G2" s="0"/>
-      <c r="J2" s="15" t="str">
+      <c r="H2" s="15" t="str">
         <f aca="false">Data_count!B5</f>
         <v>Comptage 2017</v>
       </c>
-      <c r="P2" s="0"/>
-      <c r="U2" s="13" t="str">
+      <c r="J2" s="0"/>
+      <c r="O2" s="13" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
       </c>
+      <c r="P2" s="0"/>
+      <c r="U2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="str">
@@ -8224,11 +8226,12 @@
       </c>
       <c r="G3" s="15"/>
       <c r="J3" s="11"/>
-      <c r="P3" s="0"/>
-      <c r="U3" s="16" t="str">
+      <c r="O3" s="16" t="str">
         <f aca="false">Data_count!B7</f>
         <v>Modèle : M660_LT</v>
       </c>
+      <c r="P3" s="0"/>
+      <c r="U3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
@@ -8239,11 +8242,12 @@
         <v>Peseux Gir. de la Maison de Commune</v>
       </c>
       <c r="J4" s="11"/>
-      <c r="P4" s="0"/>
-      <c r="U4" s="16" t="str">
+      <c r="O4" s="16" t="str">
         <f aca="false">Data_count!B8</f>
         <v>Classification : SWISS10</v>
       </c>
+      <c r="P4" s="0"/>
+      <c r="U4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -8254,11 +8258,12 @@
         <v>Auvernier Gir. de Brena</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="P5" s="0"/>
-      <c r="U5" s="16" t="str">
+      <c r="O5" s="16" t="str">
         <f aca="false">Data_count!B9</f>
         <v>Comptage véhicule par véhicule</v>
       </c>
+      <c r="P5" s="0"/>
+      <c r="U5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
@@ -8271,10 +8276,11 @@
       <c r="C7" s="18"/>
       <c r="F7" s="0"/>
       <c r="G7" s="20"/>
-      <c r="J7" s="19" t="str">
+      <c r="H7" s="19" t="str">
         <f aca="false">Data_count!B11</f>
         <v>Rte de la Gare</v>
       </c>
+      <c r="J7" s="0"/>
       <c r="K7" s="11"/>
       <c r="N7" s="118"/>
     </row>
@@ -8309,6 +8315,10 @@
       <c r="O11" s="293"/>
       <c r="P11" s="293"/>
       <c r="Q11" s="294"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
     </row>
     <row r="12" s="186" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="247" t="str">
@@ -8330,12 +8340,10 @@
         <v>135</v>
       </c>
       <c r="P12" s="285"/>
-      <c r="R12" s="295" t="s">
-        <v>170</v>
-      </c>
-      <c r="S12" s="295"/>
-      <c r="T12" s="295"/>
-      <c r="U12" s="295"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
       <c r="AMF12" s="1"/>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
@@ -8347,57 +8355,49 @@
         <v>110</v>
       </c>
       <c r="B13" s="248" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="D13" s="150" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="E13" s="150" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="150" t="s">
+      <c r="F13" s="150" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="150" t="s">
+      <c r="G13" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="150" t="s">
+      <c r="H13" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="150" t="s">
+      <c r="I13" s="150" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="150" t="s">
+      <c r="J13" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="J13" s="150" t="s">
+      <c r="K13" s="150" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="150" t="s">
+      <c r="L13" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="150" t="s">
+      <c r="M13" s="251" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="251" t="s">
+      <c r="O13" s="295" t="s">
         <v>182</v>
       </c>
-      <c r="O13" s="296" t="s">
-        <v>183</v>
-      </c>
       <c r="P13" s="118"/>
-      <c r="R13" s="297" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="298" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" s="299" t="s">
-        <v>186</v>
-      </c>
-      <c r="U13" s="300" t="s">
-        <v>187</v>
-      </c>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="226" t="s">
@@ -8456,22 +8456,10 @@
         <v>54</v>
       </c>
       <c r="P14" s="177"/>
-      <c r="R14" s="301" t="n">
-        <f aca="false">Data_speed!P5</f>
-        <v>45</v>
-      </c>
-      <c r="S14" s="301" t="n">
-        <f aca="false">Data_speed!Q5</f>
-        <v>55</v>
-      </c>
-      <c r="T14" s="301" t="n">
-        <f aca="false">Data_speed!R5</f>
-        <v>55</v>
-      </c>
-      <c r="U14" s="302" t="n">
-        <f aca="false">Data_speed!S5</f>
-        <v>51.65</v>
-      </c>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="229" t="s">
@@ -8530,22 +8518,10 @@
         <v>22.2857142857143</v>
       </c>
       <c r="P15" s="177"/>
-      <c r="R15" s="301" t="n">
-        <f aca="false">Data_speed!P6</f>
-        <v>45</v>
-      </c>
-      <c r="S15" s="301" t="n">
-        <f aca="false">Data_speed!Q6</f>
-        <v>55</v>
-      </c>
-      <c r="T15" s="301" t="n">
-        <f aca="false">Data_speed!R6</f>
-        <v>55</v>
-      </c>
-      <c r="U15" s="302" t="n">
-        <f aca="false">Data_speed!S6</f>
-        <v>51.96</v>
-      </c>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="229" t="s">
@@ -8604,22 +8580,10 @@
         <v>15.5714285714286</v>
       </c>
       <c r="P16" s="177"/>
-      <c r="R16" s="301" t="n">
-        <f aca="false">Data_speed!P7</f>
-        <v>45</v>
-      </c>
-      <c r="S16" s="301" t="n">
-        <f aca="false">Data_speed!Q7</f>
-        <v>55</v>
-      </c>
-      <c r="T16" s="301" t="n">
-        <f aca="false">Data_speed!R7</f>
-        <v>55</v>
-      </c>
-      <c r="U16" s="302" t="n">
-        <f aca="false">Data_speed!S7</f>
-        <v>52.22</v>
-      </c>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="229" t="s">
@@ -8678,22 +8642,10 @@
         <v>13.8571428571429</v>
       </c>
       <c r="P17" s="177"/>
-      <c r="R17" s="301" t="n">
-        <f aca="false">Data_speed!P8</f>
-        <v>45</v>
-      </c>
-      <c r="S17" s="301" t="n">
-        <f aca="false">Data_speed!Q8</f>
-        <v>55</v>
-      </c>
-      <c r="T17" s="301" t="n">
-        <f aca="false">Data_speed!R8</f>
-        <v>65</v>
-      </c>
-      <c r="U17" s="302" t="n">
-        <f aca="false">Data_speed!S8</f>
-        <v>53.66</v>
-      </c>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="229" t="s">
@@ -8752,22 +8704,10 @@
         <v>19.2857142857143</v>
       </c>
       <c r="P18" s="177"/>
-      <c r="R18" s="301" t="n">
-        <f aca="false">Data_speed!P9</f>
-        <v>45</v>
-      </c>
-      <c r="S18" s="301" t="n">
-        <f aca="false">Data_speed!Q9</f>
-        <v>55</v>
-      </c>
-      <c r="T18" s="301" t="n">
-        <f aca="false">Data_speed!R9</f>
-        <v>65</v>
-      </c>
-      <c r="U18" s="302" t="n">
-        <f aca="false">Data_speed!S9</f>
-        <v>54.76</v>
-      </c>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="229" t="s">
@@ -8826,22 +8766,10 @@
         <v>43.4285714285714</v>
       </c>
       <c r="P19" s="177"/>
-      <c r="R19" s="301" t="n">
-        <f aca="false">Data_speed!P10</f>
-        <v>45</v>
-      </c>
-      <c r="S19" s="301" t="n">
-        <f aca="false">Data_speed!Q10</f>
-        <v>55</v>
-      </c>
-      <c r="T19" s="301" t="n">
-        <f aca="false">Data_speed!R10</f>
-        <v>55</v>
-      </c>
-      <c r="U19" s="302" t="n">
-        <f aca="false">Data_speed!S10</f>
-        <v>51.38</v>
-      </c>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="222" t="s">
@@ -8900,22 +8828,10 @@
         <v>172.714285714286</v>
       </c>
       <c r="P20" s="177"/>
-      <c r="R20" s="301" t="n">
-        <f aca="false">Data_speed!P11</f>
-        <v>45</v>
-      </c>
-      <c r="S20" s="301" t="n">
-        <f aca="false">Data_speed!Q11</f>
-        <v>45</v>
-      </c>
-      <c r="T20" s="301" t="n">
-        <f aca="false">Data_speed!R11</f>
-        <v>55</v>
-      </c>
-      <c r="U20" s="302" t="n">
-        <f aca="false">Data_speed!S11</f>
-        <v>49.76</v>
-      </c>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="226" t="s">
@@ -8974,22 +8890,10 @@
         <v>363</v>
       </c>
       <c r="P21" s="177"/>
-      <c r="R21" s="301" t="n">
-        <f aca="false">Data_speed!P12</f>
-        <v>45</v>
-      </c>
-      <c r="S21" s="301" t="n">
-        <f aca="false">Data_speed!Q12</f>
-        <v>45</v>
-      </c>
-      <c r="T21" s="301" t="n">
-        <f aca="false">Data_speed!R12</f>
-        <v>55</v>
-      </c>
-      <c r="U21" s="302" t="n">
-        <f aca="false">Data_speed!S12</f>
-        <v>48.05</v>
-      </c>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="226" t="s">
@@ -9048,22 +8952,10 @@
         <v>333.714285714286</v>
       </c>
       <c r="P22" s="177"/>
-      <c r="R22" s="301" t="n">
-        <f aca="false">Data_speed!P13</f>
-        <v>45</v>
-      </c>
-      <c r="S22" s="301" t="n">
-        <f aca="false">Data_speed!Q13</f>
-        <v>45</v>
-      </c>
-      <c r="T22" s="301" t="n">
-        <f aca="false">Data_speed!R13</f>
-        <v>55</v>
-      </c>
-      <c r="U22" s="302" t="n">
-        <f aca="false">Data_speed!S13</f>
-        <v>49.24</v>
-      </c>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="229" t="s">
@@ -9122,22 +9014,10 @@
         <v>317.285714285714</v>
       </c>
       <c r="P23" s="177"/>
-      <c r="R23" s="301" t="n">
-        <f aca="false">Data_speed!P14</f>
-        <v>45</v>
-      </c>
-      <c r="S23" s="301" t="n">
-        <f aca="false">Data_speed!Q14</f>
-        <v>45</v>
-      </c>
-      <c r="T23" s="301" t="n">
-        <f aca="false">Data_speed!R14</f>
-        <v>55</v>
-      </c>
-      <c r="U23" s="302" t="n">
-        <f aca="false">Data_speed!S14</f>
-        <v>49.03</v>
-      </c>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="229" t="s">
@@ -9196,22 +9076,10 @@
         <v>340.857142857143</v>
       </c>
       <c r="P24" s="177"/>
-      <c r="R24" s="301" t="n">
-        <f aca="false">Data_speed!P15</f>
-        <v>45</v>
-      </c>
-      <c r="S24" s="301" t="n">
-        <f aca="false">Data_speed!Q15</f>
-        <v>45</v>
-      </c>
-      <c r="T24" s="301" t="n">
-        <f aca="false">Data_speed!R15</f>
-        <v>55</v>
-      </c>
-      <c r="U24" s="302" t="n">
-        <f aca="false">Data_speed!S15</f>
-        <v>48.33</v>
-      </c>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="229" t="s">
@@ -9270,22 +9138,10 @@
         <v>445.857142857143</v>
       </c>
       <c r="P25" s="177"/>
-      <c r="R25" s="301" t="n">
-        <f aca="false">Data_speed!P16</f>
-        <v>45</v>
-      </c>
-      <c r="S25" s="301" t="n">
-        <f aca="false">Data_speed!Q16</f>
-        <v>45</v>
-      </c>
-      <c r="T25" s="301" t="n">
-        <f aca="false">Data_speed!R16</f>
-        <v>55</v>
-      </c>
-      <c r="U25" s="302" t="n">
-        <f aca="false">Data_speed!S16</f>
-        <v>48.52</v>
-      </c>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="256" t="s">
@@ -9344,22 +9200,10 @@
         <v>413.285714285714</v>
       </c>
       <c r="P26" s="177"/>
-      <c r="R26" s="301" t="n">
-        <f aca="false">Data_speed!P17</f>
-        <v>45</v>
-      </c>
-      <c r="S26" s="301" t="n">
-        <f aca="false">Data_speed!Q17</f>
-        <v>45</v>
-      </c>
-      <c r="T26" s="301" t="n">
-        <f aca="false">Data_speed!R17</f>
-        <v>55</v>
-      </c>
-      <c r="U26" s="302" t="n">
-        <f aca="false">Data_speed!S17</f>
-        <v>49.07</v>
-      </c>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="229" t="s">
@@ -9418,22 +9262,10 @@
         <v>420.285714285714</v>
       </c>
       <c r="P27" s="177"/>
-      <c r="R27" s="301" t="n">
-        <f aca="false">Data_speed!P18</f>
-        <v>45</v>
-      </c>
-      <c r="S27" s="301" t="n">
-        <f aca="false">Data_speed!Q18</f>
-        <v>45</v>
-      </c>
-      <c r="T27" s="301" t="n">
-        <f aca="false">Data_speed!R18</f>
-        <v>55</v>
-      </c>
-      <c r="U27" s="302" t="n">
-        <f aca="false">Data_speed!S18</f>
-        <v>48.72</v>
-      </c>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="229" t="s">
@@ -9492,22 +9324,10 @@
         <v>382.142857142857</v>
       </c>
       <c r="P28" s="177"/>
-      <c r="R28" s="301" t="n">
-        <f aca="false">Data_speed!P19</f>
-        <v>45</v>
-      </c>
-      <c r="S28" s="301" t="n">
-        <f aca="false">Data_speed!Q19</f>
-        <v>45</v>
-      </c>
-      <c r="T28" s="301" t="n">
-        <f aca="false">Data_speed!R19</f>
-        <v>55</v>
-      </c>
-      <c r="U28" s="302" t="n">
-        <f aca="false">Data_speed!S19</f>
-        <v>49.16</v>
-      </c>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="229" t="s">
@@ -9566,22 +9386,10 @@
         <v>440</v>
       </c>
       <c r="P29" s="177"/>
-      <c r="R29" s="301" t="n">
-        <f aca="false">Data_speed!P20</f>
-        <v>45</v>
-      </c>
-      <c r="S29" s="301" t="n">
-        <f aca="false">Data_speed!Q20</f>
-        <v>45</v>
-      </c>
-      <c r="T29" s="301" t="n">
-        <f aca="false">Data_speed!R20</f>
-        <v>55</v>
-      </c>
-      <c r="U29" s="302" t="n">
-        <f aca="false">Data_speed!S20</f>
-        <v>48.93</v>
-      </c>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="222" t="s">
@@ -9640,22 +9448,10 @@
         <v>588.857142857143</v>
       </c>
       <c r="P30" s="177"/>
-      <c r="R30" s="301" t="n">
-        <f aca="false">Data_speed!P21</f>
-        <v>45</v>
-      </c>
-      <c r="S30" s="301" t="n">
-        <f aca="false">Data_speed!Q21</f>
-        <v>45</v>
-      </c>
-      <c r="T30" s="301" t="n">
-        <f aca="false">Data_speed!R21</f>
-        <v>55</v>
-      </c>
-      <c r="U30" s="302" t="n">
-        <f aca="false">Data_speed!S21</f>
-        <v>48.25</v>
-      </c>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="226" t="s">
@@ -9714,22 +9510,10 @@
         <v>823.428571428572</v>
       </c>
       <c r="P31" s="177"/>
-      <c r="R31" s="301" t="n">
-        <f aca="false">Data_speed!P22</f>
-        <v>45</v>
-      </c>
-      <c r="S31" s="301" t="n">
-        <f aca="false">Data_speed!Q22</f>
-        <v>45</v>
-      </c>
-      <c r="T31" s="301" t="n">
-        <f aca="false">Data_speed!R22</f>
-        <v>55</v>
-      </c>
-      <c r="U31" s="302" t="n">
-        <f aca="false">Data_speed!S22</f>
-        <v>46.72</v>
-      </c>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="226" t="s">
@@ -9788,22 +9572,10 @@
         <v>620</v>
       </c>
       <c r="P32" s="177"/>
-      <c r="R32" s="301" t="n">
-        <f aca="false">Data_speed!P23</f>
-        <v>45</v>
-      </c>
-      <c r="S32" s="301" t="n">
-        <f aca="false">Data_speed!Q23</f>
-        <v>45</v>
-      </c>
-      <c r="T32" s="301" t="n">
-        <f aca="false">Data_speed!R23</f>
-        <v>55</v>
-      </c>
-      <c r="U32" s="302" t="n">
-        <f aca="false">Data_speed!S23</f>
-        <v>48.2</v>
-      </c>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="229" t="s">
@@ -9862,22 +9634,10 @@
         <v>344.857142857143</v>
       </c>
       <c r="P33" s="177"/>
-      <c r="R33" s="301" t="n">
-        <f aca="false">Data_speed!P24</f>
-        <v>45</v>
-      </c>
-      <c r="S33" s="301" t="n">
-        <f aca="false">Data_speed!Q24</f>
-        <v>45</v>
-      </c>
-      <c r="T33" s="301" t="n">
-        <f aca="false">Data_speed!R24</f>
-        <v>55</v>
-      </c>
-      <c r="U33" s="302" t="n">
-        <f aca="false">Data_speed!S24</f>
-        <v>50.28</v>
-      </c>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="229" t="s">
@@ -9936,22 +9696,10 @@
         <v>244.428571428571</v>
       </c>
       <c r="P34" s="177"/>
-      <c r="R34" s="301" t="n">
-        <f aca="false">Data_speed!P25</f>
-        <v>45</v>
-      </c>
-      <c r="S34" s="301" t="n">
-        <f aca="false">Data_speed!Q25</f>
-        <v>45</v>
-      </c>
-      <c r="T34" s="301" t="n">
-        <f aca="false">Data_speed!R25</f>
-        <v>55</v>
-      </c>
-      <c r="U34" s="302" t="n">
-        <f aca="false">Data_speed!S25</f>
-        <v>50.03</v>
-      </c>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="229" t="s">
@@ -10010,22 +9758,10 @@
         <v>224.285714285714</v>
       </c>
       <c r="P35" s="177"/>
-      <c r="R35" s="301" t="n">
-        <f aca="false">Data_speed!P26</f>
-        <v>45</v>
-      </c>
-      <c r="S35" s="301" t="n">
-        <f aca="false">Data_speed!Q26</f>
-        <v>45</v>
-      </c>
-      <c r="T35" s="301" t="n">
-        <f aca="false">Data_speed!R26</f>
-        <v>55</v>
-      </c>
-      <c r="U35" s="302" t="n">
-        <f aca="false">Data_speed!S26</f>
-        <v>48.9</v>
-      </c>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="229" t="s">
@@ -10084,22 +9820,10 @@
         <v>194.428571428571</v>
       </c>
       <c r="P36" s="177"/>
-      <c r="R36" s="301" t="n">
-        <f aca="false">Data_speed!P27</f>
-        <v>45</v>
-      </c>
-      <c r="S36" s="301" t="n">
-        <f aca="false">Data_speed!Q27</f>
-        <v>45</v>
-      </c>
-      <c r="T36" s="301" t="n">
-        <f aca="false">Data_speed!R27</f>
-        <v>55</v>
-      </c>
-      <c r="U36" s="302" t="n">
-        <f aca="false">Data_speed!S27</f>
-        <v>49.09</v>
-      </c>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="231" t="s">
@@ -10158,85 +9882,73 @@
         <v>111.142857142857</v>
       </c>
       <c r="P37" s="177"/>
-      <c r="R37" s="301" t="n">
-        <f aca="false">Data_speed!P28</f>
-        <v>45</v>
-      </c>
-      <c r="S37" s="301" t="n">
-        <f aca="false">Data_speed!Q28</f>
-        <v>55</v>
-      </c>
-      <c r="T37" s="301" t="n">
-        <f aca="false">Data_speed!R28</f>
-        <v>55</v>
-      </c>
-      <c r="U37" s="302" t="n">
-        <f aca="false">Data_speed!S28</f>
-        <v>50.4</v>
-      </c>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R38" s="179"/>
-      <c r="S38" s="179"/>
-      <c r="T38" s="179"/>
-      <c r="U38" s="179"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M39" s="303"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="179"/>
-      <c r="T39" s="179"/>
-      <c r="U39" s="179"/>
+      <c r="M39" s="296"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="304" t="n">
+      <c r="B40" s="297" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
         <v>0.00125400871638845</v>
       </c>
-      <c r="C40" s="304" t="n">
+      <c r="C40" s="297" t="n">
         <f aca="false">SUM(C14:C37)/Data_speed!$O$29</f>
         <v>0.00696899925992928</v>
       </c>
-      <c r="D40" s="304" t="n">
+      <c r="D40" s="297" t="n">
         <f aca="false">SUM(D14:D37)/Data_speed!$O$29</f>
         <v>0.0324603239865143</v>
       </c>
-      <c r="E40" s="304" t="n">
+      <c r="E40" s="297" t="n">
         <f aca="false">SUM(E14:E37)/Data_speed!$O$29</f>
         <v>0.559637365348244</v>
       </c>
-      <c r="F40" s="304" t="n">
+      <c r="F40" s="297" t="n">
         <f aca="false">SUM(F14:F37)/Data_speed!$O$29</f>
         <v>0.379245127867774</v>
       </c>
-      <c r="G40" s="304" t="n">
+      <c r="G40" s="297" t="n">
         <f aca="false">SUM(G14:G37)/Data_speed!$O$29</f>
         <v>0.0191801661047611</v>
       </c>
-      <c r="H40" s="304" t="n">
+      <c r="H40" s="297" t="n">
         <f aca="false">SUM(H14:H37)/Data_speed!$O$29</f>
         <v>0.000801743277690979</v>
       </c>
-      <c r="I40" s="304" t="n">
+      <c r="I40" s="297" t="n">
         <f aca="false">SUM(I14:I37)/Data_speed!$O$29</f>
         <v>0.000205575199407943</v>
       </c>
-      <c r="J40" s="304" t="n">
+      <c r="J40" s="297" t="n">
         <f aca="false">SUM(J14:J37)/Data_speed!$O$29</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K40" s="304" t="n">
+      <c r="K40" s="297" t="n">
         <f aca="false">SUM(K14:K37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L40" s="304" t="n">
+      <c r="L40" s="297" t="n">
         <f aca="false">SUM(L14:L37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M40" s="304" t="n">
+      <c r="M40" s="297" t="n">
         <f aca="false">SUM(M14:M37)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
@@ -10245,72 +9957,60 @@
         <v>1</v>
       </c>
       <c r="P40" s="287"/>
-      <c r="R40" s="305" t="n">
-        <f aca="false">AVERAGE(R14:R37)</f>
-        <v>45</v>
-      </c>
-      <c r="S40" s="305" t="n">
-        <f aca="false">AVERAGE(S14:S37)</f>
-        <v>47.9166666666667</v>
-      </c>
-      <c r="T40" s="305" t="n">
-        <f aca="false">AVERAGE(T14:T37)</f>
-        <v>55.8333333333333</v>
-      </c>
-      <c r="U40" s="306" t="n">
-        <f aca="false">AVERAGE(U14:U37)</f>
-        <v>49.84625</v>
-      </c>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
+      <c r="T40" s="0"/>
+      <c r="U40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="307" t="n">
+      <c r="B41" s="298" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
         <v>0.00123345119644766</v>
       </c>
-      <c r="C41" s="307" t="n">
+      <c r="C41" s="298" t="n">
         <f aca="false">SUM(C20:C35)/Data_speed!$O$29</f>
         <v>0.00680453910040293</v>
       </c>
-      <c r="D41" s="307" t="n">
+      <c r="D41" s="298" t="n">
         <f aca="false">SUM(D20:D35)/Data_speed!$O$29</f>
         <v>0.0308773949510731</v>
       </c>
-      <c r="E41" s="307" t="n">
+      <c r="E41" s="298" t="n">
         <f aca="false">SUM(E20:E35)/Data_speed!$O$29</f>
         <v>0.527793766959954</v>
       </c>
-      <c r="F41" s="307" t="n">
+      <c r="F41" s="298" t="n">
         <f aca="false">SUM(F20:F35)/Data_speed!$O$29</f>
         <v>0.348778883315517</v>
       </c>
-      <c r="G41" s="307" t="n">
+      <c r="G41" s="298" t="n">
         <f aca="false">SUM(G20:G35)/Data_speed!$O$29</f>
         <v>0.0156237151550037</v>
       </c>
-      <c r="H41" s="307" t="n">
+      <c r="H41" s="298" t="n">
         <f aca="false">SUM(H20:H35)/Data_speed!$O$29</f>
         <v>0.000411150398815887</v>
       </c>
-      <c r="I41" s="307" t="n">
+      <c r="I41" s="298" t="n">
         <f aca="false">SUM(I20:I35)/Data_speed!$O$29</f>
         <v>6.1672559822383E-005</v>
       </c>
-      <c r="J41" s="307" t="n">
+      <c r="J41" s="298" t="n">
         <f aca="false">SUM(J20:J35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="K41" s="307" t="n">
+      <c r="K41" s="298" t="n">
         <f aca="false">SUM(K20:K35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L41" s="307" t="n">
+      <c r="L41" s="298" t="n">
         <f aca="false">SUM(L20:L35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M41" s="307" t="n">
+      <c r="M41" s="298" t="n">
         <f aca="false">SUM(M20:M35)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
@@ -10319,28 +10019,16 @@
         <v>0.931790148836444</v>
       </c>
       <c r="P41" s="287"/>
-      <c r="R41" s="308" t="n">
-        <f aca="false">AVERAGE(R20:R35)</f>
-        <v>45</v>
-      </c>
-      <c r="S41" s="308" t="n">
-        <f aca="false">AVERAGE(S20:S35)</f>
-        <v>45</v>
-      </c>
-      <c r="T41" s="308" t="n">
-        <f aca="false">AVERAGE(T20:T35)</f>
-        <v>55</v>
-      </c>
-      <c r="U41" s="309" t="n">
-        <f aca="false">AVERAGE(U20:U35)</f>
-        <v>48.824375</v>
-      </c>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="310" t="n">
+      <c r="B42" s="299" t="n">
         <f aca="false">B40-B41</f>
         <v>2.05575199407942E-005</v>
       </c>
@@ -10394,22 +10082,10 @@
         <v>0.0682098511635557</v>
       </c>
       <c r="P42" s="287"/>
-      <c r="R42" s="311" t="n">
-        <f aca="false">AVERAGE(AVERAGE(R14:R19), AVERAGE(R36:R37))</f>
-        <v>45</v>
-      </c>
-      <c r="S42" s="311" t="n">
-        <f aca="false">AVERAGE(AVERAGE(S14:S19), AVERAGE(S36:S37))</f>
-        <v>52.5</v>
-      </c>
-      <c r="T42" s="311" t="n">
-        <f aca="false">AVERAGE(AVERAGE(T14:T19), AVERAGE(T36:T37))</f>
-        <v>56.6666666666667</v>
-      </c>
-      <c r="U42" s="312" t="n">
-        <f aca="false">AVERAGE(AVERAGE(U14:U19), AVERAGE(U36:U37))</f>
-        <v>51.175</v>
-      </c>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="U42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="11"/>
@@ -10453,6 +10129,10 @@
       <c r="O47" s="293"/>
       <c r="P47" s="293"/>
       <c r="Q47" s="294"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="247" t="str">
@@ -10476,13 +10156,10 @@
       </c>
       <c r="P48" s="285"/>
       <c r="Q48" s="186"/>
-      <c r="R48" s="295" t="str">
-        <f aca="false">R12</f>
-        <v>Vitesses caractéristiques</v>
-      </c>
-      <c r="S48" s="295"/>
-      <c r="T48" s="295"/>
-      <c r="U48" s="295"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="221" t="s">
@@ -10516,7 +10193,7 @@
         <f aca="false">H13</f>
         <v>90 km/h</v>
       </c>
-      <c r="I49" s="313" t="str">
+      <c r="I49" s="300" t="str">
         <f aca="false">I13</f>
         <v>100 km/h</v>
       </c>
@@ -10528,7 +10205,7 @@
         <f aca="false">K13</f>
         <v>120 km/h</v>
       </c>
-      <c r="L49" s="314" t="str">
+      <c r="L49" s="301" t="str">
         <f aca="false">L13</f>
         <v>130 km/h</v>
       </c>
@@ -10536,27 +10213,15 @@
         <f aca="false">M13</f>
         <v>&gt; 130 km/h</v>
       </c>
-      <c r="O49" s="296" t="str">
+      <c r="O49" s="295" t="str">
         <f aca="false">O13</f>
         <v>Véh/h</v>
       </c>
       <c r="P49" s="118"/>
-      <c r="R49" s="297" t="str">
-        <f aca="false">R13</f>
-        <v>V15</v>
-      </c>
-      <c r="S49" s="298" t="str">
-        <f aca="false">S13</f>
-        <v>V50</v>
-      </c>
-      <c r="T49" s="299" t="str">
-        <f aca="false">T13</f>
-        <v>V85</v>
-      </c>
-      <c r="U49" s="315" t="str">
-        <f aca="false">U13</f>
-        <v>Vmt</v>
-      </c>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="226" t="s">
@@ -10615,22 +10280,10 @@
         <v>40.2857142857143</v>
       </c>
       <c r="P50" s="177"/>
-      <c r="R50" s="301" t="n">
-        <f aca="false">Data_speed!P33</f>
-        <v>45</v>
-      </c>
-      <c r="S50" s="301" t="n">
-        <f aca="false">Data_speed!Q33</f>
-        <v>55</v>
-      </c>
-      <c r="T50" s="301" t="n">
-        <f aca="false">Data_speed!R33</f>
-        <v>55</v>
-      </c>
-      <c r="U50" s="302" t="n">
-        <f aca="false">Data_speed!S33</f>
-        <v>50.42</v>
-      </c>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="229" t="s">
@@ -10689,22 +10342,10 @@
         <v>19.8571428571429</v>
       </c>
       <c r="P51" s="177"/>
-      <c r="R51" s="301" t="n">
-        <f aca="false">Data_speed!P34</f>
-        <v>45</v>
-      </c>
-      <c r="S51" s="301" t="n">
-        <f aca="false">Data_speed!Q34</f>
-        <v>55</v>
-      </c>
-      <c r="T51" s="301" t="n">
-        <f aca="false">Data_speed!R34</f>
-        <v>55</v>
-      </c>
-      <c r="U51" s="302" t="n">
-        <f aca="false">Data_speed!S34</f>
-        <v>51.83</v>
-      </c>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="229" t="s">
@@ -10763,22 +10404,10 @@
         <v>13.1428571428571</v>
       </c>
       <c r="P52" s="177"/>
-      <c r="R52" s="301" t="n">
-        <f aca="false">Data_speed!P35</f>
-        <v>45</v>
-      </c>
-      <c r="S52" s="301" t="n">
-        <f aca="false">Data_speed!Q35</f>
-        <v>55</v>
-      </c>
-      <c r="T52" s="301" t="n">
-        <f aca="false">Data_speed!R35</f>
-        <v>65</v>
-      </c>
-      <c r="U52" s="302" t="n">
-        <f aca="false">Data_speed!S35</f>
-        <v>52.39</v>
-      </c>
+      <c r="R52" s="0"/>
+      <c r="S52" s="0"/>
+      <c r="T52" s="0"/>
+      <c r="U52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="229" t="s">
@@ -10837,22 +10466,10 @@
         <v>14.8571428571429</v>
       </c>
       <c r="P53" s="177"/>
-      <c r="R53" s="301" t="n">
-        <f aca="false">Data_speed!P36</f>
-        <v>45</v>
-      </c>
-      <c r="S53" s="301" t="n">
-        <f aca="false">Data_speed!Q36</f>
-        <v>55</v>
-      </c>
-      <c r="T53" s="301" t="n">
-        <f aca="false">Data_speed!R36</f>
-        <v>55</v>
-      </c>
-      <c r="U53" s="302" t="n">
-        <f aca="false">Data_speed!S36</f>
-        <v>52.98</v>
-      </c>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="229" t="s">
@@ -10911,22 +10528,10 @@
         <v>47</v>
       </c>
       <c r="P54" s="177"/>
-      <c r="R54" s="301" t="n">
-        <f aca="false">Data_speed!P37</f>
-        <v>45</v>
-      </c>
-      <c r="S54" s="301" t="n">
-        <f aca="false">Data_speed!Q37</f>
-        <v>55</v>
-      </c>
-      <c r="T54" s="301" t="n">
-        <f aca="false">Data_speed!R37</f>
-        <v>65</v>
-      </c>
-      <c r="U54" s="302" t="n">
-        <f aca="false">Data_speed!S37</f>
-        <v>53.21</v>
-      </c>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="229" t="s">
@@ -10985,22 +10590,10 @@
         <v>85.4285714285714</v>
       </c>
       <c r="P55" s="177"/>
-      <c r="R55" s="301" t="n">
-        <f aca="false">Data_speed!P38</f>
-        <v>45</v>
-      </c>
-      <c r="S55" s="301" t="n">
-        <f aca="false">Data_speed!Q38</f>
-        <v>55</v>
-      </c>
-      <c r="T55" s="301" t="n">
-        <f aca="false">Data_speed!R38</f>
-        <v>55</v>
-      </c>
-      <c r="U55" s="302" t="n">
-        <f aca="false">Data_speed!S38</f>
-        <v>51.49</v>
-      </c>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="222" t="s">
@@ -11059,22 +10652,10 @@
         <v>305.714285714286</v>
       </c>
       <c r="P56" s="177"/>
-      <c r="R56" s="301" t="n">
-        <f aca="false">Data_speed!P39</f>
-        <v>45</v>
-      </c>
-      <c r="S56" s="301" t="n">
-        <f aca="false">Data_speed!Q39</f>
-        <v>45</v>
-      </c>
-      <c r="T56" s="301" t="n">
-        <f aca="false">Data_speed!R39</f>
-        <v>55</v>
-      </c>
-      <c r="U56" s="302" t="n">
-        <f aca="false">Data_speed!S39</f>
-        <v>50.26</v>
-      </c>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="226" t="s">
@@ -11133,22 +10714,10 @@
         <v>512.428571428571</v>
       </c>
       <c r="P57" s="177"/>
-      <c r="R57" s="301" t="n">
-        <f aca="false">Data_speed!P40</f>
-        <v>45</v>
-      </c>
-      <c r="S57" s="301" t="n">
-        <f aca="false">Data_speed!Q40</f>
-        <v>45</v>
-      </c>
-      <c r="T57" s="301" t="n">
-        <f aca="false">Data_speed!R40</f>
-        <v>55</v>
-      </c>
-      <c r="U57" s="302" t="n">
-        <f aca="false">Data_speed!S40</f>
-        <v>49.16</v>
-      </c>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="226" t="s">
@@ -11207,22 +10776,10 @@
         <v>402.571428571429</v>
       </c>
       <c r="P58" s="177"/>
-      <c r="R58" s="301" t="n">
-        <f aca="false">Data_speed!P41</f>
-        <v>45</v>
-      </c>
-      <c r="S58" s="301" t="n">
-        <f aca="false">Data_speed!Q41</f>
-        <v>45</v>
-      </c>
-      <c r="T58" s="301" t="n">
-        <f aca="false">Data_speed!R41</f>
-        <v>55</v>
-      </c>
-      <c r="U58" s="302" t="n">
-        <f aca="false">Data_speed!S41</f>
-        <v>49.43</v>
-      </c>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="229" t="s">
@@ -11281,22 +10838,10 @@
         <v>353.571428571429</v>
       </c>
       <c r="P59" s="177"/>
-      <c r="R59" s="301" t="n">
-        <f aca="false">Data_speed!P42</f>
-        <v>45</v>
-      </c>
-      <c r="S59" s="301" t="n">
-        <f aca="false">Data_speed!Q42</f>
-        <v>45</v>
-      </c>
-      <c r="T59" s="301" t="n">
-        <f aca="false">Data_speed!R42</f>
-        <v>55</v>
-      </c>
-      <c r="U59" s="302" t="n">
-        <f aca="false">Data_speed!S42</f>
-        <v>49.7</v>
-      </c>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="229" t="s">
@@ -11355,22 +10900,10 @@
         <v>387.714285714286</v>
       </c>
       <c r="P60" s="177"/>
-      <c r="R60" s="301" t="n">
-        <f aca="false">Data_speed!P43</f>
-        <v>45</v>
-      </c>
-      <c r="S60" s="301" t="n">
-        <f aca="false">Data_speed!Q43</f>
-        <v>45</v>
-      </c>
-      <c r="T60" s="301" t="n">
-        <f aca="false">Data_speed!R43</f>
-        <v>55</v>
-      </c>
-      <c r="U60" s="302" t="n">
-        <f aca="false">Data_speed!S43</f>
-        <v>48.99</v>
-      </c>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="229" t="s">
@@ -11429,22 +10962,10 @@
         <v>483.857142857143</v>
       </c>
       <c r="P61" s="177"/>
-      <c r="R61" s="301" t="n">
-        <f aca="false">Data_speed!P44</f>
-        <v>45</v>
-      </c>
-      <c r="S61" s="301" t="n">
-        <f aca="false">Data_speed!Q44</f>
-        <v>45</v>
-      </c>
-      <c r="T61" s="301" t="n">
-        <f aca="false">Data_speed!R44</f>
-        <v>55</v>
-      </c>
-      <c r="U61" s="302" t="n">
-        <f aca="false">Data_speed!S44</f>
-        <v>49.33</v>
-      </c>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="256" t="s">
@@ -11503,22 +11024,10 @@
         <v>407.714285714286</v>
       </c>
       <c r="P62" s="177"/>
-      <c r="R62" s="301" t="n">
-        <f aca="false">Data_speed!P45</f>
-        <v>45</v>
-      </c>
-      <c r="S62" s="301" t="n">
-        <f aca="false">Data_speed!Q45</f>
-        <v>55</v>
-      </c>
-      <c r="T62" s="301" t="n">
-        <f aca="false">Data_speed!R45</f>
-        <v>55</v>
-      </c>
-      <c r="U62" s="302" t="n">
-        <f aca="false">Data_speed!S45</f>
-        <v>50.05</v>
-      </c>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="229" t="s">
@@ -11577,22 +11086,10 @@
         <v>454.285714285714</v>
       </c>
       <c r="P63" s="177"/>
-      <c r="R63" s="301" t="n">
-        <f aca="false">Data_speed!P46</f>
-        <v>45</v>
-      </c>
-      <c r="S63" s="301" t="n">
-        <f aca="false">Data_speed!Q46</f>
-        <v>45</v>
-      </c>
-      <c r="T63" s="301" t="n">
-        <f aca="false">Data_speed!R46</f>
-        <v>55</v>
-      </c>
-      <c r="U63" s="302" t="n">
-        <f aca="false">Data_speed!S46</f>
-        <v>49.89</v>
-      </c>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="229" t="s">
@@ -11651,22 +11148,10 @@
         <v>400.285714285714</v>
       </c>
       <c r="P64" s="177"/>
-      <c r="R64" s="301" t="n">
-        <f aca="false">Data_speed!P47</f>
-        <v>45</v>
-      </c>
-      <c r="S64" s="301" t="n">
-        <f aca="false">Data_speed!Q47</f>
-        <v>45</v>
-      </c>
-      <c r="T64" s="301" t="n">
-        <f aca="false">Data_speed!R47</f>
-        <v>55</v>
-      </c>
-      <c r="U64" s="302" t="n">
-        <f aca="false">Data_speed!S47</f>
-        <v>49.24</v>
-      </c>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="229" t="s">
@@ -11725,22 +11210,10 @@
         <v>423</v>
       </c>
       <c r="P65" s="177"/>
-      <c r="R65" s="301" t="n">
-        <f aca="false">Data_speed!P48</f>
-        <v>45</v>
-      </c>
-      <c r="S65" s="301" t="n">
-        <f aca="false">Data_speed!Q48</f>
-        <v>45</v>
-      </c>
-      <c r="T65" s="301" t="n">
-        <f aca="false">Data_speed!R48</f>
-        <v>55</v>
-      </c>
-      <c r="U65" s="302" t="n">
-        <f aca="false">Data_speed!S48</f>
-        <v>49.64</v>
-      </c>
+      <c r="R65" s="0"/>
+      <c r="S65" s="0"/>
+      <c r="T65" s="0"/>
+      <c r="U65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="222" t="s">
@@ -11799,22 +11272,10 @@
         <v>512.142857142857</v>
       </c>
       <c r="P66" s="177"/>
-      <c r="R66" s="301" t="n">
-        <f aca="false">Data_speed!P49</f>
-        <v>45</v>
-      </c>
-      <c r="S66" s="301" t="n">
-        <f aca="false">Data_speed!Q49</f>
-        <v>45</v>
-      </c>
-      <c r="T66" s="301" t="n">
-        <f aca="false">Data_speed!R49</f>
-        <v>55</v>
-      </c>
-      <c r="U66" s="302" t="n">
-        <f aca="false">Data_speed!S49</f>
-        <v>49.31</v>
-      </c>
+      <c r="R66" s="0"/>
+      <c r="S66" s="0"/>
+      <c r="T66" s="0"/>
+      <c r="U66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="226" t="s">
@@ -11873,22 +11334,10 @@
         <v>554.142857142857</v>
       </c>
       <c r="P67" s="177"/>
-      <c r="R67" s="301" t="n">
-        <f aca="false">Data_speed!P50</f>
-        <v>45</v>
-      </c>
-      <c r="S67" s="301" t="n">
-        <f aca="false">Data_speed!Q50</f>
-        <v>45</v>
-      </c>
-      <c r="T67" s="301" t="n">
-        <f aca="false">Data_speed!R50</f>
-        <v>55</v>
-      </c>
-      <c r="U67" s="302" t="n">
-        <f aca="false">Data_speed!S50</f>
-        <v>49.41</v>
-      </c>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0"/>
+      <c r="U67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="226" t="s">
@@ -11947,22 +11396,10 @@
         <v>466.285714285714</v>
       </c>
       <c r="P68" s="177"/>
-      <c r="R68" s="301" t="n">
-        <f aca="false">Data_speed!P51</f>
-        <v>45</v>
-      </c>
-      <c r="S68" s="301" t="n">
-        <f aca="false">Data_speed!Q51</f>
-        <v>55</v>
-      </c>
-      <c r="T68" s="301" t="n">
-        <f aca="false">Data_speed!R51</f>
-        <v>55</v>
-      </c>
-      <c r="U68" s="302" t="n">
-        <f aca="false">Data_speed!S51</f>
-        <v>50.19</v>
-      </c>
+      <c r="R68" s="0"/>
+      <c r="S68" s="0"/>
+      <c r="T68" s="0"/>
+      <c r="U68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="229" t="s">
@@ -12021,22 +11458,10 @@
         <v>329.285714285714</v>
       </c>
       <c r="P69" s="177"/>
-      <c r="R69" s="301" t="n">
-        <f aca="false">Data_speed!P52</f>
-        <v>45</v>
-      </c>
-      <c r="S69" s="301" t="n">
-        <f aca="false">Data_speed!Q52</f>
-        <v>55</v>
-      </c>
-      <c r="T69" s="301" t="n">
-        <f aca="false">Data_speed!R52</f>
-        <v>55</v>
-      </c>
-      <c r="U69" s="302" t="n">
-        <f aca="false">Data_speed!S52</f>
-        <v>50.54</v>
-      </c>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="229" t="s">
@@ -12095,22 +11520,10 @@
         <v>215.428571428571</v>
       </c>
       <c r="P70" s="177"/>
-      <c r="R70" s="301" t="n">
-        <f aca="false">Data_speed!P53</f>
-        <v>45</v>
-      </c>
-      <c r="S70" s="301" t="n">
-        <f aca="false">Data_speed!Q53</f>
-        <v>55</v>
-      </c>
-      <c r="T70" s="301" t="n">
-        <f aca="false">Data_speed!R53</f>
-        <v>55</v>
-      </c>
-      <c r="U70" s="302" t="n">
-        <f aca="false">Data_speed!S53</f>
-        <v>50.52</v>
-      </c>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="229" t="s">
@@ -12169,22 +11582,10 @@
         <v>174.714285714286</v>
       </c>
       <c r="P71" s="177"/>
-      <c r="R71" s="301" t="n">
-        <f aca="false">Data_speed!P54</f>
-        <v>45</v>
-      </c>
-      <c r="S71" s="301" t="n">
-        <f aca="false">Data_speed!Q54</f>
-        <v>45</v>
-      </c>
-      <c r="T71" s="301" t="n">
-        <f aca="false">Data_speed!R54</f>
-        <v>55</v>
-      </c>
-      <c r="U71" s="302" t="n">
-        <f aca="false">Data_speed!S54</f>
-        <v>49.57</v>
-      </c>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0"/>
+      <c r="T71" s="0"/>
+      <c r="U71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="229" t="s">
@@ -12243,22 +11644,10 @@
         <v>157.428571428571</v>
       </c>
       <c r="P72" s="177"/>
-      <c r="R72" s="301" t="n">
-        <f aca="false">Data_speed!P55</f>
-        <v>45</v>
-      </c>
-      <c r="S72" s="301" t="n">
-        <f aca="false">Data_speed!Q55</f>
-        <v>55</v>
-      </c>
-      <c r="T72" s="301" t="n">
-        <f aca="false">Data_speed!R55</f>
-        <v>55</v>
-      </c>
-      <c r="U72" s="302" t="n">
-        <f aca="false">Data_speed!S55</f>
-        <v>50.42</v>
-      </c>
+      <c r="R72" s="0"/>
+      <c r="S72" s="0"/>
+      <c r="T72" s="0"/>
+      <c r="U72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="231" t="s">
@@ -12317,85 +11706,73 @@
         <v>91.7142857142857</v>
       </c>
       <c r="P73" s="177"/>
-      <c r="R73" s="301" t="n">
-        <f aca="false">Data_speed!P56</f>
-        <v>45</v>
-      </c>
-      <c r="S73" s="301" t="n">
-        <f aca="false">Data_speed!Q56</f>
-        <v>55</v>
-      </c>
-      <c r="T73" s="301" t="n">
-        <f aca="false">Data_speed!R56</f>
-        <v>55</v>
-      </c>
-      <c r="U73" s="302" t="n">
-        <f aca="false">Data_speed!S56</f>
-        <v>50.85</v>
-      </c>
+      <c r="R73" s="0"/>
+      <c r="S73" s="0"/>
+      <c r="T73" s="0"/>
+      <c r="U73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R74" s="179"/>
-      <c r="S74" s="179"/>
-      <c r="T74" s="179"/>
-      <c r="U74" s="179"/>
+      <c r="R74" s="0"/>
+      <c r="S74" s="0"/>
+      <c r="T74" s="0"/>
+      <c r="U74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M75" s="303"/>
-      <c r="R75" s="179"/>
-      <c r="S75" s="179"/>
-      <c r="T75" s="179"/>
-      <c r="U75" s="179"/>
+      <c r="M75" s="296"/>
+      <c r="R75" s="0"/>
+      <c r="S75" s="0"/>
+      <c r="T75" s="0"/>
+      <c r="U75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="304" t="n">
+      <c r="B76" s="297" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C76" s="304" t="n">
+      <c r="C76" s="297" t="n">
         <f aca="false">SUM(C50:C73)/Data_speed!$O$57</f>
         <v>0.00323091674657106</v>
       </c>
-      <c r="D76" s="304" t="n">
+      <c r="D76" s="297" t="n">
         <f aca="false">SUM(D50:D73)/Data_speed!$O$57</f>
         <v>0.0208029349230833</v>
       </c>
-      <c r="E76" s="304" t="n">
+      <c r="E76" s="297" t="n">
         <f aca="false">SUM(E50:E73)/Data_speed!$O$57</f>
         <v>0.506044941009714</v>
       </c>
-      <c r="F76" s="304" t="n">
+      <c r="F76" s="297" t="n">
         <f aca="false">SUM(F50:F73)/Data_speed!$O$57</f>
         <v>0.435881936048693</v>
       </c>
-      <c r="G76" s="304" t="n">
+      <c r="G76" s="297" t="n">
         <f aca="false">SUM(G50:G73)/Data_speed!$O$57</f>
         <v>0.0318088964855964</v>
       </c>
-      <c r="H76" s="304" t="n">
+      <c r="H76" s="297" t="n">
         <f aca="false">SUM(H50:H73)/Data_speed!$O$57</f>
         <v>0.00122983282611415</v>
       </c>
-      <c r="I76" s="304" t="n">
+      <c r="I76" s="297" t="n">
         <f aca="false">SUM(I50:I73)/Data_speed!$O$57</f>
         <v>0.000187601617542836</v>
       </c>
-      <c r="J76" s="304" t="n">
+      <c r="J76" s="297" t="n">
         <f aca="false">SUM(J50:J73)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K76" s="304" t="n">
+      <c r="K76" s="297" t="n">
         <f aca="false">SUM(K50:K73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L76" s="304" t="n">
+      <c r="L76" s="297" t="n">
         <f aca="false">SUM(L50:L73)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M76" s="304" t="n">
+      <c r="M76" s="297" t="n">
         <f aca="false">SUM(M50:M73)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
@@ -12404,72 +11781,60 @@
         <v>1</v>
       </c>
       <c r="P76" s="287"/>
-      <c r="R76" s="305" t="n">
-        <f aca="false">AVERAGE(R50:R73)</f>
-        <v>45</v>
-      </c>
-      <c r="S76" s="305" t="n">
-        <f aca="false">AVERAGE(S50:S73)</f>
-        <v>50</v>
-      </c>
-      <c r="T76" s="305" t="n">
-        <f aca="false">AVERAGE(T50:T73)</f>
-        <v>55.8333333333333</v>
-      </c>
-      <c r="U76" s="306" t="n">
-        <f aca="false">AVERAGE(U50:U73)</f>
-        <v>50.3675</v>
-      </c>
+      <c r="R76" s="0"/>
+      <c r="S76" s="0"/>
+      <c r="T76" s="0"/>
+      <c r="U76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="307" t="n">
+      <c r="B77" s="298" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C77" s="307" t="n">
+      <c r="C77" s="298" t="n">
         <f aca="false">SUM(C56:C71)/Data_speed!$O$57</f>
         <v>0.00318922749822821</v>
       </c>
-      <c r="D77" s="307" t="n">
+      <c r="D77" s="298" t="n">
         <f aca="false">SUM(D56:D71)/Data_speed!$O$57</f>
         <v>0.019760703714512</v>
       </c>
-      <c r="E77" s="307" t="n">
+      <c r="E77" s="298" t="n">
         <f aca="false">SUM(E56:E71)/Data_speed!$O$57</f>
         <v>0.475986992954517</v>
       </c>
-      <c r="F77" s="307" t="n">
+      <c r="F77" s="298" t="n">
         <f aca="false">SUM(F56:F71)/Data_speed!$O$57</f>
         <v>0.404073039563097</v>
       </c>
-      <c r="G77" s="307" t="n">
+      <c r="G77" s="298" t="n">
         <f aca="false">SUM(G56:G71)/Data_speed!$O$57</f>
         <v>0.0266394296910827</v>
       </c>
-      <c r="H77" s="307" t="n">
+      <c r="H77" s="298" t="n">
         <f aca="false">SUM(H56:H71)/Data_speed!$O$57</f>
         <v>0.000854629591028474</v>
       </c>
-      <c r="I77" s="307" t="n">
+      <c r="I77" s="298" t="n">
         <f aca="false">SUM(I56:I71)/Data_speed!$O$57</f>
         <v>0.000145912369199983</v>
       </c>
-      <c r="J77" s="307" t="n">
+      <c r="J77" s="298" t="n">
         <f aca="false">SUM(J56:J71)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K77" s="307" t="n">
+      <c r="K77" s="298" t="n">
         <f aca="false">SUM(K56:K71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L77" s="307" t="n">
+      <c r="L77" s="298" t="n">
         <f aca="false">SUM(L56:L71)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M77" s="307" t="n">
+      <c r="M77" s="298" t="n">
         <f aca="false">SUM(M56:M71)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
@@ -12478,28 +11843,16 @@
         <v>0.931462875724351</v>
       </c>
       <c r="P77" s="287"/>
-      <c r="R77" s="308" t="n">
-        <f aca="false">AVERAGE(R56:R71)</f>
-        <v>45</v>
-      </c>
-      <c r="S77" s="308" t="n">
-        <f aca="false">AVERAGE(S56:S71)</f>
-        <v>47.5</v>
-      </c>
-      <c r="T77" s="308" t="n">
-        <f aca="false">AVERAGE(T56:T71)</f>
-        <v>55</v>
-      </c>
-      <c r="U77" s="309" t="n">
-        <f aca="false">AVERAGE(U56:U71)</f>
-        <v>49.701875</v>
-      </c>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
+      <c r="U77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="310" t="n">
+      <c r="B78" s="299" t="n">
         <f aca="false">B76-B77</f>
         <v>0</v>
       </c>
@@ -12553,50 +11906,41 @@
         <v>0.0685371242756494</v>
       </c>
       <c r="P78" s="287"/>
-      <c r="R78" s="311" t="n">
-        <f aca="false">AVERAGE(AVERAGE(R50:R55), AVERAGE(R72:R73))</f>
-        <v>45</v>
-      </c>
-      <c r="S78" s="311" t="n">
-        <f aca="false">AVERAGE(AVERAGE(S50:S55), AVERAGE(S72:S73))</f>
-        <v>55</v>
-      </c>
-      <c r="T78" s="311" t="n">
-        <f aca="false">AVERAGE(AVERAGE(T50:T55), AVERAGE(T72:T73))</f>
-        <v>56.6666666666667</v>
-      </c>
-      <c r="U78" s="312" t="n">
-        <f aca="false">AVERAGE(AVERAGE(U50:U55), AVERAGE(U72:U73))</f>
-        <v>51.3441666666667</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="R78" s="0"/>
+      <c r="S78" s="0"/>
+      <c r="T78" s="0"/>
+      <c r="U78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R79" s="0"/>
+      <c r="S79" s="0"/>
+      <c r="T79" s="0"/>
+      <c r="U79" s="0"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A11:P11"/>
     <mergeCell ref="B12:M12"/>
-    <mergeCell ref="R12:U12"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="B48:M48"/>
-    <mergeCell ref="R48:U48"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:V25">
+  <conditionalFormatting sqref="V14:V25 A14:Q25">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$O14&gt;=MAX($O$14:$O$25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:V37">
+  <conditionalFormatting sqref="V26:V37 A26:Q37">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$O26&gt;=MAX($O$26:$O$37)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:V61">
+  <conditionalFormatting sqref="V50:V61 A50:Q61">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$O50&gt;=MAX($O$50:$O$61)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:V73">
+  <conditionalFormatting sqref="V62:V73 A62:Q73">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$O62&gt;=MAX($O$62:$O$73)</formula>
     </cfRule>
@@ -12605,7 +11949,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -12619,7 +11963,7 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S48" activeCellId="1" sqref="J7 S48"/>
+      <selection pane="topLeft" activeCell="S48" activeCellId="1" sqref="H7 S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12656,7 +12000,7 @@
         <v>Comptage 2017</v>
       </c>
       <c r="P2" s="0"/>
-      <c r="Q2" s="303"/>
+      <c r="Q2" s="296"/>
       <c r="V2" s="13" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
@@ -12775,76 +12119,76 @@
       <c r="K12" s="247"/>
       <c r="L12" s="247"/>
       <c r="M12" s="247"/>
-      <c r="N12" s="316"/>
+      <c r="N12" s="302"/>
       <c r="P12" s="219" t="s">
         <v>135</v>
       </c>
       <c r="Q12" s="285"/>
-      <c r="S12" s="295" t="s">
-        <v>170</v>
-      </c>
-      <c r="T12" s="295"/>
-      <c r="U12" s="295"/>
-      <c r="V12" s="295"/>
+      <c r="S12" s="303" t="s">
+        <v>183</v>
+      </c>
+      <c r="T12" s="303"/>
+      <c r="U12" s="303"/>
+      <c r="V12" s="303"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="221" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="248" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="248" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="150" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="251" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="295" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="118"/>
+      <c r="S13" s="304" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="305" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="248" t="s">
+      <c r="U13" s="306" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="150" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="150" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="150" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="150" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="150" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="150" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="150" t="s">
-        <v>180</v>
-      </c>
-      <c r="N13" s="251" t="s">
+      <c r="V13" s="307" t="s">
         <v>190</v>
-      </c>
-      <c r="P13" s="296" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q13" s="118"/>
-      <c r="S13" s="297" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="298" t="s">
-        <v>185</v>
-      </c>
-      <c r="U13" s="299" t="s">
-        <v>186</v>
-      </c>
-      <c r="V13" s="300" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12908,19 +12252,19 @@
         <v>54</v>
       </c>
       <c r="Q14" s="177"/>
-      <c r="S14" s="301" t="n">
+      <c r="S14" s="308" t="n">
         <f aca="false">Data_speed!P5</f>
         <v>45</v>
       </c>
-      <c r="T14" s="301" t="n">
+      <c r="T14" s="308" t="n">
         <f aca="false">Data_speed!Q5</f>
         <v>55</v>
       </c>
-      <c r="U14" s="301" t="n">
+      <c r="U14" s="308" t="n">
         <f aca="false">Data_speed!R5</f>
         <v>55</v>
       </c>
-      <c r="V14" s="302" t="n">
+      <c r="V14" s="309" t="n">
         <f aca="false">Data_speed!S5</f>
         <v>51.65</v>
       </c>
@@ -12986,19 +12330,19 @@
         <v>22.2857142857143</v>
       </c>
       <c r="Q15" s="177"/>
-      <c r="S15" s="301" t="n">
+      <c r="S15" s="308" t="n">
         <f aca="false">Data_speed!P6</f>
         <v>45</v>
       </c>
-      <c r="T15" s="301" t="n">
+      <c r="T15" s="308" t="n">
         <f aca="false">Data_speed!Q6</f>
         <v>55</v>
       </c>
-      <c r="U15" s="301" t="n">
+      <c r="U15" s="308" t="n">
         <f aca="false">Data_speed!R6</f>
         <v>55</v>
       </c>
-      <c r="V15" s="302" t="n">
+      <c r="V15" s="309" t="n">
         <f aca="false">Data_speed!S6</f>
         <v>51.96</v>
       </c>
@@ -13064,19 +12408,19 @@
         <v>15.5714285714286</v>
       </c>
       <c r="Q16" s="177"/>
-      <c r="S16" s="301" t="n">
+      <c r="S16" s="308" t="n">
         <f aca="false">Data_speed!P7</f>
         <v>45</v>
       </c>
-      <c r="T16" s="301" t="n">
+      <c r="T16" s="308" t="n">
         <f aca="false">Data_speed!Q7</f>
         <v>55</v>
       </c>
-      <c r="U16" s="301" t="n">
+      <c r="U16" s="308" t="n">
         <f aca="false">Data_speed!R7</f>
         <v>55</v>
       </c>
-      <c r="V16" s="302" t="n">
+      <c r="V16" s="309" t="n">
         <f aca="false">Data_speed!S7</f>
         <v>52.22</v>
       </c>
@@ -13142,19 +12486,19 @@
         <v>13.8571428571429</v>
       </c>
       <c r="Q17" s="177"/>
-      <c r="S17" s="301" t="n">
+      <c r="S17" s="308" t="n">
         <f aca="false">Data_speed!P8</f>
         <v>45</v>
       </c>
-      <c r="T17" s="301" t="n">
+      <c r="T17" s="308" t="n">
         <f aca="false">Data_speed!Q8</f>
         <v>55</v>
       </c>
-      <c r="U17" s="301" t="n">
+      <c r="U17" s="308" t="n">
         <f aca="false">Data_speed!R8</f>
         <v>65</v>
       </c>
-      <c r="V17" s="302" t="n">
+      <c r="V17" s="309" t="n">
         <f aca="false">Data_speed!S8</f>
         <v>53.66</v>
       </c>
@@ -13220,19 +12564,19 @@
         <v>19.2857142857143</v>
       </c>
       <c r="Q18" s="177"/>
-      <c r="S18" s="301" t="n">
+      <c r="S18" s="308" t="n">
         <f aca="false">Data_speed!P9</f>
         <v>45</v>
       </c>
-      <c r="T18" s="301" t="n">
+      <c r="T18" s="308" t="n">
         <f aca="false">Data_speed!Q9</f>
         <v>55</v>
       </c>
-      <c r="U18" s="301" t="n">
+      <c r="U18" s="308" t="n">
         <f aca="false">Data_speed!R9</f>
         <v>65</v>
       </c>
-      <c r="V18" s="302" t="n">
+      <c r="V18" s="309" t="n">
         <f aca="false">Data_speed!S9</f>
         <v>54.76</v>
       </c>
@@ -13298,19 +12642,19 @@
         <v>43.4285714285714</v>
       </c>
       <c r="Q19" s="177"/>
-      <c r="S19" s="301" t="n">
+      <c r="S19" s="308" t="n">
         <f aca="false">Data_speed!P10</f>
         <v>45</v>
       </c>
-      <c r="T19" s="301" t="n">
+      <c r="T19" s="308" t="n">
         <f aca="false">Data_speed!Q10</f>
         <v>55</v>
       </c>
-      <c r="U19" s="301" t="n">
+      <c r="U19" s="308" t="n">
         <f aca="false">Data_speed!R10</f>
         <v>55</v>
       </c>
-      <c r="V19" s="302" t="n">
+      <c r="V19" s="309" t="n">
         <f aca="false">Data_speed!S10</f>
         <v>51.38</v>
       </c>
@@ -13376,19 +12720,19 @@
         <v>172.714285714286</v>
       </c>
       <c r="Q20" s="177"/>
-      <c r="S20" s="301" t="n">
+      <c r="S20" s="308" t="n">
         <f aca="false">Data_speed!P11</f>
         <v>45</v>
       </c>
-      <c r="T20" s="301" t="n">
+      <c r="T20" s="308" t="n">
         <f aca="false">Data_speed!Q11</f>
         <v>45</v>
       </c>
-      <c r="U20" s="301" t="n">
+      <c r="U20" s="308" t="n">
         <f aca="false">Data_speed!R11</f>
         <v>55</v>
       </c>
-      <c r="V20" s="302" t="n">
+      <c r="V20" s="309" t="n">
         <f aca="false">Data_speed!S11</f>
         <v>49.76</v>
       </c>
@@ -13454,19 +12798,19 @@
         <v>363</v>
       </c>
       <c r="Q21" s="177"/>
-      <c r="S21" s="301" t="n">
+      <c r="S21" s="308" t="n">
         <f aca="false">Data_speed!P12</f>
         <v>45</v>
       </c>
-      <c r="T21" s="301" t="n">
+      <c r="T21" s="308" t="n">
         <f aca="false">Data_speed!Q12</f>
         <v>45</v>
       </c>
-      <c r="U21" s="301" t="n">
+      <c r="U21" s="308" t="n">
         <f aca="false">Data_speed!R12</f>
         <v>55</v>
       </c>
-      <c r="V21" s="302" t="n">
+      <c r="V21" s="309" t="n">
         <f aca="false">Data_speed!S12</f>
         <v>48.05</v>
       </c>
@@ -13532,19 +12876,19 @@
         <v>333.714285714286</v>
       </c>
       <c r="Q22" s="177"/>
-      <c r="S22" s="301" t="n">
+      <c r="S22" s="308" t="n">
         <f aca="false">Data_speed!P13</f>
         <v>45</v>
       </c>
-      <c r="T22" s="301" t="n">
+      <c r="T22" s="308" t="n">
         <f aca="false">Data_speed!Q13</f>
         <v>45</v>
       </c>
-      <c r="U22" s="301" t="n">
+      <c r="U22" s="308" t="n">
         <f aca="false">Data_speed!R13</f>
         <v>55</v>
       </c>
-      <c r="V22" s="302" t="n">
+      <c r="V22" s="309" t="n">
         <f aca="false">Data_speed!S13</f>
         <v>49.24</v>
       </c>
@@ -13610,19 +12954,19 @@
         <v>317.285714285714</v>
       </c>
       <c r="Q23" s="177"/>
-      <c r="S23" s="301" t="n">
+      <c r="S23" s="308" t="n">
         <f aca="false">Data_speed!P14</f>
         <v>45</v>
       </c>
-      <c r="T23" s="301" t="n">
+      <c r="T23" s="308" t="n">
         <f aca="false">Data_speed!Q14</f>
         <v>45</v>
       </c>
-      <c r="U23" s="301" t="n">
+      <c r="U23" s="308" t="n">
         <f aca="false">Data_speed!R14</f>
         <v>55</v>
       </c>
-      <c r="V23" s="302" t="n">
+      <c r="V23" s="309" t="n">
         <f aca="false">Data_speed!S14</f>
         <v>49.03</v>
       </c>
@@ -13688,19 +13032,19 @@
         <v>340.857142857143</v>
       </c>
       <c r="Q24" s="177"/>
-      <c r="S24" s="301" t="n">
+      <c r="S24" s="308" t="n">
         <f aca="false">Data_speed!P15</f>
         <v>45</v>
       </c>
-      <c r="T24" s="301" t="n">
+      <c r="T24" s="308" t="n">
         <f aca="false">Data_speed!Q15</f>
         <v>45</v>
       </c>
-      <c r="U24" s="301" t="n">
+      <c r="U24" s="308" t="n">
         <f aca="false">Data_speed!R15</f>
         <v>55</v>
       </c>
-      <c r="V24" s="302" t="n">
+      <c r="V24" s="309" t="n">
         <f aca="false">Data_speed!S15</f>
         <v>48.33</v>
       </c>
@@ -13766,19 +13110,19 @@
         <v>445.857142857143</v>
       </c>
       <c r="Q25" s="177"/>
-      <c r="S25" s="301" t="n">
+      <c r="S25" s="308" t="n">
         <f aca="false">Data_speed!P16</f>
         <v>45</v>
       </c>
-      <c r="T25" s="301" t="n">
+      <c r="T25" s="308" t="n">
         <f aca="false">Data_speed!Q16</f>
         <v>45</v>
       </c>
-      <c r="U25" s="301" t="n">
+      <c r="U25" s="308" t="n">
         <f aca="false">Data_speed!R16</f>
         <v>55</v>
       </c>
-      <c r="V25" s="302" t="n">
+      <c r="V25" s="309" t="n">
         <f aca="false">Data_speed!S16</f>
         <v>48.52</v>
       </c>
@@ -13844,19 +13188,19 @@
         <v>413.285714285714</v>
       </c>
       <c r="Q26" s="177"/>
-      <c r="S26" s="301" t="n">
+      <c r="S26" s="308" t="n">
         <f aca="false">Data_speed!P17</f>
         <v>45</v>
       </c>
-      <c r="T26" s="301" t="n">
+      <c r="T26" s="308" t="n">
         <f aca="false">Data_speed!Q17</f>
         <v>45</v>
       </c>
-      <c r="U26" s="301" t="n">
+      <c r="U26" s="308" t="n">
         <f aca="false">Data_speed!R17</f>
         <v>55</v>
       </c>
-      <c r="V26" s="302" t="n">
+      <c r="V26" s="309" t="n">
         <f aca="false">Data_speed!S17</f>
         <v>49.07</v>
       </c>
@@ -13922,19 +13266,19 @@
         <v>420.285714285714</v>
       </c>
       <c r="Q27" s="177"/>
-      <c r="S27" s="301" t="n">
+      <c r="S27" s="308" t="n">
         <f aca="false">Data_speed!P18</f>
         <v>45</v>
       </c>
-      <c r="T27" s="301" t="n">
+      <c r="T27" s="308" t="n">
         <f aca="false">Data_speed!Q18</f>
         <v>45</v>
       </c>
-      <c r="U27" s="301" t="n">
+      <c r="U27" s="308" t="n">
         <f aca="false">Data_speed!R18</f>
         <v>55</v>
       </c>
-      <c r="V27" s="302" t="n">
+      <c r="V27" s="309" t="n">
         <f aca="false">Data_speed!S18</f>
         <v>48.72</v>
       </c>
@@ -14000,19 +13344,19 @@
         <v>382.142857142857</v>
       </c>
       <c r="Q28" s="177"/>
-      <c r="S28" s="301" t="n">
+      <c r="S28" s="308" t="n">
         <f aca="false">Data_speed!P19</f>
         <v>45</v>
       </c>
-      <c r="T28" s="301" t="n">
+      <c r="T28" s="308" t="n">
         <f aca="false">Data_speed!Q19</f>
         <v>45</v>
       </c>
-      <c r="U28" s="301" t="n">
+      <c r="U28" s="308" t="n">
         <f aca="false">Data_speed!R19</f>
         <v>55</v>
       </c>
-      <c r="V28" s="302" t="n">
+      <c r="V28" s="309" t="n">
         <f aca="false">Data_speed!S19</f>
         <v>49.16</v>
       </c>
@@ -14078,19 +13422,19 @@
         <v>440</v>
       </c>
       <c r="Q29" s="177"/>
-      <c r="S29" s="301" t="n">
+      <c r="S29" s="308" t="n">
         <f aca="false">Data_speed!P20</f>
         <v>45</v>
       </c>
-      <c r="T29" s="301" t="n">
+      <c r="T29" s="308" t="n">
         <f aca="false">Data_speed!Q20</f>
         <v>45</v>
       </c>
-      <c r="U29" s="301" t="n">
+      <c r="U29" s="308" t="n">
         <f aca="false">Data_speed!R20</f>
         <v>55</v>
       </c>
-      <c r="V29" s="302" t="n">
+      <c r="V29" s="309" t="n">
         <f aca="false">Data_speed!S20</f>
         <v>48.93</v>
       </c>
@@ -14156,19 +13500,19 @@
         <v>588.857142857143</v>
       </c>
       <c r="Q30" s="177"/>
-      <c r="S30" s="301" t="n">
+      <c r="S30" s="308" t="n">
         <f aca="false">Data_speed!P21</f>
         <v>45</v>
       </c>
-      <c r="T30" s="301" t="n">
+      <c r="T30" s="308" t="n">
         <f aca="false">Data_speed!Q21</f>
         <v>45</v>
       </c>
-      <c r="U30" s="301" t="n">
+      <c r="U30" s="308" t="n">
         <f aca="false">Data_speed!R21</f>
         <v>55</v>
       </c>
-      <c r="V30" s="302" t="n">
+      <c r="V30" s="309" t="n">
         <f aca="false">Data_speed!S21</f>
         <v>48.25</v>
       </c>
@@ -14234,19 +13578,19 @@
         <v>823.428571428572</v>
       </c>
       <c r="Q31" s="177"/>
-      <c r="S31" s="301" t="n">
+      <c r="S31" s="308" t="n">
         <f aca="false">Data_speed!P22</f>
         <v>45</v>
       </c>
-      <c r="T31" s="301" t="n">
+      <c r="T31" s="308" t="n">
         <f aca="false">Data_speed!Q22</f>
         <v>45</v>
       </c>
-      <c r="U31" s="301" t="n">
+      <c r="U31" s="308" t="n">
         <f aca="false">Data_speed!R22</f>
         <v>55</v>
       </c>
-      <c r="V31" s="302" t="n">
+      <c r="V31" s="309" t="n">
         <f aca="false">Data_speed!S22</f>
         <v>46.72</v>
       </c>
@@ -14312,19 +13656,19 @@
         <v>620</v>
       </c>
       <c r="Q32" s="177"/>
-      <c r="S32" s="301" t="n">
+      <c r="S32" s="308" t="n">
         <f aca="false">Data_speed!P23</f>
         <v>45</v>
       </c>
-      <c r="T32" s="301" t="n">
+      <c r="T32" s="308" t="n">
         <f aca="false">Data_speed!Q23</f>
         <v>45</v>
       </c>
-      <c r="U32" s="301" t="n">
+      <c r="U32" s="308" t="n">
         <f aca="false">Data_speed!R23</f>
         <v>55</v>
       </c>
-      <c r="V32" s="302" t="n">
+      <c r="V32" s="309" t="n">
         <f aca="false">Data_speed!S23</f>
         <v>48.2</v>
       </c>
@@ -14390,19 +13734,19 @@
         <v>344.857142857143</v>
       </c>
       <c r="Q33" s="177"/>
-      <c r="S33" s="301" t="n">
+      <c r="S33" s="308" t="n">
         <f aca="false">Data_speed!P24</f>
         <v>45</v>
       </c>
-      <c r="T33" s="301" t="n">
+      <c r="T33" s="308" t="n">
         <f aca="false">Data_speed!Q24</f>
         <v>45</v>
       </c>
-      <c r="U33" s="301" t="n">
+      <c r="U33" s="308" t="n">
         <f aca="false">Data_speed!R24</f>
         <v>55</v>
       </c>
-      <c r="V33" s="302" t="n">
+      <c r="V33" s="309" t="n">
         <f aca="false">Data_speed!S24</f>
         <v>50.28</v>
       </c>
@@ -14468,19 +13812,19 @@
         <v>244.428571428571</v>
       </c>
       <c r="Q34" s="177"/>
-      <c r="S34" s="301" t="n">
+      <c r="S34" s="308" t="n">
         <f aca="false">Data_speed!P25</f>
         <v>45</v>
       </c>
-      <c r="T34" s="301" t="n">
+      <c r="T34" s="308" t="n">
         <f aca="false">Data_speed!Q25</f>
         <v>45</v>
       </c>
-      <c r="U34" s="301" t="n">
+      <c r="U34" s="308" t="n">
         <f aca="false">Data_speed!R25</f>
         <v>55</v>
       </c>
-      <c r="V34" s="302" t="n">
+      <c r="V34" s="309" t="n">
         <f aca="false">Data_speed!S25</f>
         <v>50.03</v>
       </c>
@@ -14546,19 +13890,19 @@
         <v>224.285714285714</v>
       </c>
       <c r="Q35" s="177"/>
-      <c r="S35" s="301" t="n">
+      <c r="S35" s="308" t="n">
         <f aca="false">Data_speed!P26</f>
         <v>45</v>
       </c>
-      <c r="T35" s="301" t="n">
+      <c r="T35" s="308" t="n">
         <f aca="false">Data_speed!Q26</f>
         <v>45</v>
       </c>
-      <c r="U35" s="301" t="n">
+      <c r="U35" s="308" t="n">
         <f aca="false">Data_speed!R26</f>
         <v>55</v>
       </c>
-      <c r="V35" s="302" t="n">
+      <c r="V35" s="309" t="n">
         <f aca="false">Data_speed!S26</f>
         <v>48.9</v>
       </c>
@@ -14624,19 +13968,19 @@
         <v>194.428571428571</v>
       </c>
       <c r="Q36" s="177"/>
-      <c r="S36" s="301" t="n">
+      <c r="S36" s="308" t="n">
         <f aca="false">Data_speed!P27</f>
         <v>45</v>
       </c>
-      <c r="T36" s="301" t="n">
+      <c r="T36" s="308" t="n">
         <f aca="false">Data_speed!Q27</f>
         <v>45</v>
       </c>
-      <c r="U36" s="301" t="n">
+      <c r="U36" s="308" t="n">
         <f aca="false">Data_speed!R27</f>
         <v>55</v>
       </c>
-      <c r="V36" s="302" t="n">
+      <c r="V36" s="309" t="n">
         <f aca="false">Data_speed!S27</f>
         <v>49.09</v>
       </c>
@@ -14702,19 +14046,19 @@
         <v>111.142857142857</v>
       </c>
       <c r="Q37" s="177"/>
-      <c r="S37" s="301" t="n">
+      <c r="S37" s="308" t="n">
         <f aca="false">Data_speed!P28</f>
         <v>45</v>
       </c>
-      <c r="T37" s="301" t="n">
+      <c r="T37" s="308" t="n">
         <f aca="false">Data_speed!Q28</f>
         <v>55</v>
       </c>
-      <c r="U37" s="301" t="n">
+      <c r="U37" s="308" t="n">
         <f aca="false">Data_speed!R28</f>
         <v>55</v>
       </c>
-      <c r="V37" s="302" t="n">
+      <c r="V37" s="309" t="n">
         <f aca="false">Data_speed!S28</f>
         <v>50.4</v>
       </c>
@@ -14726,8 +14070,8 @@
       <c r="V38" s="179"/>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M39" s="303"/>
-      <c r="N39" s="303"/>
+      <c r="M39" s="296"/>
+      <c r="N39" s="296"/>
       <c r="S39" s="179"/>
       <c r="T39" s="179"/>
       <c r="U39" s="179"/>
@@ -14737,55 +14081,55 @@
       <c r="A40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="304" t="n">
+      <c r="B40" s="297" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
         <v>0.00125400871638845</v>
       </c>
-      <c r="C40" s="304" t="n">
+      <c r="C40" s="297" t="n">
         <f aca="false">SUM(C14:C37)/Data_speed!$O$29</f>
         <v>0.00696899925992928</v>
       </c>
-      <c r="D40" s="304" t="n">
+      <c r="D40" s="297" t="n">
         <f aca="false">SUM(D14:D37)/Data_speed!$O$29</f>
         <v>0.0324603239865143</v>
       </c>
-      <c r="E40" s="304" t="n">
+      <c r="E40" s="297" t="n">
         <f aca="false">SUM(E14:E37)/Data_speed!$O$29</f>
         <v>0.559637365348244</v>
       </c>
-      <c r="F40" s="304" t="n">
+      <c r="F40" s="297" t="n">
         <f aca="false">SUM(F14:F37)/Data_speed!$O$29</f>
         <v>0.379245127867774</v>
       </c>
-      <c r="G40" s="304" t="n">
+      <c r="G40" s="297" t="n">
         <f aca="false">SUM(G14:G37)/Data_speed!$O$29</f>
         <v>0.0191801661047611</v>
       </c>
-      <c r="H40" s="304" t="n">
+      <c r="H40" s="297" t="n">
         <f aca="false">SUM(H14:H37)/Data_speed!$O$29</f>
         <v>0.000801743277690979</v>
       </c>
-      <c r="I40" s="304" t="n">
+      <c r="I40" s="297" t="n">
         <f aca="false">SUM(I14:I37)/Data_speed!$O$29</f>
         <v>0.000205575199407943</v>
       </c>
-      <c r="J40" s="304" t="n">
+      <c r="J40" s="297" t="n">
         <f aca="false">SUM(J14:J37)/Data_speed!$O$29</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K40" s="304" t="n">
+      <c r="K40" s="297" t="n">
         <f aca="false">SUM(K14:K37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L40" s="304" t="n">
+      <c r="L40" s="297" t="n">
         <f aca="false">SUM(L14:L37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M40" s="304" t="n">
+      <c r="M40" s="297" t="n">
         <f aca="false">SUM(M14:M37)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="N40" s="304" t="n">
+      <c r="N40" s="297" t="n">
         <f aca="false">SUM(N14:N37)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
@@ -14794,19 +14138,19 @@
         <v>1</v>
       </c>
       <c r="Q40" s="287"/>
-      <c r="S40" s="305" t="n">
+      <c r="S40" s="310" t="n">
         <f aca="false">AVERAGE(S14:S37)</f>
         <v>45</v>
       </c>
-      <c r="T40" s="305" t="n">
+      <c r="T40" s="310" t="n">
         <f aca="false">AVERAGE(T14:T37)</f>
         <v>47.9166666666667</v>
       </c>
-      <c r="U40" s="305" t="n">
+      <c r="U40" s="310" t="n">
         <f aca="false">AVERAGE(U14:U37)</f>
         <v>55.8333333333333</v>
       </c>
-      <c r="V40" s="306" t="n">
+      <c r="V40" s="311" t="n">
         <f aca="false">AVERAGE(V14:V37)</f>
         <v>49.84625</v>
       </c>
@@ -14815,55 +14159,55 @@
       <c r="A41" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="307" t="n">
+      <c r="B41" s="298" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
         <v>0.00123345119644766</v>
       </c>
-      <c r="C41" s="307" t="n">
+      <c r="C41" s="298" t="n">
         <f aca="false">SUM(C20:C35)/Data_speed!$O$29</f>
         <v>0.00680453910040293</v>
       </c>
-      <c r="D41" s="307" t="n">
+      <c r="D41" s="298" t="n">
         <f aca="false">SUM(D20:D35)/Data_speed!$O$29</f>
         <v>0.0308773949510731</v>
       </c>
-      <c r="E41" s="307" t="n">
+      <c r="E41" s="298" t="n">
         <f aca="false">SUM(E20:E35)/Data_speed!$O$29</f>
         <v>0.527793766959954</v>
       </c>
-      <c r="F41" s="307" t="n">
+      <c r="F41" s="298" t="n">
         <f aca="false">SUM(F20:F35)/Data_speed!$O$29</f>
         <v>0.348778883315517</v>
       </c>
-      <c r="G41" s="307" t="n">
+      <c r="G41" s="298" t="n">
         <f aca="false">SUM(G20:G35)/Data_speed!$O$29</f>
         <v>0.0156237151550037</v>
       </c>
-      <c r="H41" s="307" t="n">
+      <c r="H41" s="298" t="n">
         <f aca="false">SUM(H20:H35)/Data_speed!$O$29</f>
         <v>0.000411150398815887</v>
       </c>
-      <c r="I41" s="307" t="n">
+      <c r="I41" s="298" t="n">
         <f aca="false">SUM(I20:I35)/Data_speed!$O$29</f>
         <v>6.1672559822383E-005</v>
       </c>
-      <c r="J41" s="307" t="n">
+      <c r="J41" s="298" t="n">
         <f aca="false">SUM(J20:J35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="K41" s="307" t="n">
+      <c r="K41" s="298" t="n">
         <f aca="false">SUM(K20:K35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L41" s="307" t="n">
+      <c r="L41" s="298" t="n">
         <f aca="false">SUM(L20:L35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M41" s="307" t="n">
+      <c r="M41" s="298" t="n">
         <f aca="false">SUM(M20:M35)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="N41" s="307" t="n">
+      <c r="N41" s="298" t="n">
         <f aca="false">SUM(N20:N35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
@@ -14872,19 +14216,19 @@
         <v>0.931790148836444</v>
       </c>
       <c r="Q41" s="287"/>
-      <c r="S41" s="308" t="n">
+      <c r="S41" s="312" t="n">
         <f aca="false">AVERAGE(S20:S35)</f>
         <v>45</v>
       </c>
-      <c r="T41" s="308" t="n">
+      <c r="T41" s="312" t="n">
         <f aca="false">AVERAGE(T20:T35)</f>
         <v>45</v>
       </c>
-      <c r="U41" s="308" t="n">
+      <c r="U41" s="312" t="n">
         <f aca="false">AVERAGE(U20:U35)</f>
         <v>55</v>
       </c>
-      <c r="V41" s="309" t="n">
+      <c r="V41" s="313" t="n">
         <f aca="false">AVERAGE(V20:V35)</f>
         <v>48.824375</v>
       </c>
@@ -14893,7 +14237,7 @@
       <c r="A42" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="310" t="n">
+      <c r="B42" s="299" t="n">
         <f aca="false">B40-B41</f>
         <v>2.05575199407942E-005</v>
       </c>
@@ -14951,19 +14295,19 @@
         <v>0.0682098511635557</v>
       </c>
       <c r="Q42" s="287"/>
-      <c r="S42" s="311" t="n">
+      <c r="S42" s="314" t="n">
         <f aca="false">AVERAGE(AVERAGE(S14:S19), AVERAGE(S36:S37))</f>
         <v>45</v>
       </c>
-      <c r="T42" s="311" t="n">
+      <c r="T42" s="314" t="n">
         <f aca="false">AVERAGE(AVERAGE(T14:T19), AVERAGE(T36:T37))</f>
         <v>52.5</v>
       </c>
-      <c r="U42" s="311" t="n">
+      <c r="U42" s="314" t="n">
         <f aca="false">AVERAGE(AVERAGE(U14:U19), AVERAGE(U36:U37))</f>
         <v>56.6666666666667</v>
       </c>
-      <c r="V42" s="312" t="n">
+      <c r="V42" s="315" t="n">
         <f aca="false">AVERAGE(AVERAGE(V14:V19), AVERAGE(V36:V37))</f>
         <v>51.175</v>
       </c>
@@ -15038,20 +14382,20 @@
       <c r="K48" s="247"/>
       <c r="L48" s="247"/>
       <c r="M48" s="247"/>
-      <c r="N48" s="316"/>
+      <c r="N48" s="302"/>
       <c r="P48" s="219" t="str">
         <f aca="false">P12</f>
         <v>THM</v>
       </c>
       <c r="Q48" s="285"/>
       <c r="R48" s="186"/>
-      <c r="S48" s="295" t="str">
+      <c r="S48" s="303" t="str">
         <f aca="false">S12</f>
         <v>Vitesses caractéristiques</v>
       </c>
-      <c r="T48" s="295"/>
-      <c r="U48" s="295"/>
-      <c r="V48" s="295"/>
+      <c r="T48" s="303"/>
+      <c r="U48" s="303"/>
+      <c r="V48" s="303"/>
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="221" t="s">
@@ -15109,24 +14453,24 @@
         <f aca="false">N13</f>
         <v>&gt; 120 km/h</v>
       </c>
-      <c r="P49" s="296" t="str">
+      <c r="P49" s="295" t="str">
         <f aca="false">P13</f>
         <v>Véh/h</v>
       </c>
       <c r="Q49" s="118"/>
-      <c r="S49" s="297" t="str">
+      <c r="S49" s="304" t="str">
         <f aca="false">S13</f>
         <v>V15</v>
       </c>
-      <c r="T49" s="298" t="str">
+      <c r="T49" s="305" t="str">
         <f aca="false">T13</f>
         <v>V50</v>
       </c>
-      <c r="U49" s="299" t="str">
+      <c r="U49" s="306" t="str">
         <f aca="false">U13</f>
         <v>V85</v>
       </c>
-      <c r="V49" s="315" t="str">
+      <c r="V49" s="316" t="str">
         <f aca="false">V13</f>
         <v>Vmt</v>
       </c>
@@ -15192,19 +14536,19 @@
         <v>40.2857142857143</v>
       </c>
       <c r="Q50" s="177"/>
-      <c r="S50" s="301" t="n">
+      <c r="S50" s="308" t="n">
         <f aca="false">Data_speed!P33</f>
         <v>45</v>
       </c>
-      <c r="T50" s="301" t="n">
+      <c r="T50" s="308" t="n">
         <f aca="false">Data_speed!Q33</f>
         <v>55</v>
       </c>
-      <c r="U50" s="301" t="n">
+      <c r="U50" s="308" t="n">
         <f aca="false">Data_speed!R33</f>
         <v>55</v>
       </c>
-      <c r="V50" s="302" t="n">
+      <c r="V50" s="309" t="n">
         <f aca="false">Data_speed!S33</f>
         <v>50.42</v>
       </c>
@@ -15270,19 +14614,19 @@
         <v>19.8571428571429</v>
       </c>
       <c r="Q51" s="177"/>
-      <c r="S51" s="301" t="n">
+      <c r="S51" s="308" t="n">
         <f aca="false">Data_speed!P34</f>
         <v>45</v>
       </c>
-      <c r="T51" s="301" t="n">
+      <c r="T51" s="308" t="n">
         <f aca="false">Data_speed!Q34</f>
         <v>55</v>
       </c>
-      <c r="U51" s="301" t="n">
+      <c r="U51" s="308" t="n">
         <f aca="false">Data_speed!R34</f>
         <v>55</v>
       </c>
-      <c r="V51" s="302" t="n">
+      <c r="V51" s="309" t="n">
         <f aca="false">Data_speed!S34</f>
         <v>51.83</v>
       </c>
@@ -15348,19 +14692,19 @@
         <v>13.1428571428571</v>
       </c>
       <c r="Q52" s="177"/>
-      <c r="S52" s="301" t="n">
+      <c r="S52" s="308" t="n">
         <f aca="false">Data_speed!P35</f>
         <v>45</v>
       </c>
-      <c r="T52" s="301" t="n">
+      <c r="T52" s="308" t="n">
         <f aca="false">Data_speed!Q35</f>
         <v>55</v>
       </c>
-      <c r="U52" s="301" t="n">
+      <c r="U52" s="308" t="n">
         <f aca="false">Data_speed!R35</f>
         <v>65</v>
       </c>
-      <c r="V52" s="302" t="n">
+      <c r="V52" s="309" t="n">
         <f aca="false">Data_speed!S35</f>
         <v>52.39</v>
       </c>
@@ -15426,19 +14770,19 @@
         <v>14.8571428571429</v>
       </c>
       <c r="Q53" s="177"/>
-      <c r="S53" s="301" t="n">
+      <c r="S53" s="308" t="n">
         <f aca="false">Data_speed!P36</f>
         <v>45</v>
       </c>
-      <c r="T53" s="301" t="n">
+      <c r="T53" s="308" t="n">
         <f aca="false">Data_speed!Q36</f>
         <v>55</v>
       </c>
-      <c r="U53" s="301" t="n">
+      <c r="U53" s="308" t="n">
         <f aca="false">Data_speed!R36</f>
         <v>55</v>
       </c>
-      <c r="V53" s="302" t="n">
+      <c r="V53" s="309" t="n">
         <f aca="false">Data_speed!S36</f>
         <v>52.98</v>
       </c>
@@ -15504,19 +14848,19 @@
         <v>47</v>
       </c>
       <c r="Q54" s="177"/>
-      <c r="S54" s="301" t="n">
+      <c r="S54" s="308" t="n">
         <f aca="false">Data_speed!P37</f>
         <v>45</v>
       </c>
-      <c r="T54" s="301" t="n">
+      <c r="T54" s="308" t="n">
         <f aca="false">Data_speed!Q37</f>
         <v>55</v>
       </c>
-      <c r="U54" s="301" t="n">
+      <c r="U54" s="308" t="n">
         <f aca="false">Data_speed!R37</f>
         <v>65</v>
       </c>
-      <c r="V54" s="302" t="n">
+      <c r="V54" s="309" t="n">
         <f aca="false">Data_speed!S37</f>
         <v>53.21</v>
       </c>
@@ -15582,19 +14926,19 @@
         <v>85.4285714285714</v>
       </c>
       <c r="Q55" s="177"/>
-      <c r="S55" s="301" t="n">
+      <c r="S55" s="308" t="n">
         <f aca="false">Data_speed!P38</f>
         <v>45</v>
       </c>
-      <c r="T55" s="301" t="n">
+      <c r="T55" s="308" t="n">
         <f aca="false">Data_speed!Q38</f>
         <v>55</v>
       </c>
-      <c r="U55" s="301" t="n">
+      <c r="U55" s="308" t="n">
         <f aca="false">Data_speed!R38</f>
         <v>55</v>
       </c>
-      <c r="V55" s="302" t="n">
+      <c r="V55" s="309" t="n">
         <f aca="false">Data_speed!S38</f>
         <v>51.49</v>
       </c>
@@ -15660,19 +15004,19 @@
         <v>305.714285714286</v>
       </c>
       <c r="Q56" s="177"/>
-      <c r="S56" s="301" t="n">
+      <c r="S56" s="308" t="n">
         <f aca="false">Data_speed!P39</f>
         <v>45</v>
       </c>
-      <c r="T56" s="301" t="n">
+      <c r="T56" s="308" t="n">
         <f aca="false">Data_speed!Q39</f>
         <v>45</v>
       </c>
-      <c r="U56" s="301" t="n">
+      <c r="U56" s="308" t="n">
         <f aca="false">Data_speed!R39</f>
         <v>55</v>
       </c>
-      <c r="V56" s="302" t="n">
+      <c r="V56" s="309" t="n">
         <f aca="false">Data_speed!S39</f>
         <v>50.26</v>
       </c>
@@ -15738,19 +15082,19 @@
         <v>512.428571428571</v>
       </c>
       <c r="Q57" s="177"/>
-      <c r="S57" s="301" t="n">
+      <c r="S57" s="308" t="n">
         <f aca="false">Data_speed!P40</f>
         <v>45</v>
       </c>
-      <c r="T57" s="301" t="n">
+      <c r="T57" s="308" t="n">
         <f aca="false">Data_speed!Q40</f>
         <v>45</v>
       </c>
-      <c r="U57" s="301" t="n">
+      <c r="U57" s="308" t="n">
         <f aca="false">Data_speed!R40</f>
         <v>55</v>
       </c>
-      <c r="V57" s="302" t="n">
+      <c r="V57" s="309" t="n">
         <f aca="false">Data_speed!S40</f>
         <v>49.16</v>
       </c>
@@ -15816,19 +15160,19 @@
         <v>402.571428571429</v>
       </c>
       <c r="Q58" s="177"/>
-      <c r="S58" s="301" t="n">
+      <c r="S58" s="308" t="n">
         <f aca="false">Data_speed!P41</f>
         <v>45</v>
       </c>
-      <c r="T58" s="301" t="n">
+      <c r="T58" s="308" t="n">
         <f aca="false">Data_speed!Q41</f>
         <v>45</v>
       </c>
-      <c r="U58" s="301" t="n">
+      <c r="U58" s="308" t="n">
         <f aca="false">Data_speed!R41</f>
         <v>55</v>
       </c>
-      <c r="V58" s="302" t="n">
+      <c r="V58" s="309" t="n">
         <f aca="false">Data_speed!S41</f>
         <v>49.43</v>
       </c>
@@ -15894,19 +15238,19 @@
         <v>353.571428571429</v>
       </c>
       <c r="Q59" s="177"/>
-      <c r="S59" s="301" t="n">
+      <c r="S59" s="308" t="n">
         <f aca="false">Data_speed!P42</f>
         <v>45</v>
       </c>
-      <c r="T59" s="301" t="n">
+      <c r="T59" s="308" t="n">
         <f aca="false">Data_speed!Q42</f>
         <v>45</v>
       </c>
-      <c r="U59" s="301" t="n">
+      <c r="U59" s="308" t="n">
         <f aca="false">Data_speed!R42</f>
         <v>55</v>
       </c>
-      <c r="V59" s="302" t="n">
+      <c r="V59" s="309" t="n">
         <f aca="false">Data_speed!S42</f>
         <v>49.7</v>
       </c>
@@ -15972,19 +15316,19 @@
         <v>387.714285714286</v>
       </c>
       <c r="Q60" s="177"/>
-      <c r="S60" s="301" t="n">
+      <c r="S60" s="308" t="n">
         <f aca="false">Data_speed!P43</f>
         <v>45</v>
       </c>
-      <c r="T60" s="301" t="n">
+      <c r="T60" s="308" t="n">
         <f aca="false">Data_speed!Q43</f>
         <v>45</v>
       </c>
-      <c r="U60" s="301" t="n">
+      <c r="U60" s="308" t="n">
         <f aca="false">Data_speed!R43</f>
         <v>55</v>
       </c>
-      <c r="V60" s="302" t="n">
+      <c r="V60" s="309" t="n">
         <f aca="false">Data_speed!S43</f>
         <v>48.99</v>
       </c>
@@ -16050,19 +15394,19 @@
         <v>483.857142857143</v>
       </c>
       <c r="Q61" s="177"/>
-      <c r="S61" s="301" t="n">
+      <c r="S61" s="308" t="n">
         <f aca="false">Data_speed!P44</f>
         <v>45</v>
       </c>
-      <c r="T61" s="301" t="n">
+      <c r="T61" s="308" t="n">
         <f aca="false">Data_speed!Q44</f>
         <v>45</v>
       </c>
-      <c r="U61" s="301" t="n">
+      <c r="U61" s="308" t="n">
         <f aca="false">Data_speed!R44</f>
         <v>55</v>
       </c>
-      <c r="V61" s="302" t="n">
+      <c r="V61" s="309" t="n">
         <f aca="false">Data_speed!S44</f>
         <v>49.33</v>
       </c>
@@ -16128,19 +15472,19 @@
         <v>407.714285714286</v>
       </c>
       <c r="Q62" s="177"/>
-      <c r="S62" s="301" t="n">
+      <c r="S62" s="308" t="n">
         <f aca="false">Data_speed!P45</f>
         <v>45</v>
       </c>
-      <c r="T62" s="301" t="n">
+      <c r="T62" s="308" t="n">
         <f aca="false">Data_speed!Q45</f>
         <v>55</v>
       </c>
-      <c r="U62" s="301" t="n">
+      <c r="U62" s="308" t="n">
         <f aca="false">Data_speed!R45</f>
         <v>55</v>
       </c>
-      <c r="V62" s="302" t="n">
+      <c r="V62" s="309" t="n">
         <f aca="false">Data_speed!S45</f>
         <v>50.05</v>
       </c>
@@ -16206,19 +15550,19 @@
         <v>454.285714285714</v>
       </c>
       <c r="Q63" s="177"/>
-      <c r="S63" s="301" t="n">
+      <c r="S63" s="308" t="n">
         <f aca="false">Data_speed!P46</f>
         <v>45</v>
       </c>
-      <c r="T63" s="301" t="n">
+      <c r="T63" s="308" t="n">
         <f aca="false">Data_speed!Q46</f>
         <v>45</v>
       </c>
-      <c r="U63" s="301" t="n">
+      <c r="U63" s="308" t="n">
         <f aca="false">Data_speed!R46</f>
         <v>55</v>
       </c>
-      <c r="V63" s="302" t="n">
+      <c r="V63" s="309" t="n">
         <f aca="false">Data_speed!S46</f>
         <v>49.89</v>
       </c>
@@ -16284,19 +15628,19 @@
         <v>400.285714285714</v>
       </c>
       <c r="Q64" s="177"/>
-      <c r="S64" s="301" t="n">
+      <c r="S64" s="308" t="n">
         <f aca="false">Data_speed!P47</f>
         <v>45</v>
       </c>
-      <c r="T64" s="301" t="n">
+      <c r="T64" s="308" t="n">
         <f aca="false">Data_speed!Q47</f>
         <v>45</v>
       </c>
-      <c r="U64" s="301" t="n">
+      <c r="U64" s="308" t="n">
         <f aca="false">Data_speed!R47</f>
         <v>55</v>
       </c>
-      <c r="V64" s="302" t="n">
+      <c r="V64" s="309" t="n">
         <f aca="false">Data_speed!S47</f>
         <v>49.24</v>
       </c>
@@ -16362,19 +15706,19 @@
         <v>423</v>
       </c>
       <c r="Q65" s="177"/>
-      <c r="S65" s="301" t="n">
+      <c r="S65" s="308" t="n">
         <f aca="false">Data_speed!P48</f>
         <v>45</v>
       </c>
-      <c r="T65" s="301" t="n">
+      <c r="T65" s="308" t="n">
         <f aca="false">Data_speed!Q48</f>
         <v>45</v>
       </c>
-      <c r="U65" s="301" t="n">
+      <c r="U65" s="308" t="n">
         <f aca="false">Data_speed!R48</f>
         <v>55</v>
       </c>
-      <c r="V65" s="302" t="n">
+      <c r="V65" s="309" t="n">
         <f aca="false">Data_speed!S48</f>
         <v>49.64</v>
       </c>
@@ -16440,19 +15784,19 @@
         <v>512.142857142857</v>
       </c>
       <c r="Q66" s="177"/>
-      <c r="S66" s="301" t="n">
+      <c r="S66" s="308" t="n">
         <f aca="false">Data_speed!P49</f>
         <v>45</v>
       </c>
-      <c r="T66" s="301" t="n">
+      <c r="T66" s="308" t="n">
         <f aca="false">Data_speed!Q49</f>
         <v>45</v>
       </c>
-      <c r="U66" s="301" t="n">
+      <c r="U66" s="308" t="n">
         <f aca="false">Data_speed!R49</f>
         <v>55</v>
       </c>
-      <c r="V66" s="302" t="n">
+      <c r="V66" s="309" t="n">
         <f aca="false">Data_speed!S49</f>
         <v>49.31</v>
       </c>
@@ -16518,19 +15862,19 @@
         <v>554.142857142857</v>
       </c>
       <c r="Q67" s="177"/>
-      <c r="S67" s="301" t="n">
+      <c r="S67" s="308" t="n">
         <f aca="false">Data_speed!P50</f>
         <v>45</v>
       </c>
-      <c r="T67" s="301" t="n">
+      <c r="T67" s="308" t="n">
         <f aca="false">Data_speed!Q50</f>
         <v>45</v>
       </c>
-      <c r="U67" s="301" t="n">
+      <c r="U67" s="308" t="n">
         <f aca="false">Data_speed!R50</f>
         <v>55</v>
       </c>
-      <c r="V67" s="302" t="n">
+      <c r="V67" s="309" t="n">
         <f aca="false">Data_speed!S50</f>
         <v>49.41</v>
       </c>
@@ -16596,19 +15940,19 @@
         <v>466.285714285714</v>
       </c>
       <c r="Q68" s="177"/>
-      <c r="S68" s="301" t="n">
+      <c r="S68" s="308" t="n">
         <f aca="false">Data_speed!P51</f>
         <v>45</v>
       </c>
-      <c r="T68" s="301" t="n">
+      <c r="T68" s="308" t="n">
         <f aca="false">Data_speed!Q51</f>
         <v>55</v>
       </c>
-      <c r="U68" s="301" t="n">
+      <c r="U68" s="308" t="n">
         <f aca="false">Data_speed!R51</f>
         <v>55</v>
       </c>
-      <c r="V68" s="302" t="n">
+      <c r="V68" s="309" t="n">
         <f aca="false">Data_speed!S51</f>
         <v>50.19</v>
       </c>
@@ -16674,19 +16018,19 @@
         <v>329.285714285714</v>
       </c>
       <c r="Q69" s="177"/>
-      <c r="S69" s="301" t="n">
+      <c r="S69" s="308" t="n">
         <f aca="false">Data_speed!P52</f>
         <v>45</v>
       </c>
-      <c r="T69" s="301" t="n">
+      <c r="T69" s="308" t="n">
         <f aca="false">Data_speed!Q52</f>
         <v>55</v>
       </c>
-      <c r="U69" s="301" t="n">
+      <c r="U69" s="308" t="n">
         <f aca="false">Data_speed!R52</f>
         <v>55</v>
       </c>
-      <c r="V69" s="302" t="n">
+      <c r="V69" s="309" t="n">
         <f aca="false">Data_speed!S52</f>
         <v>50.54</v>
       </c>
@@ -16752,19 +16096,19 @@
         <v>215.428571428571</v>
       </c>
       <c r="Q70" s="177"/>
-      <c r="S70" s="301" t="n">
+      <c r="S70" s="308" t="n">
         <f aca="false">Data_speed!P53</f>
         <v>45</v>
       </c>
-      <c r="T70" s="301" t="n">
+      <c r="T70" s="308" t="n">
         <f aca="false">Data_speed!Q53</f>
         <v>55</v>
       </c>
-      <c r="U70" s="301" t="n">
+      <c r="U70" s="308" t="n">
         <f aca="false">Data_speed!R53</f>
         <v>55</v>
       </c>
-      <c r="V70" s="302" t="n">
+      <c r="V70" s="309" t="n">
         <f aca="false">Data_speed!S53</f>
         <v>50.52</v>
       </c>
@@ -16830,19 +16174,19 @@
         <v>174.714285714286</v>
       </c>
       <c r="Q71" s="177"/>
-      <c r="S71" s="301" t="n">
+      <c r="S71" s="308" t="n">
         <f aca="false">Data_speed!P54</f>
         <v>45</v>
       </c>
-      <c r="T71" s="301" t="n">
+      <c r="T71" s="308" t="n">
         <f aca="false">Data_speed!Q54</f>
         <v>45</v>
       </c>
-      <c r="U71" s="301" t="n">
+      <c r="U71" s="308" t="n">
         <f aca="false">Data_speed!R54</f>
         <v>55</v>
       </c>
-      <c r="V71" s="302" t="n">
+      <c r="V71" s="309" t="n">
         <f aca="false">Data_speed!S54</f>
         <v>49.57</v>
       </c>
@@ -16908,19 +16252,19 @@
         <v>157.428571428571</v>
       </c>
       <c r="Q72" s="177"/>
-      <c r="S72" s="301" t="n">
+      <c r="S72" s="308" t="n">
         <f aca="false">Data_speed!P55</f>
         <v>45</v>
       </c>
-      <c r="T72" s="301" t="n">
+      <c r="T72" s="308" t="n">
         <f aca="false">Data_speed!Q55</f>
         <v>55</v>
       </c>
-      <c r="U72" s="301" t="n">
+      <c r="U72" s="308" t="n">
         <f aca="false">Data_speed!R55</f>
         <v>55</v>
       </c>
-      <c r="V72" s="302" t="n">
+      <c r="V72" s="309" t="n">
         <f aca="false">Data_speed!S55</f>
         <v>50.42</v>
       </c>
@@ -16986,19 +16330,19 @@
         <v>91.7142857142857</v>
       </c>
       <c r="Q73" s="177"/>
-      <c r="S73" s="301" t="n">
+      <c r="S73" s="308" t="n">
         <f aca="false">Data_speed!P56</f>
         <v>45</v>
       </c>
-      <c r="T73" s="301" t="n">
+      <c r="T73" s="308" t="n">
         <f aca="false">Data_speed!Q56</f>
         <v>55</v>
       </c>
-      <c r="U73" s="301" t="n">
+      <c r="U73" s="308" t="n">
         <f aca="false">Data_speed!R56</f>
         <v>55</v>
       </c>
-      <c r="V73" s="302" t="n">
+      <c r="V73" s="309" t="n">
         <f aca="false">Data_speed!S56</f>
         <v>50.85</v>
       </c>
@@ -17010,8 +16354,8 @@
       <c r="V74" s="179"/>
     </row>
     <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M75" s="303"/>
-      <c r="N75" s="303"/>
+      <c r="M75" s="296"/>
+      <c r="N75" s="296"/>
       <c r="S75" s="179"/>
       <c r="T75" s="179"/>
       <c r="U75" s="179"/>
@@ -17021,55 +16365,55 @@
       <c r="A76" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="304" t="n">
+      <c r="B76" s="297" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C76" s="304" t="n">
+      <c r="C76" s="297" t="n">
         <f aca="false">SUM(C50:C73)/Data_speed!$O$57</f>
         <v>0.00323091674657106</v>
       </c>
-      <c r="D76" s="304" t="n">
+      <c r="D76" s="297" t="n">
         <f aca="false">SUM(D50:D73)/Data_speed!$O$57</f>
         <v>0.0208029349230833</v>
       </c>
-      <c r="E76" s="304" t="n">
+      <c r="E76" s="297" t="n">
         <f aca="false">SUM(E50:E73)/Data_speed!$O$57</f>
         <v>0.506044941009714</v>
       </c>
-      <c r="F76" s="304" t="n">
+      <c r="F76" s="297" t="n">
         <f aca="false">SUM(F50:F73)/Data_speed!$O$57</f>
         <v>0.435881936048693</v>
       </c>
-      <c r="G76" s="304" t="n">
+      <c r="G76" s="297" t="n">
         <f aca="false">SUM(G50:G73)/Data_speed!$O$57</f>
         <v>0.0318088964855964</v>
       </c>
-      <c r="H76" s="304" t="n">
+      <c r="H76" s="297" t="n">
         <f aca="false">SUM(H50:H73)/Data_speed!$O$57</f>
         <v>0.00122983282611415</v>
       </c>
-      <c r="I76" s="304" t="n">
+      <c r="I76" s="297" t="n">
         <f aca="false">SUM(I50:I73)/Data_speed!$O$57</f>
         <v>0.000187601617542836</v>
       </c>
-      <c r="J76" s="304" t="n">
+      <c r="J76" s="297" t="n">
         <f aca="false">SUM(J50:J73)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K76" s="304" t="n">
+      <c r="K76" s="297" t="n">
         <f aca="false">SUM(K50:K73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L76" s="304" t="n">
+      <c r="L76" s="297" t="n">
         <f aca="false">SUM(L50:L73)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M76" s="304" t="n">
+      <c r="M76" s="297" t="n">
         <f aca="false">SUM(M50:M73)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="N76" s="304" t="n">
+      <c r="N76" s="297" t="n">
         <f aca="false">SUM(N50:N73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
@@ -17078,19 +16422,19 @@
         <v>1</v>
       </c>
       <c r="Q76" s="287"/>
-      <c r="S76" s="305" t="n">
+      <c r="S76" s="310" t="n">
         <f aca="false">AVERAGE(S50:S73)</f>
         <v>45</v>
       </c>
-      <c r="T76" s="305" t="n">
+      <c r="T76" s="310" t="n">
         <f aca="false">AVERAGE(T50:T73)</f>
         <v>50</v>
       </c>
-      <c r="U76" s="305" t="n">
+      <c r="U76" s="310" t="n">
         <f aca="false">AVERAGE(U50:U73)</f>
         <v>55.8333333333333</v>
       </c>
-      <c r="V76" s="306" t="n">
+      <c r="V76" s="311" t="n">
         <f aca="false">AVERAGE(V50:V73)</f>
         <v>50.3675</v>
       </c>
@@ -17099,55 +16443,55 @@
       <c r="A77" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="307" t="n">
+      <c r="B77" s="298" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C77" s="307" t="n">
+      <c r="C77" s="298" t="n">
         <f aca="false">SUM(C56:C71)/Data_speed!$O$57</f>
         <v>0.00318922749822821</v>
       </c>
-      <c r="D77" s="307" t="n">
+      <c r="D77" s="298" t="n">
         <f aca="false">SUM(D56:D71)/Data_speed!$O$57</f>
         <v>0.019760703714512</v>
       </c>
-      <c r="E77" s="307" t="n">
+      <c r="E77" s="298" t="n">
         <f aca="false">SUM(E56:E71)/Data_speed!$O$57</f>
         <v>0.475986992954517</v>
       </c>
-      <c r="F77" s="307" t="n">
+      <c r="F77" s="298" t="n">
         <f aca="false">SUM(F56:F71)/Data_speed!$O$57</f>
         <v>0.404073039563097</v>
       </c>
-      <c r="G77" s="307" t="n">
+      <c r="G77" s="298" t="n">
         <f aca="false">SUM(G56:G71)/Data_speed!$O$57</f>
         <v>0.0266394296910827</v>
       </c>
-      <c r="H77" s="307" t="n">
+      <c r="H77" s="298" t="n">
         <f aca="false">SUM(H56:H71)/Data_speed!$O$57</f>
         <v>0.000854629591028474</v>
       </c>
-      <c r="I77" s="307" t="n">
+      <c r="I77" s="298" t="n">
         <f aca="false">SUM(I56:I71)/Data_speed!$O$57</f>
         <v>0.000145912369199983</v>
       </c>
-      <c r="J77" s="307" t="n">
+      <c r="J77" s="298" t="n">
         <f aca="false">SUM(J56:J71)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K77" s="307" t="n">
+      <c r="K77" s="298" t="n">
         <f aca="false">SUM(K56:K71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L77" s="307" t="n">
+      <c r="L77" s="298" t="n">
         <f aca="false">SUM(L56:L71)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M77" s="307" t="n">
+      <c r="M77" s="298" t="n">
         <f aca="false">SUM(M56:M71)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="N77" s="307" t="n">
+      <c r="N77" s="298" t="n">
         <f aca="false">SUM(N56:N71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
@@ -17156,19 +16500,19 @@
         <v>0.931462875724351</v>
       </c>
       <c r="Q77" s="287"/>
-      <c r="S77" s="308" t="n">
+      <c r="S77" s="312" t="n">
         <f aca="false">AVERAGE(S56:S71)</f>
         <v>45</v>
       </c>
-      <c r="T77" s="308" t="n">
+      <c r="T77" s="312" t="n">
         <f aca="false">AVERAGE(T56:T71)</f>
         <v>47.5</v>
       </c>
-      <c r="U77" s="308" t="n">
+      <c r="U77" s="312" t="n">
         <f aca="false">AVERAGE(U56:U71)</f>
         <v>55</v>
       </c>
-      <c r="V77" s="309" t="n">
+      <c r="V77" s="313" t="n">
         <f aca="false">AVERAGE(V56:V71)</f>
         <v>49.701875</v>
       </c>
@@ -17177,7 +16521,7 @@
       <c r="A78" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="310" t="n">
+      <c r="B78" s="299" t="n">
         <f aca="false">B76-B77</f>
         <v>0</v>
       </c>
@@ -17235,19 +16579,19 @@
         <v>0.0685371242756494</v>
       </c>
       <c r="Q78" s="287"/>
-      <c r="S78" s="311" t="n">
+      <c r="S78" s="314" t="n">
         <f aca="false">AVERAGE(AVERAGE(S50:S55), AVERAGE(S72:S73))</f>
         <v>45</v>
       </c>
-      <c r="T78" s="311" t="n">
+      <c r="T78" s="314" t="n">
         <f aca="false">AVERAGE(AVERAGE(T50:T55), AVERAGE(T72:T73))</f>
         <v>55</v>
       </c>
-      <c r="U78" s="311" t="n">
+      <c r="U78" s="314" t="n">
         <f aca="false">AVERAGE(AVERAGE(U50:U55), AVERAGE(U72:U73))</f>
         <v>56.6666666666667</v>
       </c>
-      <c r="V78" s="312" t="n">
+      <c r="V78" s="315" t="n">
         <f aca="false">AVERAGE(AVERAGE(V50:V55), AVERAGE(V72:V73))</f>
         <v>51.3441666666667</v>
       </c>
@@ -17288,7 +16632,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -17302,7 +16646,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="J7 K5"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="H7 K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20664,7 +20008,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S34" activeCellId="1" sqref="J7 S34"/>
+      <selection pane="topLeft" activeCell="S34" activeCellId="1" sqref="H7 S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23725,7 +23069,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N66" activeCellId="1" sqref="J7 N66"/>
+      <selection pane="topLeft" activeCell="N66" activeCellId="1" sqref="H7 N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26014,7 +25358,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27283,7 +26627,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -27297,7 +26641,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="1" sqref="J7 L42"/>
+      <selection pane="topLeft" activeCell="L42" activeCellId="1" sqref="H7 L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28558,7 +27902,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -28572,7 +27916,7 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="J7 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="H7 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31856,7 +31200,7 @@
   <pageMargins left="0.39375" right="0.39375" top="0.7875" bottom="0.39375" header="0.39375" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -31870,7 +31214,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="J7 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="H7 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34427,7 +33771,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -34441,7 +33785,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="1" sqref="J7 H10"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="1" sqref="H7 H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35815,7 +35159,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -2865,7 +2865,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3085,7 +3085,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="H7 K5"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3215,7 +3215,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P55" activeCellId="1" sqref="H7 P55"/>
+      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6515,7 +6515,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6529,7 +6529,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="1" sqref="H7 K9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8158,7 +8158,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -8172,7 +8172,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="V47" activeCellId="0" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8295,10 +8295,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="293" t="e">
-        <f aca="false">#REF!&amp;" =&gt; avec un usage de "&amp;TEXT(#REF!,0)&amp;" voie(s) : "&amp;#REF!&amp;"  "&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A11" s="293"/>
       <c r="B11" s="293"/>
       <c r="C11" s="293"/>
       <c r="D11" s="293"/>
@@ -10109,10 +10106,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="293" t="e">
-        <f aca="false">#REF!&amp;" =&gt; avec un usage de "&amp;TEXT(#REF!,0)&amp;" voie(s) : "&amp;#REF!&amp;"  "&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A47" s="293"/>
       <c r="B47" s="293"/>
       <c r="C47" s="293"/>
       <c r="D47" s="293"/>
@@ -11949,7 +11943,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -11962,8 +11956,8 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S48" activeCellId="1" sqref="H7 S48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12078,9 +12072,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="293" t="e">
-        <f aca="false">#REF!&amp;" =&gt; avec un usage de "&amp;TEXT(#REF!,0)&amp;" voie(s) : "&amp;#REF!&amp;"  "&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="293" t="str">
+        <f aca="false">_xlfn.CONCAT("Vitesse moyenne = ", INT(V40), " km/h")</f>
+        <v>Vitesse moyenne = 49 km/h</v>
       </c>
       <c r="B11" s="293"/>
       <c r="C11" s="293"/>
@@ -14340,9 +14334,9 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="293" t="e">
-        <f aca="false">#REF!&amp;" =&gt; avec un usage de "&amp;TEXT(#REF!,0)&amp;" voie(s) : "&amp;#REF!&amp;"  "&amp;#REF!</f>
-        <v>#REF!</v>
+      <c r="A47" s="293" t="str">
+        <f aca="false">_xlfn.CONCAT("Vitesse moyenne = ", INT(V76), " km/h")</f>
+        <v>Vitesse moyenne = 50 km/h</v>
       </c>
       <c r="B47" s="293"/>
       <c r="C47" s="293"/>
@@ -16632,7 +16626,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -16646,7 +16640,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="H7 K5"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20008,7 +20002,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S34" activeCellId="1" sqref="H7 S34"/>
+      <selection pane="topLeft" activeCell="S34" activeCellId="0" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23069,7 +23063,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N66" activeCellId="1" sqref="H7 N66"/>
+      <selection pane="topLeft" activeCell="N66" activeCellId="0" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25358,7 +25352,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26627,7 +26621,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -26641,7 +26635,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="1" sqref="H7 L42"/>
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27902,7 +27896,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -27916,7 +27910,7 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="H7 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31200,7 +31194,7 @@
   <pageMargins left="0.39375" right="0.39375" top="0.7875" bottom="0.39375" header="0.39375" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -31214,7 +31208,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="H7 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33771,7 +33765,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -33785,7 +33779,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="1" sqref="H7 H10"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35159,7 +35153,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -768,7 +768,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +791,66 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0022FF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FE400"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0739"/>
+        <bgColor rgb="FFFF3399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF3399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000099"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600CC"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1692,7 +1752,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="326">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2765,11 +2825,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="5" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="6" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="7" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="8" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="9" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="10" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="11" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2821,7 +2901,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2865,6 +2945,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="12" fillId="12" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="13" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="14" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2899,6 +2991,10 @@
     </xf>
     <xf numFmtId="170" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3018,17 +3114,17 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFEEEEEC"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FFFF0739"/>
+      <rgbColor rgb="FF0FE400"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF000099"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF6600CC"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -3037,17 +3133,17 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFF3399"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0022FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -3339,7 +3435,7 @@
       <c r="I11" s="247"/>
       <c r="J11" s="247"/>
       <c r="K11" s="247"/>
-      <c r="L11" s="285"/>
+      <c r="L11" s="290"/>
       <c r="M11" s="219" t="s">
         <v>135</v>
       </c>
@@ -3378,7 +3474,7 @@
       <c r="J12" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="K12" s="286" t="s">
+      <c r="K12" s="291" t="s">
         <v>144</v>
       </c>
       <c r="L12" s="64"/>
@@ -4728,7 +4824,7 @@
         <f aca="false">SUM(K13:K36)/Data_category!$L$29</f>
         <v>0.000904549472688773</v>
       </c>
-      <c r="L38" s="287"/>
+      <c r="L38" s="292"/>
       <c r="M38" s="235" t="n">
         <f aca="false">SUM(M13:M36)</f>
         <v>6949</v>
@@ -4782,7 +4878,7 @@
         <f aca="false">SUM(K19:K34)/Data_category!$L$29</f>
         <v>0.000698970047077688</v>
       </c>
-      <c r="L39" s="287"/>
+      <c r="L39" s="292"/>
       <c r="M39" s="239" t="n">
         <f aca="false">SUM(M19:M34)</f>
         <v>6475</v>
@@ -4820,7 +4916,7 @@
         <f aca="false">G38-G39</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H40" s="274" t="n">
+      <c r="H40" s="279" t="n">
         <f aca="false">H38-H39</f>
         <v>0.000102789712805542</v>
       </c>
@@ -4832,11 +4928,11 @@
         <f aca="false">J38-J39</f>
         <v>8.22317702444339E-005</v>
       </c>
-      <c r="K40" s="288" t="n">
+      <c r="K40" s="293" t="n">
         <f aca="false">K38-K39</f>
         <v>0.000205579425611085</v>
       </c>
-      <c r="L40" s="287"/>
+      <c r="L40" s="292"/>
       <c r="M40" s="245" t="n">
         <f aca="false">M38-M39</f>
         <v>474</v>
@@ -4880,7 +4976,7 @@
       <c r="I44" s="247"/>
       <c r="J44" s="247"/>
       <c r="K44" s="247"/>
-      <c r="L44" s="285"/>
+      <c r="L44" s="290"/>
       <c r="M44" s="219" t="s">
         <v>135</v>
       </c>
@@ -4929,7 +5025,7 @@
         <f aca="false">J12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="K45" s="286" t="str">
+      <c r="K45" s="291" t="str">
         <f aca="false">K12</f>
         <v>SZ (10)</v>
       </c>
@@ -6280,7 +6376,7 @@
         <f aca="false">SUM(K46:K69)/Data_category!$L$57</f>
         <v>0.00168855534709193</v>
       </c>
-      <c r="L71" s="287"/>
+      <c r="L71" s="292"/>
       <c r="M71" s="235" t="n">
         <f aca="false">SUM(M46:M69)</f>
         <v>6852.85714285714</v>
@@ -6334,7 +6430,7 @@
         <f aca="false">SUM(K52:K67)/Data_category!$L$57</f>
         <v>0.00158432353554305</v>
       </c>
-      <c r="L72" s="287"/>
+      <c r="L72" s="292"/>
       <c r="M72" s="239" t="n">
         <f aca="false">SUM(M52:M67)</f>
         <v>6383.14285714286</v>
@@ -6372,7 +6468,7 @@
         <f aca="false">G71-G72</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="H73" s="274" t="n">
+      <c r="H73" s="279" t="n">
         <f aca="false">H71-H72</f>
         <v>6.25390869293308E-005</v>
       </c>
@@ -6384,11 +6480,11 @@
         <f aca="false">J71-J72</f>
         <v>2.08463623097769E-005</v>
       </c>
-      <c r="K73" s="288" t="n">
+      <c r="K73" s="293" t="n">
         <f aca="false">K71-K72</f>
         <v>0.000104231811548885</v>
       </c>
-      <c r="L73" s="287"/>
+      <c r="L73" s="292"/>
       <c r="M73" s="245" t="n">
         <f aca="false">M71-M72</f>
         <v>469.714285714285</v>
@@ -6414,7 +6510,7 @@
       </c>
       <c r="H75" s="82"/>
       <c r="I75" s="82"/>
-      <c r="J75" s="289"/>
+      <c r="J75" s="294"/>
       <c r="K75" s="82" t="s">
         <v>155</v>
       </c>
@@ -6437,7 +6533,7 @@
       </c>
       <c r="H76" s="82"/>
       <c r="I76" s="82"/>
-      <c r="J76" s="290"/>
+      <c r="J76" s="295"/>
       <c r="K76" s="82"/>
       <c r="L76" s="82"/>
       <c r="M76" s="1"/>
@@ -6458,7 +6554,7 @@
       </c>
       <c r="H77" s="82"/>
       <c r="I77" s="82"/>
-      <c r="J77" s="291"/>
+      <c r="J77" s="296"/>
       <c r="K77" s="82"/>
       <c r="L77" s="82"/>
     </row>
@@ -6515,7 +6611,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -6528,8 +6624,8 @@
   </sheetPr>
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S60" activeCellId="0" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6655,7 +6751,7 @@
       <c r="F11" s="255"/>
       <c r="G11" s="255"/>
       <c r="H11" s="255"/>
-      <c r="I11" s="292"/>
+      <c r="I11" s="297"/>
       <c r="J11" s="255"/>
       <c r="K11" s="255"/>
       <c r="L11" s="256"/>
@@ -7196,35 +7292,35 @@
         <f aca="false">SWISS10_H!C12</f>
         <v>MR (2)</v>
       </c>
-      <c r="D38" s="269" t="str">
+      <c r="D38" s="270" t="str">
         <f aca="false">SWISS10_H!D12</f>
         <v>PW (3)</v>
       </c>
-      <c r="E38" s="269" t="str">
+      <c r="E38" s="298" t="str">
         <f aca="false">SWISS10_H!E12</f>
         <v>PW+AH(4)</v>
       </c>
-      <c r="F38" s="269" t="str">
+      <c r="F38" s="271" t="str">
         <f aca="false">SWISS10_H!F12</f>
         <v>LIE (5)</v>
       </c>
-      <c r="G38" s="269" t="str">
+      <c r="G38" s="299" t="str">
         <f aca="false">SWISS10_H!G12</f>
         <v>LIE+AH(6)</v>
       </c>
-      <c r="H38" s="269" t="str">
+      <c r="H38" s="300" t="str">
         <f aca="false">SWISS10_H!H12</f>
         <v>LIE+AL(7)</v>
       </c>
-      <c r="I38" s="269" t="str">
+      <c r="I38" s="272" t="str">
         <f aca="false">SWISS10_H!I12</f>
         <v>LW (8)</v>
       </c>
-      <c r="J38" s="269" t="str">
+      <c r="J38" s="273" t="str">
         <f aca="false">SWISS10_H!J12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="K38" s="282" t="str">
+      <c r="K38" s="287" t="str">
         <f aca="false">SWISS10_H!K12</f>
         <v>SZ (10)</v>
       </c>
@@ -7237,45 +7333,45 @@
         <f aca="false">SWISS10_H!B38</f>
         <v>0.00489279032954382</v>
       </c>
-      <c r="C39" s="270" t="n">
+      <c r="C39" s="275" t="n">
         <f aca="false">SWISS10_H!C38</f>
         <v>0.0236210760027136</v>
       </c>
-      <c r="D39" s="270" t="n">
+      <c r="D39" s="275" t="n">
         <f aca="false">SWISS10_H!D38</f>
         <v>0.922948831280965</v>
       </c>
-      <c r="E39" s="270" t="n">
+      <c r="E39" s="275" t="n">
         <f aca="false">SWISS10_H!E38</f>
         <v>0.00222025779659972</v>
       </c>
-      <c r="F39" s="270" t="n">
+      <c r="F39" s="275" t="n">
         <f aca="false">SWISS10_H!F38</f>
         <v>0.0351129658943733</v>
       </c>
-      <c r="G39" s="270" t="n">
+      <c r="G39" s="275" t="n">
         <f aca="false">SWISS10_H!G38</f>
         <v>0.00238472133708858</v>
       </c>
-      <c r="H39" s="270" t="n">
+      <c r="H39" s="275" t="n">
         <f aca="false">SWISS10_H!H38</f>
         <v>0.000616738276833254</v>
       </c>
-      <c r="I39" s="270" t="n">
+      <c r="I39" s="275" t="n">
         <f aca="false">SWISS10_H!I38</f>
         <v>0.0067841210451658</v>
       </c>
-      <c r="J39" s="270" t="n">
+      <c r="J39" s="275" t="n">
         <f aca="false">SWISS10_H!J38</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="K39" s="283" t="n">
+      <c r="K39" s="288" t="n">
         <f aca="false">SWISS10_H!K38</f>
         <v>0.000904549472688773</v>
       </c>
-      <c r="L39" s="271"/>
+      <c r="L39" s="276"/>
       <c r="M39" s="42"/>
-      <c r="N39" s="272" t="n">
+      <c r="N39" s="277" t="n">
         <f aca="false">SWISS10_H!N38</f>
         <v>1</v>
       </c>
@@ -7288,43 +7384,43 @@
         <f aca="false">SWISS10_H!B39</f>
         <v>0.00479000061673828</v>
       </c>
-      <c r="C40" s="273" t="n">
+      <c r="C40" s="278" t="n">
         <f aca="false">SWISS10_H!C39</f>
         <v>0.0223464835639249</v>
       </c>
-      <c r="D40" s="273" t="n">
+      <c r="D40" s="278" t="n">
         <f aca="false">SWISS10_H!D39</f>
         <v>0.85923976728409</v>
       </c>
-      <c r="E40" s="273" t="n">
+      <c r="E40" s="278" t="n">
         <f aca="false">SWISS10_H!E39</f>
         <v>0.0021791419114775</v>
       </c>
-      <c r="F40" s="273" t="n">
+      <c r="F40" s="278" t="n">
         <f aca="false">SWISS10_H!F39</f>
         <v>0.0332627510638735</v>
       </c>
-      <c r="G40" s="273" t="n">
+      <c r="G40" s="278" t="n">
         <f aca="false">SWISS10_H!G39</f>
         <v>0.00232304750940526</v>
       </c>
-      <c r="H40" s="273" t="n">
+      <c r="H40" s="278" t="n">
         <f aca="false">SWISS10_H!H39</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="I40" s="273" t="n">
+      <c r="I40" s="278" t="n">
         <f aca="false">SWISS10_H!I39</f>
         <v>0.00600291922784368</v>
       </c>
-      <c r="J40" s="273" t="n">
+      <c r="J40" s="278" t="n">
         <f aca="false">SWISS10_H!J39</f>
         <v>0.000431716793783278</v>
       </c>
-      <c r="K40" s="284" t="n">
+      <c r="K40" s="289" t="n">
         <f aca="false">SWISS10_H!K39</f>
         <v>0.000698970047077688</v>
       </c>
-      <c r="L40" s="271"/>
+      <c r="L40" s="276"/>
       <c r="M40" s="42"/>
       <c r="N40" s="262" t="n">
         <f aca="false">SWISS10_H!N39</f>
@@ -7359,7 +7455,7 @@
         <f aca="false">SWISS10_H!G40</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H41" s="274" t="n">
+      <c r="H41" s="279" t="n">
         <f aca="false">SWISS10_H!H40</f>
         <v>0.000102789712805542</v>
       </c>
@@ -7371,13 +7467,13 @@
         <f aca="false">SWISS10_H!J40</f>
         <v>8.22317702444339E-005</v>
       </c>
-      <c r="K41" s="288" t="n">
+      <c r="K41" s="293" t="n">
         <f aca="false">SWISS10_H!K40</f>
         <v>0.000205579425611085</v>
       </c>
-      <c r="L41" s="271"/>
+      <c r="L41" s="276"/>
       <c r="M41" s="42"/>
-      <c r="N41" s="275" t="n">
+      <c r="N41" s="280" t="n">
         <f aca="false">SWISS10_H!N40</f>
         <v>0.0682112534177581</v>
       </c>
@@ -7401,10 +7497,10 @@
       <c r="F46" s="255"/>
       <c r="G46" s="255"/>
       <c r="H46" s="255"/>
-      <c r="I46" s="292"/>
+      <c r="I46" s="297"/>
       <c r="J46" s="255"/>
-      <c r="K46" s="276"/>
-      <c r="L46" s="277"/>
+      <c r="K46" s="281"/>
+      <c r="L46" s="282"/>
       <c r="M46" s="257"/>
       <c r="N46" s="220" t="str">
         <f aca="false">N11</f>
@@ -7422,8 +7518,8 @@
       <c r="H47" s="177"/>
       <c r="I47" s="177"/>
       <c r="J47" s="177"/>
-      <c r="K47" s="278"/>
-      <c r="L47" s="278"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="283"/>
       <c r="M47" s="225" t="s">
         <v>110</v>
       </c>
@@ -7440,8 +7536,8 @@
       <c r="H48" s="177"/>
       <c r="I48" s="177"/>
       <c r="J48" s="177"/>
-      <c r="K48" s="278"/>
-      <c r="L48" s="278"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="283"/>
       <c r="M48" s="226" t="s">
         <v>38</v>
       </c>
@@ -7461,8 +7557,8 @@
       <c r="H49" s="177"/>
       <c r="I49" s="177"/>
       <c r="J49" s="177"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="278"/>
+      <c r="K49" s="283"/>
+      <c r="L49" s="283"/>
       <c r="M49" s="228" t="s">
         <v>39</v>
       </c>
@@ -7482,8 +7578,8 @@
       <c r="H50" s="177"/>
       <c r="I50" s="177"/>
       <c r="J50" s="177"/>
-      <c r="K50" s="278"/>
-      <c r="L50" s="278"/>
+      <c r="K50" s="283"/>
+      <c r="L50" s="283"/>
       <c r="M50" s="228" t="s">
         <v>40</v>
       </c>
@@ -7503,8 +7599,8 @@
       <c r="H51" s="177"/>
       <c r="I51" s="177"/>
       <c r="J51" s="177"/>
-      <c r="K51" s="278"/>
-      <c r="L51" s="278"/>
+      <c r="K51" s="283"/>
+      <c r="L51" s="283"/>
       <c r="M51" s="228" t="s">
         <v>41</v>
       </c>
@@ -7524,8 +7620,8 @@
       <c r="H52" s="177"/>
       <c r="I52" s="177"/>
       <c r="J52" s="177"/>
-      <c r="K52" s="278"/>
-      <c r="L52" s="278"/>
+      <c r="K52" s="283"/>
+      <c r="L52" s="283"/>
       <c r="M52" s="228" t="s">
         <v>42</v>
       </c>
@@ -7545,8 +7641,8 @@
       <c r="H53" s="177"/>
       <c r="I53" s="177"/>
       <c r="J53" s="177"/>
-      <c r="K53" s="278"/>
-      <c r="L53" s="278"/>
+      <c r="K53" s="283"/>
+      <c r="L53" s="283"/>
       <c r="M53" s="228" t="s">
         <v>43</v>
       </c>
@@ -7566,8 +7662,8 @@
       <c r="H54" s="177"/>
       <c r="I54" s="177"/>
       <c r="J54" s="177"/>
-      <c r="K54" s="278"/>
-      <c r="L54" s="278"/>
+      <c r="K54" s="283"/>
+      <c r="L54" s="283"/>
       <c r="M54" s="259" t="s">
         <v>44</v>
       </c>
@@ -7587,8 +7683,8 @@
       <c r="H55" s="177"/>
       <c r="I55" s="177"/>
       <c r="J55" s="177"/>
-      <c r="K55" s="278"/>
-      <c r="L55" s="278"/>
+      <c r="K55" s="283"/>
+      <c r="L55" s="283"/>
       <c r="M55" s="261" t="s">
         <v>45</v>
       </c>
@@ -7608,8 +7704,8 @@
       <c r="H56" s="177"/>
       <c r="I56" s="177"/>
       <c r="J56" s="177"/>
-      <c r="K56" s="278"/>
-      <c r="L56" s="278"/>
+      <c r="K56" s="283"/>
+      <c r="L56" s="283"/>
       <c r="M56" s="261" t="s">
         <v>46</v>
       </c>
@@ -7629,8 +7725,8 @@
       <c r="H57" s="177"/>
       <c r="I57" s="177"/>
       <c r="J57" s="177"/>
-      <c r="K57" s="278"/>
-      <c r="L57" s="278"/>
+      <c r="K57" s="283"/>
+      <c r="L57" s="283"/>
       <c r="M57" s="228" t="s">
         <v>47</v>
       </c>
@@ -7650,8 +7746,8 @@
       <c r="H58" s="177"/>
       <c r="I58" s="177"/>
       <c r="J58" s="177"/>
-      <c r="K58" s="278"/>
-      <c r="L58" s="278"/>
+      <c r="K58" s="283"/>
+      <c r="L58" s="283"/>
       <c r="M58" s="228" t="s">
         <v>48</v>
       </c>
@@ -7671,8 +7767,8 @@
       <c r="H59" s="177"/>
       <c r="I59" s="177"/>
       <c r="J59" s="177"/>
-      <c r="K59" s="278"/>
-      <c r="L59" s="278"/>
+      <c r="K59" s="283"/>
+      <c r="L59" s="283"/>
       <c r="M59" s="228" t="s">
         <v>49</v>
       </c>
@@ -7692,8 +7788,8 @@
       <c r="H60" s="177"/>
       <c r="I60" s="177"/>
       <c r="J60" s="177"/>
-      <c r="K60" s="278"/>
-      <c r="L60" s="278"/>
+      <c r="K60" s="283"/>
+      <c r="L60" s="283"/>
       <c r="M60" s="229" t="s">
         <v>50</v>
       </c>
@@ -7713,8 +7809,8 @@
       <c r="H61" s="177"/>
       <c r="I61" s="177"/>
       <c r="J61" s="177"/>
-      <c r="K61" s="278"/>
-      <c r="L61" s="278"/>
+      <c r="K61" s="283"/>
+      <c r="L61" s="283"/>
       <c r="M61" s="228" t="s">
         <v>51</v>
       </c>
@@ -7734,8 +7830,8 @@
       <c r="H62" s="177"/>
       <c r="I62" s="177"/>
       <c r="J62" s="177"/>
-      <c r="K62" s="278"/>
-      <c r="L62" s="278"/>
+      <c r="K62" s="283"/>
+      <c r="L62" s="283"/>
       <c r="M62" s="228" t="s">
         <v>52</v>
       </c>
@@ -7755,8 +7851,8 @@
       <c r="H63" s="177"/>
       <c r="I63" s="177"/>
       <c r="J63" s="177"/>
-      <c r="K63" s="278"/>
-      <c r="L63" s="278"/>
+      <c r="K63" s="283"/>
+      <c r="L63" s="283"/>
       <c r="M63" s="228" t="s">
         <v>53</v>
       </c>
@@ -7776,8 +7872,8 @@
       <c r="H64" s="177"/>
       <c r="I64" s="177"/>
       <c r="J64" s="177"/>
-      <c r="K64" s="278"/>
-      <c r="L64" s="278"/>
+      <c r="K64" s="283"/>
+      <c r="L64" s="283"/>
       <c r="M64" s="259" t="s">
         <v>54</v>
       </c>
@@ -7797,8 +7893,8 @@
       <c r="H65" s="177"/>
       <c r="I65" s="177"/>
       <c r="J65" s="177"/>
-      <c r="K65" s="278"/>
-      <c r="L65" s="278"/>
+      <c r="K65" s="283"/>
+      <c r="L65" s="283"/>
       <c r="M65" s="261" t="s">
         <v>55</v>
       </c>
@@ -7818,8 +7914,8 @@
       <c r="H66" s="177"/>
       <c r="I66" s="177"/>
       <c r="J66" s="177"/>
-      <c r="K66" s="278"/>
-      <c r="L66" s="278"/>
+      <c r="K66" s="283"/>
+      <c r="L66" s="283"/>
       <c r="M66" s="261" t="s">
         <v>56</v>
       </c>
@@ -7839,8 +7935,8 @@
       <c r="H67" s="177"/>
       <c r="I67" s="177"/>
       <c r="J67" s="177"/>
-      <c r="K67" s="278"/>
-      <c r="L67" s="278"/>
+      <c r="K67" s="283"/>
+      <c r="L67" s="283"/>
       <c r="M67" s="228" t="s">
         <v>57</v>
       </c>
@@ -7860,8 +7956,8 @@
       <c r="H68" s="177"/>
       <c r="I68" s="177"/>
       <c r="J68" s="177"/>
-      <c r="K68" s="278"/>
-      <c r="L68" s="278"/>
+      <c r="K68" s="283"/>
+      <c r="L68" s="283"/>
       <c r="M68" s="228" t="s">
         <v>58</v>
       </c>
@@ -7881,8 +7977,8 @@
       <c r="H69" s="177"/>
       <c r="I69" s="177"/>
       <c r="J69" s="177"/>
-      <c r="K69" s="278"/>
-      <c r="L69" s="278"/>
+      <c r="K69" s="283"/>
+      <c r="L69" s="283"/>
       <c r="M69" s="228" t="s">
         <v>59</v>
       </c>
@@ -7902,8 +7998,8 @@
       <c r="H70" s="177"/>
       <c r="I70" s="177"/>
       <c r="J70" s="177"/>
-      <c r="K70" s="278"/>
-      <c r="L70" s="278"/>
+      <c r="K70" s="283"/>
+      <c r="L70" s="283"/>
       <c r="M70" s="228" t="s">
         <v>60</v>
       </c>
@@ -7923,9 +8019,9 @@
       <c r="H71" s="264"/>
       <c r="I71" s="264"/>
       <c r="J71" s="264"/>
-      <c r="K71" s="279"/>
-      <c r="L71" s="280"/>
-      <c r="M71" s="281" t="s">
+      <c r="K71" s="284"/>
+      <c r="L71" s="285"/>
+      <c r="M71" s="286" t="s">
         <v>61</v>
       </c>
       <c r="N71" s="267" t="n">
@@ -7943,35 +8039,35 @@
         <f aca="false">C38</f>
         <v>MR (2)</v>
       </c>
-      <c r="D73" s="269" t="str">
+      <c r="D73" s="270" t="str">
         <f aca="false">D38</f>
         <v>PW (3)</v>
       </c>
-      <c r="E73" s="269" t="str">
+      <c r="E73" s="298" t="str">
         <f aca="false">E38</f>
         <v>PW+AH(4)</v>
       </c>
-      <c r="F73" s="269" t="str">
+      <c r="F73" s="271" t="str">
         <f aca="false">F38</f>
         <v>LIE (5)</v>
       </c>
-      <c r="G73" s="269" t="str">
+      <c r="G73" s="299" t="str">
         <f aca="false">G38</f>
         <v>LIE+AH(6)</v>
       </c>
-      <c r="H73" s="269" t="str">
+      <c r="H73" s="300" t="str">
         <f aca="false">H38</f>
         <v>LIE+AL(7)</v>
       </c>
-      <c r="I73" s="269" t="str">
+      <c r="I73" s="272" t="str">
         <f aca="false">I38</f>
         <v>LW (8)</v>
       </c>
-      <c r="J73" s="269" t="str">
+      <c r="J73" s="273" t="str">
         <f aca="false">J38</f>
         <v>LZ (9)</v>
       </c>
-      <c r="K73" s="282" t="str">
+      <c r="K73" s="287" t="str">
         <f aca="false">K38</f>
         <v>SZ (10)</v>
       </c>
@@ -7984,45 +8080,45 @@
         <f aca="false">SWISS10_H!B71</f>
         <v>0.00514905149051491</v>
       </c>
-      <c r="C74" s="270" t="n">
+      <c r="C74" s="275" t="n">
         <f aca="false">SWISS10_H!C71</f>
         <v>0.0210965186574943</v>
       </c>
-      <c r="D74" s="270" t="n">
+      <c r="D74" s="275" t="n">
         <f aca="false">SWISS10_H!D71</f>
         <v>0.919699812382739</v>
       </c>
-      <c r="E74" s="270" t="n">
+      <c r="E74" s="275" t="n">
         <f aca="false">SWISS10_H!E71</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F74" s="270" t="n">
+      <c r="F74" s="275" t="n">
         <f aca="false">SWISS10_H!F71</f>
         <v>0.0379195330414843</v>
       </c>
-      <c r="G74" s="270" t="n">
+      <c r="G74" s="275" t="n">
         <f aca="false">SWISS10_H!G71</f>
         <v>0.00308526162184699</v>
       </c>
-      <c r="H74" s="270" t="n">
+      <c r="H74" s="275" t="n">
         <f aca="false">SWISS10_H!H71</f>
         <v>0.000771315405461747</v>
       </c>
-      <c r="I74" s="270" t="n">
+      <c r="I74" s="275" t="n">
         <f aca="false">SWISS10_H!I71</f>
         <v>0.00756722951844903</v>
       </c>
-      <c r="J74" s="270" t="n">
+      <c r="J74" s="275" t="n">
         <f aca="false">SWISS10_H!J71</f>
         <v>0.000687929956222639</v>
       </c>
-      <c r="K74" s="283" t="n">
+      <c r="K74" s="288" t="n">
         <f aca="false">SWISS10_H!K71</f>
         <v>0.00168855534709193</v>
       </c>
-      <c r="L74" s="271"/>
+      <c r="L74" s="276"/>
       <c r="M74" s="42"/>
-      <c r="N74" s="272" t="n">
+      <c r="N74" s="277" t="n">
         <f aca="false">SWISS10_H!N71</f>
         <v>1</v>
       </c>
@@ -8035,43 +8131,43 @@
         <f aca="false">SWISS10_H!B72</f>
         <v>0.00496143422972691</v>
       </c>
-      <c r="C75" s="273" t="n">
+      <c r="C75" s="278" t="n">
         <f aca="false">SWISS10_H!C72</f>
         <v>0.0197831978319783</v>
       </c>
-      <c r="D75" s="273" t="n">
+      <c r="D75" s="278" t="n">
         <f aca="false">SWISS10_H!D72</f>
         <v>0.856139253700229</v>
       </c>
-      <c r="E75" s="273" t="n">
+      <c r="E75" s="278" t="n">
         <f aca="false">SWISS10_H!E72</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F75" s="273" t="n">
+      <c r="F75" s="278" t="n">
         <f aca="false">SWISS10_H!F72</f>
         <v>0.0353345841150719</v>
       </c>
-      <c r="G75" s="273" t="n">
+      <c r="G75" s="278" t="n">
         <f aca="false">SWISS10_H!G72</f>
         <v>0.00302272253491766</v>
       </c>
-      <c r="H75" s="273" t="n">
+      <c r="H75" s="278" t="n">
         <f aca="false">SWISS10_H!H72</f>
         <v>0.000708776318532416</v>
       </c>
-      <c r="I75" s="273" t="n">
+      <c r="I75" s="278" t="n">
         <f aca="false">SWISS10_H!I72</f>
         <v>0.00692099228684595</v>
       </c>
-      <c r="J75" s="273" t="n">
+      <c r="J75" s="278" t="n">
         <f aca="false">SWISS10_H!J72</f>
         <v>0.000667083593912862</v>
       </c>
-      <c r="K75" s="284" t="n">
+      <c r="K75" s="289" t="n">
         <f aca="false">SWISS10_H!K72</f>
         <v>0.00158432353554305</v>
       </c>
-      <c r="L75" s="271"/>
+      <c r="L75" s="276"/>
       <c r="M75" s="42"/>
       <c r="N75" s="262" t="n">
         <f aca="false">SWISS10_H!N72</f>
@@ -8106,7 +8202,7 @@
         <f aca="false">SWISS10_H!G73</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="H76" s="274" t="n">
+      <c r="H76" s="279" t="n">
         <f aca="false">SWISS10_H!H73</f>
         <v>6.25390869293308E-005</v>
       </c>
@@ -8118,13 +8214,13 @@
         <f aca="false">SWISS10_H!J73</f>
         <v>2.08463623097769E-005</v>
       </c>
-      <c r="K76" s="288" t="n">
+      <c r="K76" s="293" t="n">
         <f aca="false">SWISS10_H!K73</f>
         <v>0.000104231811548885</v>
       </c>
-      <c r="L76" s="271"/>
+      <c r="L76" s="276"/>
       <c r="M76" s="42"/>
-      <c r="N76" s="275" t="n">
+      <c r="N76" s="280" t="n">
         <f aca="false">SWISS10_H!N73</f>
         <v>0.0685428392745464</v>
       </c>
@@ -8158,7 +8254,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -8171,7 +8267,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V47" activeCellId="0" sqref="V47"/>
     </sheetView>
   </sheetViews>
@@ -8295,23 +8391,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="293"/>
-      <c r="B11" s="293"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
-      <c r="G11" s="293"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="293"/>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="293"/>
-      <c r="Q11" s="294"/>
+      <c r="A11" s="301"/>
+      <c r="B11" s="301"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="301"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="301"/>
+      <c r="I11" s="301"/>
+      <c r="J11" s="301"/>
+      <c r="K11" s="301"/>
+      <c r="L11" s="301"/>
+      <c r="M11" s="301"/>
+      <c r="N11" s="301"/>
+      <c r="O11" s="301"/>
+      <c r="P11" s="301"/>
+      <c r="Q11" s="302"/>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
@@ -8336,7 +8432,7 @@
       <c r="O12" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="285"/>
+      <c r="P12" s="290"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
@@ -8387,7 +8483,7 @@
       <c r="M13" s="251" t="s">
         <v>181</v>
       </c>
-      <c r="O13" s="295" t="s">
+      <c r="O13" s="303" t="s">
         <v>182</v>
       </c>
       <c r="P13" s="118"/>
@@ -9891,7 +9987,7 @@
       <c r="U38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M39" s="296"/>
+      <c r="M39" s="304"/>
       <c r="R39" s="0"/>
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
@@ -9901,59 +9997,59 @@
       <c r="A40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="297" t="n">
+      <c r="B40" s="305" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
         <v>0.00125400871638845</v>
       </c>
-      <c r="C40" s="297" t="n">
+      <c r="C40" s="305" t="n">
         <f aca="false">SUM(C14:C37)/Data_speed!$O$29</f>
         <v>0.00696899925992928</v>
       </c>
-      <c r="D40" s="297" t="n">
+      <c r="D40" s="305" t="n">
         <f aca="false">SUM(D14:D37)/Data_speed!$O$29</f>
         <v>0.0324603239865143</v>
       </c>
-      <c r="E40" s="297" t="n">
+      <c r="E40" s="305" t="n">
         <f aca="false">SUM(E14:E37)/Data_speed!$O$29</f>
         <v>0.559637365348244</v>
       </c>
-      <c r="F40" s="297" t="n">
+      <c r="F40" s="305" t="n">
         <f aca="false">SUM(F14:F37)/Data_speed!$O$29</f>
         <v>0.379245127867774</v>
       </c>
-      <c r="G40" s="297" t="n">
+      <c r="G40" s="305" t="n">
         <f aca="false">SUM(G14:G37)/Data_speed!$O$29</f>
         <v>0.0191801661047611</v>
       </c>
-      <c r="H40" s="297" t="n">
+      <c r="H40" s="305" t="n">
         <f aca="false">SUM(H14:H37)/Data_speed!$O$29</f>
         <v>0.000801743277690979</v>
       </c>
-      <c r="I40" s="297" t="n">
+      <c r="I40" s="305" t="n">
         <f aca="false">SUM(I14:I37)/Data_speed!$O$29</f>
         <v>0.000205575199407943</v>
       </c>
-      <c r="J40" s="297" t="n">
+      <c r="J40" s="305" t="n">
         <f aca="false">SUM(J14:J37)/Data_speed!$O$29</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K40" s="297" t="n">
+      <c r="K40" s="305" t="n">
         <f aca="false">SUM(K14:K37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L40" s="297" t="n">
+      <c r="L40" s="305" t="n">
         <f aca="false">SUM(L14:L37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M40" s="297" t="n">
+      <c r="M40" s="305" t="n">
         <f aca="false">SUM(M14:M37)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="O40" s="272" t="n">
+      <c r="O40" s="277" t="n">
         <f aca="false">SUM(B40:M40)</f>
         <v>1</v>
       </c>
-      <c r="P40" s="287"/>
+      <c r="P40" s="292"/>
       <c r="R40" s="0"/>
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
@@ -9963,51 +10059,51 @@
       <c r="A41" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="298" t="n">
+      <c r="B41" s="306" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
         <v>0.00123345119644766</v>
       </c>
-      <c r="C41" s="298" t="n">
+      <c r="C41" s="306" t="n">
         <f aca="false">SUM(C20:C35)/Data_speed!$O$29</f>
         <v>0.00680453910040293</v>
       </c>
-      <c r="D41" s="298" t="n">
+      <c r="D41" s="306" t="n">
         <f aca="false">SUM(D20:D35)/Data_speed!$O$29</f>
         <v>0.0308773949510731</v>
       </c>
-      <c r="E41" s="298" t="n">
+      <c r="E41" s="306" t="n">
         <f aca="false">SUM(E20:E35)/Data_speed!$O$29</f>
         <v>0.527793766959954</v>
       </c>
-      <c r="F41" s="298" t="n">
+      <c r="F41" s="306" t="n">
         <f aca="false">SUM(F20:F35)/Data_speed!$O$29</f>
         <v>0.348778883315517</v>
       </c>
-      <c r="G41" s="298" t="n">
+      <c r="G41" s="306" t="n">
         <f aca="false">SUM(G20:G35)/Data_speed!$O$29</f>
         <v>0.0156237151550037</v>
       </c>
-      <c r="H41" s="298" t="n">
+      <c r="H41" s="306" t="n">
         <f aca="false">SUM(H20:H35)/Data_speed!$O$29</f>
         <v>0.000411150398815887</v>
       </c>
-      <c r="I41" s="298" t="n">
+      <c r="I41" s="306" t="n">
         <f aca="false">SUM(I20:I35)/Data_speed!$O$29</f>
         <v>6.1672559822383E-005</v>
       </c>
-      <c r="J41" s="298" t="n">
+      <c r="J41" s="306" t="n">
         <f aca="false">SUM(J20:J35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="K41" s="298" t="n">
+      <c r="K41" s="306" t="n">
         <f aca="false">SUM(K20:K35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L41" s="298" t="n">
+      <c r="L41" s="306" t="n">
         <f aca="false">SUM(L20:L35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M41" s="298" t="n">
+      <c r="M41" s="306" t="n">
         <f aca="false">SUM(M20:M35)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
@@ -10015,7 +10111,7 @@
         <f aca="false">SUM(B41:M41)</f>
         <v>0.931790148836444</v>
       </c>
-      <c r="P41" s="287"/>
+      <c r="P41" s="292"/>
       <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
@@ -10025,7 +10121,7 @@
       <c r="A42" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="299" t="n">
+      <c r="B42" s="307" t="n">
         <f aca="false">B40-B41</f>
         <v>2.05575199407942E-005</v>
       </c>
@@ -10069,16 +10165,16 @@
         <f aca="false">L40-L41</f>
         <v>0</v>
       </c>
-      <c r="M42" s="288" t="n">
+      <c r="M42" s="293" t="n">
         <f aca="false">M40-M41</f>
         <v>0</v>
       </c>
       <c r="N42" s="10"/>
-      <c r="O42" s="275" t="n">
+      <c r="O42" s="280" t="n">
         <f aca="false">O40-O41</f>
         <v>0.0682098511635557</v>
       </c>
-      <c r="P42" s="287"/>
+      <c r="P42" s="292"/>
       <c r="R42" s="0"/>
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
@@ -10106,23 +10202,23 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="293"/>
-      <c r="B47" s="293"/>
-      <c r="C47" s="293"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="293"/>
-      <c r="F47" s="293"/>
-      <c r="G47" s="293"/>
-      <c r="H47" s="293"/>
-      <c r="I47" s="293"/>
-      <c r="J47" s="293"/>
-      <c r="K47" s="293"/>
-      <c r="L47" s="293"/>
-      <c r="M47" s="293"/>
-      <c r="N47" s="293"/>
-      <c r="O47" s="293"/>
-      <c r="P47" s="293"/>
-      <c r="Q47" s="294"/>
+      <c r="A47" s="301"/>
+      <c r="B47" s="301"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="301"/>
+      <c r="E47" s="301"/>
+      <c r="F47" s="301"/>
+      <c r="G47" s="301"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="301"/>
+      <c r="J47" s="301"/>
+      <c r="K47" s="301"/>
+      <c r="L47" s="301"/>
+      <c r="M47" s="301"/>
+      <c r="N47" s="301"/>
+      <c r="O47" s="301"/>
+      <c r="P47" s="301"/>
+      <c r="Q47" s="302"/>
       <c r="R47" s="0"/>
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
@@ -10148,7 +10244,7 @@
         <f aca="false">O12</f>
         <v>THM</v>
       </c>
-      <c r="P48" s="285"/>
+      <c r="P48" s="290"/>
       <c r="Q48" s="186"/>
       <c r="R48" s="0"/>
       <c r="S48" s="0"/>
@@ -10187,7 +10283,7 @@
         <f aca="false">H13</f>
         <v>90 km/h</v>
       </c>
-      <c r="I49" s="300" t="str">
+      <c r="I49" s="308" t="str">
         <f aca="false">I13</f>
         <v>100 km/h</v>
       </c>
@@ -10199,7 +10295,7 @@
         <f aca="false">K13</f>
         <v>120 km/h</v>
       </c>
-      <c r="L49" s="301" t="str">
+      <c r="L49" s="309" t="str">
         <f aca="false">L13</f>
         <v>130 km/h</v>
       </c>
@@ -10207,7 +10303,7 @@
         <f aca="false">M13</f>
         <v>&gt; 130 km/h</v>
       </c>
-      <c r="O49" s="295" t="str">
+      <c r="O49" s="303" t="str">
         <f aca="false">O13</f>
         <v>Véh/h</v>
       </c>
@@ -11712,7 +11808,7 @@
       <c r="U74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M75" s="296"/>
+      <c r="M75" s="304"/>
       <c r="R75" s="0"/>
       <c r="S75" s="0"/>
       <c r="T75" s="0"/>
@@ -11722,59 +11818,59 @@
       <c r="A76" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="297" t="n">
+      <c r="B76" s="305" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C76" s="297" t="n">
+      <c r="C76" s="305" t="n">
         <f aca="false">SUM(C50:C73)/Data_speed!$O$57</f>
         <v>0.00323091674657106</v>
       </c>
-      <c r="D76" s="297" t="n">
+      <c r="D76" s="305" t="n">
         <f aca="false">SUM(D50:D73)/Data_speed!$O$57</f>
         <v>0.0208029349230833</v>
       </c>
-      <c r="E76" s="297" t="n">
+      <c r="E76" s="305" t="n">
         <f aca="false">SUM(E50:E73)/Data_speed!$O$57</f>
         <v>0.506044941009714</v>
       </c>
-      <c r="F76" s="297" t="n">
+      <c r="F76" s="305" t="n">
         <f aca="false">SUM(F50:F73)/Data_speed!$O$57</f>
         <v>0.435881936048693</v>
       </c>
-      <c r="G76" s="297" t="n">
+      <c r="G76" s="305" t="n">
         <f aca="false">SUM(G50:G73)/Data_speed!$O$57</f>
         <v>0.0318088964855964</v>
       </c>
-      <c r="H76" s="297" t="n">
+      <c r="H76" s="305" t="n">
         <f aca="false">SUM(H50:H73)/Data_speed!$O$57</f>
         <v>0.00122983282611415</v>
       </c>
-      <c r="I76" s="297" t="n">
+      <c r="I76" s="305" t="n">
         <f aca="false">SUM(I50:I73)/Data_speed!$O$57</f>
         <v>0.000187601617542836</v>
       </c>
-      <c r="J76" s="297" t="n">
+      <c r="J76" s="305" t="n">
         <f aca="false">SUM(J50:J73)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K76" s="297" t="n">
+      <c r="K76" s="305" t="n">
         <f aca="false">SUM(K50:K73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L76" s="297" t="n">
+      <c r="L76" s="305" t="n">
         <f aca="false">SUM(L50:L73)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M76" s="297" t="n">
+      <c r="M76" s="305" t="n">
         <f aca="false">SUM(M50:M73)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="O76" s="272" t="n">
+      <c r="O76" s="277" t="n">
         <f aca="false">SUM(B76:M76)</f>
         <v>1</v>
       </c>
-      <c r="P76" s="287"/>
+      <c r="P76" s="292"/>
       <c r="R76" s="0"/>
       <c r="S76" s="0"/>
       <c r="T76" s="0"/>
@@ -11784,51 +11880,51 @@
       <c r="A77" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="298" t="n">
+      <c r="B77" s="306" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C77" s="298" t="n">
+      <c r="C77" s="306" t="n">
         <f aca="false">SUM(C56:C71)/Data_speed!$O$57</f>
         <v>0.00318922749822821</v>
       </c>
-      <c r="D77" s="298" t="n">
+      <c r="D77" s="306" t="n">
         <f aca="false">SUM(D56:D71)/Data_speed!$O$57</f>
         <v>0.019760703714512</v>
       </c>
-      <c r="E77" s="298" t="n">
+      <c r="E77" s="306" t="n">
         <f aca="false">SUM(E56:E71)/Data_speed!$O$57</f>
         <v>0.475986992954517</v>
       </c>
-      <c r="F77" s="298" t="n">
+      <c r="F77" s="306" t="n">
         <f aca="false">SUM(F56:F71)/Data_speed!$O$57</f>
         <v>0.404073039563097</v>
       </c>
-      <c r="G77" s="298" t="n">
+      <c r="G77" s="306" t="n">
         <f aca="false">SUM(G56:G71)/Data_speed!$O$57</f>
         <v>0.0266394296910827</v>
       </c>
-      <c r="H77" s="298" t="n">
+      <c r="H77" s="306" t="n">
         <f aca="false">SUM(H56:H71)/Data_speed!$O$57</f>
         <v>0.000854629591028474</v>
       </c>
-      <c r="I77" s="298" t="n">
+      <c r="I77" s="306" t="n">
         <f aca="false">SUM(I56:I71)/Data_speed!$O$57</f>
         <v>0.000145912369199983</v>
       </c>
-      <c r="J77" s="298" t="n">
+      <c r="J77" s="306" t="n">
         <f aca="false">SUM(J56:J71)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K77" s="298" t="n">
+      <c r="K77" s="306" t="n">
         <f aca="false">SUM(K56:K71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L77" s="298" t="n">
+      <c r="L77" s="306" t="n">
         <f aca="false">SUM(L56:L71)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M77" s="298" t="n">
+      <c r="M77" s="306" t="n">
         <f aca="false">SUM(M56:M71)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
@@ -11836,7 +11932,7 @@
         <f aca="false">SUM(B77:M77)</f>
         <v>0.931462875724351</v>
       </c>
-      <c r="P77" s="287"/>
+      <c r="P77" s="292"/>
       <c r="R77" s="0"/>
       <c r="S77" s="0"/>
       <c r="T77" s="0"/>
@@ -11846,7 +11942,7 @@
       <c r="A78" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="299" t="n">
+      <c r="B78" s="307" t="n">
         <f aca="false">B76-B77</f>
         <v>0</v>
       </c>
@@ -11890,16 +11986,16 @@
         <f aca="false">L76-L77</f>
         <v>0</v>
       </c>
-      <c r="M78" s="288" t="n">
+      <c r="M78" s="293" t="n">
         <f aca="false">M76-M77</f>
         <v>0</v>
       </c>
       <c r="N78" s="10"/>
-      <c r="O78" s="275" t="n">
+      <c r="O78" s="280" t="n">
         <f aca="false">O76-O77</f>
         <v>0.0685371242756494</v>
       </c>
-      <c r="P78" s="287"/>
+      <c r="P78" s="292"/>
       <c r="R78" s="0"/>
       <c r="S78" s="0"/>
       <c r="T78" s="0"/>
@@ -11943,7 +12039,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -11994,7 +12090,7 @@
         <v>Comptage 2017</v>
       </c>
       <c r="P2" s="0"/>
-      <c r="Q2" s="296"/>
+      <c r="Q2" s="304"/>
       <c r="V2" s="13" t="str">
         <f aca="false">Data_count!B6</f>
         <v>Type de capteur : Boucle</v>
@@ -12072,30 +12168,30 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="293" t="str">
+      <c r="A11" s="310" t="str">
         <f aca="false">_xlfn.CONCAT("Vitesse moyenne = ", INT(V40), " km/h")</f>
         <v>Vitesse moyenne = 49 km/h</v>
       </c>
-      <c r="B11" s="293"/>
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
-      <c r="G11" s="293"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="293"/>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="293"/>
-      <c r="Q11" s="293"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="294"/>
-      <c r="U11" s="294"/>
+      <c r="B11" s="310"/>
+      <c r="C11" s="310"/>
+      <c r="D11" s="310"/>
+      <c r="E11" s="310"/>
+      <c r="F11" s="310"/>
+      <c r="G11" s="310"/>
+      <c r="H11" s="310"/>
+      <c r="I11" s="310"/>
+      <c r="J11" s="310"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="310"/>
+      <c r="N11" s="310"/>
+      <c r="O11" s="310"/>
+      <c r="P11" s="310"/>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="302"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="302"/>
+      <c r="U11" s="302"/>
     </row>
     <row r="12" s="186" customFormat="true" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="247" t="str">
@@ -12113,17 +12209,17 @@
       <c r="K12" s="247"/>
       <c r="L12" s="247"/>
       <c r="M12" s="247"/>
-      <c r="N12" s="302"/>
+      <c r="N12" s="311"/>
       <c r="P12" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="Q12" s="285"/>
-      <c r="S12" s="303" t="s">
+      <c r="Q12" s="290"/>
+      <c r="S12" s="312" t="s">
         <v>183</v>
       </c>
-      <c r="T12" s="303"/>
-      <c r="U12" s="303"/>
-      <c r="V12" s="303"/>
+      <c r="T12" s="312"/>
+      <c r="U12" s="312"/>
+      <c r="V12" s="312"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="221" t="s">
@@ -12168,20 +12264,20 @@
       <c r="N13" s="251" t="s">
         <v>186</v>
       </c>
-      <c r="P13" s="295" t="s">
+      <c r="P13" s="303" t="s">
         <v>182</v>
       </c>
       <c r="Q13" s="118"/>
-      <c r="S13" s="304" t="s">
+      <c r="S13" s="313" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="305" t="s">
+      <c r="T13" s="314" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="306" t="s">
+      <c r="U13" s="315" t="s">
         <v>189</v>
       </c>
-      <c r="V13" s="307" t="s">
+      <c r="V13" s="316" t="s">
         <v>190</v>
       </c>
     </row>
@@ -12246,19 +12342,19 @@
         <v>54</v>
       </c>
       <c r="Q14" s="177"/>
-      <c r="S14" s="308" t="n">
+      <c r="S14" s="317" t="n">
         <f aca="false">Data_speed!P5</f>
         <v>45</v>
       </c>
-      <c r="T14" s="308" t="n">
+      <c r="T14" s="317" t="n">
         <f aca="false">Data_speed!Q5</f>
         <v>55</v>
       </c>
-      <c r="U14" s="308" t="n">
+      <c r="U14" s="317" t="n">
         <f aca="false">Data_speed!R5</f>
         <v>55</v>
       </c>
-      <c r="V14" s="309" t="n">
+      <c r="V14" s="318" t="n">
         <f aca="false">Data_speed!S5</f>
         <v>51.65</v>
       </c>
@@ -12324,19 +12420,19 @@
         <v>22.2857142857143</v>
       </c>
       <c r="Q15" s="177"/>
-      <c r="S15" s="308" t="n">
+      <c r="S15" s="317" t="n">
         <f aca="false">Data_speed!P6</f>
         <v>45</v>
       </c>
-      <c r="T15" s="308" t="n">
+      <c r="T15" s="317" t="n">
         <f aca="false">Data_speed!Q6</f>
         <v>55</v>
       </c>
-      <c r="U15" s="308" t="n">
+      <c r="U15" s="317" t="n">
         <f aca="false">Data_speed!R6</f>
         <v>55</v>
       </c>
-      <c r="V15" s="309" t="n">
+      <c r="V15" s="318" t="n">
         <f aca="false">Data_speed!S6</f>
         <v>51.96</v>
       </c>
@@ -12402,19 +12498,19 @@
         <v>15.5714285714286</v>
       </c>
       <c r="Q16" s="177"/>
-      <c r="S16" s="308" t="n">
+      <c r="S16" s="317" t="n">
         <f aca="false">Data_speed!P7</f>
         <v>45</v>
       </c>
-      <c r="T16" s="308" t="n">
+      <c r="T16" s="317" t="n">
         <f aca="false">Data_speed!Q7</f>
         <v>55</v>
       </c>
-      <c r="U16" s="308" t="n">
+      <c r="U16" s="317" t="n">
         <f aca="false">Data_speed!R7</f>
         <v>55</v>
       </c>
-      <c r="V16" s="309" t="n">
+      <c r="V16" s="318" t="n">
         <f aca="false">Data_speed!S7</f>
         <v>52.22</v>
       </c>
@@ -12480,19 +12576,19 @@
         <v>13.8571428571429</v>
       </c>
       <c r="Q17" s="177"/>
-      <c r="S17" s="308" t="n">
+      <c r="S17" s="317" t="n">
         <f aca="false">Data_speed!P8</f>
         <v>45</v>
       </c>
-      <c r="T17" s="308" t="n">
+      <c r="T17" s="317" t="n">
         <f aca="false">Data_speed!Q8</f>
         <v>55</v>
       </c>
-      <c r="U17" s="308" t="n">
+      <c r="U17" s="317" t="n">
         <f aca="false">Data_speed!R8</f>
         <v>65</v>
       </c>
-      <c r="V17" s="309" t="n">
+      <c r="V17" s="318" t="n">
         <f aca="false">Data_speed!S8</f>
         <v>53.66</v>
       </c>
@@ -12558,19 +12654,19 @@
         <v>19.2857142857143</v>
       </c>
       <c r="Q18" s="177"/>
-      <c r="S18" s="308" t="n">
+      <c r="S18" s="317" t="n">
         <f aca="false">Data_speed!P9</f>
         <v>45</v>
       </c>
-      <c r="T18" s="308" t="n">
+      <c r="T18" s="317" t="n">
         <f aca="false">Data_speed!Q9</f>
         <v>55</v>
       </c>
-      <c r="U18" s="308" t="n">
+      <c r="U18" s="317" t="n">
         <f aca="false">Data_speed!R9</f>
         <v>65</v>
       </c>
-      <c r="V18" s="309" t="n">
+      <c r="V18" s="318" t="n">
         <f aca="false">Data_speed!S9</f>
         <v>54.76</v>
       </c>
@@ -12636,19 +12732,19 @@
         <v>43.4285714285714</v>
       </c>
       <c r="Q19" s="177"/>
-      <c r="S19" s="308" t="n">
+      <c r="S19" s="317" t="n">
         <f aca="false">Data_speed!P10</f>
         <v>45</v>
       </c>
-      <c r="T19" s="308" t="n">
+      <c r="T19" s="317" t="n">
         <f aca="false">Data_speed!Q10</f>
         <v>55</v>
       </c>
-      <c r="U19" s="308" t="n">
+      <c r="U19" s="317" t="n">
         <f aca="false">Data_speed!R10</f>
         <v>55</v>
       </c>
-      <c r="V19" s="309" t="n">
+      <c r="V19" s="318" t="n">
         <f aca="false">Data_speed!S10</f>
         <v>51.38</v>
       </c>
@@ -12714,19 +12810,19 @@
         <v>172.714285714286</v>
       </c>
       <c r="Q20" s="177"/>
-      <c r="S20" s="308" t="n">
+      <c r="S20" s="317" t="n">
         <f aca="false">Data_speed!P11</f>
         <v>45</v>
       </c>
-      <c r="T20" s="308" t="n">
+      <c r="T20" s="317" t="n">
         <f aca="false">Data_speed!Q11</f>
         <v>45</v>
       </c>
-      <c r="U20" s="308" t="n">
+      <c r="U20" s="317" t="n">
         <f aca="false">Data_speed!R11</f>
         <v>55</v>
       </c>
-      <c r="V20" s="309" t="n">
+      <c r="V20" s="318" t="n">
         <f aca="false">Data_speed!S11</f>
         <v>49.76</v>
       </c>
@@ -12792,19 +12888,19 @@
         <v>363</v>
       </c>
       <c r="Q21" s="177"/>
-      <c r="S21" s="308" t="n">
+      <c r="S21" s="317" t="n">
         <f aca="false">Data_speed!P12</f>
         <v>45</v>
       </c>
-      <c r="T21" s="308" t="n">
+      <c r="T21" s="317" t="n">
         <f aca="false">Data_speed!Q12</f>
         <v>45</v>
       </c>
-      <c r="U21" s="308" t="n">
+      <c r="U21" s="317" t="n">
         <f aca="false">Data_speed!R12</f>
         <v>55</v>
       </c>
-      <c r="V21" s="309" t="n">
+      <c r="V21" s="318" t="n">
         <f aca="false">Data_speed!S12</f>
         <v>48.05</v>
       </c>
@@ -12870,19 +12966,19 @@
         <v>333.714285714286</v>
       </c>
       <c r="Q22" s="177"/>
-      <c r="S22" s="308" t="n">
+      <c r="S22" s="317" t="n">
         <f aca="false">Data_speed!P13</f>
         <v>45</v>
       </c>
-      <c r="T22" s="308" t="n">
+      <c r="T22" s="317" t="n">
         <f aca="false">Data_speed!Q13</f>
         <v>45</v>
       </c>
-      <c r="U22" s="308" t="n">
+      <c r="U22" s="317" t="n">
         <f aca="false">Data_speed!R13</f>
         <v>55</v>
       </c>
-      <c r="V22" s="309" t="n">
+      <c r="V22" s="318" t="n">
         <f aca="false">Data_speed!S13</f>
         <v>49.24</v>
       </c>
@@ -12948,19 +13044,19 @@
         <v>317.285714285714</v>
       </c>
       <c r="Q23" s="177"/>
-      <c r="S23" s="308" t="n">
+      <c r="S23" s="317" t="n">
         <f aca="false">Data_speed!P14</f>
         <v>45</v>
       </c>
-      <c r="T23" s="308" t="n">
+      <c r="T23" s="317" t="n">
         <f aca="false">Data_speed!Q14</f>
         <v>45</v>
       </c>
-      <c r="U23" s="308" t="n">
+      <c r="U23" s="317" t="n">
         <f aca="false">Data_speed!R14</f>
         <v>55</v>
       </c>
-      <c r="V23" s="309" t="n">
+      <c r="V23" s="318" t="n">
         <f aca="false">Data_speed!S14</f>
         <v>49.03</v>
       </c>
@@ -13026,19 +13122,19 @@
         <v>340.857142857143</v>
       </c>
       <c r="Q24" s="177"/>
-      <c r="S24" s="308" t="n">
+      <c r="S24" s="317" t="n">
         <f aca="false">Data_speed!P15</f>
         <v>45</v>
       </c>
-      <c r="T24" s="308" t="n">
+      <c r="T24" s="317" t="n">
         <f aca="false">Data_speed!Q15</f>
         <v>45</v>
       </c>
-      <c r="U24" s="308" t="n">
+      <c r="U24" s="317" t="n">
         <f aca="false">Data_speed!R15</f>
         <v>55</v>
       </c>
-      <c r="V24" s="309" t="n">
+      <c r="V24" s="318" t="n">
         <f aca="false">Data_speed!S15</f>
         <v>48.33</v>
       </c>
@@ -13104,19 +13200,19 @@
         <v>445.857142857143</v>
       </c>
       <c r="Q25" s="177"/>
-      <c r="S25" s="308" t="n">
+      <c r="S25" s="317" t="n">
         <f aca="false">Data_speed!P16</f>
         <v>45</v>
       </c>
-      <c r="T25" s="308" t="n">
+      <c r="T25" s="317" t="n">
         <f aca="false">Data_speed!Q16</f>
         <v>45</v>
       </c>
-      <c r="U25" s="308" t="n">
+      <c r="U25" s="317" t="n">
         <f aca="false">Data_speed!R16</f>
         <v>55</v>
       </c>
-      <c r="V25" s="309" t="n">
+      <c r="V25" s="318" t="n">
         <f aca="false">Data_speed!S16</f>
         <v>48.52</v>
       </c>
@@ -13182,19 +13278,19 @@
         <v>413.285714285714</v>
       </c>
       <c r="Q26" s="177"/>
-      <c r="S26" s="308" t="n">
+      <c r="S26" s="317" t="n">
         <f aca="false">Data_speed!P17</f>
         <v>45</v>
       </c>
-      <c r="T26" s="308" t="n">
+      <c r="T26" s="317" t="n">
         <f aca="false">Data_speed!Q17</f>
         <v>45</v>
       </c>
-      <c r="U26" s="308" t="n">
+      <c r="U26" s="317" t="n">
         <f aca="false">Data_speed!R17</f>
         <v>55</v>
       </c>
-      <c r="V26" s="309" t="n">
+      <c r="V26" s="318" t="n">
         <f aca="false">Data_speed!S17</f>
         <v>49.07</v>
       </c>
@@ -13260,19 +13356,19 @@
         <v>420.285714285714</v>
       </c>
       <c r="Q27" s="177"/>
-      <c r="S27" s="308" t="n">
+      <c r="S27" s="317" t="n">
         <f aca="false">Data_speed!P18</f>
         <v>45</v>
       </c>
-      <c r="T27" s="308" t="n">
+      <c r="T27" s="317" t="n">
         <f aca="false">Data_speed!Q18</f>
         <v>45</v>
       </c>
-      <c r="U27" s="308" t="n">
+      <c r="U27" s="317" t="n">
         <f aca="false">Data_speed!R18</f>
         <v>55</v>
       </c>
-      <c r="V27" s="309" t="n">
+      <c r="V27" s="318" t="n">
         <f aca="false">Data_speed!S18</f>
         <v>48.72</v>
       </c>
@@ -13338,19 +13434,19 @@
         <v>382.142857142857</v>
       </c>
       <c r="Q28" s="177"/>
-      <c r="S28" s="308" t="n">
+      <c r="S28" s="317" t="n">
         <f aca="false">Data_speed!P19</f>
         <v>45</v>
       </c>
-      <c r="T28" s="308" t="n">
+      <c r="T28" s="317" t="n">
         <f aca="false">Data_speed!Q19</f>
         <v>45</v>
       </c>
-      <c r="U28" s="308" t="n">
+      <c r="U28" s="317" t="n">
         <f aca="false">Data_speed!R19</f>
         <v>55</v>
       </c>
-      <c r="V28" s="309" t="n">
+      <c r="V28" s="318" t="n">
         <f aca="false">Data_speed!S19</f>
         <v>49.16</v>
       </c>
@@ -13416,19 +13512,19 @@
         <v>440</v>
       </c>
       <c r="Q29" s="177"/>
-      <c r="S29" s="308" t="n">
+      <c r="S29" s="317" t="n">
         <f aca="false">Data_speed!P20</f>
         <v>45</v>
       </c>
-      <c r="T29" s="308" t="n">
+      <c r="T29" s="317" t="n">
         <f aca="false">Data_speed!Q20</f>
         <v>45</v>
       </c>
-      <c r="U29" s="308" t="n">
+      <c r="U29" s="317" t="n">
         <f aca="false">Data_speed!R20</f>
         <v>55</v>
       </c>
-      <c r="V29" s="309" t="n">
+      <c r="V29" s="318" t="n">
         <f aca="false">Data_speed!S20</f>
         <v>48.93</v>
       </c>
@@ -13494,19 +13590,19 @@
         <v>588.857142857143</v>
       </c>
       <c r="Q30" s="177"/>
-      <c r="S30" s="308" t="n">
+      <c r="S30" s="317" t="n">
         <f aca="false">Data_speed!P21</f>
         <v>45</v>
       </c>
-      <c r="T30" s="308" t="n">
+      <c r="T30" s="317" t="n">
         <f aca="false">Data_speed!Q21</f>
         <v>45</v>
       </c>
-      <c r="U30" s="308" t="n">
+      <c r="U30" s="317" t="n">
         <f aca="false">Data_speed!R21</f>
         <v>55</v>
       </c>
-      <c r="V30" s="309" t="n">
+      <c r="V30" s="318" t="n">
         <f aca="false">Data_speed!S21</f>
         <v>48.25</v>
       </c>
@@ -13572,19 +13668,19 @@
         <v>823.428571428572</v>
       </c>
       <c r="Q31" s="177"/>
-      <c r="S31" s="308" t="n">
+      <c r="S31" s="317" t="n">
         <f aca="false">Data_speed!P22</f>
         <v>45</v>
       </c>
-      <c r="T31" s="308" t="n">
+      <c r="T31" s="317" t="n">
         <f aca="false">Data_speed!Q22</f>
         <v>45</v>
       </c>
-      <c r="U31" s="308" t="n">
+      <c r="U31" s="317" t="n">
         <f aca="false">Data_speed!R22</f>
         <v>55</v>
       </c>
-      <c r="V31" s="309" t="n">
+      <c r="V31" s="318" t="n">
         <f aca="false">Data_speed!S22</f>
         <v>46.72</v>
       </c>
@@ -13650,19 +13746,19 @@
         <v>620</v>
       </c>
       <c r="Q32" s="177"/>
-      <c r="S32" s="308" t="n">
+      <c r="S32" s="317" t="n">
         <f aca="false">Data_speed!P23</f>
         <v>45</v>
       </c>
-      <c r="T32" s="308" t="n">
+      <c r="T32" s="317" t="n">
         <f aca="false">Data_speed!Q23</f>
         <v>45</v>
       </c>
-      <c r="U32" s="308" t="n">
+      <c r="U32" s="317" t="n">
         <f aca="false">Data_speed!R23</f>
         <v>55</v>
       </c>
-      <c r="V32" s="309" t="n">
+      <c r="V32" s="318" t="n">
         <f aca="false">Data_speed!S23</f>
         <v>48.2</v>
       </c>
@@ -13728,19 +13824,19 @@
         <v>344.857142857143</v>
       </c>
       <c r="Q33" s="177"/>
-      <c r="S33" s="308" t="n">
+      <c r="S33" s="317" t="n">
         <f aca="false">Data_speed!P24</f>
         <v>45</v>
       </c>
-      <c r="T33" s="308" t="n">
+      <c r="T33" s="317" t="n">
         <f aca="false">Data_speed!Q24</f>
         <v>45</v>
       </c>
-      <c r="U33" s="308" t="n">
+      <c r="U33" s="317" t="n">
         <f aca="false">Data_speed!R24</f>
         <v>55</v>
       </c>
-      <c r="V33" s="309" t="n">
+      <c r="V33" s="318" t="n">
         <f aca="false">Data_speed!S24</f>
         <v>50.28</v>
       </c>
@@ -13806,19 +13902,19 @@
         <v>244.428571428571</v>
       </c>
       <c r="Q34" s="177"/>
-      <c r="S34" s="308" t="n">
+      <c r="S34" s="317" t="n">
         <f aca="false">Data_speed!P25</f>
         <v>45</v>
       </c>
-      <c r="T34" s="308" t="n">
+      <c r="T34" s="317" t="n">
         <f aca="false">Data_speed!Q25</f>
         <v>45</v>
       </c>
-      <c r="U34" s="308" t="n">
+      <c r="U34" s="317" t="n">
         <f aca="false">Data_speed!R25</f>
         <v>55</v>
       </c>
-      <c r="V34" s="309" t="n">
+      <c r="V34" s="318" t="n">
         <f aca="false">Data_speed!S25</f>
         <v>50.03</v>
       </c>
@@ -13884,19 +13980,19 @@
         <v>224.285714285714</v>
       </c>
       <c r="Q35" s="177"/>
-      <c r="S35" s="308" t="n">
+      <c r="S35" s="317" t="n">
         <f aca="false">Data_speed!P26</f>
         <v>45</v>
       </c>
-      <c r="T35" s="308" t="n">
+      <c r="T35" s="317" t="n">
         <f aca="false">Data_speed!Q26</f>
         <v>45</v>
       </c>
-      <c r="U35" s="308" t="n">
+      <c r="U35" s="317" t="n">
         <f aca="false">Data_speed!R26</f>
         <v>55</v>
       </c>
-      <c r="V35" s="309" t="n">
+      <c r="V35" s="318" t="n">
         <f aca="false">Data_speed!S26</f>
         <v>48.9</v>
       </c>
@@ -13962,19 +14058,19 @@
         <v>194.428571428571</v>
       </c>
       <c r="Q36" s="177"/>
-      <c r="S36" s="308" t="n">
+      <c r="S36" s="317" t="n">
         <f aca="false">Data_speed!P27</f>
         <v>45</v>
       </c>
-      <c r="T36" s="308" t="n">
+      <c r="T36" s="317" t="n">
         <f aca="false">Data_speed!Q27</f>
         <v>45</v>
       </c>
-      <c r="U36" s="308" t="n">
+      <c r="U36" s="317" t="n">
         <f aca="false">Data_speed!R27</f>
         <v>55</v>
       </c>
-      <c r="V36" s="309" t="n">
+      <c r="V36" s="318" t="n">
         <f aca="false">Data_speed!S27</f>
         <v>49.09</v>
       </c>
@@ -14040,19 +14136,19 @@
         <v>111.142857142857</v>
       </c>
       <c r="Q37" s="177"/>
-      <c r="S37" s="308" t="n">
+      <c r="S37" s="317" t="n">
         <f aca="false">Data_speed!P28</f>
         <v>45</v>
       </c>
-      <c r="T37" s="308" t="n">
+      <c r="T37" s="317" t="n">
         <f aca="false">Data_speed!Q28</f>
         <v>55</v>
       </c>
-      <c r="U37" s="308" t="n">
+      <c r="U37" s="317" t="n">
         <f aca="false">Data_speed!R28</f>
         <v>55</v>
       </c>
-      <c r="V37" s="309" t="n">
+      <c r="V37" s="318" t="n">
         <f aca="false">Data_speed!S28</f>
         <v>50.4</v>
       </c>
@@ -14064,8 +14160,8 @@
       <c r="V38" s="179"/>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M39" s="296"/>
-      <c r="N39" s="296"/>
+      <c r="M39" s="304"/>
+      <c r="N39" s="304"/>
       <c r="S39" s="179"/>
       <c r="T39" s="179"/>
       <c r="U39" s="179"/>
@@ -14075,76 +14171,76 @@
       <c r="A40" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="297" t="n">
+      <c r="B40" s="305" t="n">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
         <v>0.00125400871638845</v>
       </c>
-      <c r="C40" s="297" t="n">
+      <c r="C40" s="305" t="n">
         <f aca="false">SUM(C14:C37)/Data_speed!$O$29</f>
         <v>0.00696899925992928</v>
       </c>
-      <c r="D40" s="297" t="n">
+      <c r="D40" s="305" t="n">
         <f aca="false">SUM(D14:D37)/Data_speed!$O$29</f>
         <v>0.0324603239865143</v>
       </c>
-      <c r="E40" s="297" t="n">
+      <c r="E40" s="305" t="n">
         <f aca="false">SUM(E14:E37)/Data_speed!$O$29</f>
         <v>0.559637365348244</v>
       </c>
-      <c r="F40" s="297" t="n">
+      <c r="F40" s="305" t="n">
         <f aca="false">SUM(F14:F37)/Data_speed!$O$29</f>
         <v>0.379245127867774</v>
       </c>
-      <c r="G40" s="297" t="n">
+      <c r="G40" s="305" t="n">
         <f aca="false">SUM(G14:G37)/Data_speed!$O$29</f>
         <v>0.0191801661047611</v>
       </c>
-      <c r="H40" s="297" t="n">
+      <c r="H40" s="305" t="n">
         <f aca="false">SUM(H14:H37)/Data_speed!$O$29</f>
         <v>0.000801743277690979</v>
       </c>
-      <c r="I40" s="297" t="n">
+      <c r="I40" s="305" t="n">
         <f aca="false">SUM(I14:I37)/Data_speed!$O$29</f>
         <v>0.000205575199407943</v>
       </c>
-      <c r="J40" s="297" t="n">
+      <c r="J40" s="305" t="n">
         <f aca="false">SUM(J14:J37)/Data_speed!$O$29</f>
         <v>4.11150398815887E-005</v>
       </c>
-      <c r="K40" s="297" t="n">
+      <c r="K40" s="305" t="n">
         <f aca="false">SUM(K14:K37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L40" s="297" t="n">
+      <c r="L40" s="305" t="n">
         <f aca="false">SUM(L14:L37)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M40" s="297" t="n">
+      <c r="M40" s="305" t="n">
         <f aca="false">SUM(M14:M37)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="N40" s="297" t="n">
+      <c r="N40" s="305" t="n">
         <f aca="false">SUM(N14:N37)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="P40" s="272" t="n">
+      <c r="P40" s="277" t="n">
         <f aca="false">SUM(B40:M40)</f>
         <v>1</v>
       </c>
-      <c r="Q40" s="287"/>
-      <c r="S40" s="310" t="n">
+      <c r="Q40" s="292"/>
+      <c r="S40" s="319" t="n">
         <f aca="false">AVERAGE(S14:S37)</f>
         <v>45</v>
       </c>
-      <c r="T40" s="310" t="n">
+      <c r="T40" s="319" t="n">
         <f aca="false">AVERAGE(T14:T37)</f>
         <v>47.9166666666667</v>
       </c>
-      <c r="U40" s="310" t="n">
+      <c r="U40" s="319" t="n">
         <f aca="false">AVERAGE(U14:U37)</f>
         <v>55.8333333333333</v>
       </c>
-      <c r="V40" s="311" t="n">
+      <c r="V40" s="320" t="n">
         <f aca="false">AVERAGE(V14:V37)</f>
         <v>49.84625</v>
       </c>
@@ -14153,55 +14249,55 @@
       <c r="A41" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="298" t="n">
+      <c r="B41" s="306" t="n">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
         <v>0.00123345119644766</v>
       </c>
-      <c r="C41" s="298" t="n">
+      <c r="C41" s="306" t="n">
         <f aca="false">SUM(C20:C35)/Data_speed!$O$29</f>
         <v>0.00680453910040293</v>
       </c>
-      <c r="D41" s="298" t="n">
+      <c r="D41" s="306" t="n">
         <f aca="false">SUM(D20:D35)/Data_speed!$O$29</f>
         <v>0.0308773949510731</v>
       </c>
-      <c r="E41" s="298" t="n">
+      <c r="E41" s="306" t="n">
         <f aca="false">SUM(E20:E35)/Data_speed!$O$29</f>
         <v>0.527793766959954</v>
       </c>
-      <c r="F41" s="298" t="n">
+      <c r="F41" s="306" t="n">
         <f aca="false">SUM(F20:F35)/Data_speed!$O$29</f>
         <v>0.348778883315517</v>
       </c>
-      <c r="G41" s="298" t="n">
+      <c r="G41" s="306" t="n">
         <f aca="false">SUM(G20:G35)/Data_speed!$O$29</f>
         <v>0.0156237151550037</v>
       </c>
-      <c r="H41" s="298" t="n">
+      <c r="H41" s="306" t="n">
         <f aca="false">SUM(H20:H35)/Data_speed!$O$29</f>
         <v>0.000411150398815887</v>
       </c>
-      <c r="I41" s="298" t="n">
+      <c r="I41" s="306" t="n">
         <f aca="false">SUM(I20:I35)/Data_speed!$O$29</f>
         <v>6.1672559822383E-005</v>
       </c>
-      <c r="J41" s="298" t="n">
+      <c r="J41" s="306" t="n">
         <f aca="false">SUM(J20:J35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
-      <c r="K41" s="298" t="n">
+      <c r="K41" s="306" t="n">
         <f aca="false">SUM(K20:K35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="L41" s="298" t="n">
+      <c r="L41" s="306" t="n">
         <f aca="false">SUM(L20:L35)/Data_speed!$O$29</f>
         <v>2.05575199407943E-005</v>
       </c>
-      <c r="M41" s="298" t="n">
+      <c r="M41" s="306" t="n">
         <f aca="false">SUM(M20:M35)/Data_speed!$O$29</f>
         <v>0.000164460159526355</v>
       </c>
-      <c r="N41" s="298" t="n">
+      <c r="N41" s="306" t="n">
         <f aca="false">SUM(N20:N35)/Data_speed!$O$29</f>
         <v>0</v>
       </c>
@@ -14209,20 +14305,20 @@
         <f aca="false">SUM(B41:M41)</f>
         <v>0.931790148836444</v>
       </c>
-      <c r="Q41" s="287"/>
-      <c r="S41" s="312" t="n">
+      <c r="Q41" s="292"/>
+      <c r="S41" s="321" t="n">
         <f aca="false">AVERAGE(S20:S35)</f>
         <v>45</v>
       </c>
-      <c r="T41" s="312" t="n">
+      <c r="T41" s="321" t="n">
         <f aca="false">AVERAGE(T20:T35)</f>
         <v>45</v>
       </c>
-      <c r="U41" s="312" t="n">
+      <c r="U41" s="321" t="n">
         <f aca="false">AVERAGE(U20:U35)</f>
         <v>55</v>
       </c>
-      <c r="V41" s="313" t="n">
+      <c r="V41" s="322" t="n">
         <f aca="false">AVERAGE(V20:V35)</f>
         <v>48.824375</v>
       </c>
@@ -14231,7 +14327,7 @@
       <c r="A42" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="299" t="n">
+      <c r="B42" s="307" t="n">
         <f aca="false">B40-B41</f>
         <v>2.05575199407942E-005</v>
       </c>
@@ -14275,33 +14371,33 @@
         <f aca="false">L40-L41</f>
         <v>0</v>
       </c>
-      <c r="M42" s="288" t="n">
+      <c r="M42" s="293" t="n">
         <f aca="false">M40-M41</f>
         <v>0</v>
       </c>
-      <c r="N42" s="288" t="n">
+      <c r="N42" s="293" t="n">
         <f aca="false">N40-N41</f>
         <v>0</v>
       </c>
       <c r="O42" s="10"/>
-      <c r="P42" s="275" t="n">
+      <c r="P42" s="280" t="n">
         <f aca="false">P40-P41</f>
         <v>0.0682098511635557</v>
       </c>
-      <c r="Q42" s="287"/>
-      <c r="S42" s="314" t="n">
+      <c r="Q42" s="292"/>
+      <c r="S42" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(S14:S19), AVERAGE(S36:S37))</f>
         <v>45</v>
       </c>
-      <c r="T42" s="314" t="n">
+      <c r="T42" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(T14:T19), AVERAGE(T36:T37))</f>
         <v>52.5</v>
       </c>
-      <c r="U42" s="314" t="n">
+      <c r="U42" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(U14:U19), AVERAGE(U36:U37))</f>
         <v>56.6666666666667</v>
       </c>
-      <c r="V42" s="315" t="n">
+      <c r="V42" s="324" t="n">
         <f aca="false">AVERAGE(AVERAGE(V14:V19), AVERAGE(V36:V37))</f>
         <v>51.175</v>
       </c>
@@ -14334,31 +14430,31 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="293" t="str">
+      <c r="A47" s="310" t="str">
         <f aca="false">_xlfn.CONCAT("Vitesse moyenne = ", INT(V76), " km/h")</f>
         <v>Vitesse moyenne = 50 km/h</v>
       </c>
-      <c r="B47" s="293"/>
-      <c r="C47" s="293"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="293"/>
-      <c r="F47" s="293"/>
-      <c r="G47" s="293"/>
-      <c r="H47" s="293"/>
-      <c r="I47" s="293"/>
-      <c r="J47" s="293"/>
-      <c r="K47" s="293"/>
-      <c r="L47" s="293"/>
-      <c r="M47" s="293"/>
-      <c r="N47" s="293"/>
-      <c r="O47" s="293"/>
-      <c r="P47" s="293"/>
-      <c r="Q47" s="293"/>
-      <c r="R47" s="294"/>
-      <c r="S47" s="294"/>
-      <c r="T47" s="294"/>
-      <c r="U47" s="294"/>
-      <c r="V47" s="294"/>
+      <c r="B47" s="310"/>
+      <c r="C47" s="310"/>
+      <c r="D47" s="310"/>
+      <c r="E47" s="310"/>
+      <c r="F47" s="310"/>
+      <c r="G47" s="310"/>
+      <c r="H47" s="310"/>
+      <c r="I47" s="310"/>
+      <c r="J47" s="310"/>
+      <c r="K47" s="310"/>
+      <c r="L47" s="310"/>
+      <c r="M47" s="310"/>
+      <c r="N47" s="310"/>
+      <c r="O47" s="310"/>
+      <c r="P47" s="310"/>
+      <c r="Q47" s="310"/>
+      <c r="R47" s="302"/>
+      <c r="S47" s="302"/>
+      <c r="T47" s="302"/>
+      <c r="U47" s="302"/>
+      <c r="V47" s="302"/>
     </row>
     <row r="48" customFormat="false" ht="20.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="247" t="str">
@@ -14376,20 +14472,20 @@
       <c r="K48" s="247"/>
       <c r="L48" s="247"/>
       <c r="M48" s="247"/>
-      <c r="N48" s="302"/>
+      <c r="N48" s="311"/>
       <c r="P48" s="219" t="str">
         <f aca="false">P12</f>
         <v>THM</v>
       </c>
-      <c r="Q48" s="285"/>
+      <c r="Q48" s="290"/>
       <c r="R48" s="186"/>
-      <c r="S48" s="303" t="str">
+      <c r="S48" s="312" t="str">
         <f aca="false">S12</f>
         <v>Vitesses caractéristiques</v>
       </c>
-      <c r="T48" s="303"/>
-      <c r="U48" s="303"/>
-      <c r="V48" s="303"/>
+      <c r="T48" s="312"/>
+      <c r="U48" s="312"/>
+      <c r="V48" s="312"/>
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="221" t="s">
@@ -14447,24 +14543,24 @@
         <f aca="false">N13</f>
         <v>&gt; 120 km/h</v>
       </c>
-      <c r="P49" s="295" t="str">
+      <c r="P49" s="303" t="str">
         <f aca="false">P13</f>
         <v>Véh/h</v>
       </c>
       <c r="Q49" s="118"/>
-      <c r="S49" s="304" t="str">
+      <c r="S49" s="313" t="str">
         <f aca="false">S13</f>
         <v>V15</v>
       </c>
-      <c r="T49" s="305" t="str">
+      <c r="T49" s="314" t="str">
         <f aca="false">T13</f>
         <v>V50</v>
       </c>
-      <c r="U49" s="306" t="str">
+      <c r="U49" s="315" t="str">
         <f aca="false">U13</f>
         <v>V85</v>
       </c>
-      <c r="V49" s="316" t="str">
+      <c r="V49" s="325" t="str">
         <f aca="false">V13</f>
         <v>Vmt</v>
       </c>
@@ -14530,19 +14626,19 @@
         <v>40.2857142857143</v>
       </c>
       <c r="Q50" s="177"/>
-      <c r="S50" s="308" t="n">
+      <c r="S50" s="317" t="n">
         <f aca="false">Data_speed!P33</f>
         <v>45</v>
       </c>
-      <c r="T50" s="308" t="n">
+      <c r="T50" s="317" t="n">
         <f aca="false">Data_speed!Q33</f>
         <v>55</v>
       </c>
-      <c r="U50" s="308" t="n">
+      <c r="U50" s="317" t="n">
         <f aca="false">Data_speed!R33</f>
         <v>55</v>
       </c>
-      <c r="V50" s="309" t="n">
+      <c r="V50" s="318" t="n">
         <f aca="false">Data_speed!S33</f>
         <v>50.42</v>
       </c>
@@ -14608,19 +14704,19 @@
         <v>19.8571428571429</v>
       </c>
       <c r="Q51" s="177"/>
-      <c r="S51" s="308" t="n">
+      <c r="S51" s="317" t="n">
         <f aca="false">Data_speed!P34</f>
         <v>45</v>
       </c>
-      <c r="T51" s="308" t="n">
+      <c r="T51" s="317" t="n">
         <f aca="false">Data_speed!Q34</f>
         <v>55</v>
       </c>
-      <c r="U51" s="308" t="n">
+      <c r="U51" s="317" t="n">
         <f aca="false">Data_speed!R34</f>
         <v>55</v>
       </c>
-      <c r="V51" s="309" t="n">
+      <c r="V51" s="318" t="n">
         <f aca="false">Data_speed!S34</f>
         <v>51.83</v>
       </c>
@@ -14686,19 +14782,19 @@
         <v>13.1428571428571</v>
       </c>
       <c r="Q52" s="177"/>
-      <c r="S52" s="308" t="n">
+      <c r="S52" s="317" t="n">
         <f aca="false">Data_speed!P35</f>
         <v>45</v>
       </c>
-      <c r="T52" s="308" t="n">
+      <c r="T52" s="317" t="n">
         <f aca="false">Data_speed!Q35</f>
         <v>55</v>
       </c>
-      <c r="U52" s="308" t="n">
+      <c r="U52" s="317" t="n">
         <f aca="false">Data_speed!R35</f>
         <v>65</v>
       </c>
-      <c r="V52" s="309" t="n">
+      <c r="V52" s="318" t="n">
         <f aca="false">Data_speed!S35</f>
         <v>52.39</v>
       </c>
@@ -14764,19 +14860,19 @@
         <v>14.8571428571429</v>
       </c>
       <c r="Q53" s="177"/>
-      <c r="S53" s="308" t="n">
+      <c r="S53" s="317" t="n">
         <f aca="false">Data_speed!P36</f>
         <v>45</v>
       </c>
-      <c r="T53" s="308" t="n">
+      <c r="T53" s="317" t="n">
         <f aca="false">Data_speed!Q36</f>
         <v>55</v>
       </c>
-      <c r="U53" s="308" t="n">
+      <c r="U53" s="317" t="n">
         <f aca="false">Data_speed!R36</f>
         <v>55</v>
       </c>
-      <c r="V53" s="309" t="n">
+      <c r="V53" s="318" t="n">
         <f aca="false">Data_speed!S36</f>
         <v>52.98</v>
       </c>
@@ -14842,19 +14938,19 @@
         <v>47</v>
       </c>
       <c r="Q54" s="177"/>
-      <c r="S54" s="308" t="n">
+      <c r="S54" s="317" t="n">
         <f aca="false">Data_speed!P37</f>
         <v>45</v>
       </c>
-      <c r="T54" s="308" t="n">
+      <c r="T54" s="317" t="n">
         <f aca="false">Data_speed!Q37</f>
         <v>55</v>
       </c>
-      <c r="U54" s="308" t="n">
+      <c r="U54" s="317" t="n">
         <f aca="false">Data_speed!R37</f>
         <v>65</v>
       </c>
-      <c r="V54" s="309" t="n">
+      <c r="V54" s="318" t="n">
         <f aca="false">Data_speed!S37</f>
         <v>53.21</v>
       </c>
@@ -14920,19 +15016,19 @@
         <v>85.4285714285714</v>
       </c>
       <c r="Q55" s="177"/>
-      <c r="S55" s="308" t="n">
+      <c r="S55" s="317" t="n">
         <f aca="false">Data_speed!P38</f>
         <v>45</v>
       </c>
-      <c r="T55" s="308" t="n">
+      <c r="T55" s="317" t="n">
         <f aca="false">Data_speed!Q38</f>
         <v>55</v>
       </c>
-      <c r="U55" s="308" t="n">
+      <c r="U55" s="317" t="n">
         <f aca="false">Data_speed!R38</f>
         <v>55</v>
       </c>
-      <c r="V55" s="309" t="n">
+      <c r="V55" s="318" t="n">
         <f aca="false">Data_speed!S38</f>
         <v>51.49</v>
       </c>
@@ -14998,19 +15094,19 @@
         <v>305.714285714286</v>
       </c>
       <c r="Q56" s="177"/>
-      <c r="S56" s="308" t="n">
+      <c r="S56" s="317" t="n">
         <f aca="false">Data_speed!P39</f>
         <v>45</v>
       </c>
-      <c r="T56" s="308" t="n">
+      <c r="T56" s="317" t="n">
         <f aca="false">Data_speed!Q39</f>
         <v>45</v>
       </c>
-      <c r="U56" s="308" t="n">
+      <c r="U56" s="317" t="n">
         <f aca="false">Data_speed!R39</f>
         <v>55</v>
       </c>
-      <c r="V56" s="309" t="n">
+      <c r="V56" s="318" t="n">
         <f aca="false">Data_speed!S39</f>
         <v>50.26</v>
       </c>
@@ -15076,19 +15172,19 @@
         <v>512.428571428571</v>
       </c>
       <c r="Q57" s="177"/>
-      <c r="S57" s="308" t="n">
+      <c r="S57" s="317" t="n">
         <f aca="false">Data_speed!P40</f>
         <v>45</v>
       </c>
-      <c r="T57" s="308" t="n">
+      <c r="T57" s="317" t="n">
         <f aca="false">Data_speed!Q40</f>
         <v>45</v>
       </c>
-      <c r="U57" s="308" t="n">
+      <c r="U57" s="317" t="n">
         <f aca="false">Data_speed!R40</f>
         <v>55</v>
       </c>
-      <c r="V57" s="309" t="n">
+      <c r="V57" s="318" t="n">
         <f aca="false">Data_speed!S40</f>
         <v>49.16</v>
       </c>
@@ -15154,19 +15250,19 @@
         <v>402.571428571429</v>
       </c>
       <c r="Q58" s="177"/>
-      <c r="S58" s="308" t="n">
+      <c r="S58" s="317" t="n">
         <f aca="false">Data_speed!P41</f>
         <v>45</v>
       </c>
-      <c r="T58" s="308" t="n">
+      <c r="T58" s="317" t="n">
         <f aca="false">Data_speed!Q41</f>
         <v>45</v>
       </c>
-      <c r="U58" s="308" t="n">
+      <c r="U58" s="317" t="n">
         <f aca="false">Data_speed!R41</f>
         <v>55</v>
       </c>
-      <c r="V58" s="309" t="n">
+      <c r="V58" s="318" t="n">
         <f aca="false">Data_speed!S41</f>
         <v>49.43</v>
       </c>
@@ -15232,19 +15328,19 @@
         <v>353.571428571429</v>
       </c>
       <c r="Q59" s="177"/>
-      <c r="S59" s="308" t="n">
+      <c r="S59" s="317" t="n">
         <f aca="false">Data_speed!P42</f>
         <v>45</v>
       </c>
-      <c r="T59" s="308" t="n">
+      <c r="T59" s="317" t="n">
         <f aca="false">Data_speed!Q42</f>
         <v>45</v>
       </c>
-      <c r="U59" s="308" t="n">
+      <c r="U59" s="317" t="n">
         <f aca="false">Data_speed!R42</f>
         <v>55</v>
       </c>
-      <c r="V59" s="309" t="n">
+      <c r="V59" s="318" t="n">
         <f aca="false">Data_speed!S42</f>
         <v>49.7</v>
       </c>
@@ -15310,19 +15406,19 @@
         <v>387.714285714286</v>
       </c>
       <c r="Q60" s="177"/>
-      <c r="S60" s="308" t="n">
+      <c r="S60" s="317" t="n">
         <f aca="false">Data_speed!P43</f>
         <v>45</v>
       </c>
-      <c r="T60" s="308" t="n">
+      <c r="T60" s="317" t="n">
         <f aca="false">Data_speed!Q43</f>
         <v>45</v>
       </c>
-      <c r="U60" s="308" t="n">
+      <c r="U60" s="317" t="n">
         <f aca="false">Data_speed!R43</f>
         <v>55</v>
       </c>
-      <c r="V60" s="309" t="n">
+      <c r="V60" s="318" t="n">
         <f aca="false">Data_speed!S43</f>
         <v>48.99</v>
       </c>
@@ -15388,19 +15484,19 @@
         <v>483.857142857143</v>
       </c>
       <c r="Q61" s="177"/>
-      <c r="S61" s="308" t="n">
+      <c r="S61" s="317" t="n">
         <f aca="false">Data_speed!P44</f>
         <v>45</v>
       </c>
-      <c r="T61" s="308" t="n">
+      <c r="T61" s="317" t="n">
         <f aca="false">Data_speed!Q44</f>
         <v>45</v>
       </c>
-      <c r="U61" s="308" t="n">
+      <c r="U61" s="317" t="n">
         <f aca="false">Data_speed!R44</f>
         <v>55</v>
       </c>
-      <c r="V61" s="309" t="n">
+      <c r="V61" s="318" t="n">
         <f aca="false">Data_speed!S44</f>
         <v>49.33</v>
       </c>
@@ -15466,19 +15562,19 @@
         <v>407.714285714286</v>
       </c>
       <c r="Q62" s="177"/>
-      <c r="S62" s="308" t="n">
+      <c r="S62" s="317" t="n">
         <f aca="false">Data_speed!P45</f>
         <v>45</v>
       </c>
-      <c r="T62" s="308" t="n">
+      <c r="T62" s="317" t="n">
         <f aca="false">Data_speed!Q45</f>
         <v>55</v>
       </c>
-      <c r="U62" s="308" t="n">
+      <c r="U62" s="317" t="n">
         <f aca="false">Data_speed!R45</f>
         <v>55</v>
       </c>
-      <c r="V62" s="309" t="n">
+      <c r="V62" s="318" t="n">
         <f aca="false">Data_speed!S45</f>
         <v>50.05</v>
       </c>
@@ -15544,19 +15640,19 @@
         <v>454.285714285714</v>
       </c>
       <c r="Q63" s="177"/>
-      <c r="S63" s="308" t="n">
+      <c r="S63" s="317" t="n">
         <f aca="false">Data_speed!P46</f>
         <v>45</v>
       </c>
-      <c r="T63" s="308" t="n">
+      <c r="T63" s="317" t="n">
         <f aca="false">Data_speed!Q46</f>
         <v>45</v>
       </c>
-      <c r="U63" s="308" t="n">
+      <c r="U63" s="317" t="n">
         <f aca="false">Data_speed!R46</f>
         <v>55</v>
       </c>
-      <c r="V63" s="309" t="n">
+      <c r="V63" s="318" t="n">
         <f aca="false">Data_speed!S46</f>
         <v>49.89</v>
       </c>
@@ -15622,19 +15718,19 @@
         <v>400.285714285714</v>
       </c>
       <c r="Q64" s="177"/>
-      <c r="S64" s="308" t="n">
+      <c r="S64" s="317" t="n">
         <f aca="false">Data_speed!P47</f>
         <v>45</v>
       </c>
-      <c r="T64" s="308" t="n">
+      <c r="T64" s="317" t="n">
         <f aca="false">Data_speed!Q47</f>
         <v>45</v>
       </c>
-      <c r="U64" s="308" t="n">
+      <c r="U64" s="317" t="n">
         <f aca="false">Data_speed!R47</f>
         <v>55</v>
       </c>
-      <c r="V64" s="309" t="n">
+      <c r="V64" s="318" t="n">
         <f aca="false">Data_speed!S47</f>
         <v>49.24</v>
       </c>
@@ -15700,19 +15796,19 @@
         <v>423</v>
       </c>
       <c r="Q65" s="177"/>
-      <c r="S65" s="308" t="n">
+      <c r="S65" s="317" t="n">
         <f aca="false">Data_speed!P48</f>
         <v>45</v>
       </c>
-      <c r="T65" s="308" t="n">
+      <c r="T65" s="317" t="n">
         <f aca="false">Data_speed!Q48</f>
         <v>45</v>
       </c>
-      <c r="U65" s="308" t="n">
+      <c r="U65" s="317" t="n">
         <f aca="false">Data_speed!R48</f>
         <v>55</v>
       </c>
-      <c r="V65" s="309" t="n">
+      <c r="V65" s="318" t="n">
         <f aca="false">Data_speed!S48</f>
         <v>49.64</v>
       </c>
@@ -15778,19 +15874,19 @@
         <v>512.142857142857</v>
       </c>
       <c r="Q66" s="177"/>
-      <c r="S66" s="308" t="n">
+      <c r="S66" s="317" t="n">
         <f aca="false">Data_speed!P49</f>
         <v>45</v>
       </c>
-      <c r="T66" s="308" t="n">
+      <c r="T66" s="317" t="n">
         <f aca="false">Data_speed!Q49</f>
         <v>45</v>
       </c>
-      <c r="U66" s="308" t="n">
+      <c r="U66" s="317" t="n">
         <f aca="false">Data_speed!R49</f>
         <v>55</v>
       </c>
-      <c r="V66" s="309" t="n">
+      <c r="V66" s="318" t="n">
         <f aca="false">Data_speed!S49</f>
         <v>49.31</v>
       </c>
@@ -15856,19 +15952,19 @@
         <v>554.142857142857</v>
       </c>
       <c r="Q67" s="177"/>
-      <c r="S67" s="308" t="n">
+      <c r="S67" s="317" t="n">
         <f aca="false">Data_speed!P50</f>
         <v>45</v>
       </c>
-      <c r="T67" s="308" t="n">
+      <c r="T67" s="317" t="n">
         <f aca="false">Data_speed!Q50</f>
         <v>45</v>
       </c>
-      <c r="U67" s="308" t="n">
+      <c r="U67" s="317" t="n">
         <f aca="false">Data_speed!R50</f>
         <v>55</v>
       </c>
-      <c r="V67" s="309" t="n">
+      <c r="V67" s="318" t="n">
         <f aca="false">Data_speed!S50</f>
         <v>49.41</v>
       </c>
@@ -15934,19 +16030,19 @@
         <v>466.285714285714</v>
       </c>
       <c r="Q68" s="177"/>
-      <c r="S68" s="308" t="n">
+      <c r="S68" s="317" t="n">
         <f aca="false">Data_speed!P51</f>
         <v>45</v>
       </c>
-      <c r="T68" s="308" t="n">
+      <c r="T68" s="317" t="n">
         <f aca="false">Data_speed!Q51</f>
         <v>55</v>
       </c>
-      <c r="U68" s="308" t="n">
+      <c r="U68" s="317" t="n">
         <f aca="false">Data_speed!R51</f>
         <v>55</v>
       </c>
-      <c r="V68" s="309" t="n">
+      <c r="V68" s="318" t="n">
         <f aca="false">Data_speed!S51</f>
         <v>50.19</v>
       </c>
@@ -16012,19 +16108,19 @@
         <v>329.285714285714</v>
       </c>
       <c r="Q69" s="177"/>
-      <c r="S69" s="308" t="n">
+      <c r="S69" s="317" t="n">
         <f aca="false">Data_speed!P52</f>
         <v>45</v>
       </c>
-      <c r="T69" s="308" t="n">
+      <c r="T69" s="317" t="n">
         <f aca="false">Data_speed!Q52</f>
         <v>55</v>
       </c>
-      <c r="U69" s="308" t="n">
+      <c r="U69" s="317" t="n">
         <f aca="false">Data_speed!R52</f>
         <v>55</v>
       </c>
-      <c r="V69" s="309" t="n">
+      <c r="V69" s="318" t="n">
         <f aca="false">Data_speed!S52</f>
         <v>50.54</v>
       </c>
@@ -16090,19 +16186,19 @@
         <v>215.428571428571</v>
       </c>
       <c r="Q70" s="177"/>
-      <c r="S70" s="308" t="n">
+      <c r="S70" s="317" t="n">
         <f aca="false">Data_speed!P53</f>
         <v>45</v>
       </c>
-      <c r="T70" s="308" t="n">
+      <c r="T70" s="317" t="n">
         <f aca="false">Data_speed!Q53</f>
         <v>55</v>
       </c>
-      <c r="U70" s="308" t="n">
+      <c r="U70" s="317" t="n">
         <f aca="false">Data_speed!R53</f>
         <v>55</v>
       </c>
-      <c r="V70" s="309" t="n">
+      <c r="V70" s="318" t="n">
         <f aca="false">Data_speed!S53</f>
         <v>50.52</v>
       </c>
@@ -16168,19 +16264,19 @@
         <v>174.714285714286</v>
       </c>
       <c r="Q71" s="177"/>
-      <c r="S71" s="308" t="n">
+      <c r="S71" s="317" t="n">
         <f aca="false">Data_speed!P54</f>
         <v>45</v>
       </c>
-      <c r="T71" s="308" t="n">
+      <c r="T71" s="317" t="n">
         <f aca="false">Data_speed!Q54</f>
         <v>45</v>
       </c>
-      <c r="U71" s="308" t="n">
+      <c r="U71" s="317" t="n">
         <f aca="false">Data_speed!R54</f>
         <v>55</v>
       </c>
-      <c r="V71" s="309" t="n">
+      <c r="V71" s="318" t="n">
         <f aca="false">Data_speed!S54</f>
         <v>49.57</v>
       </c>
@@ -16246,19 +16342,19 @@
         <v>157.428571428571</v>
       </c>
       <c r="Q72" s="177"/>
-      <c r="S72" s="308" t="n">
+      <c r="S72" s="317" t="n">
         <f aca="false">Data_speed!P55</f>
         <v>45</v>
       </c>
-      <c r="T72" s="308" t="n">
+      <c r="T72" s="317" t="n">
         <f aca="false">Data_speed!Q55</f>
         <v>55</v>
       </c>
-      <c r="U72" s="308" t="n">
+      <c r="U72" s="317" t="n">
         <f aca="false">Data_speed!R55</f>
         <v>55</v>
       </c>
-      <c r="V72" s="309" t="n">
+      <c r="V72" s="318" t="n">
         <f aca="false">Data_speed!S55</f>
         <v>50.42</v>
       </c>
@@ -16324,19 +16420,19 @@
         <v>91.7142857142857</v>
       </c>
       <c r="Q73" s="177"/>
-      <c r="S73" s="308" t="n">
+      <c r="S73" s="317" t="n">
         <f aca="false">Data_speed!P56</f>
         <v>45</v>
       </c>
-      <c r="T73" s="308" t="n">
+      <c r="T73" s="317" t="n">
         <f aca="false">Data_speed!Q56</f>
         <v>55</v>
       </c>
-      <c r="U73" s="308" t="n">
+      <c r="U73" s="317" t="n">
         <f aca="false">Data_speed!R56</f>
         <v>55</v>
       </c>
-      <c r="V73" s="309" t="n">
+      <c r="V73" s="318" t="n">
         <f aca="false">Data_speed!S56</f>
         <v>50.85</v>
       </c>
@@ -16348,8 +16444,8 @@
       <c r="V74" s="179"/>
     </row>
     <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M75" s="296"/>
-      <c r="N75" s="296"/>
+      <c r="M75" s="304"/>
+      <c r="N75" s="304"/>
       <c r="S75" s="179"/>
       <c r="T75" s="179"/>
       <c r="U75" s="179"/>
@@ -16359,76 +16455,76 @@
       <c r="A76" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="297" t="n">
+      <c r="B76" s="305" t="n">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C76" s="297" t="n">
+      <c r="C76" s="305" t="n">
         <f aca="false">SUM(C50:C73)/Data_speed!$O$57</f>
         <v>0.00323091674657106</v>
       </c>
-      <c r="D76" s="297" t="n">
+      <c r="D76" s="305" t="n">
         <f aca="false">SUM(D50:D73)/Data_speed!$O$57</f>
         <v>0.0208029349230833</v>
       </c>
-      <c r="E76" s="297" t="n">
+      <c r="E76" s="305" t="n">
         <f aca="false">SUM(E50:E73)/Data_speed!$O$57</f>
         <v>0.506044941009714</v>
       </c>
-      <c r="F76" s="297" t="n">
+      <c r="F76" s="305" t="n">
         <f aca="false">SUM(F50:F73)/Data_speed!$O$57</f>
         <v>0.435881936048693</v>
       </c>
-      <c r="G76" s="297" t="n">
+      <c r="G76" s="305" t="n">
         <f aca="false">SUM(G50:G73)/Data_speed!$O$57</f>
         <v>0.0318088964855964</v>
       </c>
-      <c r="H76" s="297" t="n">
+      <c r="H76" s="305" t="n">
         <f aca="false">SUM(H50:H73)/Data_speed!$O$57</f>
         <v>0.00122983282611415</v>
       </c>
-      <c r="I76" s="297" t="n">
+      <c r="I76" s="305" t="n">
         <f aca="false">SUM(I50:I73)/Data_speed!$O$57</f>
         <v>0.000187601617542836</v>
       </c>
-      <c r="J76" s="297" t="n">
+      <c r="J76" s="305" t="n">
         <f aca="false">SUM(J50:J73)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K76" s="297" t="n">
+      <c r="K76" s="305" t="n">
         <f aca="false">SUM(K50:K73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L76" s="297" t="n">
+      <c r="L76" s="305" t="n">
         <f aca="false">SUM(L50:L73)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M76" s="297" t="n">
+      <c r="M76" s="305" t="n">
         <f aca="false">SUM(M50:M73)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="N76" s="297" t="n">
+      <c r="N76" s="305" t="n">
         <f aca="false">SUM(N50:N73)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="P76" s="272" t="n">
+      <c r="P76" s="277" t="n">
         <f aca="false">SUM(B76:M76)</f>
         <v>1</v>
       </c>
-      <c r="Q76" s="287"/>
-      <c r="S76" s="310" t="n">
+      <c r="Q76" s="292"/>
+      <c r="S76" s="319" t="n">
         <f aca="false">AVERAGE(S50:S73)</f>
         <v>45</v>
       </c>
-      <c r="T76" s="310" t="n">
+      <c r="T76" s="319" t="n">
         <f aca="false">AVERAGE(T50:T73)</f>
         <v>50</v>
       </c>
-      <c r="U76" s="310" t="n">
+      <c r="U76" s="319" t="n">
         <f aca="false">AVERAGE(U50:U73)</f>
         <v>55.8333333333333</v>
       </c>
-      <c r="V76" s="311" t="n">
+      <c r="V76" s="320" t="n">
         <f aca="false">AVERAGE(V50:V73)</f>
         <v>50.3675</v>
       </c>
@@ -16437,55 +16533,55 @@
       <c r="A77" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="298" t="n">
+      <c r="B77" s="306" t="n">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
         <v>0.000646183349314212</v>
       </c>
-      <c r="C77" s="298" t="n">
+      <c r="C77" s="306" t="n">
         <f aca="false">SUM(C56:C71)/Data_speed!$O$57</f>
         <v>0.00318922749822821</v>
       </c>
-      <c r="D77" s="298" t="n">
+      <c r="D77" s="306" t="n">
         <f aca="false">SUM(D56:D71)/Data_speed!$O$57</f>
         <v>0.019760703714512</v>
       </c>
-      <c r="E77" s="298" t="n">
+      <c r="E77" s="306" t="n">
         <f aca="false">SUM(E56:E71)/Data_speed!$O$57</f>
         <v>0.475986992954517</v>
       </c>
-      <c r="F77" s="298" t="n">
+      <c r="F77" s="306" t="n">
         <f aca="false">SUM(F56:F71)/Data_speed!$O$57</f>
         <v>0.404073039563097</v>
       </c>
-      <c r="G77" s="298" t="n">
+      <c r="G77" s="306" t="n">
         <f aca="false">SUM(G56:G71)/Data_speed!$O$57</f>
         <v>0.0266394296910827</v>
       </c>
-      <c r="H77" s="298" t="n">
+      <c r="H77" s="306" t="n">
         <f aca="false">SUM(H56:H71)/Data_speed!$O$57</f>
         <v>0.000854629591028474</v>
       </c>
-      <c r="I77" s="298" t="n">
+      <c r="I77" s="306" t="n">
         <f aca="false">SUM(I56:I71)/Data_speed!$O$57</f>
         <v>0.000145912369199983</v>
       </c>
-      <c r="J77" s="298" t="n">
+      <c r="J77" s="306" t="n">
         <f aca="false">SUM(J56:J71)/Data_speed!$O$57</f>
         <v>2.08446241714262E-005</v>
       </c>
-      <c r="K77" s="298" t="n">
+      <c r="K77" s="306" t="n">
         <f aca="false">SUM(K56:K71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
-      <c r="L77" s="298" t="n">
+      <c r="L77" s="306" t="n">
         <f aca="false">SUM(L56:L71)/Data_speed!$O$57</f>
         <v>4.16892483428524E-005</v>
       </c>
-      <c r="M77" s="298" t="n">
+      <c r="M77" s="306" t="n">
         <f aca="false">SUM(M56:M71)/Data_speed!$O$57</f>
         <v>0.000104223120857131</v>
       </c>
-      <c r="N77" s="298" t="n">
+      <c r="N77" s="306" t="n">
         <f aca="false">SUM(N56:N71)/Data_speed!$O$57</f>
         <v>0</v>
       </c>
@@ -16493,20 +16589,20 @@
         <f aca="false">SUM(B77:M77)</f>
         <v>0.931462875724351</v>
       </c>
-      <c r="Q77" s="287"/>
-      <c r="S77" s="312" t="n">
+      <c r="Q77" s="292"/>
+      <c r="S77" s="321" t="n">
         <f aca="false">AVERAGE(S56:S71)</f>
         <v>45</v>
       </c>
-      <c r="T77" s="312" t="n">
+      <c r="T77" s="321" t="n">
         <f aca="false">AVERAGE(T56:T71)</f>
         <v>47.5</v>
       </c>
-      <c r="U77" s="312" t="n">
+      <c r="U77" s="321" t="n">
         <f aca="false">AVERAGE(U56:U71)</f>
         <v>55</v>
       </c>
-      <c r="V77" s="313" t="n">
+      <c r="V77" s="322" t="n">
         <f aca="false">AVERAGE(V56:V71)</f>
         <v>49.701875</v>
       </c>
@@ -16515,7 +16611,7 @@
       <c r="A78" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="299" t="n">
+      <c r="B78" s="307" t="n">
         <f aca="false">B76-B77</f>
         <v>0</v>
       </c>
@@ -16559,33 +16655,33 @@
         <f aca="false">L76-L77</f>
         <v>0</v>
       </c>
-      <c r="M78" s="288" t="n">
+      <c r="M78" s="293" t="n">
         <f aca="false">M76-M77</f>
         <v>0</v>
       </c>
-      <c r="N78" s="288" t="n">
+      <c r="N78" s="293" t="n">
         <f aca="false">N76-N77</f>
         <v>0</v>
       </c>
       <c r="O78" s="10"/>
-      <c r="P78" s="275" t="n">
+      <c r="P78" s="280" t="n">
         <f aca="false">P76-P77</f>
         <v>0.0685371242756494</v>
       </c>
-      <c r="Q78" s="287"/>
-      <c r="S78" s="314" t="n">
+      <c r="Q78" s="292"/>
+      <c r="S78" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(S50:S55), AVERAGE(S72:S73))</f>
         <v>45</v>
       </c>
-      <c r="T78" s="314" t="n">
+      <c r="T78" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(T50:T55), AVERAGE(T72:T73))</f>
         <v>55</v>
       </c>
-      <c r="U78" s="314" t="n">
+      <c r="U78" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(U50:U55), AVERAGE(U72:U73))</f>
         <v>56.6666666666667</v>
       </c>
-      <c r="V78" s="315" t="n">
+      <c r="V78" s="324" t="n">
         <f aca="false">AVERAGE(AVERAGE(V50:V55), AVERAGE(V72:V73))</f>
         <v>51.3441666666667</v>
       </c>
@@ -16626,7 +16722,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -26621,7 +26717,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -27896,7 +27992,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -31194,7 +31290,7 @@
   <pageMargins left="0.39375" right="0.39375" top="0.7875" bottom="0.39375" header="0.39375" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -33765,7 +33861,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -33778,8 +33874,8 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I73" activeCellId="0" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34365,23 +34461,23 @@
         <f aca="false">SWISS7_H!C12</f>
         <v>MR (2)</v>
       </c>
-      <c r="D38" s="269" t="str">
+      <c r="D38" s="270" t="str">
         <f aca="false">SWISS7_H!D12</f>
         <v>PW (11)</v>
       </c>
-      <c r="E38" s="269" t="str">
+      <c r="E38" s="271" t="str">
         <f aca="false">SWISS7_H!E12</f>
         <v>LIE (12)</v>
       </c>
-      <c r="F38" s="269" t="str">
+      <c r="F38" s="272" t="str">
         <f aca="false">SWISS7_H!F12</f>
         <v>LW (8)</v>
       </c>
-      <c r="G38" s="269" t="str">
+      <c r="G38" s="273" t="str">
         <f aca="false">SWISS7_H!G12</f>
         <v>LZ (9)</v>
       </c>
-      <c r="H38" s="269" t="str">
+      <c r="H38" s="274" t="str">
         <f aca="false">SWISS7_H!H12</f>
         <v>SZ (10)</v>
       </c>
@@ -34394,33 +34490,33 @@
         <f aca="false">SWISS7_H!B38</f>
         <v>0.00489279032954382</v>
       </c>
-      <c r="C39" s="270" t="n">
+      <c r="C39" s="275" t="n">
         <f aca="false">SWISS7_H!C38</f>
         <v>0.0236210760027136</v>
       </c>
-      <c r="D39" s="270" t="n">
+      <c r="D39" s="275" t="n">
         <f aca="false">SWISS7_H!D38</f>
         <v>0.922948831280965</v>
       </c>
-      <c r="E39" s="270" t="n">
+      <c r="E39" s="275" t="n">
         <f aca="false">SWISS7_H!E38</f>
         <v>0.00222025779659972</v>
       </c>
-      <c r="F39" s="270" t="n">
+      <c r="F39" s="275" t="n">
         <f aca="false">SWISS7_H!F38</f>
         <v>0.0351129658943733</v>
       </c>
-      <c r="G39" s="270" t="n">
+      <c r="G39" s="275" t="n">
         <f aca="false">SWISS7_H!G38</f>
         <v>0.00238472133708858</v>
       </c>
-      <c r="H39" s="270" t="n">
+      <c r="H39" s="275" t="n">
         <f aca="false">SWISS7_H!H38</f>
         <v>0.000616738276833254</v>
       </c>
-      <c r="I39" s="271"/>
+      <c r="I39" s="276"/>
       <c r="J39" s="42"/>
-      <c r="K39" s="272" t="n">
+      <c r="K39" s="277" t="n">
         <f aca="false">SWISS7_H!K38</f>
         <v>0.991797380918118</v>
       </c>
@@ -34433,31 +34529,31 @@
         <f aca="false">SWISS7_H!B39</f>
         <v>0.00479000061673828</v>
       </c>
-      <c r="C40" s="273" t="n">
+      <c r="C40" s="278" t="n">
         <f aca="false">SWISS7_H!C39</f>
         <v>0.0223464835639249</v>
       </c>
-      <c r="D40" s="273" t="n">
+      <c r="D40" s="278" t="n">
         <f aca="false">SWISS7_H!D39</f>
         <v>0.85923976728409</v>
       </c>
-      <c r="E40" s="273" t="n">
+      <c r="E40" s="278" t="n">
         <f aca="false">SWISS7_H!E39</f>
         <v>0.0021791419114775</v>
       </c>
-      <c r="F40" s="273" t="n">
+      <c r="F40" s="278" t="n">
         <f aca="false">SWISS7_H!F39</f>
         <v>0.0332627510638735</v>
       </c>
-      <c r="G40" s="273" t="n">
+      <c r="G40" s="278" t="n">
         <f aca="false">SWISS7_H!G39</f>
         <v>0.00232304750940526</v>
       </c>
-      <c r="H40" s="273" t="n">
+      <c r="H40" s="278" t="n">
         <f aca="false">SWISS7_H!H39</f>
         <v>0.000513948564027712</v>
       </c>
-      <c r="I40" s="271"/>
+      <c r="I40" s="276"/>
       <c r="J40" s="42"/>
       <c r="K40" s="262" t="n">
         <f aca="false">SWISS7_H!K39</f>
@@ -34492,13 +34588,13 @@
         <f aca="false">SWISS7_H!G40</f>
         <v>6.16738276833255E-005</v>
       </c>
-      <c r="H41" s="274" t="n">
+      <c r="H41" s="279" t="n">
         <f aca="false">SWISS7_H!H40</f>
         <v>0.000102789712805542</v>
       </c>
-      <c r="I41" s="271"/>
+      <c r="I41" s="276"/>
       <c r="J41" s="42"/>
-      <c r="K41" s="275" t="n">
+      <c r="K41" s="280" t="n">
         <f aca="false">SWISS7_H!K40</f>
         <v>0.0671422404045803</v>
       </c>
@@ -34521,8 +34617,8 @@
       <c r="E46" s="255"/>
       <c r="F46" s="255"/>
       <c r="G46" s="255"/>
-      <c r="H46" s="276"/>
-      <c r="I46" s="277"/>
+      <c r="H46" s="281"/>
+      <c r="I46" s="282"/>
       <c r="J46" s="257"/>
       <c r="K46" s="220" t="str">
         <f aca="false">K11</f>
@@ -34537,8 +34633,8 @@
       <c r="E47" s="177"/>
       <c r="F47" s="177"/>
       <c r="G47" s="177"/>
-      <c r="H47" s="278"/>
-      <c r="I47" s="278"/>
+      <c r="H47" s="283"/>
+      <c r="I47" s="283"/>
       <c r="J47" s="225" t="s">
         <v>110</v>
       </c>
@@ -34552,8 +34648,8 @@
       <c r="E48" s="177"/>
       <c r="F48" s="177"/>
       <c r="G48" s="177"/>
-      <c r="H48" s="278"/>
-      <c r="I48" s="278"/>
+      <c r="H48" s="283"/>
+      <c r="I48" s="283"/>
       <c r="J48" s="227" t="s">
         <v>38</v>
       </c>
@@ -34570,8 +34666,8 @@
       <c r="E49" s="177"/>
       <c r="F49" s="177"/>
       <c r="G49" s="177"/>
-      <c r="H49" s="278"/>
-      <c r="I49" s="278"/>
+      <c r="H49" s="283"/>
+      <c r="I49" s="283"/>
       <c r="J49" s="228" t="s">
         <v>39</v>
       </c>
@@ -34588,8 +34684,8 @@
       <c r="E50" s="177"/>
       <c r="F50" s="177"/>
       <c r="G50" s="177"/>
-      <c r="H50" s="278"/>
-      <c r="I50" s="278"/>
+      <c r="H50" s="283"/>
+      <c r="I50" s="283"/>
       <c r="J50" s="228" t="s">
         <v>40</v>
       </c>
@@ -34606,8 +34702,8 @@
       <c r="E51" s="177"/>
       <c r="F51" s="177"/>
       <c r="G51" s="177"/>
-      <c r="H51" s="278"/>
-      <c r="I51" s="278"/>
+      <c r="H51" s="283"/>
+      <c r="I51" s="283"/>
       <c r="J51" s="228" t="s">
         <v>41</v>
       </c>
@@ -34624,8 +34720,8 @@
       <c r="E52" s="177"/>
       <c r="F52" s="177"/>
       <c r="G52" s="177"/>
-      <c r="H52" s="278"/>
-      <c r="I52" s="278"/>
+      <c r="H52" s="283"/>
+      <c r="I52" s="283"/>
       <c r="J52" s="228" t="s">
         <v>42</v>
       </c>
@@ -34642,8 +34738,8 @@
       <c r="E53" s="177"/>
       <c r="F53" s="177"/>
       <c r="G53" s="177"/>
-      <c r="H53" s="278"/>
-      <c r="I53" s="278"/>
+      <c r="H53" s="283"/>
+      <c r="I53" s="283"/>
       <c r="J53" s="228" t="s">
         <v>43</v>
       </c>
@@ -34660,8 +34756,8 @@
       <c r="E54" s="177"/>
       <c r="F54" s="177"/>
       <c r="G54" s="177"/>
-      <c r="H54" s="278"/>
-      <c r="I54" s="278"/>
+      <c r="H54" s="283"/>
+      <c r="I54" s="283"/>
       <c r="J54" s="259" t="s">
         <v>44</v>
       </c>
@@ -34678,8 +34774,8 @@
       <c r="E55" s="177"/>
       <c r="F55" s="177"/>
       <c r="G55" s="177"/>
-      <c r="H55" s="278"/>
-      <c r="I55" s="278"/>
+      <c r="H55" s="283"/>
+      <c r="I55" s="283"/>
       <c r="J55" s="261" t="s">
         <v>45</v>
       </c>
@@ -34696,8 +34792,8 @@
       <c r="E56" s="177"/>
       <c r="F56" s="177"/>
       <c r="G56" s="177"/>
-      <c r="H56" s="278"/>
-      <c r="I56" s="278"/>
+      <c r="H56" s="283"/>
+      <c r="I56" s="283"/>
       <c r="J56" s="261" t="s">
         <v>46</v>
       </c>
@@ -34714,8 +34810,8 @@
       <c r="E57" s="177"/>
       <c r="F57" s="177"/>
       <c r="G57" s="177"/>
-      <c r="H57" s="278"/>
-      <c r="I57" s="278"/>
+      <c r="H57" s="283"/>
+      <c r="I57" s="283"/>
       <c r="J57" s="228" t="s">
         <v>47</v>
       </c>
@@ -34732,8 +34828,8 @@
       <c r="E58" s="177"/>
       <c r="F58" s="177"/>
       <c r="G58" s="177"/>
-      <c r="H58" s="278"/>
-      <c r="I58" s="278"/>
+      <c r="H58" s="283"/>
+      <c r="I58" s="283"/>
       <c r="J58" s="228" t="s">
         <v>48</v>
       </c>
@@ -34750,8 +34846,8 @@
       <c r="E59" s="177"/>
       <c r="F59" s="177"/>
       <c r="G59" s="177"/>
-      <c r="H59" s="278"/>
-      <c r="I59" s="278"/>
+      <c r="H59" s="283"/>
+      <c r="I59" s="283"/>
       <c r="J59" s="228" t="s">
         <v>49</v>
       </c>
@@ -34768,8 +34864,8 @@
       <c r="E60" s="177"/>
       <c r="F60" s="177"/>
       <c r="G60" s="177"/>
-      <c r="H60" s="278"/>
-      <c r="I60" s="278"/>
+      <c r="H60" s="283"/>
+      <c r="I60" s="283"/>
       <c r="J60" s="227" t="s">
         <v>50</v>
       </c>
@@ -34786,8 +34882,8 @@
       <c r="E61" s="177"/>
       <c r="F61" s="177"/>
       <c r="G61" s="177"/>
-      <c r="H61" s="278"/>
-      <c r="I61" s="278"/>
+      <c r="H61" s="283"/>
+      <c r="I61" s="283"/>
       <c r="J61" s="228" t="s">
         <v>51</v>
       </c>
@@ -34804,8 +34900,8 @@
       <c r="E62" s="177"/>
       <c r="F62" s="177"/>
       <c r="G62" s="177"/>
-      <c r="H62" s="278"/>
-      <c r="I62" s="278"/>
+      <c r="H62" s="283"/>
+      <c r="I62" s="283"/>
       <c r="J62" s="228" t="s">
         <v>52</v>
       </c>
@@ -34822,8 +34918,8 @@
       <c r="E63" s="177"/>
       <c r="F63" s="177"/>
       <c r="G63" s="177"/>
-      <c r="H63" s="278"/>
-      <c r="I63" s="278"/>
+      <c r="H63" s="283"/>
+      <c r="I63" s="283"/>
       <c r="J63" s="228" t="s">
         <v>53</v>
       </c>
@@ -34840,8 +34936,8 @@
       <c r="E64" s="177"/>
       <c r="F64" s="177"/>
       <c r="G64" s="177"/>
-      <c r="H64" s="278"/>
-      <c r="I64" s="278"/>
+      <c r="H64" s="283"/>
+      <c r="I64" s="283"/>
       <c r="J64" s="259" t="s">
         <v>54</v>
       </c>
@@ -34858,8 +34954,8 @@
       <c r="E65" s="177"/>
       <c r="F65" s="177"/>
       <c r="G65" s="177"/>
-      <c r="H65" s="278"/>
-      <c r="I65" s="278"/>
+      <c r="H65" s="283"/>
+      <c r="I65" s="283"/>
       <c r="J65" s="261" t="s">
         <v>55</v>
       </c>
@@ -34876,8 +34972,8 @@
       <c r="E66" s="177"/>
       <c r="F66" s="177"/>
       <c r="G66" s="177"/>
-      <c r="H66" s="278"/>
-      <c r="I66" s="278"/>
+      <c r="H66" s="283"/>
+      <c r="I66" s="283"/>
       <c r="J66" s="261" t="s">
         <v>56</v>
       </c>
@@ -34894,8 +34990,8 @@
       <c r="E67" s="177"/>
       <c r="F67" s="177"/>
       <c r="G67" s="177"/>
-      <c r="H67" s="278"/>
-      <c r="I67" s="278"/>
+      <c r="H67" s="283"/>
+      <c r="I67" s="283"/>
       <c r="J67" s="228" t="s">
         <v>57</v>
       </c>
@@ -34912,8 +35008,8 @@
       <c r="E68" s="177"/>
       <c r="F68" s="177"/>
       <c r="G68" s="177"/>
-      <c r="H68" s="278"/>
-      <c r="I68" s="278"/>
+      <c r="H68" s="283"/>
+      <c r="I68" s="283"/>
       <c r="J68" s="228" t="s">
         <v>58</v>
       </c>
@@ -34930,8 +35026,8 @@
       <c r="E69" s="177"/>
       <c r="F69" s="177"/>
       <c r="G69" s="177"/>
-      <c r="H69" s="278"/>
-      <c r="I69" s="278"/>
+      <c r="H69" s="283"/>
+      <c r="I69" s="283"/>
       <c r="J69" s="228" t="s">
         <v>59</v>
       </c>
@@ -34948,8 +35044,8 @@
       <c r="E70" s="177"/>
       <c r="F70" s="177"/>
       <c r="G70" s="177"/>
-      <c r="H70" s="278"/>
-      <c r="I70" s="278"/>
+      <c r="H70" s="283"/>
+      <c r="I70" s="283"/>
       <c r="J70" s="228" t="s">
         <v>60</v>
       </c>
@@ -34966,9 +35062,9 @@
       <c r="E71" s="264"/>
       <c r="F71" s="264"/>
       <c r="G71" s="264"/>
-      <c r="H71" s="279"/>
-      <c r="I71" s="280"/>
-      <c r="J71" s="281" t="s">
+      <c r="H71" s="284"/>
+      <c r="I71" s="285"/>
+      <c r="J71" s="286" t="s">
         <v>61</v>
       </c>
       <c r="K71" s="267" t="n">
@@ -34986,23 +35082,23 @@
         <f aca="false">C38</f>
         <v>MR (2)</v>
       </c>
-      <c r="D73" s="269" t="str">
+      <c r="D73" s="270" t="str">
         <f aca="false">D38</f>
         <v>PW (11)</v>
       </c>
-      <c r="E73" s="269" t="str">
+      <c r="E73" s="271" t="str">
         <f aca="false">E38</f>
         <v>LIE (12)</v>
       </c>
-      <c r="F73" s="269" t="str">
+      <c r="F73" s="272" t="str">
         <f aca="false">F38</f>
         <v>LW (8)</v>
       </c>
-      <c r="G73" s="269" t="str">
+      <c r="G73" s="273" t="str">
         <f aca="false">G38</f>
         <v>LZ (9)</v>
       </c>
-      <c r="H73" s="282" t="str">
+      <c r="H73" s="287" t="str">
         <f aca="false">H38</f>
         <v>SZ (10)</v>
       </c>
@@ -35015,33 +35111,33 @@
         <f aca="false">SWISS7_H!B71</f>
         <v>0.00514905149051491</v>
       </c>
-      <c r="C74" s="270" t="n">
+      <c r="C74" s="275" t="n">
         <f aca="false">SWISS7_H!C71</f>
         <v>0.0210965186574943</v>
       </c>
-      <c r="D74" s="270" t="n">
+      <c r="D74" s="275" t="n">
         <f aca="false">SWISS7_H!D71</f>
         <v>0.919699812382739</v>
       </c>
-      <c r="E74" s="270" t="n">
+      <c r="E74" s="275" t="n">
         <f aca="false">SWISS7_H!E71</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F74" s="270" t="n">
+      <c r="F74" s="275" t="n">
         <f aca="false">SWISS7_H!F71</f>
         <v>0.0379195330414843</v>
       </c>
-      <c r="G74" s="270" t="n">
+      <c r="G74" s="275" t="n">
         <f aca="false">SWISS7_H!G71</f>
         <v>0.00308526162184699</v>
       </c>
-      <c r="H74" s="283" t="n">
+      <c r="H74" s="288" t="n">
         <f aca="false">SWISS7_H!H71</f>
         <v>0.000771315405461747</v>
       </c>
-      <c r="I74" s="271"/>
+      <c r="I74" s="276"/>
       <c r="J74" s="42"/>
-      <c r="K74" s="272" t="n">
+      <c r="K74" s="277" t="n">
         <f aca="false">SWISS7_H!K71</f>
         <v>0.990056285178236</v>
       </c>
@@ -35054,31 +35150,31 @@
         <f aca="false">SWISS7_H!B72</f>
         <v>0.00496143422972691</v>
       </c>
-      <c r="C75" s="273" t="n">
+      <c r="C75" s="278" t="n">
         <f aca="false">SWISS7_H!C72</f>
         <v>0.0197831978319783</v>
       </c>
-      <c r="D75" s="273" t="n">
+      <c r="D75" s="278" t="n">
         <f aca="false">SWISS7_H!D72</f>
         <v>0.856139253700229</v>
       </c>
-      <c r="E75" s="273" t="n">
+      <c r="E75" s="278" t="n">
         <f aca="false">SWISS7_H!E72</f>
         <v>0.00233479257869502</v>
       </c>
-      <c r="F75" s="273" t="n">
+      <c r="F75" s="278" t="n">
         <f aca="false">SWISS7_H!F72</f>
         <v>0.0353345841150719</v>
       </c>
-      <c r="G75" s="273" t="n">
+      <c r="G75" s="278" t="n">
         <f aca="false">SWISS7_H!G72</f>
         <v>0.00302272253491766</v>
       </c>
-      <c r="H75" s="284" t="n">
+      <c r="H75" s="289" t="n">
         <f aca="false">SWISS7_H!H72</f>
         <v>0.000708776318532416</v>
       </c>
-      <c r="I75" s="271"/>
+      <c r="I75" s="276"/>
       <c r="J75" s="42"/>
       <c r="K75" s="262" t="n">
         <f aca="false">SWISS7_H!K72</f>
@@ -35117,9 +35213,9 @@
         <f aca="false">SWISS7_H!H73</f>
         <v>6.25390869293308E-005</v>
       </c>
-      <c r="I76" s="271"/>
+      <c r="I76" s="276"/>
       <c r="J76" s="42"/>
-      <c r="K76" s="275" t="n">
+      <c r="K76" s="280" t="n">
         <f aca="false">SWISS7_H!K73</f>
         <v>0.0677715238690847</v>
       </c>
@@ -35153,7 +35249,7 @@
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -6545,10 +6545,14 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.72222222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -8188,10 +8192,14 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.72222222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8 épublique et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -11973,10 +11981,13 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.67638888888889" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -11989,7 +12000,7 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -16656,10 +16667,13 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.25972222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.67638888888889" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -21810,7 +21824,7 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -23077,10 +23091,14 @@
     <mergeCell ref="J43:K43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.95902777777778" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -24352,10 +24370,14 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.65347222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.95902777777778" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -27650,10 +27672,14 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.39375" right="0.39375" top="0.7875" bottom="0.39375" header="0.39375" footer="0.236111111111111"/>
+  <pageMargins left="0.39375" right="0.39375" top="1.09305555555556" bottom="0.39375" header="0.39375" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -30221,10 +30247,14 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.72222222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
@@ -31609,10 +31639,14 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.41666666666667" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.72222222222222" bottom="0.472222222222222" header="0.708333333333333" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;L&amp;8 République et canton de Neuchâtel_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Département du développement_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8 Service des ponts et chaussées_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Bureau signalisation et circulation_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x000a_Neuchâtel, le &amp;D</oddHeader>
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="181">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -417,6 +417,9 @@
     <t xml:space="preserve">24 heures</t>
   </si>
   <si>
+    <t xml:space="preserve">Classification SWISS7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dir 1 : </t>
   </si>
   <si>
@@ -480,6 +483,9 @@
     <t xml:space="preserve">Véhicules lourds : CAR (1) + LW (8) + LZ (9) + SZ (10)</t>
   </si>
   <si>
+    <t xml:space="preserve">Classification SWISS10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Part du TJM</t>
   </si>
   <si>
@@ -514,6 +520,9 @@
   </si>
   <si>
     <t xml:space="preserve">Véhicules légers : MR (2) + PW (3) + PW+AH(4) + LIE (5) + LIE+AH(6) + LIE+AL(7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse des vitesses</t>
   </si>
   <si>
     <t xml:space="preserve">30 km/h</t>
@@ -3142,7 +3151,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J8 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3248,7 +3257,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="J8 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3289,7 +3298,9 @@
         <f aca="false">Data_count!B10</f>
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="N3" s="16" t="n">
         <f aca="false">Data_count!B7</f>
@@ -3350,7 +3361,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="217" t="n">
         <f aca="false">B4</f>
@@ -3377,7 +3388,7 @@
         <v>122</v>
       </c>
       <c r="N11" s="220" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3385,38 +3396,38 @@
         <v>97</v>
       </c>
       <c r="B12" s="248" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="150" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="249" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E12" s="150" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F12" s="249" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G12" s="150" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H12" s="249" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I12" s="150" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" s="249" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" s="291" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="225" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N12" s="220"/>
     </row>
@@ -4773,7 +4784,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" s="238" t="e">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
@@ -4827,7 +4838,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" s="242" t="e">
         <f aca="false">B38-B39</f>
@@ -4891,7 +4902,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="n">
         <f aca="false">B5</f>
@@ -4968,7 +4979,7 @@
       </c>
       <c r="L45" s="64"/>
       <c r="M45" s="225" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N45" s="220"/>
     </row>
@@ -6325,7 +6336,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" s="238" t="e">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
@@ -6379,7 +6390,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73" s="242" t="e">
         <f aca="false">B71-B72</f>
@@ -6433,23 +6444,23 @@
     </row>
     <row r="75" s="42" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="82" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B75" s="82"/>
       <c r="C75" s="82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D75" s="155"/>
       <c r="E75" s="82"/>
       <c r="F75" s="82"/>
       <c r="G75" s="82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H75" s="82"/>
       <c r="I75" s="82"/>
       <c r="J75" s="294"/>
       <c r="K75" s="82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L75" s="82"/>
       <c r="M75" s="1"/>
@@ -6457,16 +6468,16 @@
     </row>
     <row r="76" s="42" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" s="82"/>
       <c r="C76" s="82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E76" s="82"/>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H76" s="82"/>
       <c r="I76" s="82"/>
@@ -6478,16 +6489,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B77" s="82"/>
       <c r="C77" s="82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
       <c r="G77" s="82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H77" s="82"/>
       <c r="I77" s="82"/>
@@ -6497,7 +6508,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="252" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B78" s="252"/>
       <c r="C78" s="252"/>
@@ -6506,7 +6517,7 @@
       <c r="F78" s="252"/>
       <c r="G78" s="252"/>
       <c r="H78" s="252" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I78" s="252"/>
       <c r="J78" s="252"/>
@@ -6566,7 +6577,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S60" activeCellId="0" sqref="S60"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="J8 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6637,6 +6648,10 @@
         <f aca="false">Data_count!B14</f>
         <v>0</v>
       </c>
+      <c r="G5" s="15" t="n">
+        <f aca="false">Data_count!B8</f>
+        <v>0</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="N5" s="16" t="n">
         <f aca="false">Data_count!B9</f>
@@ -6646,16 +6661,16 @@
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="C6" s="18"/>
+      <c r="G6" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="N6" s="118"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="C7" s="18"/>
-      <c r="F7" s="19" t="n">
-        <f aca="false">Data_count!B11</f>
-        <v>0</v>
-      </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="20"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -6665,14 +6680,17 @@
       <c r="A8" s="14"/>
       <c r="C8" s="18"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="19" t="n">
+        <f aca="false">Data_count!B11</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="N8" s="118"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B4</f>
@@ -6698,7 +6716,7 @@
       <c r="L11" s="256"/>
       <c r="M11" s="257"/>
       <c r="N11" s="220" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7319,7 +7337,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B40" s="238" t="e">
         <f aca="false">SWISS10_H!B39</f>
@@ -7370,7 +7388,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" s="242" t="e">
         <f aca="false">SWISS10_H!B40</f>
@@ -7421,7 +7439,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="n">
         <f aca="false">B5</f>
@@ -8066,7 +8084,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B75" s="238" t="e">
         <f aca="false">SWISS10_H!B72</f>
@@ -8117,7 +8135,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B76" s="242" t="e">
         <f aca="false">SWISS10_H!B73</f>
@@ -8213,7 +8231,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V47" activeCellId="0" sqref="V47"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="J8 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8325,10 +8343,15 @@
       <c r="K7" s="11"/>
       <c r="N7" s="118"/>
     </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B4</f>
@@ -8393,43 +8416,43 @@
         <v>97</v>
       </c>
       <c r="B13" s="248" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C13" s="150" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D13" s="150" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E13" s="150" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" s="150" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G13" s="150" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H13" s="150" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I13" s="150" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J13" s="150" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K13" s="150" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L13" s="150" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M13" s="251" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O13" s="303" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P13" s="118"/>
       <c r="R13" s="0"/>
@@ -10002,7 +10025,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="306" t="e">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -10064,7 +10087,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" s="307" t="e">
         <f aca="false">B40-B41</f>
@@ -10139,7 +10162,7 @@
     <row r="45" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="4" t="n">
         <f aca="false">B5</f>
@@ -11823,7 +11846,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B77" s="306" t="e">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -11885,7 +11908,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B78" s="307" t="e">
         <f aca="false">B76-B77</f>
@@ -12000,8 +12023,8 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12105,10 +12128,15 @@
       <c r="K7" s="11"/>
       <c r="N7" s="118"/>
     </row>
+    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B4</f>
@@ -12163,7 +12191,7 @@
       </c>
       <c r="Q12" s="290"/>
       <c r="S12" s="312" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T12" s="312"/>
       <c r="U12" s="312"/>
@@ -12174,59 +12202,59 @@
         <v>97</v>
       </c>
       <c r="B13" s="248" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C13" s="248" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="N13" s="251" t="s">
+        <v>176</v>
+      </c>
+      <c r="P13" s="303" t="s">
         <v>172</v>
-      </c>
-      <c r="D13" s="150" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="150" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="150" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="150" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="I13" s="150" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" s="150" t="s">
-        <v>163</v>
-      </c>
-      <c r="K13" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="150" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="150" t="s">
-        <v>166</v>
-      </c>
-      <c r="N13" s="251" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" s="303" t="s">
-        <v>169</v>
       </c>
       <c r="Q13" s="118"/>
       <c r="S13" s="313" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="T13" s="314" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="U13" s="315" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="V13" s="316" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14195,7 +14223,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="306" t="e">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -14273,7 +14301,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B42" s="307" t="e">
         <f aca="false">B40-B41</f>
@@ -14369,7 +14397,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="4" t="n">
         <f aca="false">B5</f>
@@ -16479,7 +16507,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B77" s="306" t="e">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -16557,7 +16585,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B78" s="307" t="e">
         <f aca="false">B76-B77</f>
@@ -16687,7 +16715,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+      <selection pane="topLeft" activeCell="B92" activeCellId="1" sqref="J8 B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18971,7 +18999,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="1" sqref="J8 P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20496,7 +20524,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="J8 B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21824,8 +21852,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23112,7 +23140,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
+      <selection pane="topLeft" activeCell="L42" activeCellId="1" sqref="J8 L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24391,7 +24419,7 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="J8 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27693,7 +27721,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="J8 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27734,7 +27762,9 @@
         <f aca="false">Data_count!B10</f>
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="16" t="n">
         <f aca="false">Data_count!B7</f>
@@ -27795,7 +27825,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="217" t="n">
         <f aca="false">B4</f>
@@ -27828,29 +27858,29 @@
         <v>97</v>
       </c>
       <c r="B12" s="222" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="151" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="223" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="151" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="223" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" s="151" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H12" s="224" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="225" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" s="220"/>
     </row>
@@ -28884,7 +28914,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" s="238" t="e">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
@@ -28925,7 +28955,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" s="242" t="e">
         <f aca="false">B38-B39</f>
@@ -28975,7 +29005,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="n">
         <f aca="false">B5</f>
@@ -29037,7 +29067,7 @@
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="225" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K45" s="220"/>
     </row>
@@ -30071,7 +30101,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" s="238" t="e">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
@@ -30112,7 +30142,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B73" s="242" t="e">
         <f aca="false">B71-B72</f>
@@ -30153,17 +30183,17 @@
     </row>
     <row r="75" s="42" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="82" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B75" s="82"/>
       <c r="C75" s="82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D75" s="155"/>
       <c r="E75" s="82"/>
       <c r="F75" s="82"/>
       <c r="G75" s="82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H75" s="82"/>
       <c r="I75" s="1"/>
@@ -30172,16 +30202,16 @@
     </row>
     <row r="76" s="42" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" s="82"/>
       <c r="C76" s="82" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E76" s="82"/>
       <c r="F76" s="82"/>
       <c r="G76" s="82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H76" s="82"/>
       <c r="I76" s="1"/>
@@ -30196,20 +30226,20 @@
       <c r="E77" s="82"/>
       <c r="F77" s="82"/>
       <c r="G77" s="82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H77" s="82"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="252" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B78" s="252"/>
       <c r="C78" s="252"/>
       <c r="D78" s="252"/>
       <c r="E78" s="252"/>
       <c r="F78" s="252" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G78" s="252"/>
       <c r="H78" s="252"/>
@@ -30268,7 +30298,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I73" activeCellId="0" sqref="I73"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="J8 G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30309,7 +30339,9 @@
         <f aca="false">Data_count!B10</f>
         <v>0</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="16" t="n">
         <f aca="false">Data_count!B7</f>
@@ -30370,7 +30402,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="216" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B4</f>
@@ -30916,7 +30948,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B40" s="238" t="e">
         <f aca="false">SWISS7_H!B39</f>
@@ -30955,7 +30987,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" s="242" t="e">
         <f aca="false">SWISS7_H!B40</f>
@@ -30994,7 +31026,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="4" t="n">
         <f aca="false">B5</f>
@@ -31537,7 +31569,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="237" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B75" s="238" t="e">
         <f aca="false">SWISS7_H!B72</f>
@@ -31576,7 +31608,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="241" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B76" s="242" t="e">
         <f aca="false">SWISS7_H!B73</f>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -2795,31 +2795,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="5" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="6" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="6" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="7" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="7" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="8" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="8" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="9" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="9" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="10" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="11" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="11" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2871,7 +2871,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2915,15 +2915,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="12" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="12" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="13" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="13" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="14" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="14" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3151,7 +3151,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J8 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3257,7 +3257,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="J8 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6576,8 +6576,8 @@
   </sheetPr>
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="J8 G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P59" activeCellId="0" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8231,7 +8231,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="1" sqref="J8 H8"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12023,7 +12023,7 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -16715,7 +16715,7 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="1" sqref="J8 B92"/>
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18999,7 +18999,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="1" sqref="J8 P33"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20524,7 +20524,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="J8 B33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21853,7 +21853,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23140,7 +23140,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="1" sqref="J8 L42"/>
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24419,7 +24419,7 @@
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="J8 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27721,7 +27721,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="J8 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30298,7 +30298,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="J8 G2"/>
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -765,20 +765,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0022FF"/>
-        <bgColor rgb="FF0000FF"/>
+        <fgColor rgb="FF00A9FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0FE400"/>
-        <bgColor rgb="FF339966"/>
+        <fgColor rgb="FFBCE273"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0739"/>
-        <bgColor rgb="FFFF3399"/>
+        <fgColor rgb="FFFF708C"/>
+        <bgColor rgb="FFFF6666"/>
       </patternFill>
     </fill>
     <fill>
@@ -808,7 +808,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF708C"/>
       </patternFill>
     </fill>
     <fill>
@@ -3084,8 +3084,8 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFEEEEEC"/>
-      <rgbColor rgb="FFFF0739"/>
-      <rgbColor rgb="FF0FE400"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -3103,7 +3103,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF6666"/>
+      <rgbColor rgb="FFFF708C"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -3113,21 +3113,21 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0022FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00A9FF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFBCE273"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -6577,7 +6577,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P59" activeCellId="0" sqref="P59"/>
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30298,7 +30298,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -2970,7 +2970,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3161,7 +3161,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="119.13"/>
@@ -3267,14 +3267,14 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="119" width="9.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6587,14 +6587,14 @@
       <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8241,7 +8241,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="6.98"/>
@@ -8253,9 +8253,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="22" style="1" width="11.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="1020" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="22" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1020" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12030,11 +12030,11 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="6.98"/>
@@ -12045,7 +12045,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="1.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12152,7 +12152,7 @@
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="311" t="str">
-        <f aca="false">_xlfn.CONCAT("Vitesse moyenne = ", INT(V40), " km/h")</f>
+        <f aca="false">"Vitesse moyenne = "&amp;INT(V40)&amp;" km/h"</f>
         <v>Vitesse moyenne = 0 km/h</v>
       </c>
       <c r="B11" s="311"/>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="311" t="str">
-        <f aca="false">_xlfn.CONCAT("Vitesse moyenne = ", INT(V76), " km/h")</f>
+        <f aca="false">"Vitesse moyenne = "&amp;INT(V76)&amp;" km/h"</f>
         <v>Vitesse moyenne = 0 km/h</v>
       </c>
       <c r="B47" s="311"/>
@@ -16725,7 +16725,7 @@
       <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.52"/>
@@ -19009,7 +19009,7 @@
       <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
@@ -20530,11 +20530,11 @@
   </sheetPr>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
@@ -23849,12 +23849,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="12" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25136,11 +25136,11 @@
       <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26415,7 +26415,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.84"/>
@@ -26424,7 +26424,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="13" style="1" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="23" style="1" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="32" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="32" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29717,14 +29717,14 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="119" width="11.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32294,14 +32294,14 @@
       <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="13.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="11.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t xml:space="preserve">average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average by class</t>
   </si>
   <si>
     <t xml:space="preserve">Data category</t>
@@ -1725,7 +1728,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="326">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2934,8 +2937,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2968,10 +2971,6 @@
     </xf>
     <xf numFmtId="169" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3306,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3" s="12"/>
       <c r="N3" s="17" t="n">
@@ -3316,7 +3315,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -3330,7 +3329,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -3368,7 +3367,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="218" t="n">
         <f aca="false">B4</f>
@@ -3392,49 +3391,49 @@
       <c r="K11" s="248"/>
       <c r="L11" s="291"/>
       <c r="M11" s="220" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N11" s="221" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="249" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="151" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="250" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E12" s="151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F12" s="250" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G12" s="151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" s="250" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I12" s="151" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J12" s="250" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" s="292" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" s="65"/>
       <c r="M12" s="226" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N12" s="221"/>
     </row>
@@ -4737,7 +4736,7 @@
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="235" t="e">
         <f aca="false">SUM(B13:B36)/Data_category!$L$29</f>
@@ -4791,7 +4790,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="239" t="e">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
@@ -4845,7 +4844,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="243" t="e">
         <f aca="false">B38-B39</f>
@@ -4909,7 +4908,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" s="4" t="n">
         <f aca="false">B5</f>
@@ -4933,7 +4932,7 @@
       <c r="K44" s="248"/>
       <c r="L44" s="291"/>
       <c r="M44" s="220" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N44" s="221" t="str">
         <f aca="false">N11</f>
@@ -4942,7 +4941,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="249" t="str">
         <f aca="false">B12</f>
@@ -4986,7 +4985,7 @@
       </c>
       <c r="L45" s="65"/>
       <c r="M45" s="226" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N45" s="221"/>
     </row>
@@ -6289,7 +6288,7 @@
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B71" s="235" t="e">
         <f aca="false">SUM(B46:B69)/Data_category!$L$57</f>
@@ -6343,7 +6342,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72" s="239" t="e">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
@@ -6397,7 +6396,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" s="243" t="e">
         <f aca="false">B71-B72</f>
@@ -6451,23 +6450,23 @@
     </row>
     <row r="75" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B75" s="83"/>
       <c r="C75" s="83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D75" s="156"/>
       <c r="E75" s="83"/>
       <c r="F75" s="83"/>
       <c r="G75" s="83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
       <c r="J75" s="295"/>
       <c r="K75" s="83" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L75" s="83"/>
       <c r="M75" s="1"/>
@@ -6475,16 +6474,16 @@
     </row>
     <row r="76" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" s="83"/>
       <c r="C76" s="83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E76" s="83"/>
       <c r="F76" s="83"/>
       <c r="G76" s="83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H76" s="83"/>
       <c r="I76" s="83"/>
@@ -6496,16 +6495,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B77" s="83"/>
       <c r="C77" s="83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E77" s="83"/>
       <c r="F77" s="83"/>
       <c r="G77" s="83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H77" s="83"/>
       <c r="I77" s="83"/>
@@ -6515,7 +6514,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="253" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" s="253"/>
       <c r="C78" s="253"/>
@@ -6524,7 +6523,7 @@
       <c r="F78" s="253"/>
       <c r="G78" s="253"/>
       <c r="H78" s="253" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I78" s="253"/>
       <c r="J78" s="253"/>
@@ -6635,7 +6634,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -6649,7 +6648,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -6669,7 +6668,7 @@
       <c r="A6" s="15"/>
       <c r="C6" s="19"/>
       <c r="G6" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J6" s="12"/>
       <c r="N6" s="119"/>
@@ -6697,7 +6696,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B4</f>
@@ -6723,7 +6722,7 @@
       <c r="L11" s="257"/>
       <c r="M11" s="258"/>
       <c r="N11" s="221" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6740,7 +6739,7 @@
       <c r="K12" s="178"/>
       <c r="L12" s="259"/>
       <c r="M12" s="260" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N12" s="221"/>
     </row>
@@ -7293,7 +7292,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" s="235" t="e">
         <f aca="false">SWISS10_H!B38</f>
@@ -7344,7 +7343,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" s="239" t="e">
         <f aca="false">SWISS10_H!B39</f>
@@ -7395,7 +7394,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" s="243" t="e">
         <f aca="false">SWISS10_H!B40</f>
@@ -7446,7 +7445,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="4" t="n">
         <f aca="false">B5</f>
@@ -7487,7 +7486,7 @@
       <c r="K47" s="284"/>
       <c r="L47" s="284"/>
       <c r="M47" s="226" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N47" s="221"/>
     </row>
@@ -8040,7 +8039,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B74" s="235" t="e">
         <f aca="false">SWISS10_H!B71</f>
@@ -8091,7 +8090,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="239" t="e">
         <f aca="false">SWISS10_H!B72</f>
@@ -8142,7 +8141,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B76" s="243" t="e">
         <f aca="false">SWISS10_H!B73</f>
@@ -8237,8 +8236,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8301,7 +8300,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -8317,7 +8316,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -8352,13 +8351,13 @@
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B4</f>
@@ -8366,7 +8365,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="302"/>
+      <c r="A11" s="302" t="e">
+        <f aca="false">"Vitesse moyenne = " &amp; ROUND(Data_speed!S29,1) &amp; " km/h"</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B11" s="302"/>
       <c r="C11" s="302"/>
       <c r="D11" s="302"/>
@@ -8405,7 +8407,7 @@
       <c r="L12" s="248"/>
       <c r="M12" s="248"/>
       <c r="O12" s="220" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P12" s="291"/>
       <c r="R12" s="0"/>
@@ -8420,46 +8422,46 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="249" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" s="151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E13" s="151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" s="151" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G13" s="151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H13" s="151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I13" s="151" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" s="151" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" s="151" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L13" s="151" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" s="252" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O13" s="304" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" s="119"/>
       <c r="R13" s="0"/>
@@ -9970,7 +9972,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" s="306" t="e">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
@@ -10032,7 +10034,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B41" s="307" t="e">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -10094,7 +10096,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" s="308" t="e">
         <f aca="false">B40-B41</f>
@@ -10169,7 +10171,7 @@
     <row r="45" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" s="4" t="n">
         <f aca="false">B5</f>
@@ -10177,7 +10179,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="302"/>
+      <c r="A47" s="302" t="e">
+        <f aca="false">"Vitesse moyenne = " &amp; ROUND(Data_speed!S57,1) &amp; " km/h"</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B47" s="302"/>
       <c r="C47" s="302"/>
       <c r="D47" s="302"/>
@@ -10228,7 +10233,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="249" t="str">
         <f aca="false">B13</f>
@@ -11791,7 +11796,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B76" s="306" t="e">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
@@ -11853,7 +11858,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B77" s="307" t="e">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -11915,7 +11920,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="308" t="e">
         <f aca="false">B76-B77</f>
@@ -12030,8 +12035,8 @@
   </sheetPr>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12089,7 +12094,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -12104,7 +12109,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -12137,13 +12142,13 @@
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B4</f>
@@ -12151,26 +12156,26 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="311" t="str">
+      <c r="A11" s="302" t="str">
         <f aca="false">"Vitesse moyenne = "&amp;INT(V40)&amp;" km/h"</f>
         <v>Vitesse moyenne = 0 km/h</v>
       </c>
-      <c r="B11" s="311"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="311"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="311"/>
-      <c r="O11" s="311"/>
-      <c r="P11" s="311"/>
-      <c r="Q11" s="311"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
+      <c r="L11" s="302"/>
+      <c r="M11" s="302"/>
+      <c r="N11" s="302"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="302"/>
+      <c r="Q11" s="302"/>
       <c r="R11" s="303"/>
       <c r="S11" s="303"/>
       <c r="T11" s="303"/>
@@ -12192,76 +12197,76 @@
       <c r="K12" s="248"/>
       <c r="L12" s="248"/>
       <c r="M12" s="248"/>
-      <c r="N12" s="312"/>
+      <c r="N12" s="311"/>
       <c r="P12" s="220" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="291"/>
-      <c r="S12" s="313" t="s">
-        <v>174</v>
-      </c>
-      <c r="T12" s="313"/>
-      <c r="U12" s="313"/>
-      <c r="V12" s="313"/>
+      <c r="S12" s="312" t="s">
+        <v>175</v>
+      </c>
+      <c r="T12" s="312"/>
+      <c r="U12" s="312"/>
+      <c r="V12" s="312"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="249" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="249" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D13" s="151" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="151" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F13" s="151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G13" s="151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H13" s="151" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I13" s="151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J13" s="151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K13" s="151" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" s="151" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" s="151" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N13" s="252" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P13" s="304" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="119"/>
-      <c r="S13" s="314" t="s">
-        <v>178</v>
-      </c>
-      <c r="T13" s="315" t="s">
+      <c r="S13" s="313" t="s">
         <v>179</v>
       </c>
-      <c r="U13" s="316" t="s">
+      <c r="T13" s="314" t="s">
         <v>180</v>
       </c>
-      <c r="V13" s="317" t="s">
+      <c r="U13" s="315" t="s">
         <v>181</v>
+      </c>
+      <c r="V13" s="316" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12325,19 +12330,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="178"/>
-      <c r="S14" s="318" t="n">
+      <c r="S14" s="317" t="n">
         <f aca="false">Data_speed!P5</f>
         <v>0</v>
       </c>
-      <c r="T14" s="318" t="n">
+      <c r="T14" s="317" t="n">
         <f aca="false">Data_speed!Q5</f>
         <v>0</v>
       </c>
-      <c r="U14" s="318" t="n">
+      <c r="U14" s="317" t="n">
         <f aca="false">Data_speed!R5</f>
         <v>0</v>
       </c>
-      <c r="V14" s="319" t="n">
+      <c r="V14" s="318" t="n">
         <f aca="false">Data_speed!S5</f>
         <v>0</v>
       </c>
@@ -12403,19 +12408,19 @@
         <v>0</v>
       </c>
       <c r="Q15" s="178"/>
-      <c r="S15" s="318" t="n">
+      <c r="S15" s="317" t="n">
         <f aca="false">Data_speed!P6</f>
         <v>0</v>
       </c>
-      <c r="T15" s="318" t="n">
+      <c r="T15" s="317" t="n">
         <f aca="false">Data_speed!Q6</f>
         <v>0</v>
       </c>
-      <c r="U15" s="318" t="n">
+      <c r="U15" s="317" t="n">
         <f aca="false">Data_speed!R6</f>
         <v>0</v>
       </c>
-      <c r="V15" s="319" t="n">
+      <c r="V15" s="318" t="n">
         <f aca="false">Data_speed!S6</f>
         <v>0</v>
       </c>
@@ -12481,19 +12486,19 @@
         <v>0</v>
       </c>
       <c r="Q16" s="178"/>
-      <c r="S16" s="318" t="n">
+      <c r="S16" s="317" t="n">
         <f aca="false">Data_speed!P7</f>
         <v>0</v>
       </c>
-      <c r="T16" s="318" t="n">
+      <c r="T16" s="317" t="n">
         <f aca="false">Data_speed!Q7</f>
         <v>0</v>
       </c>
-      <c r="U16" s="318" t="n">
+      <c r="U16" s="317" t="n">
         <f aca="false">Data_speed!R7</f>
         <v>0</v>
       </c>
-      <c r="V16" s="319" t="n">
+      <c r="V16" s="318" t="n">
         <f aca="false">Data_speed!S7</f>
         <v>0</v>
       </c>
@@ -12559,19 +12564,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="178"/>
-      <c r="S17" s="318" t="n">
+      <c r="S17" s="317" t="n">
         <f aca="false">Data_speed!P8</f>
         <v>0</v>
       </c>
-      <c r="T17" s="318" t="n">
+      <c r="T17" s="317" t="n">
         <f aca="false">Data_speed!Q8</f>
         <v>0</v>
       </c>
-      <c r="U17" s="318" t="n">
+      <c r="U17" s="317" t="n">
         <f aca="false">Data_speed!R8</f>
         <v>0</v>
       </c>
-      <c r="V17" s="319" t="n">
+      <c r="V17" s="318" t="n">
         <f aca="false">Data_speed!S8</f>
         <v>0</v>
       </c>
@@ -12637,19 +12642,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="178"/>
-      <c r="S18" s="318" t="n">
+      <c r="S18" s="317" t="n">
         <f aca="false">Data_speed!P9</f>
         <v>0</v>
       </c>
-      <c r="T18" s="318" t="n">
+      <c r="T18" s="317" t="n">
         <f aca="false">Data_speed!Q9</f>
         <v>0</v>
       </c>
-      <c r="U18" s="318" t="n">
+      <c r="U18" s="317" t="n">
         <f aca="false">Data_speed!R9</f>
         <v>0</v>
       </c>
-      <c r="V18" s="319" t="n">
+      <c r="V18" s="318" t="n">
         <f aca="false">Data_speed!S9</f>
         <v>0</v>
       </c>
@@ -12715,19 +12720,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="178"/>
-      <c r="S19" s="318" t="n">
+      <c r="S19" s="317" t="n">
         <f aca="false">Data_speed!P10</f>
         <v>0</v>
       </c>
-      <c r="T19" s="318" t="n">
+      <c r="T19" s="317" t="n">
         <f aca="false">Data_speed!Q10</f>
         <v>0</v>
       </c>
-      <c r="U19" s="318" t="n">
+      <c r="U19" s="317" t="n">
         <f aca="false">Data_speed!R10</f>
         <v>0</v>
       </c>
-      <c r="V19" s="319" t="n">
+      <c r="V19" s="318" t="n">
         <f aca="false">Data_speed!S10</f>
         <v>0</v>
       </c>
@@ -12793,19 +12798,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="178"/>
-      <c r="S20" s="318" t="n">
+      <c r="S20" s="317" t="n">
         <f aca="false">Data_speed!P11</f>
         <v>0</v>
       </c>
-      <c r="T20" s="318" t="n">
+      <c r="T20" s="317" t="n">
         <f aca="false">Data_speed!Q11</f>
         <v>0</v>
       </c>
-      <c r="U20" s="318" t="n">
+      <c r="U20" s="317" t="n">
         <f aca="false">Data_speed!R11</f>
         <v>0</v>
       </c>
-      <c r="V20" s="319" t="n">
+      <c r="V20" s="318" t="n">
         <f aca="false">Data_speed!S11</f>
         <v>0</v>
       </c>
@@ -12871,19 +12876,19 @@
         <v>0</v>
       </c>
       <c r="Q21" s="178"/>
-      <c r="S21" s="318" t="n">
+      <c r="S21" s="317" t="n">
         <f aca="false">Data_speed!P12</f>
         <v>0</v>
       </c>
-      <c r="T21" s="318" t="n">
+      <c r="T21" s="317" t="n">
         <f aca="false">Data_speed!Q12</f>
         <v>0</v>
       </c>
-      <c r="U21" s="318" t="n">
+      <c r="U21" s="317" t="n">
         <f aca="false">Data_speed!R12</f>
         <v>0</v>
       </c>
-      <c r="V21" s="319" t="n">
+      <c r="V21" s="318" t="n">
         <f aca="false">Data_speed!S12</f>
         <v>0</v>
       </c>
@@ -12949,19 +12954,19 @@
         <v>0</v>
       </c>
       <c r="Q22" s="178"/>
-      <c r="S22" s="318" t="n">
+      <c r="S22" s="317" t="n">
         <f aca="false">Data_speed!P13</f>
         <v>0</v>
       </c>
-      <c r="T22" s="318" t="n">
+      <c r="T22" s="317" t="n">
         <f aca="false">Data_speed!Q13</f>
         <v>0</v>
       </c>
-      <c r="U22" s="318" t="n">
+      <c r="U22" s="317" t="n">
         <f aca="false">Data_speed!R13</f>
         <v>0</v>
       </c>
-      <c r="V22" s="319" t="n">
+      <c r="V22" s="318" t="n">
         <f aca="false">Data_speed!S13</f>
         <v>0</v>
       </c>
@@ -13027,19 +13032,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="178"/>
-      <c r="S23" s="318" t="n">
+      <c r="S23" s="317" t="n">
         <f aca="false">Data_speed!P14</f>
         <v>0</v>
       </c>
-      <c r="T23" s="318" t="n">
+      <c r="T23" s="317" t="n">
         <f aca="false">Data_speed!Q14</f>
         <v>0</v>
       </c>
-      <c r="U23" s="318" t="n">
+      <c r="U23" s="317" t="n">
         <f aca="false">Data_speed!R14</f>
         <v>0</v>
       </c>
-      <c r="V23" s="319" t="n">
+      <c r="V23" s="318" t="n">
         <f aca="false">Data_speed!S14</f>
         <v>0</v>
       </c>
@@ -13105,19 +13110,19 @@
         <v>0</v>
       </c>
       <c r="Q24" s="178"/>
-      <c r="S24" s="318" t="n">
+      <c r="S24" s="317" t="n">
         <f aca="false">Data_speed!P15</f>
         <v>0</v>
       </c>
-      <c r="T24" s="318" t="n">
+      <c r="T24" s="317" t="n">
         <f aca="false">Data_speed!Q15</f>
         <v>0</v>
       </c>
-      <c r="U24" s="318" t="n">
+      <c r="U24" s="317" t="n">
         <f aca="false">Data_speed!R15</f>
         <v>0</v>
       </c>
-      <c r="V24" s="319" t="n">
+      <c r="V24" s="318" t="n">
         <f aca="false">Data_speed!S15</f>
         <v>0</v>
       </c>
@@ -13183,19 +13188,19 @@
         <v>0</v>
       </c>
       <c r="Q25" s="178"/>
-      <c r="S25" s="318" t="n">
+      <c r="S25" s="317" t="n">
         <f aca="false">Data_speed!P16</f>
         <v>0</v>
       </c>
-      <c r="T25" s="318" t="n">
+      <c r="T25" s="317" t="n">
         <f aca="false">Data_speed!Q16</f>
         <v>0</v>
       </c>
-      <c r="U25" s="318" t="n">
+      <c r="U25" s="317" t="n">
         <f aca="false">Data_speed!R16</f>
         <v>0</v>
       </c>
-      <c r="V25" s="319" t="n">
+      <c r="V25" s="318" t="n">
         <f aca="false">Data_speed!S16</f>
         <v>0</v>
       </c>
@@ -13261,19 +13266,19 @@
         <v>0</v>
       </c>
       <c r="Q26" s="178"/>
-      <c r="S26" s="318" t="n">
+      <c r="S26" s="317" t="n">
         <f aca="false">Data_speed!P17</f>
         <v>0</v>
       </c>
-      <c r="T26" s="318" t="n">
+      <c r="T26" s="317" t="n">
         <f aca="false">Data_speed!Q17</f>
         <v>0</v>
       </c>
-      <c r="U26" s="318" t="n">
+      <c r="U26" s="317" t="n">
         <f aca="false">Data_speed!R17</f>
         <v>0</v>
       </c>
-      <c r="V26" s="319" t="n">
+      <c r="V26" s="318" t="n">
         <f aca="false">Data_speed!S17</f>
         <v>0</v>
       </c>
@@ -13339,19 +13344,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="178"/>
-      <c r="S27" s="318" t="n">
+      <c r="S27" s="317" t="n">
         <f aca="false">Data_speed!P18</f>
         <v>0</v>
       </c>
-      <c r="T27" s="318" t="n">
+      <c r="T27" s="317" t="n">
         <f aca="false">Data_speed!Q18</f>
         <v>0</v>
       </c>
-      <c r="U27" s="318" t="n">
+      <c r="U27" s="317" t="n">
         <f aca="false">Data_speed!R18</f>
         <v>0</v>
       </c>
-      <c r="V27" s="319" t="n">
+      <c r="V27" s="318" t="n">
         <f aca="false">Data_speed!S18</f>
         <v>0</v>
       </c>
@@ -13417,19 +13422,19 @@
         <v>0</v>
       </c>
       <c r="Q28" s="178"/>
-      <c r="S28" s="318" t="n">
+      <c r="S28" s="317" t="n">
         <f aca="false">Data_speed!P19</f>
         <v>0</v>
       </c>
-      <c r="T28" s="318" t="n">
+      <c r="T28" s="317" t="n">
         <f aca="false">Data_speed!Q19</f>
         <v>0</v>
       </c>
-      <c r="U28" s="318" t="n">
+      <c r="U28" s="317" t="n">
         <f aca="false">Data_speed!R19</f>
         <v>0</v>
       </c>
-      <c r="V28" s="319" t="n">
+      <c r="V28" s="318" t="n">
         <f aca="false">Data_speed!S19</f>
         <v>0</v>
       </c>
@@ -13495,19 +13500,19 @@
         <v>0</v>
       </c>
       <c r="Q29" s="178"/>
-      <c r="S29" s="318" t="n">
+      <c r="S29" s="317" t="n">
         <f aca="false">Data_speed!P20</f>
         <v>0</v>
       </c>
-      <c r="T29" s="318" t="n">
+      <c r="T29" s="317" t="n">
         <f aca="false">Data_speed!Q20</f>
         <v>0</v>
       </c>
-      <c r="U29" s="318" t="n">
+      <c r="U29" s="317" t="n">
         <f aca="false">Data_speed!R20</f>
         <v>0</v>
       </c>
-      <c r="V29" s="319" t="n">
+      <c r="V29" s="318" t="n">
         <f aca="false">Data_speed!S20</f>
         <v>0</v>
       </c>
@@ -13573,19 +13578,19 @@
         <v>0</v>
       </c>
       <c r="Q30" s="178"/>
-      <c r="S30" s="318" t="n">
+      <c r="S30" s="317" t="n">
         <f aca="false">Data_speed!P21</f>
         <v>0</v>
       </c>
-      <c r="T30" s="318" t="n">
+      <c r="T30" s="317" t="n">
         <f aca="false">Data_speed!Q21</f>
         <v>0</v>
       </c>
-      <c r="U30" s="318" t="n">
+      <c r="U30" s="317" t="n">
         <f aca="false">Data_speed!R21</f>
         <v>0</v>
       </c>
-      <c r="V30" s="319" t="n">
+      <c r="V30" s="318" t="n">
         <f aca="false">Data_speed!S21</f>
         <v>0</v>
       </c>
@@ -13651,19 +13656,19 @@
         <v>0</v>
       </c>
       <c r="Q31" s="178"/>
-      <c r="S31" s="318" t="n">
+      <c r="S31" s="317" t="n">
         <f aca="false">Data_speed!P22</f>
         <v>0</v>
       </c>
-      <c r="T31" s="318" t="n">
+      <c r="T31" s="317" t="n">
         <f aca="false">Data_speed!Q22</f>
         <v>0</v>
       </c>
-      <c r="U31" s="318" t="n">
+      <c r="U31" s="317" t="n">
         <f aca="false">Data_speed!R22</f>
         <v>0</v>
       </c>
-      <c r="V31" s="319" t="n">
+      <c r="V31" s="318" t="n">
         <f aca="false">Data_speed!S22</f>
         <v>0</v>
       </c>
@@ -13729,19 +13734,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="178"/>
-      <c r="S32" s="318" t="n">
+      <c r="S32" s="317" t="n">
         <f aca="false">Data_speed!P23</f>
         <v>0</v>
       </c>
-      <c r="T32" s="318" t="n">
+      <c r="T32" s="317" t="n">
         <f aca="false">Data_speed!Q23</f>
         <v>0</v>
       </c>
-      <c r="U32" s="318" t="n">
+      <c r="U32" s="317" t="n">
         <f aca="false">Data_speed!R23</f>
         <v>0</v>
       </c>
-      <c r="V32" s="319" t="n">
+      <c r="V32" s="318" t="n">
         <f aca="false">Data_speed!S23</f>
         <v>0</v>
       </c>
@@ -13807,19 +13812,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="178"/>
-      <c r="S33" s="318" t="n">
+      <c r="S33" s="317" t="n">
         <f aca="false">Data_speed!P24</f>
         <v>0</v>
       </c>
-      <c r="T33" s="318" t="n">
+      <c r="T33" s="317" t="n">
         <f aca="false">Data_speed!Q24</f>
         <v>0</v>
       </c>
-      <c r="U33" s="318" t="n">
+      <c r="U33" s="317" t="n">
         <f aca="false">Data_speed!R24</f>
         <v>0</v>
       </c>
-      <c r="V33" s="319" t="n">
+      <c r="V33" s="318" t="n">
         <f aca="false">Data_speed!S24</f>
         <v>0</v>
       </c>
@@ -13885,19 +13890,19 @@
         <v>0</v>
       </c>
       <c r="Q34" s="178"/>
-      <c r="S34" s="318" t="n">
+      <c r="S34" s="317" t="n">
         <f aca="false">Data_speed!P25</f>
         <v>0</v>
       </c>
-      <c r="T34" s="318" t="n">
+      <c r="T34" s="317" t="n">
         <f aca="false">Data_speed!Q25</f>
         <v>0</v>
       </c>
-      <c r="U34" s="318" t="n">
+      <c r="U34" s="317" t="n">
         <f aca="false">Data_speed!R25</f>
         <v>0</v>
       </c>
-      <c r="V34" s="319" t="n">
+      <c r="V34" s="318" t="n">
         <f aca="false">Data_speed!S25</f>
         <v>0</v>
       </c>
@@ -13963,19 +13968,19 @@
         <v>0</v>
       </c>
       <c r="Q35" s="178"/>
-      <c r="S35" s="318" t="n">
+      <c r="S35" s="317" t="n">
         <f aca="false">Data_speed!P26</f>
         <v>0</v>
       </c>
-      <c r="T35" s="318" t="n">
+      <c r="T35" s="317" t="n">
         <f aca="false">Data_speed!Q26</f>
         <v>0</v>
       </c>
-      <c r="U35" s="318" t="n">
+      <c r="U35" s="317" t="n">
         <f aca="false">Data_speed!R26</f>
         <v>0</v>
       </c>
-      <c r="V35" s="319" t="n">
+      <c r="V35" s="318" t="n">
         <f aca="false">Data_speed!S26</f>
         <v>0</v>
       </c>
@@ -14041,19 +14046,19 @@
         <v>0</v>
       </c>
       <c r="Q36" s="178"/>
-      <c r="S36" s="318" t="n">
+      <c r="S36" s="317" t="n">
         <f aca="false">Data_speed!P27</f>
         <v>0</v>
       </c>
-      <c r="T36" s="318" t="n">
+      <c r="T36" s="317" t="n">
         <f aca="false">Data_speed!Q27</f>
         <v>0</v>
       </c>
-      <c r="U36" s="318" t="n">
+      <c r="U36" s="317" t="n">
         <f aca="false">Data_speed!R27</f>
         <v>0</v>
       </c>
-      <c r="V36" s="319" t="n">
+      <c r="V36" s="318" t="n">
         <f aca="false">Data_speed!S27</f>
         <v>0</v>
       </c>
@@ -14119,19 +14124,19 @@
         <v>0</v>
       </c>
       <c r="Q37" s="178"/>
-      <c r="S37" s="318" t="n">
+      <c r="S37" s="317" t="n">
         <f aca="false">Data_speed!P28</f>
         <v>0</v>
       </c>
-      <c r="T37" s="318" t="n">
+      <c r="T37" s="317" t="n">
         <f aca="false">Data_speed!Q28</f>
         <v>0</v>
       </c>
-      <c r="U37" s="318" t="n">
+      <c r="U37" s="317" t="n">
         <f aca="false">Data_speed!R28</f>
         <v>0</v>
       </c>
-      <c r="V37" s="319" t="n">
+      <c r="V37" s="318" t="n">
         <f aca="false">Data_speed!S28</f>
         <v>0</v>
       </c>
@@ -14152,7 +14157,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" s="306" t="e">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
@@ -14211,26 +14216,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="293"/>
-      <c r="S40" s="320" t="n">
+      <c r="S40" s="319" t="n">
         <f aca="false">AVERAGE(S14:S37)</f>
         <v>0</v>
       </c>
-      <c r="T40" s="320" t="n">
+      <c r="T40" s="319" t="n">
         <f aca="false">AVERAGE(T14:T37)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="320" t="n">
+      <c r="U40" s="319" t="n">
         <f aca="false">AVERAGE(U14:U37)</f>
         <v>0</v>
       </c>
-      <c r="V40" s="321" t="n">
+      <c r="V40" s="320" t="n">
         <f aca="false">AVERAGE(V14:V37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B41" s="307" t="e">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -14289,26 +14294,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="293"/>
-      <c r="S41" s="322" t="n">
+      <c r="S41" s="321" t="n">
         <f aca="false">AVERAGE(S20:S35)</f>
         <v>0</v>
       </c>
-      <c r="T41" s="322" t="n">
+      <c r="T41" s="321" t="n">
         <f aca="false">AVERAGE(T20:T35)</f>
         <v>0</v>
       </c>
-      <c r="U41" s="322" t="n">
+      <c r="U41" s="321" t="n">
         <f aca="false">AVERAGE(U20:U35)</f>
         <v>0</v>
       </c>
-      <c r="V41" s="323" t="n">
+      <c r="V41" s="322" t="n">
         <f aca="false">AVERAGE(V20:V35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" s="308" t="e">
         <f aca="false">B40-B41</f>
@@ -14368,19 +14373,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="293"/>
-      <c r="S42" s="324" t="n">
+      <c r="S42" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(S14:S19), AVERAGE(S36:S37))</f>
         <v>0</v>
       </c>
-      <c r="T42" s="324" t="n">
+      <c r="T42" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(T14:T19), AVERAGE(T36:T37))</f>
         <v>0</v>
       </c>
-      <c r="U42" s="324" t="n">
+      <c r="U42" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(U14:U19), AVERAGE(U36:U37))</f>
         <v>0</v>
       </c>
-      <c r="V42" s="325" t="n">
+      <c r="V42" s="324" t="n">
         <f aca="false">AVERAGE(AVERAGE(V14:V19), AVERAGE(V36:V37))</f>
         <v>0</v>
       </c>
@@ -14404,7 +14409,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" s="4" t="n">
         <f aca="false">B5</f>
@@ -14413,26 +14418,26 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="311" t="str">
+      <c r="A47" s="302" t="str">
         <f aca="false">"Vitesse moyenne = "&amp;INT(V76)&amp;" km/h"</f>
         <v>Vitesse moyenne = 0 km/h</v>
       </c>
-      <c r="B47" s="311"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="311"/>
-      <c r="F47" s="311"/>
-      <c r="G47" s="311"/>
-      <c r="H47" s="311"/>
-      <c r="I47" s="311"/>
-      <c r="J47" s="311"/>
-      <c r="K47" s="311"/>
-      <c r="L47" s="311"/>
-      <c r="M47" s="311"/>
-      <c r="N47" s="311"/>
-      <c r="O47" s="311"/>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="311"/>
+      <c r="B47" s="302"/>
+      <c r="C47" s="302"/>
+      <c r="D47" s="302"/>
+      <c r="E47" s="302"/>
+      <c r="F47" s="302"/>
+      <c r="G47" s="302"/>
+      <c r="H47" s="302"/>
+      <c r="I47" s="302"/>
+      <c r="J47" s="302"/>
+      <c r="K47" s="302"/>
+      <c r="L47" s="302"/>
+      <c r="M47" s="302"/>
+      <c r="N47" s="302"/>
+      <c r="O47" s="302"/>
+      <c r="P47" s="302"/>
+      <c r="Q47" s="302"/>
       <c r="R47" s="303"/>
       <c r="S47" s="303"/>
       <c r="T47" s="303"/>
@@ -14455,24 +14460,24 @@
       <c r="K48" s="248"/>
       <c r="L48" s="248"/>
       <c r="M48" s="248"/>
-      <c r="N48" s="312"/>
+      <c r="N48" s="311"/>
       <c r="P48" s="220" t="str">
         <f aca="false">P12</f>
         <v>THM</v>
       </c>
       <c r="Q48" s="291"/>
       <c r="R48" s="187"/>
-      <c r="S48" s="313" t="str">
+      <c r="S48" s="312" t="str">
         <f aca="false">S12</f>
         <v>Vitesses caractéristiques</v>
       </c>
-      <c r="T48" s="313"/>
-      <c r="U48" s="313"/>
-      <c r="V48" s="313"/>
+      <c r="T48" s="312"/>
+      <c r="U48" s="312"/>
+      <c r="V48" s="312"/>
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="249" t="str">
         <f aca="false">B13</f>
@@ -14531,19 +14536,19 @@
         <v>Véh/h</v>
       </c>
       <c r="Q49" s="119"/>
-      <c r="S49" s="314" t="str">
+      <c r="S49" s="313" t="str">
         <f aca="false">S13</f>
         <v>V15</v>
       </c>
-      <c r="T49" s="315" t="str">
+      <c r="T49" s="314" t="str">
         <f aca="false">T13</f>
         <v>V50</v>
       </c>
-      <c r="U49" s="316" t="str">
+      <c r="U49" s="315" t="str">
         <f aca="false">U13</f>
         <v>V85</v>
       </c>
-      <c r="V49" s="326" t="str">
+      <c r="V49" s="325" t="str">
         <f aca="false">V13</f>
         <v>Vmt</v>
       </c>
@@ -14609,19 +14614,19 @@
         <v>0</v>
       </c>
       <c r="Q50" s="178"/>
-      <c r="S50" s="318" t="n">
+      <c r="S50" s="317" t="n">
         <f aca="false">Data_speed!P33</f>
         <v>0</v>
       </c>
-      <c r="T50" s="318" t="n">
+      <c r="T50" s="317" t="n">
         <f aca="false">Data_speed!Q33</f>
         <v>0</v>
       </c>
-      <c r="U50" s="318" t="n">
+      <c r="U50" s="317" t="n">
         <f aca="false">Data_speed!R33</f>
         <v>0</v>
       </c>
-      <c r="V50" s="319" t="n">
+      <c r="V50" s="318" t="n">
         <f aca="false">Data_speed!S33</f>
         <v>0</v>
       </c>
@@ -14687,19 +14692,19 @@
         <v>0</v>
       </c>
       <c r="Q51" s="178"/>
-      <c r="S51" s="318" t="n">
+      <c r="S51" s="317" t="n">
         <f aca="false">Data_speed!P34</f>
         <v>0</v>
       </c>
-      <c r="T51" s="318" t="n">
+      <c r="T51" s="317" t="n">
         <f aca="false">Data_speed!Q34</f>
         <v>0</v>
       </c>
-      <c r="U51" s="318" t="n">
+      <c r="U51" s="317" t="n">
         <f aca="false">Data_speed!R34</f>
         <v>0</v>
       </c>
-      <c r="V51" s="319" t="n">
+      <c r="V51" s="318" t="n">
         <f aca="false">Data_speed!S34</f>
         <v>0</v>
       </c>
@@ -14765,19 +14770,19 @@
         <v>0</v>
       </c>
       <c r="Q52" s="178"/>
-      <c r="S52" s="318" t="n">
+      <c r="S52" s="317" t="n">
         <f aca="false">Data_speed!P35</f>
         <v>0</v>
       </c>
-      <c r="T52" s="318" t="n">
+      <c r="T52" s="317" t="n">
         <f aca="false">Data_speed!Q35</f>
         <v>0</v>
       </c>
-      <c r="U52" s="318" t="n">
+      <c r="U52" s="317" t="n">
         <f aca="false">Data_speed!R35</f>
         <v>0</v>
       </c>
-      <c r="V52" s="319" t="n">
+      <c r="V52" s="318" t="n">
         <f aca="false">Data_speed!S35</f>
         <v>0</v>
       </c>
@@ -14843,19 +14848,19 @@
         <v>0</v>
       </c>
       <c r="Q53" s="178"/>
-      <c r="S53" s="318" t="n">
+      <c r="S53" s="317" t="n">
         <f aca="false">Data_speed!P36</f>
         <v>0</v>
       </c>
-      <c r="T53" s="318" t="n">
+      <c r="T53" s="317" t="n">
         <f aca="false">Data_speed!Q36</f>
         <v>0</v>
       </c>
-      <c r="U53" s="318" t="n">
+      <c r="U53" s="317" t="n">
         <f aca="false">Data_speed!R36</f>
         <v>0</v>
       </c>
-      <c r="V53" s="319" t="n">
+      <c r="V53" s="318" t="n">
         <f aca="false">Data_speed!S36</f>
         <v>0</v>
       </c>
@@ -14921,19 +14926,19 @@
         <v>0</v>
       </c>
       <c r="Q54" s="178"/>
-      <c r="S54" s="318" t="n">
+      <c r="S54" s="317" t="n">
         <f aca="false">Data_speed!P37</f>
         <v>0</v>
       </c>
-      <c r="T54" s="318" t="n">
+      <c r="T54" s="317" t="n">
         <f aca="false">Data_speed!Q37</f>
         <v>0</v>
       </c>
-      <c r="U54" s="318" t="n">
+      <c r="U54" s="317" t="n">
         <f aca="false">Data_speed!R37</f>
         <v>0</v>
       </c>
-      <c r="V54" s="319" t="n">
+      <c r="V54" s="318" t="n">
         <f aca="false">Data_speed!S37</f>
         <v>0</v>
       </c>
@@ -14999,19 +15004,19 @@
         <v>0</v>
       </c>
       <c r="Q55" s="178"/>
-      <c r="S55" s="318" t="n">
+      <c r="S55" s="317" t="n">
         <f aca="false">Data_speed!P38</f>
         <v>0</v>
       </c>
-      <c r="T55" s="318" t="n">
+      <c r="T55" s="317" t="n">
         <f aca="false">Data_speed!Q38</f>
         <v>0</v>
       </c>
-      <c r="U55" s="318" t="n">
+      <c r="U55" s="317" t="n">
         <f aca="false">Data_speed!R38</f>
         <v>0</v>
       </c>
-      <c r="V55" s="319" t="n">
+      <c r="V55" s="318" t="n">
         <f aca="false">Data_speed!S38</f>
         <v>0</v>
       </c>
@@ -15077,19 +15082,19 @@
         <v>0</v>
       </c>
       <c r="Q56" s="178"/>
-      <c r="S56" s="318" t="n">
+      <c r="S56" s="317" t="n">
         <f aca="false">Data_speed!P39</f>
         <v>0</v>
       </c>
-      <c r="T56" s="318" t="n">
+      <c r="T56" s="317" t="n">
         <f aca="false">Data_speed!Q39</f>
         <v>0</v>
       </c>
-      <c r="U56" s="318" t="n">
+      <c r="U56" s="317" t="n">
         <f aca="false">Data_speed!R39</f>
         <v>0</v>
       </c>
-      <c r="V56" s="319" t="n">
+      <c r="V56" s="318" t="n">
         <f aca="false">Data_speed!S39</f>
         <v>0</v>
       </c>
@@ -15155,19 +15160,19 @@
         <v>0</v>
       </c>
       <c r="Q57" s="178"/>
-      <c r="S57" s="318" t="n">
+      <c r="S57" s="317" t="n">
         <f aca="false">Data_speed!P40</f>
         <v>0</v>
       </c>
-      <c r="T57" s="318" t="n">
+      <c r="T57" s="317" t="n">
         <f aca="false">Data_speed!Q40</f>
         <v>0</v>
       </c>
-      <c r="U57" s="318" t="n">
+      <c r="U57" s="317" t="n">
         <f aca="false">Data_speed!R40</f>
         <v>0</v>
       </c>
-      <c r="V57" s="319" t="n">
+      <c r="V57" s="318" t="n">
         <f aca="false">Data_speed!S40</f>
         <v>0</v>
       </c>
@@ -15233,19 +15238,19 @@
         <v>0</v>
       </c>
       <c r="Q58" s="178"/>
-      <c r="S58" s="318" t="n">
+      <c r="S58" s="317" t="n">
         <f aca="false">Data_speed!P41</f>
         <v>0</v>
       </c>
-      <c r="T58" s="318" t="n">
+      <c r="T58" s="317" t="n">
         <f aca="false">Data_speed!Q41</f>
         <v>0</v>
       </c>
-      <c r="U58" s="318" t="n">
+      <c r="U58" s="317" t="n">
         <f aca="false">Data_speed!R41</f>
         <v>0</v>
       </c>
-      <c r="V58" s="319" t="n">
+      <c r="V58" s="318" t="n">
         <f aca="false">Data_speed!S41</f>
         <v>0</v>
       </c>
@@ -15311,19 +15316,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="178"/>
-      <c r="S59" s="318" t="n">
+      <c r="S59" s="317" t="n">
         <f aca="false">Data_speed!P42</f>
         <v>0</v>
       </c>
-      <c r="T59" s="318" t="n">
+      <c r="T59" s="317" t="n">
         <f aca="false">Data_speed!Q42</f>
         <v>0</v>
       </c>
-      <c r="U59" s="318" t="n">
+      <c r="U59" s="317" t="n">
         <f aca="false">Data_speed!R42</f>
         <v>0</v>
       </c>
-      <c r="V59" s="319" t="n">
+      <c r="V59" s="318" t="n">
         <f aca="false">Data_speed!S42</f>
         <v>0</v>
       </c>
@@ -15389,19 +15394,19 @@
         <v>0</v>
       </c>
       <c r="Q60" s="178"/>
-      <c r="S60" s="318" t="n">
+      <c r="S60" s="317" t="n">
         <f aca="false">Data_speed!P43</f>
         <v>0</v>
       </c>
-      <c r="T60" s="318" t="n">
+      <c r="T60" s="317" t="n">
         <f aca="false">Data_speed!Q43</f>
         <v>0</v>
       </c>
-      <c r="U60" s="318" t="n">
+      <c r="U60" s="317" t="n">
         <f aca="false">Data_speed!R43</f>
         <v>0</v>
       </c>
-      <c r="V60" s="319" t="n">
+      <c r="V60" s="318" t="n">
         <f aca="false">Data_speed!S43</f>
         <v>0</v>
       </c>
@@ -15467,19 +15472,19 @@
         <v>0</v>
       </c>
       <c r="Q61" s="178"/>
-      <c r="S61" s="318" t="n">
+      <c r="S61" s="317" t="n">
         <f aca="false">Data_speed!P44</f>
         <v>0</v>
       </c>
-      <c r="T61" s="318" t="n">
+      <c r="T61" s="317" t="n">
         <f aca="false">Data_speed!Q44</f>
         <v>0</v>
       </c>
-      <c r="U61" s="318" t="n">
+      <c r="U61" s="317" t="n">
         <f aca="false">Data_speed!R44</f>
         <v>0</v>
       </c>
-      <c r="V61" s="319" t="n">
+      <c r="V61" s="318" t="n">
         <f aca="false">Data_speed!S44</f>
         <v>0</v>
       </c>
@@ -15545,19 +15550,19 @@
         <v>0</v>
       </c>
       <c r="Q62" s="178"/>
-      <c r="S62" s="318" t="n">
+      <c r="S62" s="317" t="n">
         <f aca="false">Data_speed!P45</f>
         <v>0</v>
       </c>
-      <c r="T62" s="318" t="n">
+      <c r="T62" s="317" t="n">
         <f aca="false">Data_speed!Q45</f>
         <v>0</v>
       </c>
-      <c r="U62" s="318" t="n">
+      <c r="U62" s="317" t="n">
         <f aca="false">Data_speed!R45</f>
         <v>0</v>
       </c>
-      <c r="V62" s="319" t="n">
+      <c r="V62" s="318" t="n">
         <f aca="false">Data_speed!S45</f>
         <v>0</v>
       </c>
@@ -15623,19 +15628,19 @@
         <v>0</v>
       </c>
       <c r="Q63" s="178"/>
-      <c r="S63" s="318" t="n">
+      <c r="S63" s="317" t="n">
         <f aca="false">Data_speed!P46</f>
         <v>0</v>
       </c>
-      <c r="T63" s="318" t="n">
+      <c r="T63" s="317" t="n">
         <f aca="false">Data_speed!Q46</f>
         <v>0</v>
       </c>
-      <c r="U63" s="318" t="n">
+      <c r="U63" s="317" t="n">
         <f aca="false">Data_speed!R46</f>
         <v>0</v>
       </c>
-      <c r="V63" s="319" t="n">
+      <c r="V63" s="318" t="n">
         <f aca="false">Data_speed!S46</f>
         <v>0</v>
       </c>
@@ -15701,19 +15706,19 @@
         <v>0</v>
       </c>
       <c r="Q64" s="178"/>
-      <c r="S64" s="318" t="n">
+      <c r="S64" s="317" t="n">
         <f aca="false">Data_speed!P47</f>
         <v>0</v>
       </c>
-      <c r="T64" s="318" t="n">
+      <c r="T64" s="317" t="n">
         <f aca="false">Data_speed!Q47</f>
         <v>0</v>
       </c>
-      <c r="U64" s="318" t="n">
+      <c r="U64" s="317" t="n">
         <f aca="false">Data_speed!R47</f>
         <v>0</v>
       </c>
-      <c r="V64" s="319" t="n">
+      <c r="V64" s="318" t="n">
         <f aca="false">Data_speed!S47</f>
         <v>0</v>
       </c>
@@ -15779,19 +15784,19 @@
         <v>0</v>
       </c>
       <c r="Q65" s="178"/>
-      <c r="S65" s="318" t="n">
+      <c r="S65" s="317" t="n">
         <f aca="false">Data_speed!P48</f>
         <v>0</v>
       </c>
-      <c r="T65" s="318" t="n">
+      <c r="T65" s="317" t="n">
         <f aca="false">Data_speed!Q48</f>
         <v>0</v>
       </c>
-      <c r="U65" s="318" t="n">
+      <c r="U65" s="317" t="n">
         <f aca="false">Data_speed!R48</f>
         <v>0</v>
       </c>
-      <c r="V65" s="319" t="n">
+      <c r="V65" s="318" t="n">
         <f aca="false">Data_speed!S48</f>
         <v>0</v>
       </c>
@@ -15857,19 +15862,19 @@
         <v>0</v>
       </c>
       <c r="Q66" s="178"/>
-      <c r="S66" s="318" t="n">
+      <c r="S66" s="317" t="n">
         <f aca="false">Data_speed!P49</f>
         <v>0</v>
       </c>
-      <c r="T66" s="318" t="n">
+      <c r="T66" s="317" t="n">
         <f aca="false">Data_speed!Q49</f>
         <v>0</v>
       </c>
-      <c r="U66" s="318" t="n">
+      <c r="U66" s="317" t="n">
         <f aca="false">Data_speed!R49</f>
         <v>0</v>
       </c>
-      <c r="V66" s="319" t="n">
+      <c r="V66" s="318" t="n">
         <f aca="false">Data_speed!S49</f>
         <v>0</v>
       </c>
@@ -15935,19 +15940,19 @@
         <v>0</v>
       </c>
       <c r="Q67" s="178"/>
-      <c r="S67" s="318" t="n">
+      <c r="S67" s="317" t="n">
         <f aca="false">Data_speed!P50</f>
         <v>0</v>
       </c>
-      <c r="T67" s="318" t="n">
+      <c r="T67" s="317" t="n">
         <f aca="false">Data_speed!Q50</f>
         <v>0</v>
       </c>
-      <c r="U67" s="318" t="n">
+      <c r="U67" s="317" t="n">
         <f aca="false">Data_speed!R50</f>
         <v>0</v>
       </c>
-      <c r="V67" s="319" t="n">
+      <c r="V67" s="318" t="n">
         <f aca="false">Data_speed!S50</f>
         <v>0</v>
       </c>
@@ -16013,19 +16018,19 @@
         <v>0</v>
       </c>
       <c r="Q68" s="178"/>
-      <c r="S68" s="318" t="n">
+      <c r="S68" s="317" t="n">
         <f aca="false">Data_speed!P51</f>
         <v>0</v>
       </c>
-      <c r="T68" s="318" t="n">
+      <c r="T68" s="317" t="n">
         <f aca="false">Data_speed!Q51</f>
         <v>0</v>
       </c>
-      <c r="U68" s="318" t="n">
+      <c r="U68" s="317" t="n">
         <f aca="false">Data_speed!R51</f>
         <v>0</v>
       </c>
-      <c r="V68" s="319" t="n">
+      <c r="V68" s="318" t="n">
         <f aca="false">Data_speed!S51</f>
         <v>0</v>
       </c>
@@ -16091,19 +16096,19 @@
         <v>0</v>
       </c>
       <c r="Q69" s="178"/>
-      <c r="S69" s="318" t="n">
+      <c r="S69" s="317" t="n">
         <f aca="false">Data_speed!P52</f>
         <v>0</v>
       </c>
-      <c r="T69" s="318" t="n">
+      <c r="T69" s="317" t="n">
         <f aca="false">Data_speed!Q52</f>
         <v>0</v>
       </c>
-      <c r="U69" s="318" t="n">
+      <c r="U69" s="317" t="n">
         <f aca="false">Data_speed!R52</f>
         <v>0</v>
       </c>
-      <c r="V69" s="319" t="n">
+      <c r="V69" s="318" t="n">
         <f aca="false">Data_speed!S52</f>
         <v>0</v>
       </c>
@@ -16169,19 +16174,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="178"/>
-      <c r="S70" s="318" t="n">
+      <c r="S70" s="317" t="n">
         <f aca="false">Data_speed!P53</f>
         <v>0</v>
       </c>
-      <c r="T70" s="318" t="n">
+      <c r="T70" s="317" t="n">
         <f aca="false">Data_speed!Q53</f>
         <v>0</v>
       </c>
-      <c r="U70" s="318" t="n">
+      <c r="U70" s="317" t="n">
         <f aca="false">Data_speed!R53</f>
         <v>0</v>
       </c>
-      <c r="V70" s="319" t="n">
+      <c r="V70" s="318" t="n">
         <f aca="false">Data_speed!S53</f>
         <v>0</v>
       </c>
@@ -16247,19 +16252,19 @@
         <v>0</v>
       </c>
       <c r="Q71" s="178"/>
-      <c r="S71" s="318" t="n">
+      <c r="S71" s="317" t="n">
         <f aca="false">Data_speed!P54</f>
         <v>0</v>
       </c>
-      <c r="T71" s="318" t="n">
+      <c r="T71" s="317" t="n">
         <f aca="false">Data_speed!Q54</f>
         <v>0</v>
       </c>
-      <c r="U71" s="318" t="n">
+      <c r="U71" s="317" t="n">
         <f aca="false">Data_speed!R54</f>
         <v>0</v>
       </c>
-      <c r="V71" s="319" t="n">
+      <c r="V71" s="318" t="n">
         <f aca="false">Data_speed!S54</f>
         <v>0</v>
       </c>
@@ -16325,19 +16330,19 @@
         <v>0</v>
       </c>
       <c r="Q72" s="178"/>
-      <c r="S72" s="318" t="n">
+      <c r="S72" s="317" t="n">
         <f aca="false">Data_speed!P55</f>
         <v>0</v>
       </c>
-      <c r="T72" s="318" t="n">
+      <c r="T72" s="317" t="n">
         <f aca="false">Data_speed!Q55</f>
         <v>0</v>
       </c>
-      <c r="U72" s="318" t="n">
+      <c r="U72" s="317" t="n">
         <f aca="false">Data_speed!R55</f>
         <v>0</v>
       </c>
-      <c r="V72" s="319" t="n">
+      <c r="V72" s="318" t="n">
         <f aca="false">Data_speed!S55</f>
         <v>0</v>
       </c>
@@ -16403,19 +16408,19 @@
         <v>0</v>
       </c>
       <c r="Q73" s="178"/>
-      <c r="S73" s="318" t="n">
+      <c r="S73" s="317" t="n">
         <f aca="false">Data_speed!P56</f>
         <v>0</v>
       </c>
-      <c r="T73" s="318" t="n">
+      <c r="T73" s="317" t="n">
         <f aca="false">Data_speed!Q56</f>
         <v>0</v>
       </c>
-      <c r="U73" s="318" t="n">
+      <c r="U73" s="317" t="n">
         <f aca="false">Data_speed!R56</f>
         <v>0</v>
       </c>
-      <c r="V73" s="319" t="n">
+      <c r="V73" s="318" t="n">
         <f aca="false">Data_speed!S56</f>
         <v>0</v>
       </c>
@@ -16436,7 +16441,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B76" s="306" t="e">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
@@ -16495,26 +16500,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q76" s="293"/>
-      <c r="S76" s="320" t="n">
+      <c r="S76" s="319" t="n">
         <f aca="false">AVERAGE(S50:S73)</f>
         <v>0</v>
       </c>
-      <c r="T76" s="320" t="n">
+      <c r="T76" s="319" t="n">
         <f aca="false">AVERAGE(T50:T73)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="320" t="n">
+      <c r="U76" s="319" t="n">
         <f aca="false">AVERAGE(U50:U73)</f>
         <v>0</v>
       </c>
-      <c r="V76" s="321" t="n">
+      <c r="V76" s="320" t="n">
         <f aca="false">AVERAGE(V50:V73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B77" s="307" t="e">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -16573,26 +16578,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q77" s="293"/>
-      <c r="S77" s="322" t="n">
+      <c r="S77" s="321" t="n">
         <f aca="false">AVERAGE(S56:S71)</f>
         <v>0</v>
       </c>
-      <c r="T77" s="322" t="n">
+      <c r="T77" s="321" t="n">
         <f aca="false">AVERAGE(T56:T71)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="322" t="n">
+      <c r="U77" s="321" t="n">
         <f aca="false">AVERAGE(U56:U71)</f>
         <v>0</v>
       </c>
-      <c r="V77" s="323" t="n">
+      <c r="V77" s="322" t="n">
         <f aca="false">AVERAGE(V56:V71)</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="308" t="e">
         <f aca="false">B76-B77</f>
@@ -16652,19 +16657,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q78" s="293"/>
-      <c r="S78" s="324" t="n">
+      <c r="S78" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(S50:S55), AVERAGE(S72:S73))</f>
         <v>0</v>
       </c>
-      <c r="T78" s="324" t="n">
+      <c r="T78" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(T50:T55), AVERAGE(T72:T73))</f>
         <v>0</v>
       </c>
-      <c r="U78" s="324" t="n">
+      <c r="U78" s="323" t="n">
         <f aca="false">AVERAGE(AVERAGE(U50:U55), AVERAGE(U72:U73))</f>
         <v>0</v>
       </c>
-      <c r="V78" s="325" t="n">
+      <c r="V78" s="324" t="n">
         <f aca="false">AVERAGE(AVERAGE(V50:V55), AVERAGE(V72:V73))</f>
         <v>0</v>
       </c>
@@ -19003,15 +19008,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S58" activeCellId="0" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19764,6 +19770,10 @@
         <f aca="false">SUM(B29:N29)</f>
         <v>0</v>
       </c>
+      <c r="S29" s="1" t="e">
+        <f aca="false">SUMPRODUCT(B29:N29,B60:N60)/SUM(B29:N29)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20511,6 +20521,28 @@
         <f aca="false">SUM(B57:N57)</f>
         <v>0</v>
       </c>
+      <c r="S57" s="1" t="e">
+        <f aca="false">SUMPRODUCT(B57:N57,B60:N60)/SUM(B57:N57)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -20541,7 +20573,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20549,7 +20581,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20584,10 +20616,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
@@ -22191,7 +22223,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22226,10 +22258,10 @@
         <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>1</v>
@@ -23891,7 +23923,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -23904,7 +23936,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -23935,7 +23967,7 @@
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -23948,20 +23980,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" s="24"/>
     </row>
@@ -23970,33 +24002,33 @@
         <v>14</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="G11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="K11" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="31" t="n">
         <f aca="false">Data_day!B29</f>
@@ -24037,7 +24069,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="31" t="n">
         <f aca="false">Data_day!C29</f>
@@ -24078,7 +24110,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="31" t="n">
         <f aca="false">Data_day!D29</f>
@@ -24119,7 +24151,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="31" t="n">
         <f aca="false">Data_day!E29</f>
@@ -24160,7 +24192,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="31" t="n">
         <f aca="false">Data_day!F29</f>
@@ -24204,7 +24236,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="45" t="n">
         <f aca="false">Data_day!G29</f>
@@ -24245,7 +24277,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="45" t="n">
         <f aca="false">Data_day!H29</f>
@@ -24289,7 +24321,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="57" t="n">
@@ -24331,7 +24363,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="n">
@@ -24404,7 +24436,7 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -24414,11 +24446,11 @@
     </row>
     <row r="28" s="1" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F28" s="70"/>
       <c r="H28" s="12"/>
@@ -24426,7 +24458,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="73" t="n">
@@ -24443,7 +24475,7 @@
     </row>
     <row r="30" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="77" t="n">
@@ -24460,7 +24492,7 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="76"/>
       <c r="C31" s="77" t="n">
@@ -24477,7 +24509,7 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="77" t="n">
@@ -24494,7 +24526,7 @@
     </row>
     <row r="33" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="81" t="n">
@@ -24521,7 +24553,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="73" t="n">
@@ -24534,7 +24566,7 @@
       </c>
       <c r="F35" s="74"/>
       <c r="H35" s="86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I35" s="86"/>
       <c r="J35" s="86"/>
@@ -24542,7 +24574,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="87"/>
       <c r="C36" s="81" t="n">
@@ -24606,7 +24638,7 @@
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
@@ -24680,7 +24712,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="99"/>
       <c r="C45" s="34" t="e">
@@ -24722,7 +24754,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="102" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="103"/>
       <c r="C46" s="38" t="e">
@@ -24764,7 +24796,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="103"/>
       <c r="C47" s="38" t="e">
@@ -24806,7 +24838,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="103"/>
       <c r="C48" s="38" t="e">
@@ -24848,7 +24880,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="110"/>
       <c r="C49" s="41" t="e">
@@ -24903,7 +24935,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="48" t="e">
@@ -24945,7 +24977,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="87"/>
       <c r="C52" s="54" t="e">
@@ -24999,7 +25031,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="120"/>
       <c r="B54" s="121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C54" s="122" t="e">
         <f aca="false">AVERAGE(C45:C49)</f>
@@ -25041,7 +25073,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="128"/>
       <c r="B55" s="129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C55" s="130" t="e">
         <f aca="false">AVERAGE(C45:C49,C51:C52)</f>
@@ -25180,7 +25212,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -25194,7 +25226,7 @@
     </row>
     <row r="5" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -25262,34 +25294,34 @@
         <v>14</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="G10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="I10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="K10" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="136"/>
       <c r="B11" s="137" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="57" t="n">
         <f aca="false">CV_H!C21</f>
@@ -25331,7 +25363,7 @@
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="143"/>
       <c r="B12" s="144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="145" t="n">
         <f aca="false">CV_H!C22</f>
@@ -25372,19 +25404,19 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="151"/>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
       <c r="E33" s="43"/>
       <c r="F33" s="151" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" s="151"/>
       <c r="H33" s="151"/>
@@ -25392,19 +25424,19 @@
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" s="151" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="151" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F34" s="151" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="151"/>
       <c r="H34" s="151" t="str">
@@ -25412,7 +25444,7 @@
         <v>% de TJMO</v>
       </c>
       <c r="I34" s="152" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25453,7 +25485,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="157" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G36" s="157"/>
       <c r="H36" s="158"/>
@@ -25476,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="157" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G37" s="157"/>
       <c r="H37" s="158" t="e">
@@ -25526,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="157" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G39" s="157"/>
       <c r="H39" s="158"/>
@@ -25549,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="157" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" s="157"/>
       <c r="H40" s="158" t="e">
@@ -25599,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="157" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G42" s="157"/>
       <c r="H42" s="158"/>
@@ -25622,7 +25654,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="157" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G43" s="157"/>
       <c r="H43" s="158" t="e">
@@ -25672,7 +25704,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="157" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G45" s="157"/>
       <c r="H45" s="158"/>
@@ -25695,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="157" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G46" s="157"/>
       <c r="H46" s="158" t="e">
@@ -25745,7 +25777,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="157" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G48" s="157"/>
       <c r="H48" s="158"/>
@@ -25768,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="157" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G49" s="157"/>
       <c r="H49" s="158" t="e">
@@ -25818,7 +25850,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G51" s="168"/>
       <c r="H51" s="168"/>
@@ -25876,10 +25908,10 @@
         <v>% de TJMO</v>
       </c>
       <c r="I53" s="151" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J53" s="151" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25921,7 +25953,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="157" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G55" s="157"/>
       <c r="H55" s="172" t="e">
@@ -25976,7 +26008,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="157" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G57" s="157"/>
       <c r="H57" s="172" t="e">
@@ -26466,7 +26498,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -26480,7 +26512,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -26518,10 +26550,10 @@
       </c>
       <c r="D9" s="182"/>
       <c r="M9" s="183" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W9" s="184" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -26530,7 +26562,7 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="185" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D12" s="185"/>
       <c r="E12" s="185"/>
@@ -26542,7 +26574,7 @@
       <c r="K12" s="185"/>
       <c r="L12" s="186"/>
       <c r="M12" s="185" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="185"/>
       <c r="O12" s="185"/>
@@ -26554,7 +26586,7 @@
       <c r="U12" s="185"/>
       <c r="V12" s="186"/>
       <c r="W12" s="185" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X12" s="185"/>
       <c r="Y12" s="185"/>
@@ -26568,34 +26600,34 @@
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="188"/>
       <c r="B13" s="189" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="190" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="191" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="191" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="191" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="192" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="193" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="194" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13" s="195" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" s="188"/>
       <c r="M13" s="190" t="str">
@@ -29524,7 +29556,7 @@
     </row>
     <row r="40" s="188" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="209" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" s="210" t="n">
         <f aca="false">SUM(C14:C37)</f>
@@ -29756,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="17" t="n">
@@ -29766,7 +29798,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -29780,7 +29812,7 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -29818,7 +29850,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="218" t="n">
         <f aca="false">B4</f>
@@ -29848,32 +29880,32 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="223" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="224" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F12" s="224" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G12" s="152" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H12" s="225" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="226" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K12" s="221"/>
     </row>
@@ -30866,7 +30898,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="235" t="e">
         <f aca="false">SUM(B13:B36)/Data_category!$L$29</f>
@@ -30907,7 +30939,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="239" t="e">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
@@ -30948,7 +30980,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="243" t="e">
         <f aca="false">B38-B39</f>
@@ -30998,7 +31030,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" s="4" t="n">
         <f aca="false">B5</f>
@@ -31028,7 +31060,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="249" t="str">
         <f aca="false">B12</f>
@@ -31060,7 +31092,7 @@
       </c>
       <c r="I45" s="43"/>
       <c r="J45" s="226" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45" s="221"/>
     </row>
@@ -32053,7 +32085,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B71" s="235" t="e">
         <f aca="false">SUM(B46:B69)/Data_category!$L$57</f>
@@ -32094,7 +32126,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72" s="239" t="e">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
@@ -32135,7 +32167,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" s="243" t="e">
         <f aca="false">B71-B72</f>
@@ -32176,17 +32208,17 @@
     </row>
     <row r="75" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B75" s="83"/>
       <c r="C75" s="83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D75" s="156"/>
       <c r="E75" s="83"/>
       <c r="F75" s="83"/>
       <c r="G75" s="83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="1"/>
@@ -32195,16 +32227,16 @@
     </row>
     <row r="76" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B76" s="83"/>
       <c r="C76" s="83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E76" s="83"/>
       <c r="F76" s="83"/>
       <c r="G76" s="83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H76" s="83"/>
       <c r="I76" s="1"/>
@@ -32219,20 +32251,20 @@
       <c r="E77" s="83"/>
       <c r="F77" s="83"/>
       <c r="G77" s="83" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H77" s="83"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="253" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B78" s="253"/>
       <c r="C78" s="253"/>
       <c r="D78" s="253"/>
       <c r="E78" s="253"/>
       <c r="F78" s="253" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G78" s="253"/>
       <c r="H78" s="253"/>
@@ -32333,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="17" t="n">
@@ -32343,7 +32375,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -32357,7 +32389,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -32395,7 +32427,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B4</f>
@@ -32433,7 +32465,7 @@
       <c r="H12" s="178"/>
       <c r="I12" s="259"/>
       <c r="J12" s="260" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" s="221"/>
     </row>
@@ -32902,7 +32934,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" s="235" t="e">
         <f aca="false">SWISS7_H!B38</f>
@@ -32941,7 +32973,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" s="239" t="e">
         <f aca="false">SWISS7_H!B39</f>
@@ -32980,7 +33012,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" s="243" t="e">
         <f aca="false">SWISS7_H!B40</f>
@@ -33019,7 +33051,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="4" t="n">
         <f aca="false">B5</f>
@@ -33054,7 +33086,7 @@
       <c r="H47" s="284"/>
       <c r="I47" s="284"/>
       <c r="J47" s="226" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K47" s="221"/>
     </row>
@@ -33523,7 +33555,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B74" s="235" t="e">
         <f aca="false">SWISS7_H!B71</f>
@@ -33562,7 +33594,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="239" t="e">
         <f aca="false">SWISS7_H!B72</f>
@@ -33601,7 +33633,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="242" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B76" s="243" t="e">
         <f aca="false">SWISS7_H!B73</f>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="185">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -90,6 +90,9 @@
     <t xml:space="preserve">Section</t>
   </si>
   <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mon</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mean Mon-Fri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
   </si>
   <si>
     <t xml:space="preserve">Std deviation</t>
@@ -198,10 +198,16 @@
     <t xml:space="preserve">Monthly coefficient</t>
   </si>
   <si>
+    <t xml:space="preserve">dir1</t>
+  </si>
+  <si>
     <t xml:space="preserve">light</t>
   </si>
   <si>
     <t xml:space="preserve">heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dir2</t>
   </si>
   <si>
     <t xml:space="preserve">Data speed </t>
@@ -3305,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J3" s="12"/>
       <c r="N3" s="17" t="n">
@@ -3315,7 +3321,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -3329,7 +3335,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -3367,7 +3373,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" s="218" t="n">
         <f aca="false">B4</f>
@@ -3391,49 +3397,49 @@
       <c r="K11" s="248"/>
       <c r="L11" s="291"/>
       <c r="M11" s="220" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N11" s="221" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="249" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="151" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="250" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E12" s="151" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F12" s="250" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" s="151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H12" s="250" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I12" s="151" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J12" s="250" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K12" s="292" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L12" s="65"/>
       <c r="M12" s="226" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N12" s="221"/>
     </row>
@@ -4736,7 +4742,7 @@
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" s="235" t="e">
         <f aca="false">SUM(B13:B36)/Data_category!$L$29</f>
@@ -4790,7 +4796,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39" s="239" t="e">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
@@ -4844,7 +4850,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B40" s="243" t="e">
         <f aca="false">B38-B39</f>
@@ -4908,7 +4914,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="217" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B42" s="4" t="n">
         <f aca="false">B5</f>
@@ -4932,7 +4938,7 @@
       <c r="K44" s="248"/>
       <c r="L44" s="291"/>
       <c r="M44" s="220" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N44" s="221" t="str">
         <f aca="false">N11</f>
@@ -4941,7 +4947,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="249" t="str">
         <f aca="false">B12</f>
@@ -4985,7 +4991,7 @@
       </c>
       <c r="L45" s="65"/>
       <c r="M45" s="226" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N45" s="221"/>
     </row>
@@ -6288,7 +6294,7 @@
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="235" t="e">
         <f aca="false">SUM(B46:B69)/Data_category!$L$57</f>
@@ -6342,7 +6348,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" s="239" t="e">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
@@ -6396,7 +6402,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B73" s="243" t="e">
         <f aca="false">B71-B72</f>
@@ -6450,23 +6456,23 @@
     </row>
     <row r="75" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="83" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="83"/>
       <c r="C75" s="83" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D75" s="156"/>
       <c r="E75" s="83"/>
       <c r="F75" s="83"/>
       <c r="G75" s="83" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
       <c r="J75" s="295"/>
       <c r="K75" s="83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L75" s="83"/>
       <c r="M75" s="1"/>
@@ -6474,16 +6480,16 @@
     </row>
     <row r="76" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="83" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B76" s="83"/>
       <c r="C76" s="83" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E76" s="83"/>
       <c r="F76" s="83"/>
       <c r="G76" s="83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H76" s="83"/>
       <c r="I76" s="83"/>
@@ -6495,16 +6501,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="83" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B77" s="83"/>
       <c r="C77" s="83" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E77" s="83"/>
       <c r="F77" s="83"/>
       <c r="G77" s="83" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H77" s="83"/>
       <c r="I77" s="83"/>
@@ -6514,7 +6520,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="253" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B78" s="253"/>
       <c r="C78" s="253"/>
@@ -6523,7 +6529,7 @@
       <c r="F78" s="253"/>
       <c r="G78" s="253"/>
       <c r="H78" s="253" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I78" s="253"/>
       <c r="J78" s="253"/>
@@ -6634,7 +6640,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -6648,7 +6654,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -6668,7 +6674,7 @@
       <c r="A6" s="15"/>
       <c r="C6" s="19"/>
       <c r="G6" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J6" s="12"/>
       <c r="N6" s="119"/>
@@ -6696,7 +6702,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B4</f>
@@ -6722,7 +6728,7 @@
       <c r="L11" s="257"/>
       <c r="M11" s="258"/>
       <c r="N11" s="221" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6739,7 +6745,7 @@
       <c r="K12" s="178"/>
       <c r="L12" s="259"/>
       <c r="M12" s="260" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N12" s="221"/>
     </row>
@@ -7292,7 +7298,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" s="235" t="e">
         <f aca="false">SWISS10_H!B38</f>
@@ -7343,7 +7349,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" s="239" t="e">
         <f aca="false">SWISS10_H!B39</f>
@@ -7394,7 +7400,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B41" s="243" t="e">
         <f aca="false">SWISS10_H!B40</f>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="217" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4" t="n">
         <f aca="false">B5</f>
@@ -7486,7 +7492,7 @@
       <c r="K47" s="284"/>
       <c r="L47" s="284"/>
       <c r="M47" s="226" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N47" s="221"/>
     </row>
@@ -8039,7 +8045,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="235" t="e">
         <f aca="false">SWISS10_H!B71</f>
@@ -8090,7 +8096,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B75" s="239" t="e">
         <f aca="false">SWISS10_H!B72</f>
@@ -8141,7 +8147,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B76" s="243" t="e">
         <f aca="false">SWISS10_H!B73</f>
@@ -8236,7 +8242,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -8300,7 +8306,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -8316,7 +8322,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -8351,13 +8357,13 @@
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="217" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B4</f>
@@ -8407,7 +8413,7 @@
       <c r="L12" s="248"/>
       <c r="M12" s="248"/>
       <c r="O12" s="220" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P12" s="291"/>
       <c r="R12" s="0"/>
@@ -8422,46 +8428,46 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13" s="249" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13" s="151" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E13" s="151" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F13" s="151" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G13" s="151" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H13" s="151" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I13" s="151" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J13" s="151" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="151" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="151" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="252" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O13" s="304" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P13" s="119"/>
       <c r="R13" s="0"/>
@@ -9972,7 +9978,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B40" s="306" t="e">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
@@ -10034,7 +10040,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B41" s="307" t="e">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -10096,7 +10102,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B42" s="308" t="e">
         <f aca="false">B40-B41</f>
@@ -10171,7 +10177,7 @@
     <row r="45" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="217" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B46" s="4" t="n">
         <f aca="false">B5</f>
@@ -10233,7 +10239,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="249" t="str">
         <f aca="false">B13</f>
@@ -11796,7 +11802,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="306" t="e">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
@@ -11858,7 +11864,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" s="307" t="e">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -11920,7 +11926,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="308" t="e">
         <f aca="false">B76-B77</f>
@@ -12094,7 +12100,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -12109,7 +12115,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -12142,13 +12148,13 @@
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="217" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">B4</f>
@@ -12199,11 +12205,11 @@
       <c r="M12" s="248"/>
       <c r="N12" s="311"/>
       <c r="P12" s="220" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="291"/>
       <c r="S12" s="312" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T12" s="312"/>
       <c r="U12" s="312"/>
@@ -12211,62 +12217,62 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13" s="249" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="249" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" s="252" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="304" t="s">
         <v>176</v>
-      </c>
-      <c r="C13" s="249" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="151" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="151" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="151" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="151" t="s">
-        <v>170</v>
-      </c>
-      <c r="M13" s="151" t="s">
-        <v>171</v>
-      </c>
-      <c r="N13" s="252" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="304" t="s">
-        <v>174</v>
       </c>
       <c r="Q13" s="119"/>
       <c r="S13" s="313" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="T13" s="314" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="U13" s="315" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="V13" s="316" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14157,7 +14163,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B40" s="306" t="e">
         <f aca="false">SUM(B14:B37)/Data_speed!$O$29</f>
@@ -14235,7 +14241,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B41" s="307" t="e">
         <f aca="false">SUM(B20:B35)/Data_speed!$O$29</f>
@@ -14313,7 +14319,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B42" s="308" t="e">
         <f aca="false">B40-B41</f>
@@ -14409,7 +14415,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="217" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B46" s="4" t="n">
         <f aca="false">B5</f>
@@ -14477,7 +14483,7 @@
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="249" t="str">
         <f aca="false">B13</f>
@@ -16441,7 +16447,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B76" s="306" t="e">
         <f aca="false">SUM(B50:B73)/Data_speed!$O$57</f>
@@ -16519,7 +16525,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" s="307" t="e">
         <f aca="false">SUM(B56:B71)/Data_speed!$O$57</f>
@@ -16597,7 +16603,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B78" s="308" t="e">
         <f aca="false">B76-B77</f>
@@ -16726,8 +16732,8 @@
   </sheetPr>
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="B92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K66" activeCellId="0" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16749,43 +16755,46 @@
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17559,7 +17568,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B5:B28)</f>
@@ -17628,37 +17637,40 @@
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18240,7 +18252,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1" t="n">
         <f aca="false">SUM(B35:B58)</f>
@@ -18286,7 +18298,7 @@
     <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -18298,7 +18310,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -18313,37 +18325,40 @@
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="K64" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18925,7 +18940,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B90" s="1" t="n">
         <f aca="false">SUM(B66:B89)</f>
@@ -18970,7 +18985,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -18982,7 +18997,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -19022,7 +19037,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19071,19 +19086,19 @@
         <v>13</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19712,7 +19727,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B5:B28)</f>
@@ -19822,19 +19837,19 @@
         <v>13</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20463,7 +20478,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="false">SUM(B33:B56)</f>
@@ -20528,7 +20543,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -20573,7 +20588,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20581,7 +20596,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20616,10 +20631,10 @@
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
@@ -22166,7 +22181,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">SUM(B5:B28)</f>
@@ -22223,7 +22238,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22258,10 +22273,10 @@
         <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>1</v>
@@ -23808,7 +23823,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="false">SUM(B33:B56)</f>
@@ -23923,7 +23938,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -23936,7 +23951,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -23967,7 +23982,7 @@
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -23980,20 +23995,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K10" s="24"/>
     </row>
@@ -24002,33 +24017,33 @@
         <v>14</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="31" t="n">
         <f aca="false">Data_day!B29</f>
@@ -24069,7 +24084,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="31" t="n">
         <f aca="false">Data_day!C29</f>
@@ -24110,7 +24125,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="31" t="n">
         <f aca="false">Data_day!D29</f>
@@ -24151,7 +24166,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="31" t="n">
         <f aca="false">Data_day!E29</f>
@@ -24192,7 +24207,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="31" t="n">
         <f aca="false">Data_day!F29</f>
@@ -24236,7 +24251,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" s="45" t="n">
         <f aca="false">Data_day!G29</f>
@@ -24277,7 +24292,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="45" t="n">
         <f aca="false">Data_day!H29</f>
@@ -24321,7 +24336,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="57" t="n">
@@ -24363,7 +24378,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="n">
@@ -24436,7 +24451,7 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="19.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -24446,11 +24461,11 @@
     </row>
     <row r="28" s="1" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F28" s="70"/>
       <c r="H28" s="12"/>
@@ -24458,7 +24473,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="72"/>
       <c r="C29" s="73" t="n">
@@ -24475,7 +24490,7 @@
     </row>
     <row r="30" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="77" t="n">
@@ -24492,7 +24507,7 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B31" s="76"/>
       <c r="C31" s="77" t="n">
@@ -24509,7 +24524,7 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="77" t="n">
@@ -24526,7 +24541,7 @@
     </row>
     <row r="33" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B33" s="80"/>
       <c r="C33" s="81" t="n">
@@ -24553,7 +24568,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="73" t="n">
@@ -24566,7 +24581,7 @@
       </c>
       <c r="F35" s="74"/>
       <c r="H35" s="86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I35" s="86"/>
       <c r="J35" s="86"/>
@@ -24574,7 +24589,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B36" s="87"/>
       <c r="C36" s="81" t="n">
@@ -24638,7 +24653,7 @@
     </row>
     <row r="42" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
@@ -24712,7 +24727,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="98" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="99"/>
       <c r="C45" s="34" t="e">
@@ -24754,7 +24769,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="102" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="103"/>
       <c r="C46" s="38" t="e">
@@ -24796,7 +24811,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="102" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="103"/>
       <c r="C47" s="38" t="e">
@@ -24838,7 +24853,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="102" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="103"/>
       <c r="C48" s="38" t="e">
@@ -24880,7 +24895,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="109" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="110"/>
       <c r="C49" s="41" t="e">
@@ -24935,7 +24950,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="48" t="e">
@@ -24977,7 +24992,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="87"/>
       <c r="C52" s="54" t="e">
@@ -25031,7 +25046,7 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="120"/>
       <c r="B54" s="121" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" s="122" t="e">
         <f aca="false">AVERAGE(C45:C49)</f>
@@ -25073,7 +25088,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="128"/>
       <c r="B55" s="129" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" s="130" t="e">
         <f aca="false">AVERAGE(C45:C49,C51:C52)</f>
@@ -25212,7 +25227,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -25226,7 +25241,7 @@
     </row>
     <row r="5" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -25294,34 +25309,34 @@
         <v>14</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="136"/>
       <c r="B11" s="137" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="57" t="n">
         <f aca="false">CV_H!C21</f>
@@ -25363,7 +25378,7 @@
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="143"/>
       <c r="B12" s="144" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C12" s="145" t="n">
         <f aca="false">CV_H!C22</f>
@@ -25404,19 +25419,19 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" s="151"/>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
       <c r="E33" s="43"/>
       <c r="F33" s="151" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G33" s="151"/>
       <c r="H33" s="151"/>
@@ -25424,19 +25439,19 @@
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B34" s="151" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" s="151" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="152" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F34" s="151" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G34" s="151"/>
       <c r="H34" s="151" t="str">
@@ -25444,7 +25459,7 @@
         <v>% de TJMO</v>
       </c>
       <c r="I34" s="152" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25485,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="157" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G36" s="157"/>
       <c r="H36" s="158"/>
@@ -25508,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="157" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G37" s="157"/>
       <c r="H37" s="158" t="e">
@@ -25558,7 +25573,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="157" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G39" s="157"/>
       <c r="H39" s="158"/>
@@ -25581,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="157" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G40" s="157"/>
       <c r="H40" s="158" t="e">
@@ -25631,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="157" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G42" s="157"/>
       <c r="H42" s="158"/>
@@ -25654,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="157" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G43" s="157"/>
       <c r="H43" s="158" t="e">
@@ -25704,7 +25719,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="157" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G45" s="157"/>
       <c r="H45" s="158"/>
@@ -25727,7 +25742,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="157" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G46" s="157"/>
       <c r="H46" s="158" t="e">
@@ -25777,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="157" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G48" s="157"/>
       <c r="H48" s="158"/>
@@ -25800,7 +25815,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="157" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G49" s="157"/>
       <c r="H49" s="158" t="e">
@@ -25850,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G51" s="168"/>
       <c r="H51" s="168"/>
@@ -25908,10 +25923,10 @@
         <v>% de TJMO</v>
       </c>
       <c r="I53" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="151" t="s">
         <v>104</v>
-      </c>
-      <c r="J53" s="151" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25953,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="157" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G55" s="157"/>
       <c r="H55" s="172" t="e">
@@ -26008,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="157" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G57" s="157"/>
       <c r="H57" s="172" t="e">
@@ -26498,7 +26513,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -26512,7 +26527,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -26550,10 +26565,10 @@
       </c>
       <c r="D9" s="182"/>
       <c r="M9" s="183" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W9" s="184" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -26562,7 +26577,7 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="185" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12" s="185"/>
       <c r="E12" s="185"/>
@@ -26574,7 +26589,7 @@
       <c r="K12" s="185"/>
       <c r="L12" s="186"/>
       <c r="M12" s="185" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N12" s="185"/>
       <c r="O12" s="185"/>
@@ -26586,7 +26601,7 @@
       <c r="U12" s="185"/>
       <c r="V12" s="186"/>
       <c r="W12" s="185" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="X12" s="185"/>
       <c r="Y12" s="185"/>
@@ -26600,34 +26615,34 @@
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="188"/>
       <c r="B13" s="189" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" s="190" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="191" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="191" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="191" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H13" s="192" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13" s="193" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J13" s="194" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13" s="195" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L13" s="188"/>
       <c r="M13" s="190" t="str">
@@ -29556,7 +29571,7 @@
     </row>
     <row r="40" s="188" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="209" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C40" s="210" t="n">
         <f aca="false">SUM(C14:C37)</f>
@@ -29788,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="17" t="n">
@@ -29798,7 +29813,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -29812,7 +29827,7 @@
     </row>
     <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -29850,7 +29865,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" s="218" t="n">
         <f aca="false">B4</f>
@@ -29880,32 +29895,32 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="223" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="224" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F12" s="224" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G12" s="152" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H12" s="225" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="226" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K12" s="221"/>
     </row>
@@ -30898,7 +30913,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" s="235" t="e">
         <f aca="false">SUM(B13:B36)/Data_category!$L$29</f>
@@ -30939,7 +30954,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39" s="239" t="e">
         <f aca="false">SUM(B19:B34)/Data_category!$L$29</f>
@@ -30980,7 +30995,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B40" s="243" t="e">
         <f aca="false">B38-B39</f>
@@ -31030,7 +31045,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="217" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B42" s="4" t="n">
         <f aca="false">B5</f>
@@ -31060,7 +31075,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="222" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="249" t="str">
         <f aca="false">B12</f>
@@ -31092,7 +31107,7 @@
       </c>
       <c r="I45" s="43"/>
       <c r="J45" s="226" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K45" s="221"/>
     </row>
@@ -32085,7 +32100,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B71" s="235" t="e">
         <f aca="false">SUM(B46:B69)/Data_category!$L$57</f>
@@ -32126,7 +32141,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" s="239" t="e">
         <f aca="false">SUM(B52:B67)/Data_category!$L$57</f>
@@ -32167,7 +32182,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B73" s="243" t="e">
         <f aca="false">B71-B72</f>
@@ -32208,17 +32223,17 @@
     </row>
     <row r="75" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="83" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="83"/>
       <c r="C75" s="83" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D75" s="156"/>
       <c r="E75" s="83"/>
       <c r="F75" s="83"/>
       <c r="G75" s="83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="1"/>
@@ -32227,16 +32242,16 @@
     </row>
     <row r="76" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="83" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B76" s="83"/>
       <c r="C76" s="83" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E76" s="83"/>
       <c r="F76" s="83"/>
       <c r="G76" s="83" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H76" s="83"/>
       <c r="I76" s="1"/>
@@ -32251,20 +32266,20 @@
       <c r="E77" s="83"/>
       <c r="F77" s="83"/>
       <c r="G77" s="83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H77" s="83"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="253" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B78" s="253"/>
       <c r="C78" s="253"/>
       <c r="D78" s="253"/>
       <c r="E78" s="253"/>
       <c r="F78" s="253" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G78" s="253"/>
       <c r="H78" s="253"/>
@@ -32365,7 +32380,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="17" t="n">
@@ -32375,7 +32390,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="18" t="n">
         <f aca="false">Data_count!B13</f>
@@ -32389,7 +32404,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">Data_count!B14</f>
@@ -32427,7 +32442,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="217" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">B4</f>
@@ -32465,7 +32480,7 @@
       <c r="H12" s="178"/>
       <c r="I12" s="259"/>
       <c r="J12" s="260" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K12" s="221"/>
     </row>
@@ -32934,7 +32949,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" s="235" t="e">
         <f aca="false">SWISS7_H!B38</f>
@@ -32973,7 +32988,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" s="239" t="e">
         <f aca="false">SWISS7_H!B39</f>
@@ -33012,7 +33027,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B41" s="243" t="e">
         <f aca="false">SWISS7_H!B40</f>
@@ -33051,7 +33066,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="217" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B44" s="4" t="n">
         <f aca="false">B5</f>
@@ -33086,7 +33101,7 @@
       <c r="H47" s="284"/>
       <c r="I47" s="284"/>
       <c r="J47" s="226" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K47" s="221"/>
     </row>
@@ -33555,7 +33570,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B74" s="235" t="e">
         <f aca="false">SWISS7_H!B71</f>
@@ -33594,7 +33609,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="238" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B75" s="239" t="e">
         <f aca="false">SWISS7_H!B72</f>
@@ -33633,7 +33648,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="242" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B76" s="243" t="e">
         <f aca="false">SWISS7_H!B73</f>

--- a/comptages/report/template.xlsx
+++ b/comptages/report/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -16732,7 +16732,7 @@
   </sheetPr>
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K66" activeCellId="0" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -23892,8 +23892,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24368,11 +24368,11 @@
         <v>0</v>
       </c>
       <c r="J21" s="58" t="e">
-        <f aca="false">AVERAGE(J12:J16)</f>
+        <f aca="false">100/D21*H21%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="58" t="e">
-        <f aca="false">AVERAGE(K12:K16)</f>
+        <f aca="false">100/E21*I21%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -24410,11 +24410,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="62" t="e">
-        <f aca="false">AVERAGE(J12:J19)</f>
+        <f aca="false">100/D22*H22%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="62" t="e">
-        <f aca="false">AVERAGE(K12:K19)</f>
+        <f aca="false">100/E22*I22%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25180,7 +25180,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
